--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>data</t>
   </si>
@@ -25,6 +25,9 @@
     <t>cliente</t>
   </si>
   <si>
+    <t>id_venda</t>
+  </si>
+  <si>
     <t>id_produto</t>
   </si>
   <si>
@@ -34,6 +37,12 @@
     <t>estoque_atualizado</t>
   </si>
   <si>
+    <t>media_vendas</t>
+  </si>
+  <si>
+    <t>desvio_padrao</t>
+  </si>
+  <si>
     <t>2025-05-28</t>
   </si>
   <si>
@@ -107,6 +116,60 @@
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>52290256</t>
+  </si>
+  <si>
+    <t>52293818</t>
+  </si>
+  <si>
+    <t>52321934</t>
+  </si>
+  <si>
+    <t>52169486</t>
+  </si>
+  <si>
+    <t>52287381</t>
+  </si>
+  <si>
+    <t>52399913</t>
+  </si>
+  <si>
+    <t>52460562</t>
+  </si>
+  <si>
+    <t>52454962</t>
+  </si>
+  <si>
+    <t>52483994</t>
+  </si>
+  <si>
+    <t>52179187</t>
+  </si>
+  <si>
+    <t>52511013</t>
+  </si>
+  <si>
+    <t>52178397</t>
+  </si>
+  <si>
+    <t>52589494</t>
+  </si>
+  <si>
+    <t>52546760</t>
+  </si>
+  <si>
+    <t>52630305</t>
+  </si>
+  <si>
+    <t>52349545</t>
+  </si>
+  <si>
+    <t>52688164</t>
+  </si>
+  <si>
+    <t>52676511</t>
   </si>
   <si>
     <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
@@ -533,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,485 +621,710 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
         <v>13881226</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <v>3.25</v>
+      </c>
+      <c r="I2">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
         <v>14589858</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3">
+        <v>14.4</v>
+      </c>
+      <c r="I3">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
         <v>31186309</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <v>8.82</v>
+      </c>
+      <c r="I4">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
         <v>11905183</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <v>2.65</v>
+      </c>
+      <c r="I5">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
         <v>16175304</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6">
+        <v>6.14</v>
+      </c>
+      <c r="I6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
         <v>11939672</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="I7">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
         <v>27104217</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <v>2.15</v>
+      </c>
+      <c r="I8">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
         <v>17093168</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9">
+        <v>18.55</v>
+      </c>
+      <c r="I9">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
         <v>13451851</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
         <v>441</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10">
+        <v>6.88</v>
+      </c>
+      <c r="I10">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
         <v>14979850</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11">
+        <v>5.51</v>
+      </c>
+      <c r="I11">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
         <v>26329148</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
         <v>617</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <v>11.95</v>
+      </c>
+      <c r="I12">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
         <v>12919709</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
         <v>16921300</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14">
+        <v>3.29</v>
+      </c>
+      <c r="I14">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
         <v>17737776</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <v>4.49</v>
+      </c>
+      <c r="I15">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>500</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
         <v>14667825</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
         <v>1936</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <v>38.69</v>
+      </c>
+      <c r="I16">
+        <v>82.45999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
         <v>19006434</v>
       </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17">
         <v>555</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <v>10.71</v>
+      </c>
+      <c r="I17">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
         <v>14413867</v>
       </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18">
+        <v>3.91</v>
+      </c>
+      <c r="I18">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19">
         <v>32130390</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19">
         <v>5653</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19">
+        <v>21.78</v>
+      </c>
+      <c r="I19">
+        <v>52.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
         <v>28503269</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
         <v>-28</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20">
+        <v>16.22</v>
+      </c>
+      <c r="I20">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
         <v>19792364</v>
       </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21">
         <v>-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <v>21.77</v>
+      </c>
+      <c r="I21">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
         <v>28631402</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <v>38.68</v>
+      </c>
+      <c r="I22">
+        <v>62.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
         <v>14589858</v>
       </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <v>14.4</v>
+      </c>
+      <c r="I23">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
         <v>30240035</v>
       </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <v>12.78</v>
+      </c>
+      <c r="I24">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
         <v>11939645</v>
       </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25">
         <v>162</v>
+      </c>
+      <c r="H25">
+        <v>4.36</v>
+      </c>
+      <c r="I25">
+        <v>4.81</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -67,172 +67,172 @@
     <t>2025-06-06</t>
   </si>
   <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
     <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
   </si>
   <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
+    <t>THE SYNDICATE RESTAURANTE LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
   </si>
   <si>
-    <t>THE SYNDICATE RESTAURANTE LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
     <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>52293818</t>
+  </si>
+  <si>
     <t>52290256</t>
   </si>
   <si>
-    <t>52293818</t>
+    <t>52287381</t>
+  </si>
+  <si>
+    <t>52169486</t>
   </si>
   <si>
     <t>52321934</t>
   </si>
   <si>
-    <t>52169486</t>
-  </si>
-  <si>
-    <t>52287381</t>
-  </si>
-  <si>
     <t>52399913</t>
   </si>
   <si>
-    <t>52460562</t>
-  </si>
-  <si>
     <t>52454962</t>
   </si>
   <si>
     <t>52483994</t>
   </si>
   <si>
+    <t>52483105</t>
+  </si>
+  <si>
+    <t>52511013</t>
+  </si>
+  <si>
+    <t>52178397</t>
+  </si>
+  <si>
     <t>52179187</t>
   </si>
   <si>
-    <t>52511013</t>
-  </si>
-  <si>
-    <t>52178397</t>
-  </si>
-  <si>
     <t>52589494</t>
   </si>
   <si>
+    <t>52349545</t>
+  </si>
+  <si>
     <t>52546760</t>
   </si>
   <si>
     <t>52630305</t>
   </si>
   <si>
-    <t>52349545</t>
-  </si>
-  <si>
     <t>52688164</t>
   </si>
   <si>
     <t>52676511</t>
   </si>
   <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
     <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
   </si>
   <si>
+    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
+  </si>
+  <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
-    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>FILME PVC 30X8X500MT</t>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L</t>
   </si>
   <si>
     <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
     <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
-    <t>AGUA SANITARIA 5L</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
     <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -645,19 +645,19 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>13881226</v>
+        <v>16175304</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>6.14</v>
       </c>
       <c r="I2">
-        <v>4.31</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -665,28 +665,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>14589858</v>
+        <v>11905183</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>14.4</v>
+        <v>2.65</v>
       </c>
       <c r="I3">
-        <v>16.86</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -697,10 +697,10 @@
         <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>31186309</v>
@@ -723,28 +723,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>11905183</v>
+        <v>14589858</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>2.65</v>
+        <v>14.4</v>
       </c>
       <c r="I5">
-        <v>2.81</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -761,19 +761,19 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>16175304</v>
+        <v>13881226</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>6.14</v>
+        <v>3.25</v>
       </c>
       <c r="I6">
-        <v>6.7</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -790,19 +790,19 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>11939672</v>
+        <v>17093168</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
       </c>
       <c r="G7">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>9.550000000000001</v>
+        <v>18.55</v>
       </c>
       <c r="I7">
-        <v>27.02</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -848,19 +848,19 @@
         <v>38</v>
       </c>
       <c r="E9">
-        <v>17093168</v>
+        <v>11939672</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H9">
-        <v>18.55</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I9">
-        <v>21.46</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -926,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -935,19 +935,19 @@
         <v>40</v>
       </c>
       <c r="E12">
-        <v>26329148</v>
+        <v>12919709</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12">
-        <v>617</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>11.95</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>13.73</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -955,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -964,19 +964,19 @@
         <v>41</v>
       </c>
       <c r="E13">
-        <v>12919709</v>
+        <v>16921300</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>3.29</v>
       </c>
       <c r="I13">
-        <v>3.18</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -984,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -993,19 +993,19 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <v>16921300</v>
+        <v>26329148</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>617</v>
       </c>
       <c r="H14">
-        <v>3.29</v>
+        <v>11.95</v>
       </c>
       <c r="I14">
-        <v>3.86</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1022,19 +1022,19 @@
         <v>43</v>
       </c>
       <c r="E15">
-        <v>17737776</v>
+        <v>14667825</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>1936</v>
       </c>
       <c r="H15">
-        <v>4.49</v>
+        <v>38.69</v>
       </c>
       <c r="I15">
-        <v>7.01</v>
+        <v>82.45999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1051,19 +1051,19 @@
         <v>44</v>
       </c>
       <c r="E16">
-        <v>14667825</v>
+        <v>14413867</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
       </c>
       <c r="G16">
-        <v>1936</v>
+        <v>-1</v>
       </c>
       <c r="H16">
-        <v>38.69</v>
+        <v>3.91</v>
       </c>
       <c r="I16">
-        <v>82.45999999999999</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1071,28 +1071,28 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>19006434</v>
+        <v>17737776</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
       </c>
       <c r="G17">
-        <v>555</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>10.71</v>
+        <v>4.49</v>
       </c>
       <c r="I17">
-        <v>15.81</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1100,28 +1100,28 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18">
-        <v>14413867</v>
+        <v>19006434</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>555</v>
       </c>
       <c r="H18">
-        <v>3.91</v>
+        <v>10.71</v>
       </c>
       <c r="I18">
-        <v>6.15</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1150,7 +1150,7 @@
         <v>21.78</v>
       </c>
       <c r="I19">
-        <v>52.03</v>
+        <v>52.05</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1158,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1167,19 +1167,19 @@
         <v>47</v>
       </c>
       <c r="E20">
-        <v>28503269</v>
+        <v>28631402</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
       <c r="G20">
-        <v>-28</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>16.22</v>
+        <v>38.68</v>
       </c>
       <c r="I20">
-        <v>21.49</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1187,28 +1187,28 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>19792364</v>
+        <v>14589858</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G21">
-        <v>-5</v>
+        <v>58</v>
       </c>
       <c r="H21">
-        <v>21.77</v>
+        <v>14.4</v>
       </c>
       <c r="I21">
-        <v>32.94</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1216,28 +1216,28 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>28631402</v>
+        <v>28503269</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>-28</v>
       </c>
       <c r="H22">
-        <v>38.68</v>
+        <v>16.14</v>
       </c>
       <c r="I22">
-        <v>62.08</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1254,19 +1254,19 @@
         <v>49</v>
       </c>
       <c r="E23">
-        <v>14589858</v>
+        <v>19792364</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>-5</v>
       </c>
       <c r="H23">
-        <v>14.4</v>
+        <v>21.77</v>
       </c>
       <c r="I23">
-        <v>16.86</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="24" spans="1:9">

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
     <t>2025-05-29</t>
   </si>
   <si>
@@ -67,10 +64,10 @@
     <t>2025-06-06</t>
   </si>
   <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
@@ -79,9 +76,6 @@
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
@@ -94,34 +88,34 @@
     <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
   </si>
   <si>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+  </si>
+  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>52293818</t>
-  </si>
-  <si>
-    <t>52290256</t>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>52321934</t>
   </si>
   <si>
     <t>52287381</t>
@@ -130,115 +124,115 @@
     <t>52169486</t>
   </si>
   <si>
-    <t>52321934</t>
-  </si>
-  <si>
     <t>52399913</t>
   </si>
   <si>
     <t>52454962</t>
   </si>
   <si>
-    <t>52483994</t>
-  </si>
-  <si>
-    <t>52483105</t>
+    <t>52484157</t>
+  </si>
+  <si>
+    <t>52460562</t>
+  </si>
+  <si>
+    <t>52485277</t>
   </si>
   <si>
     <t>52511013</t>
   </si>
   <si>
-    <t>52178397</t>
-  </si>
-  <si>
-    <t>52179187</t>
-  </si>
-  <si>
     <t>52589494</t>
   </si>
   <si>
+    <t>52546760</t>
+  </si>
+  <si>
+    <t>52630305</t>
+  </si>
+  <si>
     <t>52349545</t>
   </si>
   <si>
-    <t>52546760</t>
-  </si>
-  <si>
-    <t>52630305</t>
+    <t>52676511</t>
   </si>
   <si>
     <t>52688164</t>
   </si>
   <si>
-    <t>52676511</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
+    <t>52878629</t>
+  </si>
+  <si>
+    <t>52914305</t>
+  </si>
+  <si>
+    <t>52885879</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
   </si>
   <si>
     <t>FLANELA LARANJA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>FILME PVC 30X8X500MT</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
   </si>
   <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
 </sst>
 </file>
@@ -596,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,28 +630,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>16175304</v>
+        <v>11939672</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>6.14</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I2">
-        <v>6.7</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -665,28 +659,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>11905183</v>
+        <v>17093168</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>2.65</v>
+        <v>18.6</v>
       </c>
       <c r="I3">
-        <v>2.81</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -694,231 +688,231 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4">
-        <v>31186309</v>
+        <v>27104217</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>8.82</v>
+        <v>2.15</v>
       </c>
       <c r="I4">
-        <v>14.65</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>14589858</v>
+        <v>13451851</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>401</v>
       </c>
       <c r="H5">
-        <v>14.4</v>
+        <v>7.04</v>
       </c>
       <c r="I5">
-        <v>16.86</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>13881226</v>
+        <v>14979850</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="H6">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I6">
-        <v>4.31</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>17093168</v>
+        <v>12919709</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>18.55</v>
+        <v>2.5</v>
       </c>
       <c r="I7">
-        <v>21.46</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>27104217</v>
+        <v>16921300</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>2.15</v>
+        <v>3.29</v>
       </c>
       <c r="I8">
-        <v>2.87</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>11939672</v>
+        <v>26329148</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>131</v>
+        <v>617</v>
       </c>
       <c r="H9">
-        <v>9.550000000000001</v>
+        <v>11.95</v>
       </c>
       <c r="I9">
-        <v>27.02</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>13451851</v>
+        <v>14413867</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>441</v>
+        <v>-15</v>
       </c>
       <c r="H10">
-        <v>6.88</v>
+        <v>3.91</v>
       </c>
       <c r="I10">
-        <v>12.13</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>14979850</v>
+        <v>14667825</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>148</v>
+        <v>1934</v>
       </c>
       <c r="H11">
-        <v>5.51</v>
+        <v>38.52</v>
       </c>
       <c r="I11">
-        <v>8.82</v>
+        <v>82.31</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -926,28 +920,28 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="E12">
-        <v>12919709</v>
+        <v>19006434</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>530</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>10.81</v>
       </c>
       <c r="I12">
-        <v>3.18</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -955,202 +949,202 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>16921300</v>
+        <v>17737776</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3.29</v>
+        <v>4.51</v>
       </c>
       <c r="I13">
-        <v>3.86</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14">
-        <v>26329148</v>
+        <v>32130390</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>617</v>
+        <v>5606</v>
       </c>
       <c r="H14">
-        <v>11.95</v>
+        <v>21.72</v>
       </c>
       <c r="I14">
-        <v>13.73</v>
+        <v>51.93</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15">
-        <v>14667825</v>
+        <v>28503269</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15">
-        <v>1936</v>
+        <v>1122</v>
       </c>
       <c r="H15">
-        <v>38.69</v>
+        <v>16.15</v>
       </c>
       <c r="I15">
-        <v>82.45999999999999</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16">
-        <v>14413867</v>
+        <v>19792364</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>-120</v>
       </c>
       <c r="H16">
-        <v>3.91</v>
+        <v>22.08</v>
       </c>
       <c r="I16">
-        <v>6.15</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17">
-        <v>17737776</v>
+        <v>14589858</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>4.49</v>
+        <v>14.38</v>
       </c>
       <c r="I17">
-        <v>7.01</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18">
-        <v>19006434</v>
+        <v>28631402</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18">
-        <v>555</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>10.71</v>
+        <v>38.68</v>
       </c>
       <c r="I18">
-        <v>15.81</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19">
-        <v>32130390</v>
+        <v>11939645</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19">
-        <v>5653</v>
+        <v>160</v>
       </c>
       <c r="H19">
-        <v>21.78</v>
+        <v>4.36</v>
       </c>
       <c r="I19">
-        <v>52.05</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1158,173 +1152,115 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20">
-        <v>28631402</v>
+        <v>30240035</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H20">
-        <v>38.68</v>
+        <v>12.78</v>
       </c>
       <c r="I20">
-        <v>62.08</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>14589858</v>
+        <v>15011531</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G21">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>14.4</v>
+        <v>18.87</v>
       </c>
       <c r="I21">
-        <v>16.86</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>28503269</v>
+        <v>13228910</v>
       </c>
       <c r="F22" t="s">
         <v>71</v>
       </c>
       <c r="G22">
-        <v>-28</v>
+        <v>939</v>
       </c>
       <c r="H22">
-        <v>16.14</v>
+        <v>16.34</v>
       </c>
       <c r="I22">
-        <v>21.35</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>19792364</v>
+        <v>13715128</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
       </c>
       <c r="G23">
-        <v>-5</v>
+        <v>1029</v>
       </c>
       <c r="H23">
-        <v>21.77</v>
+        <v>12.97</v>
       </c>
       <c r="I23">
-        <v>32.94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>30240035</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24">
-        <v>19</v>
-      </c>
-      <c r="H24">
-        <v>12.78</v>
-      </c>
-      <c r="I24">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25">
-        <v>11939645</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25">
-        <v>162</v>
-      </c>
-      <c r="H25">
-        <v>4.36</v>
-      </c>
-      <c r="I25">
-        <v>4.81</v>
+        <v>15.31</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
     <t>2025-05-30</t>
   </si>
   <si>
@@ -67,27 +64,18 @@
     <t>2025-06-11</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
     <t>THE SYNDICATE RESTAURANTE LTDA</t>
   </si>
   <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
@@ -100,12 +88,12 @@
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
     <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
@@ -115,27 +103,18 @@
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>52321934</t>
-  </si>
-  <si>
-    <t>52287381</t>
-  </si>
-  <si>
-    <t>52169486</t>
-  </si>
-  <si>
     <t>52399913</t>
   </si>
   <si>
     <t>52454962</t>
   </si>
   <si>
+    <t>52483105</t>
+  </si>
+  <si>
     <t>52484157</t>
   </si>
   <si>
-    <t>52460562</t>
-  </si>
-  <si>
     <t>52485277</t>
   </si>
   <si>
@@ -148,36 +127,27 @@
     <t>52546760</t>
   </si>
   <si>
+    <t>52349545</t>
+  </si>
+  <si>
     <t>52630305</t>
   </si>
   <si>
-    <t>52349545</t>
-  </si>
-  <si>
     <t>52676511</t>
   </si>
   <si>
     <t>52688164</t>
   </si>
   <si>
+    <t>52885879</t>
+  </si>
+  <si>
     <t>52878629</t>
   </si>
   <si>
     <t>52914305</t>
   </si>
   <si>
-    <t>52885879</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO FACILITA AUDAX TRADICIONAL/LAVANDA 500ML</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X240 M VERDE TALGE</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
@@ -187,36 +157,36 @@
     <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
   </si>
   <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
     <t>AGUA SANITARIA 5L</t>
   </si>
   <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
   </si>
   <si>
@@ -226,13 +196,13 @@
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
 </sst>
 </file>
@@ -590,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,28 +600,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>11939672</v>
+        <v>13451851</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>386</v>
       </c>
       <c r="H2">
-        <v>9.529999999999999</v>
+        <v>7.08</v>
       </c>
       <c r="I2">
-        <v>26.95</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -659,57 +629,57 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>17093168</v>
+        <v>14979850</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>18.6</v>
+        <v>5.56</v>
       </c>
       <c r="I3">
-        <v>21.52</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>27104217</v>
+        <v>12919709</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
-        <v>2.87</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -717,28 +687,28 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>13451851</v>
+        <v>26329148</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>401</v>
+        <v>617</v>
       </c>
       <c r="H5">
-        <v>7.04</v>
+        <v>11.95</v>
       </c>
       <c r="I5">
-        <v>12.34</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -746,28 +716,28 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>14979850</v>
+        <v>16921300</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>5.5</v>
+        <v>3.33</v>
       </c>
       <c r="I6">
-        <v>8.800000000000001</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -775,28 +745,28 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>12919709</v>
+        <v>14413867</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>3.91</v>
       </c>
       <c r="I7">
-        <v>3.18</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -804,28 +774,28 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>16921300</v>
+        <v>17737776</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>3.29</v>
+        <v>4.52</v>
       </c>
       <c r="I8">
-        <v>3.86</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -833,57 +803,57 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>26329148</v>
+        <v>19006434</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>617</v>
+        <v>530</v>
       </c>
       <c r="H9">
-        <v>11.95</v>
+        <v>10.73</v>
       </c>
       <c r="I9">
-        <v>13.73</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>14413867</v>
+        <v>14667825</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>-15</v>
+        <v>1931</v>
       </c>
       <c r="H10">
-        <v>3.91</v>
+        <v>38.36</v>
       </c>
       <c r="I10">
-        <v>6.13</v>
+        <v>82.15000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -894,83 +864,83 @@
         <v>500</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>14667825</v>
+        <v>32130390</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>1934</v>
+        <v>5551</v>
       </c>
       <c r="H11">
-        <v>38.52</v>
+        <v>21.71</v>
       </c>
       <c r="I11">
-        <v>82.31</v>
+        <v>51.86</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>19006434</v>
+        <v>28503269</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>530</v>
+        <v>1010</v>
       </c>
       <c r="H12">
-        <v>10.81</v>
+        <v>16.22</v>
       </c>
       <c r="I12">
-        <v>15.8</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>17737776</v>
+        <v>14589858</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>4.51</v>
+        <v>14.14</v>
       </c>
       <c r="I13">
-        <v>7.01</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -978,57 +948,57 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>32130390</v>
+        <v>19792364</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>5606</v>
+        <v>-120</v>
       </c>
       <c r="H14">
-        <v>21.72</v>
+        <v>22.08</v>
       </c>
       <c r="I14">
-        <v>51.93</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>28503269</v>
+        <v>28631402</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G15">
-        <v>1122</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>16.15</v>
+        <v>38.68</v>
       </c>
       <c r="I15">
-        <v>21.32</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1036,28 +1006,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>19792364</v>
+        <v>11939645</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>-120</v>
+        <v>158</v>
       </c>
       <c r="H16">
-        <v>22.08</v>
+        <v>4.35</v>
       </c>
       <c r="I16">
-        <v>33.11</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1065,57 +1035,57 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>14589858</v>
+        <v>30240035</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>14.38</v>
+        <v>12.66</v>
       </c>
       <c r="I17">
-        <v>16.76</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>28631402</v>
+        <v>13715128</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>1013</v>
       </c>
       <c r="H18">
-        <v>38.68</v>
+        <v>12.96</v>
       </c>
       <c r="I18">
-        <v>62.08</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1123,28 +1093,28 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>11939645</v>
+        <v>15011531</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>4.36</v>
+        <v>18.87</v>
       </c>
       <c r="I19">
-        <v>4.82</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1152,115 +1122,28 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>30240035</v>
+        <v>13228910</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>939</v>
       </c>
       <c r="H20">
-        <v>12.78</v>
+        <v>16.39</v>
       </c>
       <c r="I20">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>15011531</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>18.87</v>
-      </c>
-      <c r="I21">
-        <v>22.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>160</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22">
-        <v>13228910</v>
-      </c>
-      <c r="F22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22">
-        <v>939</v>
-      </c>
-      <c r="H22">
-        <v>16.34</v>
-      </c>
-      <c r="I22">
-        <v>27.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>13715128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23">
-        <v>1029</v>
-      </c>
-      <c r="H23">
-        <v>12.97</v>
-      </c>
-      <c r="I23">
-        <v>15.31</v>
+        <v>27.63</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
     <t>2025-06-02</t>
   </si>
   <si>
@@ -61,148 +58,214 @@
     <t>2025-06-06</t>
   </si>
   <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
     <t>2025-06-11</t>
   </si>
   <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
     <t>THE SYNDICATE RESTAURANTE LTDA</t>
   </si>
   <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+  </si>
+  <si>
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
-  </si>
-  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>52399913</t>
+    <t>52483105</t>
+  </si>
+  <si>
+    <t>52484157</t>
+  </si>
+  <si>
+    <t>52483994</t>
   </si>
   <si>
     <t>52454962</t>
   </si>
   <si>
-    <t>52483105</t>
-  </si>
-  <si>
-    <t>52484157</t>
-  </si>
-  <si>
-    <t>52485277</t>
-  </si>
-  <si>
     <t>52511013</t>
   </si>
   <si>
+    <t>52190076</t>
+  </si>
+  <si>
+    <t>52190736</t>
+  </si>
+  <si>
     <t>52589494</t>
   </si>
   <si>
+    <t>52508865</t>
+  </si>
+  <si>
+    <t>52349545</t>
+  </si>
+  <si>
+    <t>52630305</t>
+  </si>
+  <si>
     <t>52546760</t>
   </si>
   <si>
-    <t>52349545</t>
-  </si>
-  <si>
-    <t>52630305</t>
-  </si>
-  <si>
     <t>52676511</t>
   </si>
   <si>
+    <t>52685128</t>
+  </si>
+  <si>
     <t>52688164</t>
   </si>
   <si>
+    <t>52790838</t>
+  </si>
+  <si>
+    <t>52651372</t>
+  </si>
+  <si>
+    <t>52914305</t>
+  </si>
+  <si>
     <t>52885879</t>
   </si>
   <si>
     <t>52878629</t>
   </si>
   <si>
-    <t>52914305</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>TOUCA DESCARTAVEL TNT TALGE PCT C/ 100 UND</t>
+    <t>52944995</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>RODO COM CABO G 60CM</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA 5L</t>
   </si>
   <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
   </si>
   <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
+    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
+    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
+  </si>
+  <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
   </si>
 </sst>
 </file>
@@ -560,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,28 +663,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>13451851</v>
+        <v>26329148</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>386</v>
+        <v>617</v>
       </c>
       <c r="H2">
-        <v>7.08</v>
+        <v>11.99</v>
       </c>
       <c r="I2">
-        <v>12.32</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -629,521 +692,1043 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>14979850</v>
+        <v>14488403</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>5.56</v>
+        <v>8.67</v>
       </c>
       <c r="I3">
-        <v>8.800000000000001</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>12919709</v>
+        <v>17541022</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="I4">
-        <v>3.18</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>26329148</v>
+        <v>12060072</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>617</v>
+        <v>70</v>
       </c>
       <c r="H5">
-        <v>11.95</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I5">
-        <v>13.73</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>16921300</v>
+        <v>12919709</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>3.33</v>
+        <v>2.49</v>
       </c>
       <c r="I6">
-        <v>3.93</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="E7">
-        <v>14413867</v>
+        <v>16921300</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3.91</v>
+        <v>3.33</v>
       </c>
       <c r="I7">
-        <v>6.13</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>17737776</v>
+        <v>11939530</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>4.52</v>
+        <v>3.99</v>
       </c>
       <c r="I8">
-        <v>7.01</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>19006434</v>
+        <v>14667825</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>530</v>
+        <v>1931</v>
       </c>
       <c r="H9">
-        <v>10.73</v>
+        <v>38.36</v>
       </c>
       <c r="I9">
-        <v>15.82</v>
+        <v>82.15000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>14667825</v>
+        <v>12428795</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>1931</v>
+        <v>194</v>
       </c>
       <c r="H10">
-        <v>38.36</v>
+        <v>14.93</v>
       </c>
       <c r="I10">
-        <v>82.15000000000001</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>32130390</v>
+        <v>11939645</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>5551</v>
+        <v>153</v>
       </c>
       <c r="H11">
-        <v>21.71</v>
+        <v>4.34</v>
       </c>
       <c r="I11">
-        <v>51.86</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12">
-        <v>28503269</v>
+        <v>13604196</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G12">
-        <v>1010</v>
+        <v>233</v>
       </c>
       <c r="H12">
-        <v>16.22</v>
+        <v>14.68</v>
       </c>
       <c r="I12">
-        <v>21.34</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>14589858</v>
+        <v>19006434</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="H13">
-        <v>14.14</v>
+        <v>10.73</v>
       </c>
       <c r="I13">
-        <v>16.48</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>19792364</v>
+        <v>17737776</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G14">
-        <v>-120</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>22.08</v>
+        <v>4.53</v>
       </c>
       <c r="I14">
-        <v>33.11</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="E15">
-        <v>28631402</v>
+        <v>14413867</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>-19</v>
       </c>
       <c r="H15">
-        <v>38.68</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
-        <v>62.08</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>11939645</v>
+        <v>13319728</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>4.35</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I16">
-        <v>4.81</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>30240035</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>5503</v>
       </c>
       <c r="H17">
-        <v>12.66</v>
+        <v>21.61</v>
       </c>
       <c r="I17">
-        <v>13.32</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>13715128</v>
+        <v>17025982</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G18">
-        <v>1013</v>
+        <v>104</v>
       </c>
       <c r="H18">
-        <v>12.96</v>
+        <v>8.1</v>
       </c>
       <c r="I18">
-        <v>15.3</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>15011531</v>
+        <v>28631402</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>18.87</v>
+        <v>38.68</v>
       </c>
       <c r="I19">
-        <v>22.59</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>19792364</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>-150</v>
+      </c>
+      <c r="H20">
+        <v>21.99</v>
+      </c>
+      <c r="I20">
+        <v>33.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>14589858</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21">
+        <v>216</v>
+      </c>
+      <c r="H21">
+        <v>14.14</v>
+      </c>
+      <c r="I21">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>28503269</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
+        <v>1002</v>
+      </c>
+      <c r="H22">
+        <v>16.22</v>
+      </c>
+      <c r="I22">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>11939645</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>153</v>
+      </c>
+      <c r="H23">
+        <v>4.34</v>
+      </c>
+      <c r="I23">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>16455092</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>22.79</v>
+      </c>
+      <c r="I24">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>14667825</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>1931</v>
+      </c>
+      <c r="H25">
+        <v>38.36</v>
+      </c>
+      <c r="I25">
+        <v>82.15000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>35118277</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26">
+        <v>266</v>
+      </c>
+      <c r="H26">
+        <v>16.68</v>
+      </c>
+      <c r="I26">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>11939607</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>5.54</v>
+      </c>
+      <c r="I27">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>30240035</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>-6</v>
+      </c>
+      <c r="H28">
+        <v>12.77</v>
+      </c>
+      <c r="I28">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>32130390</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>5503</v>
+      </c>
+      <c r="H29">
+        <v>21.61</v>
+      </c>
+      <c r="I29">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>14589837</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>280</v>
+      </c>
+      <c r="H30">
+        <v>12.34</v>
+      </c>
+      <c r="I30">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>14413867</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>-19</v>
+      </c>
+      <c r="H31">
+        <v>3.9</v>
+      </c>
+      <c r="I31">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>12120701</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32">
+        <v>414</v>
+      </c>
+      <c r="H32">
+        <v>5.99</v>
+      </c>
+      <c r="I32">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>14231146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>87</v>
+      </c>
+      <c r="H33">
+        <v>13.87</v>
+      </c>
+      <c r="I33">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B34">
         <v>160</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34">
         <v>13228910</v>
       </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20">
-        <v>939</v>
-      </c>
-      <c r="H20">
-        <v>16.39</v>
-      </c>
-      <c r="I20">
-        <v>27.63</v>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <v>937</v>
+      </c>
+      <c r="H34">
+        <v>16.34</v>
+      </c>
+      <c r="I34">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>13715128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35">
+        <v>1005</v>
+      </c>
+      <c r="H35">
+        <v>12.94</v>
+      </c>
+      <c r="I35">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>28500251</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>-10</v>
+      </c>
+      <c r="H36">
+        <v>26.4</v>
+      </c>
+      <c r="I36">
+        <v>50.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>15011531</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>18.76</v>
+      </c>
+      <c r="I37">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>16921300</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>3.33</v>
+      </c>
+      <c r="I38">
+        <v>3.93</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>data</t>
   </si>
@@ -115,19 +115,25 @@
     <t>52484157</t>
   </si>
   <si>
+    <t>52454962</t>
+  </si>
+  <si>
     <t>52483994</t>
   </si>
   <si>
-    <t>52454962</t>
-  </si>
-  <si>
     <t>52511013</t>
   </si>
   <si>
-    <t>52190076</t>
+    <t>52191346</t>
+  </si>
+  <si>
+    <t>52190833</t>
   </si>
   <si>
     <t>52190736</t>
+  </si>
+  <si>
+    <t>52190474</t>
   </si>
   <si>
     <t>52589494</t>
@@ -675,7 +681,7 @@
         <v>26329148</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>617</v>
@@ -704,7 +710,7 @@
         <v>14488403</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -727,13 +733,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>17541022</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -762,7 +768,7 @@
         <v>12060072</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>70</v>
@@ -785,13 +791,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>12919709</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -814,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>16921300</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -849,7 +855,7 @@
         <v>11939530</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -878,7 +884,7 @@
         <v>14667825</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>1931</v>
@@ -907,7 +913,7 @@
         <v>12428795</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>194</v>
@@ -930,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>11939645</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>153</v>
@@ -959,13 +965,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>13604196</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>233</v>
@@ -988,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>19006434</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>530</v>
@@ -1017,13 +1023,13 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>17737776</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>33</v>
@@ -1046,13 +1052,13 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>14413867</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>-19</v>
@@ -1075,13 +1081,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>13319728</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1104,13 +1110,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>5503</v>
@@ -1133,13 +1139,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>17025982</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>104</v>
@@ -1162,13 +1168,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>28631402</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>23</v>
@@ -1191,13 +1197,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>19792364</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G20">
         <v>-150</v>
@@ -1220,13 +1226,13 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>14589858</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>216</v>
@@ -1249,13 +1255,13 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>28503269</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1002</v>
@@ -1278,13 +1284,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>11939645</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>153</v>
@@ -1307,13 +1313,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>16455092</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -1336,13 +1342,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>14667825</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>1931</v>
@@ -1365,13 +1371,13 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>35118277</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26">
         <v>266</v>
@@ -1394,13 +1400,13 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>11939607</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G27">
         <v>14</v>
@@ -1423,13 +1429,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>30240035</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28">
         <v>-6</v>
@@ -1452,13 +1458,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>32130390</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <v>5503</v>
@@ -1481,13 +1487,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>14589837</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G30">
         <v>280</v>
@@ -1510,13 +1516,13 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>14413867</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31">
         <v>-19</v>
@@ -1539,13 +1545,13 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>12120701</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <v>414</v>
@@ -1568,13 +1574,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>14231146</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33">
         <v>87</v>
@@ -1597,13 +1603,13 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>13228910</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G34">
         <v>937</v>
@@ -1626,13 +1632,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>13715128</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G35">
         <v>1005</v>
@@ -1655,13 +1661,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36">
         <v>28500251</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G36">
         <v>-10</v>
@@ -1684,13 +1690,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>15011531</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G37">
         <v>27</v>
@@ -1713,13 +1719,13 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>16921300</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <v>2</v>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
     <t>2025-06-03</t>
   </si>
   <si>
@@ -67,75 +64,51 @@
     <t>2025-06-12</t>
   </si>
   <si>
-    <t>DSB COMERCIO DE ALIMENTOS EIRELI</t>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>THE SYNDICATE RESTAURANTE LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>52483105</t>
-  </si>
-  <si>
-    <t>52484157</t>
-  </si>
-  <si>
-    <t>52454962</t>
-  </si>
-  <si>
-    <t>52483994</t>
+    <t>52190736</t>
+  </si>
+  <si>
+    <t>52190833</t>
   </si>
   <si>
     <t>52511013</t>
   </si>
   <si>
-    <t>52191346</t>
-  </si>
-  <si>
-    <t>52190833</t>
-  </si>
-  <si>
-    <t>52190736</t>
-  </si>
-  <si>
-    <t>52190474</t>
-  </si>
-  <si>
     <t>52589494</t>
   </si>
   <si>
@@ -169,109 +142,91 @@
     <t>52914305</t>
   </si>
   <si>
+    <t>52878629</t>
+  </si>
+  <si>
     <t>52885879</t>
   </si>
   <si>
-    <t>52878629</t>
-  </si>
-  <si>
-    <t>52944995</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM - PCT C/100 UND</t>
+    <t>52945994</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
+  </si>
+  <si>
+    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
     <t>FILME PVC 30X8X500MT</t>
-  </si>
-  <si>
-    <t>RODO COM CABO G 60CM</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L</t>
-  </si>
-  <si>
-    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
 </sst>
 </file>
@@ -629,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,28 +624,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>26329148</v>
+        <v>11939645</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>617</v>
+        <v>153</v>
       </c>
       <c r="H2">
-        <v>11.99</v>
+        <v>4.34</v>
       </c>
       <c r="I2">
-        <v>13.74</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -698,28 +653,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>14488403</v>
+        <v>17737776</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>8.67</v>
+        <v>4.51</v>
       </c>
       <c r="I3">
-        <v>7.52</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -727,28 +682,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>17541022</v>
+        <v>19006434</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>525</v>
       </c>
       <c r="H4">
-        <v>2.16</v>
+        <v>10.69</v>
       </c>
       <c r="I4">
-        <v>1.97</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -756,28 +711,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>12060072</v>
+        <v>14413867</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="H5">
-        <v>9.369999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="I5">
-        <v>12.01</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -785,28 +740,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>12919709</v>
+        <v>14667825</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1835</v>
       </c>
       <c r="H6">
-        <v>2.49</v>
+        <v>37.75</v>
       </c>
       <c r="I6">
-        <v>3.16</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -814,28 +769,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>16921300</v>
+        <v>13604196</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="H7">
-        <v>3.33</v>
+        <v>14.48</v>
       </c>
       <c r="I7">
-        <v>3.93</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -843,28 +798,28 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>11939530</v>
+        <v>12428795</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="H8">
-        <v>3.99</v>
+        <v>14.93</v>
       </c>
       <c r="I8">
-        <v>3.49</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -872,28 +827,28 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>14667825</v>
+        <v>13319728</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>1931</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>38.36</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I9">
-        <v>82.15000000000001</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -901,28 +856,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>12428795</v>
+        <v>17025982</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="H10">
-        <v>14.93</v>
+        <v>8.16</v>
       </c>
       <c r="I10">
-        <v>21.5</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -930,231 +885,231 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>11939645</v>
+        <v>32130390</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>153</v>
+        <v>5396</v>
       </c>
       <c r="H11">
-        <v>4.34</v>
+        <v>21.46</v>
       </c>
       <c r="I11">
-        <v>4.79</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>13604196</v>
+        <v>14589858</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="H12">
-        <v>14.68</v>
+        <v>14.17</v>
       </c>
       <c r="I12">
-        <v>18.95</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>19006434</v>
+        <v>28631402</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>530</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>10.73</v>
+        <v>38.68</v>
       </c>
       <c r="I13">
-        <v>15.82</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>17737776</v>
+        <v>19792364</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="H14">
-        <v>4.53</v>
+        <v>21.91</v>
       </c>
       <c r="I14">
-        <v>7.01</v>
+        <v>32.91</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>14413867</v>
+        <v>28503269</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>-19</v>
+        <v>829</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>16.11</v>
       </c>
       <c r="I15">
-        <v>6.12</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>13319728</v>
+        <v>16455092</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>9.550000000000001</v>
+        <v>22.79</v>
       </c>
       <c r="I16">
-        <v>14.45</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>14667825</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G17">
-        <v>5503</v>
+        <v>1835</v>
       </c>
       <c r="H17">
-        <v>21.61</v>
+        <v>37.75</v>
       </c>
       <c r="I17">
-        <v>51.75</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>17025982</v>
+        <v>35118277</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="H18">
-        <v>8.1</v>
+        <v>16.64</v>
       </c>
       <c r="I18">
-        <v>9.529999999999999</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1162,28 +1117,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>28631402</v>
+        <v>11939645</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="H19">
-        <v>38.68</v>
+        <v>4.34</v>
       </c>
       <c r="I19">
-        <v>62.08</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1194,25 +1149,25 @@
         <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>19792364</v>
+        <v>32130390</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G20">
-        <v>-150</v>
+        <v>5396</v>
       </c>
       <c r="H20">
-        <v>21.99</v>
+        <v>21.46</v>
       </c>
       <c r="I20">
-        <v>33.04</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1220,28 +1175,28 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>14589858</v>
+        <v>11939607</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G21">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>14.14</v>
+        <v>5.53</v>
       </c>
       <c r="I21">
-        <v>16.48</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1249,28 +1204,28 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>28503269</v>
+        <v>30240035</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G22">
-        <v>1002</v>
+        <v>-6</v>
       </c>
       <c r="H22">
-        <v>16.22</v>
+        <v>12.77</v>
       </c>
       <c r="I22">
-        <v>21.34</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1278,28 +1233,28 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>11939645</v>
+        <v>12120701</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
       </c>
       <c r="G23">
-        <v>153</v>
+        <v>379</v>
       </c>
       <c r="H23">
-        <v>4.34</v>
+        <v>6.01</v>
       </c>
       <c r="I23">
-        <v>4.79</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1307,28 +1262,28 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>16455092</v>
+        <v>14589837</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="H24">
-        <v>22.79</v>
+        <v>12.34</v>
       </c>
       <c r="I24">
-        <v>29.93</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1336,28 +1291,28 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>14667825</v>
+        <v>14413867</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>1931</v>
+        <v>178</v>
       </c>
       <c r="H25">
-        <v>38.36</v>
+        <v>3.9</v>
       </c>
       <c r="I25">
-        <v>82.15000000000001</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1365,115 +1320,115 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>35118277</v>
+        <v>14231146</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="H26">
-        <v>16.68</v>
+        <v>13.87</v>
       </c>
       <c r="I26">
-        <v>27.6</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>11939607</v>
+        <v>13228910</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>926</v>
       </c>
       <c r="H27">
-        <v>5.54</v>
+        <v>16.2</v>
       </c>
       <c r="I27">
-        <v>6.75</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>30240035</v>
+        <v>15011531</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G28">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>12.77</v>
+        <v>18.64</v>
       </c>
       <c r="I28">
-        <v>13.25</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>32130390</v>
+        <v>28500251</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29">
-        <v>5503</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>21.61</v>
+        <v>26.4</v>
       </c>
       <c r="I29">
-        <v>51.75</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1481,260 +1436,57 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30">
-        <v>14589837</v>
+        <v>13715128</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G30">
-        <v>280</v>
+        <v>990</v>
       </c>
       <c r="H30">
-        <v>12.34</v>
+        <v>12.99</v>
       </c>
       <c r="I30">
-        <v>12.98</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>14413867</v>
+        <v>16921300</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="H31">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I31">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32">
-        <v>12120701</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32">
-        <v>414</v>
-      </c>
-      <c r="H32">
-        <v>5.99</v>
-      </c>
-      <c r="I32">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33">
-        <v>14231146</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33">
-        <v>87</v>
-      </c>
-      <c r="H33">
-        <v>13.87</v>
-      </c>
-      <c r="I33">
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <v>160</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>13228910</v>
-      </c>
-      <c r="F34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34">
-        <v>937</v>
-      </c>
-      <c r="H34">
-        <v>16.34</v>
-      </c>
-      <c r="I34">
-        <v>27.59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35">
-        <v>13715128</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35">
-        <v>1005</v>
-      </c>
-      <c r="H35">
-        <v>12.94</v>
-      </c>
-      <c r="I35">
-        <v>15.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36">
-        <v>28500251</v>
-      </c>
-      <c r="F36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36">
-        <v>-10</v>
-      </c>
-      <c r="H36">
-        <v>26.4</v>
-      </c>
-      <c r="I36">
-        <v>50.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <v>15011531</v>
-      </c>
-      <c r="F37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37">
-        <v>27</v>
-      </c>
-      <c r="H37">
-        <v>18.76</v>
-      </c>
-      <c r="I37">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <v>16921300</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>3.33</v>
-      </c>
-      <c r="I38">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
     <t>2025-06-04</t>
   </si>
   <si>
@@ -64,33 +61,33 @@
     <t>2025-06-12</t>
   </si>
   <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
@@ -100,15 +97,6 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>52190736</t>
-  </si>
-  <si>
-    <t>52190833</t>
-  </si>
-  <si>
-    <t>52511013</t>
-  </si>
-  <si>
     <t>52589494</t>
   </si>
   <si>
@@ -127,106 +115,118 @@
     <t>52676511</t>
   </si>
   <si>
+    <t>52688164</t>
+  </si>
+  <si>
     <t>52685128</t>
   </si>
   <si>
-    <t>52688164</t>
-  </si>
-  <si>
     <t>52790838</t>
   </si>
   <si>
     <t>52651372</t>
   </si>
   <si>
+    <t>52878629</t>
+  </si>
+  <si>
+    <t>52885879</t>
+  </si>
+  <si>
     <t>52914305</t>
   </si>
   <si>
-    <t>52878629</t>
-  </si>
-  <si>
-    <t>52885879</t>
-  </si>
-  <si>
     <t>52945994</t>
   </si>
   <si>
+    <t>53125557</t>
+  </si>
+  <si>
+    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
+  </si>
+  <si>
+    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
   </si>
   <si>
     <t>AGUA SANITARIA 5L</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 1L</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
-  </si>
-  <si>
-    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
+    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
     <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>FILME PVC 30X8X500MT</t>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
   </si>
 </sst>
 </file>
@@ -624,28 +624,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>11939645</v>
+        <v>13319728</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>153</v>
+        <v>-5</v>
       </c>
       <c r="H2">
-        <v>4.34</v>
+        <v>9.48</v>
       </c>
       <c r="I2">
-        <v>4.79</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -653,28 +653,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>17737776</v>
+        <v>17025982</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H3">
-        <v>4.51</v>
+        <v>8.16</v>
       </c>
       <c r="I3">
-        <v>7.01</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -682,231 +682,231 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19006434</v>
+        <v>32130390</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>525</v>
+        <v>5373</v>
       </c>
       <c r="H4">
-        <v>10.69</v>
+        <v>21.45</v>
       </c>
       <c r="I4">
-        <v>15.77</v>
+        <v>51.46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5">
-        <v>14413867</v>
+        <v>14589858</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="H5">
-        <v>3.9</v>
+        <v>14.2</v>
       </c>
       <c r="I5">
-        <v>6.11</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>14667825</v>
+        <v>19792364</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>1835</v>
+        <v>419</v>
       </c>
       <c r="H6">
-        <v>37.75</v>
+        <v>21.91</v>
       </c>
       <c r="I6">
-        <v>81.14</v>
+        <v>32.91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7">
-        <v>13604196</v>
+        <v>28631402</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>14.48</v>
+        <v>38.68</v>
       </c>
       <c r="I7">
-        <v>18.7</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>12428795</v>
+        <v>28503269</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>194</v>
+        <v>816</v>
       </c>
       <c r="H8">
-        <v>14.93</v>
+        <v>15.88</v>
       </c>
       <c r="I8">
-        <v>21.5</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>13319728</v>
+        <v>11939607</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>9.539999999999999</v>
+        <v>5.52</v>
       </c>
       <c r="I9">
-        <v>14.42</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>17025982</v>
+        <v>30240035</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>104</v>
+        <v>-10</v>
       </c>
       <c r="H10">
-        <v>8.16</v>
+        <v>12.82</v>
       </c>
       <c r="I10">
-        <v>9.57</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>32130390</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>5396</v>
+        <v>5373</v>
       </c>
       <c r="H11">
-        <v>21.46</v>
+        <v>21.45</v>
       </c>
       <c r="I11">
-        <v>51.49</v>
+        <v>51.46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -914,28 +914,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>14589858</v>
+        <v>11939645</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="H12">
-        <v>14.17</v>
+        <v>4.33</v>
       </c>
       <c r="I12">
-        <v>16.51</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -943,28 +943,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>28631402</v>
+        <v>16455092</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>38.68</v>
+        <v>21.4</v>
       </c>
       <c r="I13">
-        <v>62.08</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -972,28 +972,28 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>19792364</v>
+        <v>35118277</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14">
-        <v>424</v>
+        <v>243</v>
       </c>
       <c r="H14">
-        <v>21.91</v>
+        <v>16.5</v>
       </c>
       <c r="I14">
-        <v>32.91</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1001,28 +1001,28 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>28503269</v>
+        <v>14667825</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>829</v>
+        <v>1835</v>
       </c>
       <c r="H15">
-        <v>16.11</v>
+        <v>37.75</v>
       </c>
       <c r="I15">
-        <v>21.23</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1030,28 +1030,28 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>16455092</v>
+        <v>12120701</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="H16">
-        <v>22.79</v>
+        <v>6.01</v>
       </c>
       <c r="I16">
-        <v>29.93</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1059,28 +1059,28 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>14667825</v>
+        <v>14231146</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G17">
-        <v>1835</v>
+        <v>87</v>
       </c>
       <c r="H17">
-        <v>37.75</v>
+        <v>14.05</v>
       </c>
       <c r="I17">
-        <v>81.14</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1088,335 +1088,335 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>35118277</v>
+        <v>14413867</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="H18">
-        <v>16.64</v>
+        <v>3.91</v>
       </c>
       <c r="I18">
-        <v>27.51</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>11939645</v>
+        <v>28500251</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>4.34</v>
+        <v>26.4</v>
       </c>
       <c r="I19">
-        <v>4.79</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20">
-        <v>32130390</v>
+        <v>15011531</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G20">
-        <v>5396</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>21.46</v>
+        <v>18.64</v>
       </c>
       <c r="I20">
-        <v>51.49</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>11939607</v>
+        <v>13715128</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>987</v>
       </c>
       <c r="H21">
-        <v>5.53</v>
+        <v>12.98</v>
       </c>
       <c r="I21">
-        <v>6.74</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>30240035</v>
+        <v>13228910</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22">
-        <v>-6</v>
+        <v>902</v>
       </c>
       <c r="H22">
-        <v>12.77</v>
+        <v>16.23</v>
       </c>
       <c r="I22">
-        <v>13.25</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>12120701</v>
+        <v>16921300</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23">
-        <v>379</v>
+        <v>-4</v>
       </c>
       <c r="H23">
-        <v>6.01</v>
+        <v>3.3</v>
       </c>
       <c r="I23">
-        <v>6.73</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>14589837</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="H24">
-        <v>12.34</v>
+        <v>13.16</v>
       </c>
       <c r="I24">
-        <v>12.98</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>14413867</v>
+        <v>16537374</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G25">
-        <v>178</v>
+        <v>2552</v>
       </c>
       <c r="H25">
-        <v>3.9</v>
+        <v>7.86</v>
       </c>
       <c r="I25">
-        <v>6.11</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>14231146</v>
+        <v>16871438</v>
       </c>
       <c r="F26" t="s">
         <v>65</v>
       </c>
       <c r="G26">
-        <v>87</v>
+        <v>1966</v>
       </c>
       <c r="H26">
-        <v>13.87</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I26">
-        <v>18.95</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27">
-        <v>13228910</v>
+        <v>11939681</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>
       </c>
       <c r="G27">
-        <v>926</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>16.2</v>
+        <v>5.82</v>
       </c>
       <c r="I27">
-        <v>27.47</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>15011531</v>
+        <v>11938282</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>18.64</v>
+        <v>12.15</v>
       </c>
       <c r="I28">
-        <v>22.59</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>28500251</v>
+        <v>11939551</v>
       </c>
       <c r="F29" t="s">
         <v>68</v>
@@ -1425,39 +1425,39 @@
         <v>38</v>
       </c>
       <c r="H29">
-        <v>26.4</v>
+        <v>4.52</v>
       </c>
       <c r="I29">
-        <v>50.82</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>13715128</v>
+        <v>12285275</v>
       </c>
       <c r="F30" t="s">
         <v>69</v>
       </c>
       <c r="G30">
-        <v>990</v>
+        <v>400</v>
       </c>
       <c r="H30">
-        <v>12.99</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I30">
-        <v>15.26</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1465,28 +1465,28 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>16921300</v>
+        <v>31564226</v>
       </c>
       <c r="F31" t="s">
         <v>70</v>
       </c>
       <c r="G31">
-        <v>-13</v>
+        <v>138</v>
       </c>
       <c r="H31">
-        <v>3.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I31">
-        <v>3.88</v>
+        <v>13.46</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>data</t>
   </si>
@@ -43,12 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
     <t>2025-06-06</t>
   </si>
   <si>
@@ -64,19 +58,13 @@
     <t>2025-06-17</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>58.713.339 DIANA CARDOSO DE SANTANA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
@@ -85,31 +73,22 @@
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+    <t>TECWAY SERVICOS E LOCACAO DE EQUIPAMENTOS LTDA</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>52589494</t>
-  </si>
-  <si>
-    <t>52508865</t>
-  </si>
-  <si>
-    <t>52349545</t>
-  </si>
-  <si>
-    <t>52630305</t>
-  </si>
-  <si>
-    <t>52546760</t>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>52685128</t>
   </si>
   <si>
     <t>52676511</t>
@@ -118,115 +97,109 @@
     <t>52688164</t>
   </si>
   <si>
-    <t>52685128</t>
+    <t>52651372</t>
   </si>
   <si>
     <t>52790838</t>
   </si>
   <si>
-    <t>52651372</t>
-  </si>
-  <si>
     <t>52878629</t>
   </si>
   <si>
+    <t>52390863</t>
+  </si>
+  <si>
+    <t>52914305</t>
+  </si>
+  <si>
     <t>52885879</t>
   </si>
   <si>
-    <t>52914305</t>
-  </si>
-  <si>
     <t>52945994</t>
   </si>
   <si>
     <t>53125557</t>
   </si>
   <si>
-    <t>PULVERIZADOR NOBRE 500ML GATILHO</t>
-  </si>
-  <si>
-    <t>LUVA DE BORRACHA LATEX S/FORRO ANTIDERRAPANTE MUCAMBO PRO 137 AZUL "TAM M" PAR CA 4.429</t>
+    <t>53196662</t>
+  </si>
+  <si>
+    <t>53262310</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLORAL PERFUMADO C/4 ROLOS</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
   </si>
   <si>
     <t>SABAO EM BARRA NAZARE 1KG</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L</t>
-  </si>
-  <si>
     <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
+    <t>SACO DE LIXO 50L COMUM PACOTINHO C/ 10 UND CIDADE LIMPA</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+  </si>
+  <si>
     <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
     <t>RODO COM CABO P 30CM</t>
   </si>
   <si>
     <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
 </sst>
 </file>
@@ -584,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,28 +597,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>13319728</v>
+        <v>14667825</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>-5</v>
+        <v>1835</v>
       </c>
       <c r="H2">
-        <v>9.48</v>
+        <v>37.75</v>
       </c>
       <c r="I2">
-        <v>14.42</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -653,28 +626,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>17025982</v>
+        <v>35118277</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="H3">
-        <v>8.16</v>
+        <v>16.47</v>
       </c>
       <c r="I3">
-        <v>9.57</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -682,202 +655,202 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>32130390</v>
+        <v>16455092</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>5373</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>21.45</v>
+        <v>21.4</v>
       </c>
       <c r="I4">
-        <v>51.46</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>14589858</v>
+        <v>11939645</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="H5">
-        <v>14.2</v>
+        <v>4.35</v>
       </c>
       <c r="I5">
-        <v>16.55</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>19792364</v>
+        <v>11939607</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>419</v>
+        <v>159</v>
       </c>
       <c r="H6">
-        <v>21.91</v>
+        <v>5.55</v>
       </c>
       <c r="I6">
-        <v>32.91</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>28631402</v>
+        <v>32130390</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>5328</v>
       </c>
       <c r="H7">
-        <v>38.68</v>
+        <v>21.43</v>
       </c>
       <c r="I7">
-        <v>62.08</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>28503269</v>
+        <v>30240035</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>15.88</v>
+        <v>12.86</v>
       </c>
       <c r="I8">
-        <v>20.39</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>11939607</v>
+        <v>14231146</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="H9">
-        <v>5.52</v>
+        <v>14.21</v>
       </c>
       <c r="I9">
-        <v>6.73</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>30240035</v>
+        <v>12120701</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>-10</v>
+        <v>479</v>
       </c>
       <c r="H10">
-        <v>12.82</v>
+        <v>6.03</v>
       </c>
       <c r="I10">
-        <v>13.35</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -888,25 +861,25 @@
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>32130390</v>
+        <v>28500251</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>5373</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>21.45</v>
+        <v>25.87</v>
       </c>
       <c r="I11">
-        <v>51.46</v>
+        <v>50.06</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -914,28 +887,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>11939645</v>
+        <v>15011531</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>146</v>
+        <v>-13</v>
       </c>
       <c r="H12">
-        <v>4.33</v>
+        <v>19.02</v>
       </c>
       <c r="I12">
-        <v>4.78</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -943,28 +916,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>16455092</v>
+        <v>42648745</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="H13">
-        <v>21.4</v>
+        <v>48.57</v>
       </c>
       <c r="I13">
-        <v>29.34</v>
+        <v>82.23</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -972,28 +945,28 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>35118277</v>
+        <v>13228910</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>243</v>
+        <v>902</v>
       </c>
       <c r="H14">
-        <v>16.5</v>
+        <v>16.33</v>
       </c>
       <c r="I14">
-        <v>27.35</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1001,28 +974,28 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>14667825</v>
+        <v>13715128</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1835</v>
+        <v>987</v>
       </c>
       <c r="H15">
-        <v>37.75</v>
+        <v>12.98</v>
       </c>
       <c r="I15">
-        <v>81.14</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1030,86 +1003,86 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>12120701</v>
+        <v>16921300</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16">
-        <v>379</v>
+        <v>-4</v>
       </c>
       <c r="H16">
-        <v>6.01</v>
+        <v>3.31</v>
       </c>
       <c r="I16">
-        <v>6.73</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>14231146</v>
+        <v>31564226</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H17">
-        <v>14.05</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I17">
-        <v>19.06</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>14413867</v>
+        <v>16537374</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>180</v>
+        <v>2540</v>
       </c>
       <c r="H18">
-        <v>3.91</v>
+        <v>7.87</v>
       </c>
       <c r="I18">
-        <v>6.13</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1117,28 +1090,28 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>28500251</v>
+        <v>16871438</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>38</v>
+        <v>1962</v>
       </c>
       <c r="H19">
-        <v>26.4</v>
+        <v>9.02</v>
       </c>
       <c r="I19">
-        <v>50.82</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1146,28 +1119,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>15011531</v>
+        <v>11939681</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>18.64</v>
+        <v>5.83</v>
       </c>
       <c r="I20">
-        <v>22.59</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1175,28 +1148,28 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>13715128</v>
+        <v>11938282</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21">
-        <v>987</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>12.98</v>
+        <v>12.31</v>
       </c>
       <c r="I21">
-        <v>15.26</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1204,115 +1177,115 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>13228910</v>
+        <v>14589837</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>902</v>
+        <v>133</v>
       </c>
       <c r="H22">
-        <v>16.23</v>
+        <v>13.16</v>
       </c>
       <c r="I22">
-        <v>27.41</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>16921300</v>
+        <v>11939551</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G23">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>3.3</v>
+        <v>4.57</v>
       </c>
       <c r="I23">
-        <v>3.88</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>14589837</v>
+        <v>12285275</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G24">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="H24">
-        <v>13.16</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I24">
-        <v>16.57</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>16537374</v>
+        <v>30179650</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G25">
-        <v>2552</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>7.86</v>
+        <v>2.85</v>
       </c>
       <c r="I25">
-        <v>8.289999999999999</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1320,173 +1293,28 @@
         <v>15</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>16871438</v>
+        <v>14413867</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G26">
-        <v>1966</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>9.029999999999999</v>
+        <v>4.22</v>
       </c>
       <c r="I26">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <v>11939681</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27">
-        <v>31</v>
-      </c>
-      <c r="H27">
-        <v>5.82</v>
-      </c>
-      <c r="I27">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28">
-        <v>11938282</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28">
-        <v>28</v>
-      </c>
-      <c r="H28">
-        <v>12.15</v>
-      </c>
-      <c r="I28">
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29">
-        <v>11939551</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29">
-        <v>38</v>
-      </c>
-      <c r="H29">
-        <v>4.52</v>
-      </c>
-      <c r="I29">
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30">
-        <v>12285275</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30">
-        <v>400</v>
-      </c>
-      <c r="H30">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="I30">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31">
-        <v>31564226</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31">
-        <v>138</v>
-      </c>
-      <c r="H31">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I31">
-        <v>13.46</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
     <t>2025-06-09</t>
   </si>
   <si>
@@ -64,21 +61,18 @@
     <t>2025-06-20</t>
   </si>
   <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
     <t>TECWAY SERVICOS E LOCACAO DE EQUIPAMENTOS LTDA</t>
   </si>
   <si>
@@ -88,33 +82,24 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>52685128</t>
-  </si>
-  <si>
-    <t>52676511</t>
-  </si>
-  <si>
-    <t>52688164</t>
-  </si>
-  <si>
     <t>52651372</t>
   </si>
   <si>
     <t>52790838</t>
   </si>
   <si>
+    <t>52885879</t>
+  </si>
+  <si>
     <t>52878629</t>
   </si>
   <si>
+    <t>52914305</t>
+  </si>
+  <si>
     <t>52390863</t>
   </si>
   <si>
-    <t>52914305</t>
-  </si>
-  <si>
-    <t>52885879</t>
-  </si>
-  <si>
     <t>52945994</t>
   </si>
   <si>
@@ -127,48 +112,27 @@
     <t>53262310</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM SANTA CRUZ 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
     <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
   </si>
   <si>
     <t>SABAO EM BARRA NAZARE 1KG</t>
   </si>
   <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
     <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 50L COMUM PACOTINHO C/ 10 UND CIDADE LIMPA</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
@@ -181,19 +145,19 @@
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
     <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
   </si>
   <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
@@ -557,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,28 +561,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>14667825</v>
+        <v>14231146</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>1835</v>
+        <v>87</v>
       </c>
       <c r="H2">
-        <v>37.75</v>
+        <v>14.21</v>
       </c>
       <c r="I2">
-        <v>81.14</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -626,376 +590,376 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>35118277</v>
+        <v>12120701</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>231</v>
+        <v>479</v>
       </c>
       <c r="H3">
-        <v>16.47</v>
+        <v>6.03</v>
       </c>
       <c r="I3">
-        <v>27.27</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>16455092</v>
+        <v>13715128</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>987</v>
       </c>
       <c r="H4">
-        <v>21.4</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>29.34</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>11939645</v>
+        <v>28500251</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>4.35</v>
+        <v>25.87</v>
       </c>
       <c r="I5">
-        <v>4.79</v>
+        <v>50.06</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6">
-        <v>11939607</v>
+        <v>15011531</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>159</v>
+        <v>-13</v>
       </c>
       <c r="H6">
-        <v>5.55</v>
+        <v>19.02</v>
       </c>
       <c r="I6">
-        <v>6.75</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>32130390</v>
+        <v>13228910</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>5328</v>
+        <v>902</v>
       </c>
       <c r="H7">
-        <v>21.43</v>
+        <v>16.33</v>
       </c>
       <c r="I7">
-        <v>51.44</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>30240035</v>
+        <v>42648745</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="H8">
-        <v>12.86</v>
+        <v>46.96</v>
       </c>
       <c r="I8">
-        <v>13.45</v>
+        <v>80.81</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>14231146</v>
+        <v>16921300</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>87</v>
+        <v>-4</v>
       </c>
       <c r="H9">
-        <v>14.21</v>
+        <v>3.31</v>
       </c>
       <c r="I9">
-        <v>19.19</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>12120701</v>
+        <v>31564226</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="H10">
-        <v>6.03</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I10">
-        <v>6.74</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11">
-        <v>28500251</v>
+        <v>16537374</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>2540</v>
       </c>
       <c r="H11">
-        <v>25.87</v>
+        <v>7.87</v>
       </c>
       <c r="I11">
-        <v>50.06</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12">
-        <v>15011531</v>
+        <v>16871438</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <v>-13</v>
+        <v>1962</v>
       </c>
       <c r="H12">
-        <v>19.02</v>
+        <v>9.02</v>
       </c>
       <c r="I12">
-        <v>22.64</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>42648745</v>
+        <v>11939551</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>48.57</v>
+        <v>4.57</v>
       </c>
       <c r="I13">
-        <v>82.23</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>13228910</v>
+        <v>11938282</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>902</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>16.33</v>
+        <v>12.31</v>
       </c>
       <c r="I14">
-        <v>27.49</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>13715128</v>
+        <v>14589837</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G15">
-        <v>987</v>
+        <v>133</v>
       </c>
       <c r="H15">
-        <v>12.98</v>
+        <v>12.81</v>
       </c>
       <c r="I15">
-        <v>15.26</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1003,57 +967,57 @@
         <v>12</v>
       </c>
       <c r="B16">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>16921300</v>
+        <v>12285275</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>-4</v>
+        <v>400</v>
       </c>
       <c r="H16">
-        <v>3.31</v>
+        <v>8.67</v>
       </c>
       <c r="I16">
-        <v>3.89</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17">
-        <v>31564226</v>
+        <v>11939681</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>9.369999999999999</v>
+        <v>5.83</v>
       </c>
       <c r="I17">
-        <v>13.28</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1061,260 +1025,57 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>16537374</v>
+        <v>30179650</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G18">
-        <v>2540</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>7.87</v>
+        <v>2.85</v>
       </c>
       <c r="I18">
-        <v>8.279999999999999</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>16871438</v>
+        <v>14413867</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G19">
-        <v>1962</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>9.02</v>
+        <v>4.23</v>
       </c>
       <c r="I19">
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
-        <v>11939681</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <v>5.83</v>
-      </c>
-      <c r="I20">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>11938282</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>12.31</v>
-      </c>
-      <c r="I21">
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22">
-        <v>14589837</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>133</v>
-      </c>
-      <c r="H22">
-        <v>13.16</v>
-      </c>
-      <c r="I22">
-        <v>16.57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23">
-        <v>11939551</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <v>38</v>
-      </c>
-      <c r="H23">
-        <v>4.57</v>
-      </c>
-      <c r="I23">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24">
-        <v>12285275</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
-        <v>400</v>
-      </c>
-      <c r="H24">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="I24">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25">
-        <v>30179650</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>33</v>
-      </c>
-      <c r="H25">
-        <v>2.85</v>
-      </c>
-      <c r="I25">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>14413867</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26">
-        <v>45</v>
-      </c>
-      <c r="H26">
-        <v>4.22</v>
-      </c>
-      <c r="I26">
-        <v>8.4</v>
+        <v>8.41</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
     <t>2025-06-11</t>
   </si>
   <si>
@@ -61,31 +58,31 @@
     <t>2025-06-20</t>
   </si>
   <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>TECWAY SERVICOS E LOCACAO DE EQUIPAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>52651372</t>
-  </si>
-  <si>
-    <t>52790838</t>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
   </si>
   <si>
     <t>52885879</t>
@@ -97,9 +94,6 @@
     <t>52914305</t>
   </si>
   <si>
-    <t>52390863</t>
-  </si>
-  <si>
     <t>52945994</t>
   </si>
   <si>
@@ -112,58 +106,97 @@
     <t>53262310</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
+    <t>53349149</t>
+  </si>
+  <si>
+    <t>52656287</t>
+  </si>
+  <si>
+    <t>53350345</t>
   </si>
   <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
     <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L COMUM PACOTINHO C/ 10 UND CIDADE LIMPA</t>
-  </si>
-  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
   </si>
   <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
   </si>
 </sst>
 </file>
@@ -521,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,28 +594,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>14231146</v>
+        <v>13715128</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>987</v>
       </c>
       <c r="H2">
-        <v>14.21</v>
+        <v>13.04</v>
       </c>
       <c r="I2">
-        <v>19.19</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -590,86 +623,86 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>12120701</v>
+        <v>15011531</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>479</v>
+        <v>-13</v>
       </c>
       <c r="H3">
-        <v>6.03</v>
+        <v>19.02</v>
       </c>
       <c r="I3">
-        <v>6.74</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>13715128</v>
+        <v>28500251</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>987</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>25.87</v>
       </c>
       <c r="I4">
-        <v>15.29</v>
+        <v>50.06</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>28500251</v>
+        <v>13228910</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>902</v>
       </c>
       <c r="H5">
-        <v>25.87</v>
+        <v>16.24</v>
       </c>
       <c r="I5">
-        <v>50.06</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -677,65 +710,65 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>15011531</v>
+        <v>16921300</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="H6">
-        <v>19.02</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>22.64</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>13228910</v>
+        <v>16871438</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>902</v>
+        <v>1962</v>
       </c>
       <c r="H7">
-        <v>16.33</v>
+        <v>9.09</v>
       </c>
       <c r="I7">
-        <v>27.49</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -744,19 +777,19 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>42648745</v>
+        <v>31564226</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="H8">
-        <v>46.96</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I8">
-        <v>80.81</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,164 +797,164 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>16921300</v>
+        <v>11939551</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>-4</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>3.31</v>
+        <v>4.57</v>
       </c>
       <c r="I9">
-        <v>3.89</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>31564226</v>
+        <v>16537374</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>126</v>
+        <v>2540</v>
       </c>
       <c r="H10">
-        <v>9.369999999999999</v>
+        <v>7.87</v>
       </c>
       <c r="I10">
-        <v>13.28</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>16537374</v>
+        <v>11939681</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>2540</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>7.87</v>
+        <v>5.84</v>
       </c>
       <c r="I11">
-        <v>8.279999999999999</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>16871438</v>
+        <v>12285275</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>1962</v>
+        <v>400</v>
       </c>
       <c r="H12">
-        <v>9.02</v>
+        <v>8.81</v>
       </c>
       <c r="I12">
-        <v>10.38</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>11939551</v>
+        <v>14589837</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="H13">
-        <v>4.57</v>
+        <v>12.86</v>
       </c>
       <c r="I13">
-        <v>9.5</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>11938282</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -938,115 +971,115 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>14589837</v>
+        <v>30179650</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>12.81</v>
+        <v>2.84</v>
       </c>
       <c r="I15">
-        <v>16.2</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16">
-        <v>12285275</v>
+        <v>14413867</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>8.67</v>
+        <v>4.26</v>
       </c>
       <c r="I16">
-        <v>13.81</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>11939681</v>
+        <v>15134725</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>5.83</v>
+        <v>12.3</v>
       </c>
       <c r="I17">
-        <v>10.71</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>30179650</v>
+        <v>16368692</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="I18">
-        <v>2.15</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1054,28 +1087,405 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
       <c r="E19">
+        <v>11939689</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>173</v>
+      </c>
+      <c r="H19">
+        <v>11.11</v>
+      </c>
+      <c r="I19">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>35118277</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>231</v>
+      </c>
+      <c r="H20">
+        <v>17.14</v>
+      </c>
+      <c r="I20">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>17737776</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>5.03</v>
+      </c>
+      <c r="I21">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>18003632</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>3.09</v>
+      </c>
+      <c r="I22">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>17171383</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>112</v>
+      </c>
+      <c r="H23">
+        <v>12.62</v>
+      </c>
+      <c r="I23">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>16871438</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <v>1962</v>
+      </c>
+      <c r="H24">
+        <v>9.09</v>
+      </c>
+      <c r="I24">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>22571192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>1793</v>
+      </c>
+      <c r="H25">
+        <v>20.2</v>
+      </c>
+      <c r="I25">
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>11936640</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>3001</v>
+      </c>
+      <c r="H26">
+        <v>10.99</v>
+      </c>
+      <c r="I26">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
         <v>14413867</v>
       </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27">
         <v>45</v>
       </c>
-      <c r="H19">
-        <v>4.23</v>
-      </c>
-      <c r="I19">
-        <v>8.41</v>
+      <c r="H27">
+        <v>4.26</v>
+      </c>
+      <c r="I27">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>14589858</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>195</v>
+      </c>
+      <c r="H28">
+        <v>15.07</v>
+      </c>
+      <c r="I28">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>13881226</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>131</v>
+      </c>
+      <c r="H29">
+        <v>3.38</v>
+      </c>
+      <c r="I29">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>17737776</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <v>33</v>
+      </c>
+      <c r="H30">
+        <v>5.03</v>
+      </c>
+      <c r="I30">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>14795919</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31">
+        <v>978</v>
+      </c>
+      <c r="H31">
+        <v>39.88</v>
+      </c>
+      <c r="I31">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>994</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>26025260</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>41</v>
+      </c>
+      <c r="H32">
+        <v>41.51</v>
+      </c>
+      <c r="I32">
+        <v>140.3</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>data</t>
   </si>
@@ -61,15 +61,18 @@
     <t>2025-06-23</t>
   </si>
   <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
@@ -79,22 +82,28 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>52878629</t>
+  </si>
+  <si>
+    <t>52914305</t>
   </si>
   <si>
     <t>52885879</t>
   </si>
   <si>
-    <t>52878629</t>
-  </si>
-  <si>
-    <t>52914305</t>
-  </si>
-  <si>
-    <t>52945994</t>
+    <t>52944995</t>
   </si>
   <si>
     <t>53125557</t>
@@ -106,97 +115,124 @@
     <t>53262310</t>
   </si>
   <si>
+    <t>52656287</t>
+  </si>
+  <si>
     <t>53349149</t>
   </si>
   <si>
-    <t>52656287</t>
-  </si>
-  <si>
     <t>53350345</t>
   </si>
   <si>
+    <t>53401197</t>
+  </si>
+  <si>
+    <t>53416805</t>
+  </si>
+  <si>
+    <t>53410381</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
+  </si>
+  <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
   </si>
   <si>
     <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
   </si>
   <si>
     <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
 </sst>
 </file>
@@ -554,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,28 +630,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>13715128</v>
+        <v>15011531</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>987</v>
+        <v>-19</v>
       </c>
       <c r="H2">
-        <v>13.04</v>
+        <v>18.89</v>
       </c>
       <c r="I2">
-        <v>15.31</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -623,28 +659,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>15011531</v>
+        <v>13228910</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>-13</v>
+        <v>865</v>
       </c>
       <c r="H3">
-        <v>19.02</v>
+        <v>16.22</v>
       </c>
       <c r="I3">
-        <v>22.64</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -658,13 +694,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>28500251</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -681,28 +717,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>13228910</v>
+        <v>13715128</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>902</v>
+        <v>987</v>
       </c>
       <c r="H5">
-        <v>16.24</v>
+        <v>13.01</v>
       </c>
       <c r="I5">
-        <v>27.48</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -713,25 +749,25 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>16921300</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="I6">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -739,28 +775,28 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>16871438</v>
+        <v>16537374</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>1962</v>
+        <v>2540</v>
       </c>
       <c r="H7">
-        <v>9.09</v>
+        <v>7.87</v>
       </c>
       <c r="I7">
-        <v>10.59</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -771,19 +807,19 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>31564226</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8">
         <v>9.210000000000001</v>
@@ -797,28 +833,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>11939551</v>
+        <v>12285275</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="H9">
-        <v>4.57</v>
+        <v>8.81</v>
       </c>
       <c r="I9">
-        <v>9.5</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -826,28 +862,28 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>16537374</v>
+        <v>11939551</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>2540</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>7.87</v>
+        <v>4.57</v>
       </c>
       <c r="I10">
-        <v>8.279999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -858,25 +894,25 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>11939681</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="I11">
-        <v>10.71</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -884,28 +920,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>12285275</v>
+        <v>16871438</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>400</v>
+        <v>1887</v>
       </c>
       <c r="H12">
-        <v>8.81</v>
+        <v>9.09</v>
       </c>
       <c r="I12">
-        <v>13.87</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -913,28 +949,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>14589837</v>
+        <v>11938282</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>12.86</v>
+        <v>12.31</v>
       </c>
       <c r="I13">
-        <v>16.18</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -942,28 +978,28 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>11938282</v>
+        <v>14589837</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="H14">
-        <v>12.31</v>
+        <v>12.89</v>
       </c>
       <c r="I14">
-        <v>13.75</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -974,16 +1010,16 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>30179650</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>33</v>
@@ -1003,25 +1039,25 @@
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>14413867</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G16">
-        <v>45</v>
+        <v>-4</v>
       </c>
       <c r="H16">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="I16">
-        <v>8.52</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1029,28 +1065,28 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>15134725</v>
+        <v>16368692</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G17">
-        <v>42</v>
+        <v>-1</v>
       </c>
       <c r="H17">
-        <v>12.3</v>
+        <v>3.02</v>
       </c>
       <c r="I17">
-        <v>20.63</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1058,28 +1094,28 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>16368692</v>
+        <v>11939689</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="H18">
-        <v>3.02</v>
+        <v>10.89</v>
       </c>
       <c r="I18">
-        <v>3.85</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1087,28 +1123,28 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>11939689</v>
+        <v>17171383</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G19">
-        <v>173</v>
+        <v>-19</v>
       </c>
       <c r="H19">
-        <v>11.11</v>
+        <v>12.62</v>
       </c>
       <c r="I19">
-        <v>10.89</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1116,28 +1152,28 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>35118277</v>
+        <v>17737776</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>231</v>
+        <v>-13</v>
       </c>
       <c r="H20">
-        <v>17.14</v>
+        <v>5.05</v>
       </c>
       <c r="I20">
-        <v>28.42</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1145,28 +1181,28 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>17737776</v>
+        <v>35118277</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G21">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="H21">
-        <v>5.03</v>
+        <v>17.14</v>
       </c>
       <c r="I21">
-        <v>11.1</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1174,28 +1210,28 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>18003632</v>
+        <v>15134725</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G22">
-        <v>33</v>
+        <v>-38</v>
       </c>
       <c r="H22">
-        <v>3.09</v>
+        <v>12.3</v>
       </c>
       <c r="I22">
-        <v>4.94</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1203,28 +1239,28 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>17171383</v>
+        <v>17737776</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G23">
-        <v>112</v>
+        <v>-13</v>
       </c>
       <c r="H23">
-        <v>12.62</v>
+        <v>5.05</v>
       </c>
       <c r="I23">
-        <v>26.15</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1232,28 +1268,28 @@
         <v>14</v>
       </c>
       <c r="B24">
+        <v>994</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>26025260</v>
+      </c>
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24">
-        <v>16871438</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
       <c r="G24">
-        <v>1962</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>9.09</v>
+        <v>40.73</v>
       </c>
       <c r="I24">
-        <v>10.59</v>
+        <v>139.03</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1261,28 +1297,28 @@
         <v>14</v>
       </c>
       <c r="B25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>22571192</v>
+        <v>11936640</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G25">
-        <v>1793</v>
+        <v>2851</v>
       </c>
       <c r="H25">
-        <v>20.2</v>
+        <v>10.98</v>
       </c>
       <c r="I25">
-        <v>38.57</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1290,28 +1326,28 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>11936640</v>
+        <v>17486266</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G26">
-        <v>3001</v>
+        <v>-148</v>
       </c>
       <c r="H26">
-        <v>10.99</v>
+        <v>18.48</v>
       </c>
       <c r="I26">
-        <v>14.48</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1319,28 +1355,28 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>14413867</v>
+        <v>16871438</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G27">
-        <v>45</v>
+        <v>1887</v>
       </c>
       <c r="H27">
-        <v>4.26</v>
+        <v>9.09</v>
       </c>
       <c r="I27">
-        <v>8.52</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1348,28 +1384,28 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>14589858</v>
+        <v>18003632</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G28">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>15.07</v>
+        <v>3.09</v>
       </c>
       <c r="I28">
-        <v>20.43</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1377,28 +1413,28 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>13881226</v>
+        <v>14589858</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G29">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="H29">
-        <v>3.38</v>
+        <v>15.12</v>
       </c>
       <c r="I29">
-        <v>4.54</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1406,28 +1442,28 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>17737776</v>
+        <v>13881226</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G30">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="H30">
-        <v>5.03</v>
+        <v>3.37</v>
       </c>
       <c r="I30">
-        <v>11.1</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1435,28 +1471,28 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>14795919</v>
+        <v>22571192</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G31">
-        <v>978</v>
+        <v>1623</v>
       </c>
       <c r="H31">
-        <v>39.88</v>
+        <v>20.2</v>
       </c>
       <c r="I31">
-        <v>55.91</v>
+        <v>38.57</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1464,28 +1500,202 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>994</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32">
-        <v>26025260</v>
+        <v>14413867</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G32">
-        <v>41</v>
+        <v>-4</v>
       </c>
       <c r="H32">
-        <v>41.51</v>
+        <v>4.27</v>
       </c>
       <c r="I32">
-        <v>140.3</v>
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>14795919</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33">
+        <v>678</v>
+      </c>
+      <c r="H33">
+        <v>39.88</v>
+      </c>
+      <c r="I33">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>39233880</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>76</v>
+      </c>
+      <c r="H34">
+        <v>16.04</v>
+      </c>
+      <c r="I34">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>26329148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35">
+        <v>283</v>
+      </c>
+      <c r="H35">
+        <v>12.94</v>
+      </c>
+      <c r="I35">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>31186309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>-51</v>
+      </c>
+      <c r="H36">
+        <v>9.48</v>
+      </c>
+      <c r="I36">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>248</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>28503269</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37">
+        <v>324</v>
+      </c>
+      <c r="H37">
+        <v>16.17</v>
+      </c>
+      <c r="I37">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>32130390</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>4845</v>
+      </c>
+      <c r="H38">
+        <v>21.66</v>
+      </c>
+      <c r="I38">
+        <v>51.7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
     <t>2025-06-12</t>
   </si>
   <si>
@@ -64,13 +61,7 @@
     <t>2025-06-24</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+    <t>2025-06-25</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
@@ -79,6 +70,9 @@
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
+    <t>RADIO TV DO AMAZONAS LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
@@ -94,13 +88,7 @@
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
-    <t>52878629</t>
-  </si>
-  <si>
-    <t>52914305</t>
-  </si>
-  <si>
-    <t>52885879</t>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>52944995</t>
@@ -109,7 +97,10 @@
     <t>53125557</t>
   </si>
   <si>
-    <t>53196662</t>
+    <t>53181156</t>
+  </si>
+  <si>
+    <t>52960828</t>
   </si>
   <si>
     <t>53262310</t>
@@ -133,43 +124,37 @@
     <t>53410381</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>SABAO EM PO PRIMAVERA TIXAN YPE 400G</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+    <t>53470728</t>
   </si>
   <si>
     <t>FILME PVC 30X8X500MT</t>
   </si>
   <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
@@ -181,58 +166,61 @@
     <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
     <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
 </sst>
 </file>
@@ -590,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,115 +618,115 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>15011531</v>
+        <v>16921300</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="H2">
-        <v>18.89</v>
+        <v>3.29</v>
       </c>
       <c r="I2">
-        <v>22.56</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>13228910</v>
+        <v>11939551</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>865</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>16.22</v>
+        <v>4.57</v>
       </c>
       <c r="I3">
-        <v>27.44</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>28500251</v>
+        <v>16871438</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>1870</v>
       </c>
       <c r="H4">
-        <v>25.87</v>
+        <v>9.06</v>
       </c>
       <c r="I4">
-        <v>50.06</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>13715128</v>
+        <v>12285275</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>987</v>
+        <v>357</v>
       </c>
       <c r="H5">
-        <v>13.01</v>
+        <v>8.74</v>
       </c>
       <c r="I5">
-        <v>15.33</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -746,144 +734,144 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>16921300</v>
+        <v>11938282</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>3.29</v>
+        <v>12.31</v>
       </c>
       <c r="I6">
-        <v>3.89</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>16537374</v>
+        <v>14589837</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>2540</v>
+        <v>123</v>
       </c>
       <c r="H7">
-        <v>7.87</v>
+        <v>12.96</v>
       </c>
       <c r="I7">
-        <v>8.279999999999999</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>31564226</v>
+        <v>11939681</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H8">
-        <v>9.210000000000001</v>
+        <v>5.84</v>
       </c>
       <c r="I8">
-        <v>13.15</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>12285275</v>
+        <v>31564226</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="H9">
-        <v>8.81</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I9">
-        <v>13.87</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>11939551</v>
+        <v>16537374</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>2540</v>
       </c>
       <c r="H10">
-        <v>4.57</v>
+        <v>7.86</v>
       </c>
       <c r="I10">
-        <v>9.5</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -891,28 +879,28 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>11939681</v>
+        <v>11938367</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="H11">
+        <v>4.76</v>
+      </c>
+      <c r="I11">
         <v>5.85</v>
-      </c>
-      <c r="I11">
-        <v>10.72</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -920,65 +908,65 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>16871438</v>
+        <v>30179650</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>1887</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>9.09</v>
+        <v>2.84</v>
       </c>
       <c r="I12">
-        <v>10.59</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>11938282</v>
+        <v>14413867</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>12.31</v>
+        <v>4.28</v>
       </c>
       <c r="I13">
-        <v>13.75</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -987,27 +975,27 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>14589837</v>
+        <v>16368692</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>12.89</v>
+        <v>3.02</v>
       </c>
       <c r="I14">
-        <v>16.25</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -1016,19 +1004,19 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>30179650</v>
+        <v>15134725</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>-38</v>
       </c>
       <c r="H15">
-        <v>2.84</v>
+        <v>12.3</v>
       </c>
       <c r="I15">
-        <v>2.16</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1036,434 +1024,434 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>14413867</v>
+        <v>17171383</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16">
-        <v>-4</v>
+        <v>-29</v>
       </c>
       <c r="H16">
-        <v>4.27</v>
+        <v>12.59</v>
       </c>
       <c r="I16">
-        <v>8.529999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>16368692</v>
+        <v>35118277</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>111</v>
       </c>
       <c r="H17">
-        <v>3.02</v>
+        <v>17.14</v>
       </c>
       <c r="I17">
-        <v>3.85</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>11939689</v>
+        <v>14589858</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>123</v>
+        <v>-2</v>
       </c>
       <c r="H18">
-        <v>10.89</v>
+        <v>15.11</v>
       </c>
       <c r="I18">
-        <v>10.74</v>
+        <v>20.42</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>17171383</v>
+        <v>11939689</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>-19</v>
+        <v>123</v>
       </c>
       <c r="H19">
-        <v>12.62</v>
+        <v>10.89</v>
       </c>
       <c r="I19">
-        <v>26.15</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>17737776</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>5.05</v>
+        <v>5.03</v>
       </c>
       <c r="I20">
-        <v>11.15</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>35118277</v>
+        <v>17737776</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G21">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>17.14</v>
+        <v>5.03</v>
       </c>
       <c r="I21">
-        <v>28.42</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>15134725</v>
+        <v>18003632</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>-38</v>
+        <v>-11</v>
       </c>
       <c r="H22">
-        <v>12.3</v>
+        <v>3.14</v>
       </c>
       <c r="I22">
-        <v>20.63</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>17737776</v>
+        <v>14413867</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>5.05</v>
+        <v>4.28</v>
       </c>
       <c r="I23">
-        <v>11.15</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>994</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>26025260</v>
+        <v>16871438</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>42</v>
+        <v>1870</v>
       </c>
       <c r="H24">
-        <v>40.73</v>
+        <v>9.06</v>
       </c>
       <c r="I24">
-        <v>139.03</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>11936640</v>
+        <v>14795919</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G25">
-        <v>2851</v>
+        <v>678</v>
       </c>
       <c r="H25">
-        <v>10.98</v>
+        <v>39.88</v>
       </c>
       <c r="I25">
-        <v>14.47</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>17486266</v>
+        <v>13881226</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G26">
-        <v>-148</v>
+        <v>95</v>
       </c>
       <c r="H26">
-        <v>18.48</v>
+        <v>3.36</v>
       </c>
       <c r="I26">
-        <v>21.93</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27">
-        <v>16871438</v>
+        <v>17486266</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G27">
-        <v>1887</v>
+        <v>52</v>
       </c>
       <c r="H27">
-        <v>9.09</v>
+        <v>18.48</v>
       </c>
       <c r="I27">
-        <v>10.59</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>18003632</v>
+        <v>22571192</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>1618</v>
       </c>
       <c r="H28">
-        <v>3.09</v>
+        <v>20.11</v>
       </c>
       <c r="I28">
-        <v>4.94</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>14589858</v>
+        <v>11936640</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>2831</v>
       </c>
       <c r="H29">
-        <v>15.12</v>
+        <v>10.95</v>
       </c>
       <c r="I29">
-        <v>20.47</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>994</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>13881226</v>
+        <v>26025260</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>3.37</v>
+        <v>40.73</v>
       </c>
       <c r="I30">
-        <v>4.54</v>
+        <v>139.03</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1471,28 +1459,28 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>22571192</v>
+        <v>32130390</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G31">
-        <v>1623</v>
+        <v>4785</v>
       </c>
       <c r="H31">
-        <v>20.2</v>
+        <v>21.57</v>
       </c>
       <c r="I31">
-        <v>38.57</v>
+        <v>51.54</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1500,28 +1488,28 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>14413867</v>
+        <v>26329148</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G32">
-        <v>-4</v>
+        <v>258</v>
       </c>
       <c r="H32">
-        <v>4.27</v>
+        <v>12.94</v>
       </c>
       <c r="I32">
-        <v>8.529999999999999</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1529,86 +1517,86 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>14795919</v>
+        <v>28503269</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33">
-        <v>678</v>
+        <v>279</v>
       </c>
       <c r="H33">
-        <v>39.88</v>
+        <v>16.11</v>
       </c>
       <c r="I33">
-        <v>55.91</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>39233880</v>
+        <v>31186309</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="H34">
-        <v>16.04</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I34">
-        <v>32.45</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>26329148</v>
+        <v>39233880</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="H35">
-        <v>12.94</v>
+        <v>15.98</v>
       </c>
       <c r="I35">
-        <v>20.66</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1616,86 +1604,28 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>31186309</v>
+        <v>13034365</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
-        <v>-51</v>
+        <v>51</v>
       </c>
       <c r="H36">
-        <v>9.48</v>
+        <v>4.14</v>
       </c>
       <c r="I36">
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>248</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>28503269</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37">
-        <v>324</v>
-      </c>
-      <c r="H37">
-        <v>16.17</v>
-      </c>
-      <c r="I37">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>240</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
-        <v>32130390</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38">
-        <v>4845</v>
-      </c>
-      <c r="H38">
-        <v>21.66</v>
-      </c>
-      <c r="I38">
-        <v>51.7</v>
+        <v>7.02</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
     <t>2025-06-17</t>
   </si>
   <si>
@@ -64,34 +61,49 @@
     <t>2025-06-25</t>
   </si>
   <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>RADIO TV DO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>RADIO TV DO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>52944995</t>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>53125557</t>
@@ -109,51 +121,66 @@
     <t>52656287</t>
   </si>
   <si>
+    <t>53401197</t>
+  </si>
+  <si>
     <t>53349149</t>
   </si>
   <si>
     <t>53350345</t>
   </si>
   <si>
-    <t>53401197</t>
+    <t>53410381</t>
   </si>
   <si>
     <t>53416805</t>
   </si>
   <si>
-    <t>53410381</t>
+    <t>53423736</t>
+  </si>
+  <si>
+    <t>53418815</t>
   </si>
   <si>
     <t>53470728</t>
   </si>
   <si>
-    <t>FILME PVC 30X8X500MT</t>
+    <t>53518964</t>
+  </si>
+  <si>
+    <t>53524160</t>
+  </si>
+  <si>
+    <t>53535567</t>
+  </si>
+  <si>
+    <t>53513588</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
     <t>RODO COM CABO P 30CM</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
     <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
@@ -166,61 +193,76 @@
     <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
   </si>
   <si>
     <t>FLANELA LARANJA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
     <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
     <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
     <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
   </si>
   <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
+    <t>RODO PARA PIA PLASTICO</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
   </si>
 </sst>
 </file>
@@ -578,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,231 +660,231 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>16921300</v>
+        <v>11938282</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>3.29</v>
+        <v>12.31</v>
       </c>
       <c r="I2">
-        <v>3.89</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>11939551</v>
+        <v>31564226</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="H3">
-        <v>4.57</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I3">
-        <v>9.5</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>16871438</v>
+        <v>11939681</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>1870</v>
+        <v>125</v>
       </c>
       <c r="H4">
-        <v>9.06</v>
+        <v>5.87</v>
       </c>
       <c r="I4">
-        <v>10.57</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>12285275</v>
+        <v>16871438</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>357</v>
+        <v>1868</v>
       </c>
       <c r="H5">
-        <v>8.74</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I5">
-        <v>13.75</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>11938282</v>
+        <v>16537374</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>2522</v>
       </c>
       <c r="H6">
-        <v>12.31</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>13.75</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>14589837</v>
+        <v>11939551</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>12.96</v>
+        <v>4.5</v>
       </c>
       <c r="I7">
-        <v>16.3</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>11939681</v>
+        <v>14589837</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="H8">
-        <v>5.84</v>
+        <v>12.96</v>
       </c>
       <c r="I8">
-        <v>10.72</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>31564226</v>
+        <v>12285275</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G9">
-        <v>123</v>
+        <v>350</v>
       </c>
       <c r="H9">
-        <v>9.210000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I9">
-        <v>13.15</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -850,57 +892,57 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>16537374</v>
+        <v>11938367</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>2540</v>
+        <v>293</v>
       </c>
       <c r="H10">
-        <v>7.86</v>
+        <v>4.74</v>
       </c>
       <c r="I10">
-        <v>8.289999999999999</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>11938367</v>
+        <v>30179650</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>4.76</v>
+        <v>2.9</v>
       </c>
       <c r="I11">
-        <v>5.85</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -908,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>30179650</v>
+        <v>14413867</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="H12">
-        <v>2.84</v>
+        <v>4.26</v>
       </c>
       <c r="I12">
-        <v>2.16</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -937,492 +979,492 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>14413867</v>
+        <v>16368692</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>4.28</v>
+        <v>3.02</v>
       </c>
       <c r="I13">
-        <v>8.539999999999999</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>16368692</v>
+        <v>11939689</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="H14">
-        <v>3.02</v>
+        <v>10.89</v>
       </c>
       <c r="I14">
-        <v>3.85</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>15134725</v>
+        <v>17486266</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G15">
-        <v>-38</v>
+        <v>52</v>
       </c>
       <c r="H15">
-        <v>12.3</v>
+        <v>18.46</v>
       </c>
       <c r="I15">
-        <v>20.63</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>17171383</v>
+        <v>14795919</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>-29</v>
+        <v>678</v>
       </c>
       <c r="H16">
-        <v>12.59</v>
+        <v>40.29</v>
       </c>
       <c r="I16">
-        <v>26</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>35118277</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="H17">
-        <v>17.14</v>
+        <v>17.19</v>
       </c>
       <c r="I17">
-        <v>28.42</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>14589858</v>
+        <v>17171383</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>-2</v>
+        <v>-29</v>
       </c>
       <c r="H18">
-        <v>15.11</v>
+        <v>12.64</v>
       </c>
       <c r="I18">
-        <v>20.42</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>11939689</v>
+        <v>15134725</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>10.89</v>
+        <v>12.3</v>
       </c>
       <c r="I19">
-        <v>10.74</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>17737776</v>
+        <v>13881226</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <v>5.03</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
-        <v>11.13</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>17737776</v>
+        <v>16871438</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>1868</v>
       </c>
       <c r="H21">
-        <v>5.03</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I21">
-        <v>11.13</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>18003632</v>
+        <v>14413867</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="H22">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="I22">
-        <v>4.94</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>14413867</v>
+        <v>14589858</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="H23">
-        <v>4.28</v>
+        <v>15.11</v>
       </c>
       <c r="I23">
-        <v>8.539999999999999</v>
+        <v>20.42</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>16871438</v>
+        <v>17737776</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G24">
-        <v>1870</v>
+        <v>-12</v>
       </c>
       <c r="H24">
-        <v>9.06</v>
+        <v>5.03</v>
       </c>
       <c r="I24">
-        <v>10.57</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E25">
-        <v>14795919</v>
+        <v>17737776</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G25">
-        <v>678</v>
+        <v>-12</v>
       </c>
       <c r="H25">
-        <v>39.88</v>
+        <v>5.03</v>
       </c>
       <c r="I25">
-        <v>55.91</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>13881226</v>
+        <v>22571192</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>1558</v>
       </c>
       <c r="H26">
-        <v>3.36</v>
+        <v>20.15</v>
       </c>
       <c r="I26">
-        <v>4.51</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>17486266</v>
+        <v>11936640</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G27">
-        <v>52</v>
+        <v>2817</v>
       </c>
       <c r="H27">
-        <v>18.48</v>
+        <v>10.93</v>
       </c>
       <c r="I27">
-        <v>21.93</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>22571192</v>
+        <v>18003632</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G28">
-        <v>1618</v>
+        <v>-2</v>
       </c>
       <c r="H28">
-        <v>20.11</v>
+        <v>3.08</v>
       </c>
       <c r="I28">
-        <v>38.59</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>994</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>11936640</v>
+        <v>26025260</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G29">
-        <v>2831</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>10.95</v>
+        <v>40.73</v>
       </c>
       <c r="I29">
-        <v>14.44</v>
+        <v>139.03</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1430,202 +1472,376 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>994</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E30">
-        <v>26025260</v>
+        <v>26329148</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G30">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="H30">
-        <v>40.73</v>
+        <v>12.94</v>
       </c>
       <c r="I30">
-        <v>139.03</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>32130390</v>
+        <v>28503269</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G31">
-        <v>4785</v>
+        <v>199</v>
       </c>
       <c r="H31">
-        <v>21.57</v>
+        <v>16.19</v>
       </c>
       <c r="I31">
-        <v>51.54</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>26329148</v>
+        <v>31186309</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G32">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="H32">
-        <v>12.94</v>
+        <v>9.65</v>
       </c>
       <c r="I32">
-        <v>20.61</v>
+        <v>16.85</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>28503269</v>
+        <v>32130390</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G33">
-        <v>279</v>
+        <v>4736</v>
       </c>
       <c r="H33">
-        <v>16.11</v>
+        <v>21.57</v>
       </c>
       <c r="I33">
-        <v>21.52</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>31186309</v>
+        <v>17180850</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G34">
-        <v>242</v>
+        <v>-2</v>
       </c>
       <c r="H34">
-        <v>9.449999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="I34">
-        <v>16.6</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>39233880</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G35">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>15.98</v>
+        <v>16.02</v>
       </c>
       <c r="I35">
-        <v>32.3</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>30179650</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <v>2.9</v>
+      </c>
+      <c r="I36">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>13034365</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>49</v>
+      </c>
+      <c r="H37">
+        <v>4.18</v>
+      </c>
+      <c r="I37">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>13034365</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36">
-        <v>51</v>
-      </c>
-      <c r="H36">
-        <v>4.14</v>
-      </c>
-      <c r="I36">
-        <v>7.02</v>
+      <c r="B38">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>11939672</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38">
+        <v>71</v>
+      </c>
+      <c r="H38">
+        <v>10.11</v>
+      </c>
+      <c r="I38">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>12054191</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>2179</v>
+      </c>
+      <c r="H39">
+        <v>20.48</v>
+      </c>
+      <c r="I39">
+        <v>41.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <v>16859111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>5.75</v>
+      </c>
+      <c r="I40">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>12054191</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41">
+        <v>2179</v>
+      </c>
+      <c r="H41">
+        <v>20.48</v>
+      </c>
+      <c r="I41">
+        <v>41.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>32539989</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42">
+        <v>-5</v>
+      </c>
+      <c r="H42">
+        <v>2.5</v>
+      </c>
+      <c r="I42">
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>data</t>
   </si>
@@ -67,19 +67,22 @@
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
     <t>RADIO TV DO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
   </si>
   <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
   </si>
   <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
@@ -88,63 +91,57 @@
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
     <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
   </si>
   <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>53125557</t>
   </si>
   <si>
+    <t>52960828</t>
+  </si>
+  <si>
     <t>53181156</t>
   </si>
   <si>
-    <t>52960828</t>
-  </si>
-  <si>
     <t>53262310</t>
   </si>
   <si>
     <t>52656287</t>
   </si>
   <si>
+    <t>53349149</t>
+  </si>
+  <si>
     <t>53401197</t>
   </si>
   <si>
-    <t>53349149</t>
-  </si>
-  <si>
     <t>53350345</t>
   </si>
   <si>
+    <t>53418815</t>
+  </si>
+  <si>
     <t>53410381</t>
   </si>
   <si>
     <t>53416805</t>
   </si>
   <si>
-    <t>53423736</t>
-  </si>
-  <si>
-    <t>53418815</t>
-  </si>
-  <si>
     <t>53470728</t>
   </si>
   <si>
+    <t>53513588</t>
+  </si>
+  <si>
     <t>53518964</t>
   </si>
   <si>
@@ -154,105 +151,102 @@
     <t>53535567</t>
   </si>
   <si>
-    <t>53513588</t>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
-    <t>SABAO EM BARRA ECONOMICO 900G</t>
-  </si>
-  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
     <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
   </si>
   <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
     <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
   </si>
   <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
   </si>
   <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
     <t>LA DE ACO ASSOLAN 45G</t>
   </si>
   <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>RODO PARA PIA PLASTICO</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
   </si>
   <si>
     <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
   </si>
 </sst>
 </file>
@@ -620,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,28 +651,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>11938282</v>
+        <v>14589837</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="H2">
-        <v>12.31</v>
+        <v>12.77</v>
       </c>
       <c r="I2">
-        <v>13.75</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -689,28 +680,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>31564226</v>
+        <v>11939681</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>123</v>
       </c>
       <c r="H3">
-        <v>9.210000000000001</v>
+        <v>5.86</v>
       </c>
       <c r="I3">
-        <v>13.15</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -718,28 +709,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>11939681</v>
+        <v>31564226</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H4">
-        <v>5.87</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>10.77</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -747,28 +738,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>16871438</v>
+        <v>16537374</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>1868</v>
+        <v>2520</v>
       </c>
       <c r="H5">
-        <v>9.039999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="I5">
-        <v>10.58</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -776,28 +767,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>16537374</v>
+        <v>16871438</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>2522</v>
+        <v>1861</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>9.01</v>
       </c>
       <c r="I6">
-        <v>8.31</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -805,28 +796,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>11939551</v>
+        <v>12285275</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="H7">
-        <v>4.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I7">
-        <v>9.41</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -834,28 +825,28 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>14589837</v>
+        <v>11939551</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>12.96</v>
+        <v>4.57</v>
       </c>
       <c r="I8">
-        <v>16.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -863,28 +854,28 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>12285275</v>
+        <v>11938282</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>8.710000000000001</v>
+        <v>11.07</v>
       </c>
       <c r="I9">
-        <v>13.75</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -892,28 +883,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>11938367</v>
+        <v>30179650</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>4.74</v>
+        <v>2.89</v>
       </c>
       <c r="I10">
-        <v>5.84</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -921,28 +912,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>30179650</v>
+        <v>11938367</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>4.74</v>
       </c>
       <c r="I11">
-        <v>2.26</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -956,22 +947,22 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>14413867</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H12">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="I12">
-        <v>8.529999999999999</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -979,28 +970,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>16368692</v>
+        <v>11939689</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="H13">
-        <v>3.02</v>
+        <v>10.89</v>
       </c>
       <c r="I13">
-        <v>3.85</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1008,28 +999,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>11939689</v>
+        <v>16368692</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>10.89</v>
+        <v>3.02</v>
       </c>
       <c r="I14">
-        <v>10.74</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1037,28 +1028,28 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>17486266</v>
+        <v>15134725</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>18.46</v>
+        <v>12.3</v>
       </c>
       <c r="I15">
-        <v>22.68</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1066,28 +1057,28 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>14795919</v>
+        <v>16871438</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G16">
-        <v>678</v>
+        <v>1861</v>
       </c>
       <c r="H16">
-        <v>40.29</v>
+        <v>9.01</v>
       </c>
       <c r="I16">
-        <v>56.12</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1095,28 +1086,28 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>35118277</v>
+        <v>17486266</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H17">
-        <v>17.19</v>
+        <v>18.46</v>
       </c>
       <c r="I17">
-        <v>28.34</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1124,28 +1115,28 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>17171383</v>
+        <v>35118277</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>-29</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>12.64</v>
+        <v>17.1</v>
       </c>
       <c r="I18">
-        <v>26.15</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1153,28 +1144,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>15134725</v>
+        <v>14589858</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>468</v>
       </c>
       <c r="H19">
-        <v>12.3</v>
+        <v>15.01</v>
       </c>
       <c r="I19">
-        <v>20.63</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1188,19 +1179,19 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>13881226</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="I20">
         <v>4.39</v>
@@ -1211,28 +1202,28 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>994</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>16871438</v>
+        <v>26025260</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>1868</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>9.039999999999999</v>
+        <v>40.73</v>
       </c>
       <c r="I21">
-        <v>10.58</v>
+        <v>139.03</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1240,28 +1231,28 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22">
-        <v>14413867</v>
+        <v>14795919</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G22">
-        <v>-3</v>
+        <v>678</v>
       </c>
       <c r="H22">
-        <v>4.26</v>
+        <v>40.14</v>
       </c>
       <c r="I22">
-        <v>8.529999999999999</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1269,28 +1260,28 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>14589858</v>
+        <v>17737776</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23">
-        <v>478</v>
+        <v>-15</v>
       </c>
       <c r="H23">
-        <v>15.11</v>
+        <v>4.83</v>
       </c>
       <c r="I23">
-        <v>20.42</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1298,28 +1289,28 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>17737776</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="H24">
-        <v>5.03</v>
+        <v>4.83</v>
       </c>
       <c r="I24">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1327,28 +1318,28 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>17737776</v>
+        <v>17171383</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25">
-        <v>-12</v>
+        <v>-29</v>
       </c>
       <c r="H25">
-        <v>5.03</v>
+        <v>12.64</v>
       </c>
       <c r="I25">
-        <v>11.1</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1356,28 +1347,28 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>22571192</v>
+        <v>14413867</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G26">
-        <v>1558</v>
+        <v>-10</v>
       </c>
       <c r="H26">
-        <v>20.15</v>
+        <v>4.21</v>
       </c>
       <c r="I26">
-        <v>38.71</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1385,28 +1376,28 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>11936640</v>
+        <v>18003632</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G27">
-        <v>2817</v>
+        <v>-5</v>
       </c>
       <c r="H27">
-        <v>10.93</v>
+        <v>3.14</v>
       </c>
       <c r="I27">
-        <v>14.5</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1414,28 +1405,28 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <v>18003632</v>
+        <v>11936640</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28">
-        <v>-2</v>
+        <v>2810</v>
       </c>
       <c r="H28">
-        <v>3.08</v>
+        <v>10.81</v>
       </c>
       <c r="I28">
-        <v>4.91</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1443,28 +1434,28 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>994</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>26025260</v>
+        <v>22571192</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29">
-        <v>42</v>
+        <v>1550</v>
       </c>
       <c r="H29">
-        <v>40.73</v>
+        <v>20.07</v>
       </c>
       <c r="I29">
-        <v>139.03</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1472,28 +1463,28 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>26329148</v>
+        <v>30179650</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="H30">
-        <v>12.94</v>
+        <v>2.89</v>
       </c>
       <c r="I30">
-        <v>20.61</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1504,7 +1495,7 @@
         <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -1513,13 +1504,13 @@
         <v>28503269</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="H31">
-        <v>16.19</v>
+        <v>16.11</v>
       </c>
       <c r="I31">
         <v>21.65</v>
@@ -1530,28 +1521,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>31186309</v>
+        <v>39233880</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G32">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>9.65</v>
+        <v>15.7</v>
       </c>
       <c r="I32">
-        <v>16.85</v>
+        <v>31.68</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1559,28 +1550,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>32130390</v>
+        <v>26329148</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G33">
-        <v>4736</v>
+        <v>248</v>
       </c>
       <c r="H33">
-        <v>21.57</v>
+        <v>12.94</v>
       </c>
       <c r="I33">
-        <v>51.49</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1588,28 +1579,28 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34">
-        <v>17180850</v>
+        <v>31186309</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34">
-        <v>-2</v>
+        <v>212</v>
       </c>
       <c r="H34">
-        <v>2.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I34">
-        <v>2.35</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1617,86 +1608,86 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35">
-        <v>39233880</v>
+        <v>32130390</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35">
-        <v>30</v>
+        <v>4679</v>
       </c>
       <c r="H35">
-        <v>16.02</v>
+        <v>21.5</v>
       </c>
       <c r="I35">
-        <v>32.05</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>30179650</v>
+        <v>13034365</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H36">
-        <v>2.9</v>
+        <v>4.18</v>
       </c>
       <c r="I36">
-        <v>2.26</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>13034365</v>
+        <v>32539989</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G37">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4.18</v>
+        <v>2.5</v>
       </c>
       <c r="I37">
-        <v>7.06</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1707,25 +1698,25 @@
         <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>11939672</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H38">
         <v>10.11</v>
       </c>
       <c r="I38">
-        <v>28.53</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1739,22 +1730,22 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>12054191</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39">
-        <v>2179</v>
+        <v>2103</v>
       </c>
       <c r="H39">
-        <v>20.48</v>
+        <v>20.17</v>
       </c>
       <c r="I39">
-        <v>41.12</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1762,28 +1753,28 @@
         <v>15</v>
       </c>
       <c r="B40">
+        <v>300</v>
+      </c>
+      <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E40">
-        <v>16859111</v>
+        <v>12054191</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2103</v>
       </c>
       <c r="H40">
-        <v>5.75</v>
+        <v>20.17</v>
       </c>
       <c r="I40">
-        <v>3.68</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1791,57 +1782,28 @@
         <v>15</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41">
-        <v>12054191</v>
+        <v>16859111</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41">
-        <v>2179</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>20.48</v>
+        <v>5.75</v>
       </c>
       <c r="I41">
-        <v>41.12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42">
-        <v>32539989</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42">
-        <v>-5</v>
-      </c>
-      <c r="H42">
-        <v>2.5</v>
-      </c>
-      <c r="I42">
-        <v>2.38</v>
+        <v>3.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>data</t>
   </si>
@@ -64,196 +64,250 @@
     <t>2025-06-26</t>
   </si>
   <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
+    <t>RADIO TV DO AMAZONAS LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>RADIO TV DO AMAZONAS LTDA</t>
-  </si>
-  <si>
     <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+  </si>
+  <si>
+    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
     <t>53125557</t>
   </si>
   <si>
+    <t>53181156</t>
+  </si>
+  <si>
     <t>52960828</t>
   </si>
   <si>
-    <t>53181156</t>
-  </si>
-  <si>
     <t>53262310</t>
   </si>
   <si>
     <t>52656287</t>
   </si>
   <si>
-    <t>53349149</t>
+    <t>53350345</t>
   </si>
   <si>
     <t>53401197</t>
   </si>
   <si>
-    <t>53350345</t>
+    <t>53410381</t>
+  </si>
+  <si>
+    <t>53416805</t>
+  </si>
+  <si>
+    <t>53423736</t>
   </si>
   <si>
     <t>53418815</t>
   </si>
   <si>
-    <t>53410381</t>
-  </si>
-  <si>
-    <t>53416805</t>
-  </si>
-  <si>
     <t>53470728</t>
   </si>
   <si>
+    <t>53518964</t>
+  </si>
+  <si>
     <t>53513588</t>
   </si>
   <si>
-    <t>53518964</t>
-  </si>
-  <si>
     <t>53524160</t>
   </si>
   <si>
     <t>53535567</t>
   </si>
   <si>
+    <t>53647951</t>
+  </si>
+  <si>
+    <t>53670179</t>
+  </si>
+  <si>
+    <t>53672093</t>
+  </si>
+  <si>
+    <t>53570037</t>
+  </si>
+  <si>
+    <t>53473082</t>
+  </si>
+  <si>
+    <t>53686393</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
     <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
     <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
     <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>RODO PARA PIA PLASTICO</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
   </si>
 </sst>
 </file>
@@ -611,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>14589837</v>
+        <v>16871438</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>217</v>
+        <v>1831</v>
       </c>
       <c r="H2">
-        <v>12.77</v>
+        <v>8.98</v>
       </c>
       <c r="I2">
-        <v>16.16</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -680,28 +734,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>11939681</v>
+        <v>31564226</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H3">
-        <v>5.86</v>
+        <v>9.17</v>
       </c>
       <c r="I3">
-        <v>10.8</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -709,28 +763,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>31564226</v>
+        <v>12285275</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>13.04</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -738,28 +792,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>16537374</v>
+        <v>11939551</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>2520</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>7.79</v>
+        <v>4.55</v>
       </c>
       <c r="I5">
-        <v>8.19</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -767,28 +821,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>16871438</v>
+        <v>14589837</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>1861</v>
+        <v>153</v>
       </c>
       <c r="H6">
-        <v>9.01</v>
+        <v>13.17</v>
       </c>
       <c r="I6">
-        <v>10.54</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -796,28 +850,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>12285275</v>
+        <v>11939681</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="H7">
-        <v>8.550000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="I7">
-        <v>13.67</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -825,28 +879,28 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>11939551</v>
+        <v>11938282</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>4.57</v>
+        <v>11.07</v>
       </c>
       <c r="I8">
-        <v>9.5</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -857,25 +911,25 @@
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>11938282</v>
+        <v>16537374</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>2502</v>
       </c>
       <c r="H9">
-        <v>11.07</v>
+        <v>7.81</v>
       </c>
       <c r="I9">
-        <v>11.05</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -883,28 +937,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>30179650</v>
+        <v>11938367</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="H10">
-        <v>2.89</v>
+        <v>4.77</v>
       </c>
       <c r="I10">
-        <v>2.26</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -912,28 +966,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>11938367</v>
+        <v>30179650</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G11">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>4.74</v>
+        <v>2.91</v>
       </c>
       <c r="I11">
-        <v>5.84</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -944,25 +998,25 @@
         <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>14413867</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G12">
-        <v>-10</v>
+        <v>183</v>
       </c>
       <c r="H12">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="I12">
-        <v>8.359999999999999</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -970,28 +1024,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>11939689</v>
+        <v>16871438</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13">
-        <v>123</v>
+        <v>1831</v>
       </c>
       <c r="H13">
-        <v>10.89</v>
+        <v>8.98</v>
       </c>
       <c r="I13">
-        <v>10.74</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -999,28 +1053,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>16368692</v>
+        <v>18003632</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="I14">
-        <v>3.85</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1028,28 +1082,28 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>15134725</v>
+        <v>14413867</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="H15">
-        <v>12.3</v>
+        <v>4.18</v>
       </c>
       <c r="I15">
-        <v>20.63</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1057,28 +1111,28 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>16871438</v>
+        <v>17486266</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>1861</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>9.01</v>
+        <v>17.45</v>
       </c>
       <c r="I16">
-        <v>10.54</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1086,28 +1140,28 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>17486266</v>
+        <v>35118277</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="H17">
-        <v>18.46</v>
+        <v>17.74</v>
       </c>
       <c r="I17">
-        <v>22.68</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1115,28 +1169,28 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>35118277</v>
+        <v>16368692</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>17.1</v>
+        <v>2.91</v>
       </c>
       <c r="I18">
-        <v>28.17</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1144,28 +1198,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>14589858</v>
+        <v>11939689</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>468</v>
+        <v>111</v>
       </c>
       <c r="H19">
-        <v>15.01</v>
+        <v>10.93</v>
       </c>
       <c r="I19">
-        <v>20.32</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1173,28 +1227,28 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>13881226</v>
+        <v>11936640</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G20">
-        <v>88</v>
+        <v>2730</v>
       </c>
       <c r="H20">
-        <v>3.28</v>
+        <v>10.69</v>
       </c>
       <c r="I20">
-        <v>4.39</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1202,28 +1256,28 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>994</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>26025260</v>
+        <v>17737776</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G21">
-        <v>42</v>
+        <v>-6</v>
       </c>
       <c r="H21">
-        <v>40.73</v>
+        <v>4.87</v>
       </c>
       <c r="I21">
-        <v>139.03</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1231,28 +1285,28 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>14795919</v>
+        <v>13881226</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>678</v>
+        <v>87</v>
       </c>
       <c r="H22">
-        <v>40.14</v>
+        <v>3.24</v>
       </c>
       <c r="I22">
-        <v>56.26</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1260,28 +1314,28 @@
         <v>12</v>
       </c>
       <c r="B23">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
       </c>
       <c r="E23">
         <v>17737776</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="H23">
-        <v>4.83</v>
+        <v>4.87</v>
       </c>
       <c r="I23">
-        <v>10.76</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1289,28 +1343,28 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>17737776</v>
+        <v>22571192</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G24">
-        <v>-15</v>
+        <v>1485</v>
       </c>
       <c r="H24">
-        <v>4.83</v>
+        <v>19.84</v>
       </c>
       <c r="I24">
-        <v>10.76</v>
+        <v>38.33</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1318,28 +1372,28 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>17171383</v>
+        <v>14589858</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G25">
-        <v>-29</v>
+        <v>444</v>
       </c>
       <c r="H25">
-        <v>12.64</v>
+        <v>15.05</v>
       </c>
       <c r="I25">
-        <v>26.15</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1347,115 +1401,115 @@
         <v>12</v>
       </c>
       <c r="B26">
+        <v>994</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
       <c r="E26">
-        <v>14413867</v>
+        <v>26025260</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="H26">
-        <v>4.21</v>
+        <v>40.25</v>
       </c>
       <c r="I26">
-        <v>8.359999999999999</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>18003632</v>
+        <v>26329148</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G27">
-        <v>-5</v>
+        <v>176</v>
       </c>
       <c r="H27">
-        <v>3.14</v>
+        <v>12.68</v>
       </c>
       <c r="I27">
-        <v>4.95</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>11936640</v>
+        <v>39233880</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>2810</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>10.81</v>
+        <v>15.61</v>
       </c>
       <c r="I28">
-        <v>14.31</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>22571192</v>
+        <v>31186309</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G29">
-        <v>1550</v>
+        <v>199</v>
       </c>
       <c r="H29">
-        <v>20.07</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I29">
-        <v>38.81</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1466,25 +1520,25 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E30">
-        <v>30179650</v>
+        <v>17180850</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="I30">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1492,28 +1546,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>28503269</v>
+        <v>30179650</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G31">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>16.11</v>
+        <v>2.91</v>
       </c>
       <c r="I31">
-        <v>21.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1521,28 +1575,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E32">
-        <v>39233880</v>
+        <v>32130390</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>4451</v>
       </c>
       <c r="H32">
-        <v>15.7</v>
+        <v>21.31</v>
       </c>
       <c r="I32">
-        <v>31.68</v>
+        <v>50.91</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1550,115 +1604,115 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>26329148</v>
+        <v>28503269</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G33">
-        <v>248</v>
+        <v>1242</v>
       </c>
       <c r="H33">
-        <v>12.94</v>
+        <v>15.99</v>
       </c>
       <c r="I33">
-        <v>20.61</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>13034365</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34">
         <v>38</v>
       </c>
-      <c r="E34">
-        <v>31186309</v>
-      </c>
-      <c r="F34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34">
-        <v>212</v>
-      </c>
       <c r="H34">
-        <v>9.710000000000001</v>
+        <v>4.14</v>
       </c>
       <c r="I34">
-        <v>16.98</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E35">
-        <v>32130390</v>
+        <v>11939672</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G35">
-        <v>4679</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>21.5</v>
+        <v>10.08</v>
       </c>
       <c r="I35">
-        <v>51.35</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E36">
-        <v>13034365</v>
+        <v>32539989</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G36">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>4.18</v>
+        <v>2.5</v>
       </c>
       <c r="I36">
-        <v>7.06</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1666,28 +1720,28 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E37">
-        <v>32539989</v>
+        <v>12054191</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1683</v>
       </c>
       <c r="H37">
-        <v>2.5</v>
+        <v>20.25</v>
       </c>
       <c r="I37">
-        <v>2.38</v>
+        <v>40.82</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1695,28 +1749,28 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <v>11939672</v>
+        <v>12054191</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G38">
-        <v>68</v>
+        <v>1683</v>
       </c>
       <c r="H38">
-        <v>10.11</v>
+        <v>20.25</v>
       </c>
       <c r="I38">
-        <v>28.65</v>
+        <v>40.82</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1724,86 +1778,318 @@
         <v>15</v>
       </c>
       <c r="B39">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E39">
-        <v>12054191</v>
+        <v>16859111</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G39">
-        <v>2103</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>20.17</v>
+        <v>5.75</v>
       </c>
       <c r="I39">
-        <v>40.67</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>12054191</v>
+        <v>36212982</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40">
-        <v>2103</v>
+        <v>82</v>
       </c>
       <c r="H40">
-        <v>20.17</v>
+        <v>12.71</v>
       </c>
       <c r="I40">
-        <v>40.67</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E41">
-        <v>16859111</v>
+        <v>14795919</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="H41">
-        <v>5.75</v>
+        <v>40.95</v>
       </c>
       <c r="I41">
-        <v>3.68</v>
+        <v>56.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42">
+        <v>12054191</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42">
+        <v>1683</v>
+      </c>
+      <c r="H42">
+        <v>20.25</v>
+      </c>
+      <c r="I42">
+        <v>40.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>13995643</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43">
+        <v>-30</v>
+      </c>
+      <c r="H43">
+        <v>5.81</v>
+      </c>
+      <c r="I43">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>25282346</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44">
+        <v>104</v>
+      </c>
+      <c r="H44">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="I44">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>28114424</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45">
+        <v>94</v>
+      </c>
+      <c r="H45">
+        <v>5.56</v>
+      </c>
+      <c r="I45">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46">
+        <v>35118277</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46">
+        <v>412</v>
+      </c>
+      <c r="H46">
+        <v>17.74</v>
+      </c>
+      <c r="I46">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>19264853</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47">
+        <v>168</v>
+      </c>
+      <c r="H47">
+        <v>7.96</v>
+      </c>
+      <c r="I47">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <v>17171383</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48">
+        <v>-42</v>
+      </c>
+      <c r="H48">
+        <v>12.27</v>
+      </c>
+      <c r="I48">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>15134725</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>12.46</v>
+      </c>
+      <c r="I49">
+        <v>21.19</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-17</t>
-  </si>
-  <si>
     <t>2025-06-18</t>
   </si>
   <si>
@@ -67,15 +64,18 @@
     <t>2025-06-30</t>
   </si>
   <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>RADIO TV DO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>RADIO TV DO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
   </si>
   <si>
@@ -97,31 +97,34 @@
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+  </si>
+  <si>
     <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
     <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
   </si>
   <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>53125557</t>
+    <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
     <t>53181156</t>
@@ -136,12 +139,12 @@
     <t>52656287</t>
   </si>
   <si>
+    <t>53401197</t>
+  </si>
+  <si>
     <t>53350345</t>
   </si>
   <si>
-    <t>53401197</t>
-  </si>
-  <si>
     <t>53410381</t>
   </si>
   <si>
@@ -160,154 +163,154 @@
     <t>53518964</t>
   </si>
   <si>
+    <t>53535567</t>
+  </si>
+  <si>
     <t>53513588</t>
   </si>
   <si>
     <t>53524160</t>
   </si>
   <si>
-    <t>53535567</t>
+    <t>53672093</t>
+  </si>
+  <si>
+    <t>53686939</t>
+  </si>
+  <si>
+    <t>53570037</t>
+  </si>
+  <si>
+    <t>53674520</t>
   </si>
   <si>
     <t>53647951</t>
   </si>
   <si>
+    <t>53473082</t>
+  </si>
+  <si>
+    <t>53683883</t>
+  </si>
+  <si>
     <t>53670179</t>
   </si>
   <si>
-    <t>53672093</t>
-  </si>
-  <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53686393</t>
+    <t>53703458</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML MARGARIDA TOQUE DE PRIMAVERA</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML ESSENCIA DA TERRA BAMBOO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA ECONOMICO 900G</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>RODO PARA PIA PLASTICO</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>RODO PARA PIA PLASTICO</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
   </si>
   <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,28 +708,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>16871438</v>
+        <v>11938367</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>1831</v>
+        <v>243</v>
       </c>
       <c r="H2">
-        <v>8.98</v>
+        <v>4.76</v>
       </c>
       <c r="I2">
-        <v>10.51</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -734,260 +737,260 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>31564226</v>
+        <v>30179650</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>9.17</v>
+        <v>2.93</v>
       </c>
       <c r="I3">
-        <v>12.92</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>12285275</v>
+        <v>14413867</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>13.87</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>13881226</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>11939551</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
       <c r="G5">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>4.55</v>
+        <v>3.24</v>
       </c>
       <c r="I5">
-        <v>9.51</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>14589837</v>
+        <v>35118277</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>153</v>
+        <v>412</v>
       </c>
       <c r="H6">
-        <v>13.17</v>
+        <v>17.74</v>
       </c>
       <c r="I6">
-        <v>16.29</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>11939681</v>
+        <v>17486266</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>5.75</v>
+        <v>17.45</v>
       </c>
       <c r="I7">
-        <v>10.71</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>11938282</v>
+        <v>11939689</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="H8">
-        <v>11.07</v>
+        <v>10.9</v>
       </c>
       <c r="I8">
-        <v>11.05</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>16537374</v>
+        <v>16368692</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G9">
-        <v>2502</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>7.81</v>
+        <v>2.88</v>
       </c>
       <c r="I9">
-        <v>8.19</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>11938367</v>
+        <v>18003632</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G10">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>4.77</v>
+        <v>3.15</v>
       </c>
       <c r="I10">
-        <v>5.85</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>30179650</v>
+        <v>22571192</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>1455</v>
       </c>
       <c r="H11">
-        <v>2.91</v>
+        <v>19.84</v>
       </c>
       <c r="I11">
-        <v>2.25</v>
+        <v>38.22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -995,202 +998,202 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>14413867</v>
+        <v>17737776</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G12">
-        <v>183</v>
+        <v>-23</v>
       </c>
       <c r="H12">
-        <v>4.18</v>
+        <v>4.88</v>
       </c>
       <c r="I12">
-        <v>8.35</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>994</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>16871438</v>
+        <v>26025260</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G13">
-        <v>1831</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>8.98</v>
+        <v>40.25</v>
       </c>
       <c r="I13">
-        <v>10.51</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="E14">
-        <v>18003632</v>
+        <v>14589858</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="H14">
-        <v>3.15</v>
+        <v>15.12</v>
       </c>
       <c r="I14">
-        <v>4.97</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>14413867</v>
+        <v>11936640</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G15">
-        <v>183</v>
+        <v>2634</v>
       </c>
       <c r="H15">
-        <v>4.18</v>
+        <v>10.78</v>
       </c>
       <c r="I15">
-        <v>8.35</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>17486266</v>
+        <v>17737776</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>39</v>
+        <v>-23</v>
       </c>
       <c r="H16">
-        <v>17.45</v>
+        <v>4.88</v>
       </c>
       <c r="I16">
-        <v>22.15</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>35118277</v>
+        <v>16871438</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>412</v>
+        <v>1824</v>
       </c>
       <c r="H17">
-        <v>17.74</v>
+        <v>8.99</v>
       </c>
       <c r="I17">
-        <v>29.56</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>16368692</v>
+        <v>14413867</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="H18">
-        <v>2.91</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
-        <v>3.77</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1198,28 +1201,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>11939689</v>
+        <v>31186309</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G19">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="H19">
-        <v>10.93</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I19">
-        <v>10.55</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1227,28 +1230,28 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>11936640</v>
+        <v>39233880</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20">
-        <v>2730</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>10.69</v>
+        <v>15.49</v>
       </c>
       <c r="I20">
-        <v>14.22</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1256,28 +1259,28 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>17737776</v>
+        <v>32130390</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G21">
-        <v>-6</v>
+        <v>4346</v>
       </c>
       <c r="H21">
-        <v>4.87</v>
+        <v>21.27</v>
       </c>
       <c r="I21">
-        <v>10.78</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1285,28 +1288,28 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>13881226</v>
+        <v>17180850</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>3.24</v>
+        <v>2.75</v>
       </c>
       <c r="I22">
-        <v>4.36</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1314,28 +1317,28 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>17737776</v>
+        <v>28503269</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>-6</v>
+        <v>1120</v>
       </c>
       <c r="H23">
-        <v>4.87</v>
+        <v>16.04</v>
       </c>
       <c r="I23">
-        <v>10.78</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1343,28 +1346,28 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>22571192</v>
+        <v>26329148</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24">
-        <v>1485</v>
+        <v>176</v>
       </c>
       <c r="H24">
-        <v>19.84</v>
+        <v>12.68</v>
       </c>
       <c r="I24">
-        <v>38.33</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1372,289 +1375,289 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>30179650</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25">
-        <v>14589858</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25">
-        <v>444</v>
-      </c>
       <c r="H25">
-        <v>15.05</v>
+        <v>2.93</v>
       </c>
       <c r="I25">
-        <v>20.28</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>994</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>26025260</v>
+        <v>13034365</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>40.25</v>
+        <v>4.13</v>
       </c>
       <c r="I26">
-        <v>137.73</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>26329148</v>
+        <v>12054191</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>176</v>
+        <v>1358</v>
       </c>
       <c r="H27">
-        <v>12.68</v>
+        <v>20.34</v>
       </c>
       <c r="I27">
-        <v>20.32</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>39233880</v>
+        <v>16859111</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>15.61</v>
+        <v>5.75</v>
       </c>
       <c r="I28">
-        <v>31.56</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>31186309</v>
+        <v>32539989</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>9.529999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I29">
-        <v>16.8</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>17180850</v>
+        <v>12054191</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30">
-        <v>32</v>
+        <v>1358</v>
       </c>
       <c r="H30">
-        <v>2.75</v>
+        <v>20.34</v>
       </c>
       <c r="I30">
-        <v>2.35</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>11939672</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31">
         <v>45</v>
       </c>
-      <c r="E31">
-        <v>30179650</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
       <c r="H31">
-        <v>2.91</v>
+        <v>10.06</v>
       </c>
       <c r="I31">
-        <v>2.25</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>32130390</v>
+        <v>13995643</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G32">
-        <v>4451</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>21.31</v>
+        <v>5.81</v>
       </c>
       <c r="I32">
-        <v>50.91</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>28503269</v>
+        <v>35118277</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G33">
-        <v>1242</v>
+        <v>412</v>
       </c>
       <c r="H33">
-        <v>15.99</v>
+        <v>17.74</v>
       </c>
       <c r="I33">
-        <v>21.55</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E34">
-        <v>13034365</v>
+        <v>14488403</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>-23</v>
       </c>
       <c r="H34">
-        <v>4.14</v>
+        <v>9.65</v>
       </c>
       <c r="I34">
-        <v>6.97</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1662,28 +1665,28 @@
         <v>15</v>
       </c>
       <c r="B35">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E35">
-        <v>11939672</v>
+        <v>25282346</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G35">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="H35">
-        <v>10.08</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I35">
-        <v>28.57</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1691,28 +1694,28 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E36">
-        <v>32539989</v>
+        <v>11936640</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="H36">
-        <v>2.5</v>
+        <v>10.78</v>
       </c>
       <c r="I36">
-        <v>2.38</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1720,28 +1723,28 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E37">
-        <v>12054191</v>
+        <v>36212982</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G37">
-        <v>1683</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>20.25</v>
+        <v>12.71</v>
       </c>
       <c r="I37">
-        <v>40.82</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1749,28 +1752,28 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E38">
-        <v>12054191</v>
+        <v>13451851</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G38">
-        <v>1683</v>
+        <v>91</v>
       </c>
       <c r="H38">
-        <v>20.25</v>
+        <v>7.8</v>
       </c>
       <c r="I38">
-        <v>40.82</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1778,260 +1781,260 @@
         <v>15</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>16859111</v>
+        <v>19264853</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>5.75</v>
+        <v>8.17</v>
       </c>
       <c r="I39">
-        <v>3.68</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40">
-        <v>36212982</v>
+        <v>12060072</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G40">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H40">
-        <v>12.71</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I40">
-        <v>13.92</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41">
-        <v>14795919</v>
+        <v>12054191</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G41">
-        <v>554</v>
+        <v>1358</v>
       </c>
       <c r="H41">
-        <v>40.95</v>
+        <v>20.34</v>
       </c>
       <c r="I41">
-        <v>56.73</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42">
-        <v>12054191</v>
+        <v>28114424</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G42">
-        <v>1683</v>
+        <v>69</v>
       </c>
       <c r="H42">
-        <v>20.25</v>
+        <v>5.82</v>
       </c>
       <c r="I42">
-        <v>40.82</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E43">
-        <v>13995643</v>
+        <v>17171383</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G43">
-        <v>-30</v>
+        <v>-43</v>
       </c>
       <c r="H43">
-        <v>5.81</v>
+        <v>12.14</v>
       </c>
       <c r="I43">
-        <v>9.92</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E44">
-        <v>25282346</v>
+        <v>15134725</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G44">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H44">
-        <v>8.970000000000001</v>
+        <v>12.46</v>
       </c>
       <c r="I44">
-        <v>12.51</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>28114424</v>
+        <v>19044038</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G45">
-        <v>94</v>
+        <v>847</v>
       </c>
       <c r="H45">
-        <v>5.56</v>
+        <v>7.07</v>
       </c>
       <c r="I45">
-        <v>6.61</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E46">
-        <v>35118277</v>
+        <v>14795919</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G46">
-        <v>412</v>
+        <v>554</v>
       </c>
       <c r="H46">
-        <v>17.74</v>
+        <v>40.77</v>
       </c>
       <c r="I46">
-        <v>29.56</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
       </c>
       <c r="E47">
-        <v>19264853</v>
+        <v>12054191</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G47">
-        <v>168</v>
+        <v>1358</v>
       </c>
       <c r="H47">
-        <v>7.96</v>
+        <v>20.34</v>
       </c>
       <c r="I47">
-        <v>11.96</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2039,57 +2042,28 @@
         <v>16</v>
       </c>
       <c r="B48">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>17171383</v>
+        <v>19264853</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G48">
-        <v>-42</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>12.27</v>
+        <v>8.17</v>
       </c>
       <c r="I48">
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49">
-        <v>15134725</v>
-      </c>
-      <c r="F49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49">
-        <v>14</v>
-      </c>
-      <c r="H49">
-        <v>12.46</v>
-      </c>
-      <c r="I49">
-        <v>21.19</v>
+        <v>13.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
     <t>2025-06-20</t>
   </si>
   <si>
@@ -67,70 +64,73 @@
     <t>2025-07-01</t>
   </si>
   <si>
-    <t>RADIO TV DO AMAZONAS LTDA</t>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
   </si>
   <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
     <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
-    <t>53181156</t>
-  </si>
-  <si>
-    <t>52960828</t>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
     <t>53262310</t>
@@ -139,10 +139,13 @@
     <t>52656287</t>
   </si>
   <si>
+    <t>53350345</t>
+  </si>
+  <si>
     <t>53401197</t>
   </si>
   <si>
-    <t>53350345</t>
+    <t>53423736</t>
   </si>
   <si>
     <t>53410381</t>
@@ -151,9 +154,6 @@
     <t>53416805</t>
   </si>
   <si>
-    <t>53423736</t>
-  </si>
-  <si>
     <t>53418815</t>
   </si>
   <si>
@@ -163,154 +163,187 @@
     <t>53518964</t>
   </si>
   <si>
+    <t>53524160</t>
+  </si>
+  <si>
+    <t>53513588</t>
+  </si>
+  <si>
     <t>53535567</t>
   </si>
   <si>
-    <t>53513588</t>
-  </si>
-  <si>
-    <t>53524160</t>
+    <t>53686939</t>
+  </si>
+  <si>
+    <t>53674520</t>
   </si>
   <si>
     <t>53672093</t>
   </si>
   <si>
-    <t>53686939</t>
+    <t>53670179</t>
+  </si>
+  <si>
+    <t>53473082</t>
   </si>
   <si>
     <t>53570037</t>
   </si>
   <si>
-    <t>53674520</t>
+    <t>53349149</t>
   </si>
   <si>
     <t>53647951</t>
   </si>
   <si>
-    <t>53473082</t>
-  </si>
-  <si>
     <t>53683883</t>
   </si>
   <si>
-    <t>53670179</t>
+    <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>53786165</t>
+  </si>
+  <si>
+    <t>53735480</t>
+  </si>
+  <si>
+    <t>53772141</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>RODO PARA PIA PLASTICO</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
   </si>
   <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>RODO PARA PIA PLASTICO</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
     <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
   </si>
   <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
   </si>
   <si>
     <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
   </si>
   <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
     <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>RODO COM CABO G 60CM</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
   </si>
 </sst>
 </file>
@@ -668,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,57 +741,57 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>11938367</v>
+        <v>14413867</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="H2">
-        <v>4.76</v>
+        <v>4.22</v>
       </c>
       <c r="I2">
-        <v>5.84</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>30179650</v>
+        <v>14413867</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="H3">
-        <v>2.93</v>
+        <v>4.22</v>
       </c>
       <c r="I3">
-        <v>2.26</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -766,193 +799,193 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>14413867</v>
+        <v>17737776</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>168</v>
+        <v>-20</v>
       </c>
       <c r="H4">
-        <v>4.2</v>
+        <v>4.92</v>
       </c>
       <c r="I4">
-        <v>8.33</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>13881226</v>
+        <v>35118277</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="H5">
-        <v>3.24</v>
+        <v>17.71</v>
       </c>
       <c r="I5">
-        <v>4.36</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6">
-        <v>35118277</v>
+        <v>11936640</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>412</v>
+        <v>2601</v>
       </c>
       <c r="H6">
-        <v>17.74</v>
+        <v>10.76</v>
       </c>
       <c r="I6">
-        <v>29.56</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>17486266</v>
+        <v>13881226</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H7">
-        <v>17.45</v>
+        <v>3.27</v>
       </c>
       <c r="I7">
-        <v>22.15</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8">
-        <v>11939689</v>
+        <v>14589858</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="H8">
-        <v>10.9</v>
+        <v>15.13</v>
       </c>
       <c r="I8">
-        <v>10.37</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>16368692</v>
+        <v>17737776</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="H9">
-        <v>2.88</v>
+        <v>4.92</v>
       </c>
       <c r="I9">
-        <v>3.75</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>18003632</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -966,176 +999,176 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>994</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>22571192</v>
+        <v>26025260</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11">
-        <v>1455</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>19.84</v>
+        <v>40.25</v>
       </c>
       <c r="I11">
-        <v>38.22</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>17737776</v>
+        <v>16368692</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>4.88</v>
+        <v>2.88</v>
       </c>
       <c r="I12">
-        <v>10.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>994</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>26025260</v>
+        <v>11939689</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>40.25</v>
+        <v>11.19</v>
       </c>
       <c r="I13">
-        <v>137.73</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>14589858</v>
+        <v>17486266</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>15.12</v>
+        <v>17.45</v>
       </c>
       <c r="I14">
-        <v>20.37</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15">
-        <v>11936640</v>
+        <v>16871438</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15">
-        <v>2634</v>
+        <v>1798</v>
       </c>
       <c r="H15">
-        <v>10.78</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I15">
-        <v>14.55</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16">
-        <v>17737776</v>
+        <v>22571192</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>-23</v>
+        <v>1442</v>
       </c>
       <c r="H16">
-        <v>4.88</v>
+        <v>19.81</v>
       </c>
       <c r="I16">
-        <v>10.76</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1143,28 +1176,28 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>16871438</v>
+        <v>17180850</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17">
-        <v>1824</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>8.99</v>
+        <v>2.75</v>
       </c>
       <c r="I17">
-        <v>10.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1172,173 +1205,173 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>14413867</v>
+        <v>31186309</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H18">
-        <v>4.2</v>
+        <v>9.44</v>
       </c>
       <c r="I18">
-        <v>8.33</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>31186309</v>
+        <v>32130390</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G19">
-        <v>199</v>
+        <v>4190</v>
       </c>
       <c r="H19">
-        <v>9.529999999999999</v>
+        <v>21.24</v>
       </c>
       <c r="I19">
-        <v>16.8</v>
+        <v>50.58</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>39233880</v>
+        <v>30179650</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>15.49</v>
+        <v>2.93</v>
       </c>
       <c r="I20">
-        <v>31.46</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21">
-        <v>32130390</v>
+        <v>26329148</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G21">
-        <v>4346</v>
+        <v>164</v>
       </c>
       <c r="H21">
-        <v>21.27</v>
+        <v>12.68</v>
       </c>
       <c r="I21">
-        <v>50.77</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
-        <v>17180850</v>
+        <v>28503269</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G22">
-        <v>32</v>
+        <v>1095</v>
       </c>
       <c r="H22">
-        <v>2.75</v>
+        <v>16.02</v>
       </c>
       <c r="I22">
-        <v>2.35</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>28503269</v>
+        <v>39233880</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G23">
-        <v>1120</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>16.04</v>
+        <v>15.49</v>
       </c>
       <c r="I23">
-        <v>21.6</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,57 +1379,57 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>26329148</v>
+        <v>13034365</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G24">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>12.68</v>
+        <v>4.13</v>
       </c>
       <c r="I24">
-        <v>20.32</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>30179650</v>
+        <v>11939672</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>2.93</v>
+        <v>10.07</v>
       </c>
       <c r="I25">
-        <v>2.26</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1404,115 +1437,115 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>13034365</v>
+        <v>12054191</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G26">
-        <v>37</v>
+        <v>1043</v>
       </c>
       <c r="H26">
-        <v>4.13</v>
+        <v>20.47</v>
       </c>
       <c r="I26">
-        <v>6.98</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>12054191</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G27">
-        <v>1358</v>
+        <v>1043</v>
       </c>
       <c r="H27">
-        <v>20.34</v>
+        <v>20.47</v>
       </c>
       <c r="I27">
-        <v>41.02</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>16859111</v>
+        <v>32539989</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="I28">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29">
-        <v>32539989</v>
+        <v>16859111</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="I29">
-        <v>2.38</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1520,28 +1553,28 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30">
-        <v>12054191</v>
+        <v>19044038</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G30">
-        <v>1358</v>
+        <v>847</v>
       </c>
       <c r="H30">
-        <v>20.34</v>
+        <v>7.13</v>
       </c>
       <c r="I30">
-        <v>41.02</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1549,434 +1582,434 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>11939672</v>
+        <v>12054191</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G31">
-        <v>45</v>
+        <v>1043</v>
       </c>
       <c r="H31">
-        <v>10.06</v>
+        <v>20.47</v>
       </c>
       <c r="I31">
-        <v>28.5</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32">
-        <v>13995643</v>
+        <v>12054191</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>1043</v>
       </c>
       <c r="H32">
-        <v>5.81</v>
+        <v>20.47</v>
       </c>
       <c r="I32">
-        <v>9.92</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
       </c>
       <c r="E33">
-        <v>35118277</v>
+        <v>14488403</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>17.74</v>
+        <v>9.65</v>
       </c>
       <c r="I33">
-        <v>29.56</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>14488403</v>
+        <v>14795919</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G34">
-        <v>-23</v>
+        <v>554</v>
       </c>
       <c r="H34">
-        <v>9.65</v>
+        <v>41.19</v>
       </c>
       <c r="I34">
-        <v>9.119999999999999</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35">
-        <v>25282346</v>
+        <v>19264853</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G35">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="H35">
-        <v>8.970000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="I35">
-        <v>12.51</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E36">
-        <v>11936640</v>
+        <v>25282346</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G36">
-        <v>2634</v>
+        <v>84</v>
       </c>
       <c r="H36">
-        <v>10.78</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>14.55</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37">
-        <v>36212982</v>
+        <v>17171383</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G37">
-        <v>82</v>
+        <v>-43</v>
       </c>
       <c r="H37">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="I37">
-        <v>13.92</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>13451851</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="H38">
-        <v>7.8</v>
+        <v>7.28</v>
       </c>
       <c r="I38">
-        <v>17.85</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E39">
-        <v>19264853</v>
+        <v>12060072</v>
       </c>
       <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39">
         <v>92</v>
       </c>
-      <c r="G39">
-        <v>15</v>
-      </c>
       <c r="H39">
-        <v>8.17</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="I39">
-        <v>13.01</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>12060072</v>
+        <v>35118277</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G40">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="H40">
-        <v>9.140000000000001</v>
+        <v>17.71</v>
       </c>
       <c r="I40">
-        <v>12.14</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>12054191</v>
+        <v>28114424</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>1358</v>
+        <v>69</v>
       </c>
       <c r="H41">
-        <v>20.34</v>
+        <v>5.82</v>
       </c>
       <c r="I41">
-        <v>41.02</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
         <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42">
-        <v>28114424</v>
+        <v>13995643</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H42">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="I42">
-        <v>6.95</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E43">
-        <v>17171383</v>
+        <v>11936640</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G43">
-        <v>-43</v>
+        <v>2601</v>
       </c>
       <c r="H43">
-        <v>12.14</v>
+        <v>10.76</v>
       </c>
       <c r="I43">
-        <v>24.9</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44">
-        <v>15134725</v>
+        <v>36212982</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H44">
-        <v>12.46</v>
+        <v>12.71</v>
       </c>
       <c r="I44">
-        <v>21.19</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E45">
-        <v>19044038</v>
+        <v>15134725</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G45">
-        <v>847</v>
+        <v>14</v>
       </c>
       <c r="H45">
-        <v>7.07</v>
+        <v>12.69</v>
       </c>
       <c r="I45">
-        <v>9.619999999999999</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1984,28 +2017,28 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46">
-        <v>14795919</v>
+        <v>32870371</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G46">
-        <v>554</v>
+        <v>1734</v>
       </c>
       <c r="H46">
-        <v>40.77</v>
+        <v>40.94</v>
       </c>
       <c r="I46">
-        <v>56.86</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2013,57 +2046,231 @@
         <v>15</v>
       </c>
       <c r="B47">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>12054191</v>
+        <v>19264853</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G47">
-        <v>1358</v>
+        <v>468</v>
       </c>
       <c r="H47">
-        <v>20.34</v>
+        <v>8.23</v>
       </c>
       <c r="I47">
-        <v>41.02</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <v>12765515</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48">
+        <v>-6</v>
+      </c>
+      <c r="H48">
+        <v>2.74</v>
+      </c>
+      <c r="I48">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <v>11939530</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4.1</v>
+      </c>
+      <c r="I49">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50">
+        <v>12054191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50">
+        <v>1043</v>
+      </c>
+      <c r="H50">
+        <v>20.47</v>
+      </c>
+      <c r="I50">
+        <v>41.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
         <v>16</v>
       </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48">
-        <v>19264853</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48">
-        <v>15</v>
-      </c>
-      <c r="H48">
-        <v>8.17</v>
-      </c>
-      <c r="I48">
-        <v>13.01</v>
+      <c r="B51">
+        <v>300</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>14667825</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51">
+        <v>1353</v>
+      </c>
+      <c r="H51">
+        <v>38.27</v>
+      </c>
+      <c r="I51">
+        <v>83.29000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>11939607</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52">
+        <v>181</v>
+      </c>
+      <c r="H52">
+        <v>5.52</v>
+      </c>
+      <c r="I52">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53">
+        <v>11905183</v>
+      </c>
+      <c r="F53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>2.66</v>
+      </c>
+      <c r="I53">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54">
+        <v>11904818</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54">
+        <v>-3</v>
+      </c>
+      <c r="H54">
+        <v>2.58</v>
+      </c>
+      <c r="I54">
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="118">
   <si>
     <t>data</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2025-07-02</t>
   </si>
   <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
@@ -76,63 +79,66 @@
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
+  </si>
+  <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
     <t>53262310</t>
   </si>
   <si>
@@ -145,31 +151,31 @@
     <t>53401197</t>
   </si>
   <si>
-    <t>53423736</t>
+    <t>53416805</t>
   </si>
   <si>
     <t>53410381</t>
   </si>
   <si>
-    <t>53416805</t>
-  </si>
-  <si>
     <t>53418815</t>
   </si>
   <si>
     <t>53470728</t>
   </si>
   <si>
+    <t>53535567</t>
+  </si>
+  <si>
     <t>53518964</t>
   </si>
   <si>
-    <t>53524160</t>
+    <t>53519543</t>
   </si>
   <si>
     <t>53513588</t>
   </si>
   <si>
-    <t>53535567</t>
+    <t>53672093</t>
   </si>
   <si>
     <t>53686939</t>
@@ -178,115 +184,133 @@
     <t>53674520</t>
   </si>
   <si>
-    <t>53672093</t>
+    <t>53570037</t>
   </si>
   <si>
     <t>53670179</t>
   </si>
   <si>
+    <t>53647951</t>
+  </si>
+  <si>
     <t>53473082</t>
   </si>
   <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53349149</t>
-  </si>
-  <si>
-    <t>53647951</t>
-  </si>
-  <si>
-    <t>53683883</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
+    <t>53772141</t>
+  </si>
+  <si>
+    <t>53735480</t>
+  </si>
+  <si>
     <t>53786165</t>
   </si>
   <si>
-    <t>53735480</t>
-  </si>
-  <si>
-    <t>53772141</t>
+    <t>53833482</t>
+  </si>
+  <si>
+    <t>53826453</t>
+  </si>
+  <si>
+    <t>53823314</t>
+  </si>
+  <si>
+    <t>53815219</t>
   </si>
   <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
     <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>RODO PARA PIA PLASTICO</t>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
   </si>
   <si>
     <t>LA DE ACO ASSOLAN 45G</t>
   </si>
   <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
     <t>SABAO EM BARRA ECONOMICO 900G</t>
   </si>
   <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
+    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
     <t>SABAO EM BARRA NEUTRO YPE 900G</t>
   </si>
   <si>
-    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
@@ -295,43 +319,34 @@
     <t>INSETICIDA SBP AEROSSOL 380ML</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
   </si>
   <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
     <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>RODO COM CABO G 60CM</t>
   </si>
   <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>RODO COM CABO G 60CM</t>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
   </si>
   <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
@@ -340,10 +355,19 @@
     <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
 </sst>
 </file>
@@ -701,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,16 +768,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>14413867</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>142</v>
@@ -770,28 +794,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>14413867</v>
+        <v>13881226</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>4.22</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>8.33</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -799,28 +823,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>17737776</v>
+        <v>16871438</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>-20</v>
+        <v>1764</v>
       </c>
       <c r="H4">
-        <v>4.92</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>10.75</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -828,28 +852,28 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>35118277</v>
+        <v>14589858</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="H5">
-        <v>17.71</v>
+        <v>15.19</v>
       </c>
       <c r="I5">
-        <v>29.47</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -857,28 +881,28 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>994</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>11936640</v>
+        <v>26025260</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G6">
-        <v>2601</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>10.76</v>
+        <v>40.25</v>
       </c>
       <c r="I6">
-        <v>14.55</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -886,28 +910,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>13881226</v>
+        <v>14413867</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="H7">
-        <v>3.27</v>
+        <v>4.22</v>
       </c>
       <c r="I7">
-        <v>4.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -915,28 +939,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>14589858</v>
+        <v>18003632</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>15.13</v>
+        <v>3.14</v>
       </c>
       <c r="I8">
-        <v>20.37</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -947,25 +971,25 @@
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>17737776</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>-20</v>
+        <v>175</v>
       </c>
       <c r="H9">
-        <v>4.92</v>
+        <v>4.95</v>
       </c>
       <c r="I9">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -973,28 +997,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>18003632</v>
+        <v>17737776</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="H10">
-        <v>3.15</v>
+        <v>4.95</v>
       </c>
       <c r="I10">
-        <v>4.97</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1002,28 +1026,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>994</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>26025260</v>
+        <v>16368692</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>40.25</v>
+        <v>2.88</v>
       </c>
       <c r="I11">
-        <v>137.73</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1031,28 +1055,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>16368692</v>
+        <v>11939689</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>2.88</v>
+        <v>11.19</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1060,28 +1084,28 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>11939689</v>
+        <v>17486266</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>11.19</v>
+        <v>17.45</v>
       </c>
       <c r="I13">
-        <v>10.33</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1089,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1098,19 +1122,19 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <v>17486266</v>
+        <v>35118277</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="H14">
-        <v>17.45</v>
+        <v>17.71</v>
       </c>
       <c r="I14">
-        <v>22.15</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1118,28 +1142,28 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>16871438</v>
+        <v>11936640</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15">
-        <v>1798</v>
+        <v>2567</v>
       </c>
       <c r="H15">
-        <v>8.970000000000001</v>
+        <v>10.71</v>
       </c>
       <c r="I15">
-        <v>10.51</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1150,25 +1174,25 @@
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>22571192</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G16">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="H16">
-        <v>19.81</v>
+        <v>19.56</v>
       </c>
       <c r="I16">
-        <v>38.12</v>
+        <v>38.07</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1176,28 +1200,28 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>17180850</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>4147</v>
       </c>
       <c r="H17">
-        <v>2.75</v>
+        <v>21.18</v>
       </c>
       <c r="I17">
-        <v>2.35</v>
+        <v>50.47</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1205,28 +1229,28 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>31186309</v>
+        <v>39233880</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="H18">
-        <v>9.44</v>
+        <v>15.49</v>
       </c>
       <c r="I18">
-        <v>16.69</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1234,28 +1258,28 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>32130390</v>
+        <v>28503269</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G19">
-        <v>4190</v>
+        <v>1090</v>
       </c>
       <c r="H19">
-        <v>21.24</v>
+        <v>15.97</v>
       </c>
       <c r="I19">
-        <v>50.58</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1263,28 +1287,28 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20">
-        <v>30179650</v>
+        <v>31186309</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="H20">
-        <v>2.93</v>
+        <v>9.4</v>
       </c>
       <c r="I20">
-        <v>2.26</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1292,28 +1316,28 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>26329148</v>
+        <v>30179650</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>12.68</v>
+        <v>2.93</v>
       </c>
       <c r="I21">
-        <v>20.28</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1321,86 +1345,86 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>28503269</v>
+        <v>26329148</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G22">
-        <v>1095</v>
+        <v>159</v>
       </c>
       <c r="H22">
-        <v>16.02</v>
+        <v>12.65</v>
       </c>
       <c r="I22">
-        <v>21.57</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>39233880</v>
+        <v>13034365</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>15.49</v>
+        <v>4.13</v>
       </c>
       <c r="I23">
-        <v>31.46</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>13034365</v>
+        <v>16859111</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>4.13</v>
+        <v>5.75</v>
       </c>
       <c r="I24">
-        <v>6.98</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1408,28 +1432,28 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>11939672</v>
+        <v>12054191</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G25">
-        <v>41</v>
+        <v>968</v>
       </c>
       <c r="H25">
-        <v>10.07</v>
+        <v>19.96</v>
       </c>
       <c r="I25">
-        <v>28.5</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1437,28 +1461,28 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>12054191</v>
+        <v>11939672</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26">
-        <v>1043</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>20.47</v>
+        <v>9.74</v>
       </c>
       <c r="I26">
-        <v>41.24</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1469,25 +1493,25 @@
         <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>12054191</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G27">
-        <v>1043</v>
+        <v>968</v>
       </c>
       <c r="H27">
-        <v>20.47</v>
+        <v>19.96</v>
       </c>
       <c r="I27">
-        <v>41.24</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1498,16 +1522,16 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>32539989</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1521,31 +1545,31 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>16859111</v>
+        <v>35118277</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="H29">
-        <v>5.75</v>
+        <v>17.71</v>
       </c>
       <c r="I29">
-        <v>3.68</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1553,28 +1577,28 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>19044038</v>
+        <v>20651572</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G30">
-        <v>847</v>
+        <v>77</v>
       </c>
       <c r="H30">
-        <v>7.13</v>
+        <v>1.57</v>
       </c>
       <c r="I30">
-        <v>9.66</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1585,25 +1609,25 @@
         <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>12054191</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G31">
-        <v>1043</v>
+        <v>968</v>
       </c>
       <c r="H31">
-        <v>20.47</v>
+        <v>19.96</v>
       </c>
       <c r="I31">
-        <v>41.24</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1611,28 +1635,28 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>12054191</v>
+        <v>28114424</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>1043</v>
+        <v>69</v>
       </c>
       <c r="H32">
-        <v>20.47</v>
+        <v>5.82</v>
       </c>
       <c r="I32">
-        <v>41.24</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1640,28 +1664,28 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>14488403</v>
+        <v>12054191</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>37</v>
+        <v>968</v>
       </c>
       <c r="H33">
-        <v>9.65</v>
+        <v>19.96</v>
       </c>
       <c r="I33">
-        <v>9.119999999999999</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1669,28 +1693,28 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>14795919</v>
+        <v>15134725</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G34">
-        <v>554</v>
+        <v>14</v>
       </c>
       <c r="H34">
-        <v>41.19</v>
+        <v>12.69</v>
       </c>
       <c r="I34">
-        <v>57.08</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1698,28 +1722,28 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35">
-        <v>19264853</v>
+        <v>14795919</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G35">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="H35">
-        <v>8.23</v>
+        <v>41.19</v>
       </c>
       <c r="I35">
-        <v>13.08</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1727,28 +1751,28 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36">
-        <v>25282346</v>
+        <v>36212982</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G36">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>12.71</v>
       </c>
       <c r="I36">
-        <v>12.31</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1756,28 +1780,28 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E37">
-        <v>17171383</v>
+        <v>13451851</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G37">
-        <v>-43</v>
+        <v>201</v>
       </c>
       <c r="H37">
-        <v>12.55</v>
+        <v>7.28</v>
       </c>
       <c r="I37">
-        <v>26.71</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1788,25 +1812,25 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38">
-        <v>13451851</v>
+        <v>19044038</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38">
-        <v>201</v>
+        <v>847</v>
       </c>
       <c r="H38">
-        <v>7.28</v>
+        <v>7.13</v>
       </c>
       <c r="I38">
-        <v>12.8</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1814,28 +1838,28 @@
         <v>14</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39">
-        <v>12060072</v>
+        <v>14488403</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G39">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>9.109999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="I39">
-        <v>12.13</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1843,28 +1867,28 @@
         <v>14</v>
       </c>
       <c r="B40">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>35118277</v>
+        <v>19264853</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G40">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="H40">
-        <v>17.71</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I40">
-        <v>29.47</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1872,28 +1896,28 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41">
-        <v>28114424</v>
+        <v>25282346</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G41">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H41">
-        <v>5.82</v>
+        <v>9.02</v>
       </c>
       <c r="I41">
-        <v>6.95</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1901,28 +1925,28 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42">
-        <v>13995643</v>
+        <v>11936640</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>2567</v>
       </c>
       <c r="H42">
-        <v>5.78</v>
+        <v>10.71</v>
       </c>
       <c r="I42">
-        <v>9.779999999999999</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1930,28 +1954,28 @@
         <v>14</v>
       </c>
       <c r="B43">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43">
-        <v>11936640</v>
+        <v>12060072</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G43">
-        <v>2601</v>
+        <v>92</v>
       </c>
       <c r="H43">
-        <v>10.76</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="I43">
-        <v>14.55</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1959,28 +1983,28 @@
         <v>14</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44">
-        <v>36212982</v>
+        <v>17171383</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G44">
-        <v>82</v>
+        <v>-44</v>
       </c>
       <c r="H44">
-        <v>12.71</v>
+        <v>12.55</v>
       </c>
       <c r="I44">
-        <v>13.92</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1988,28 +2012,28 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>15134725</v>
+        <v>13995643</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>12.69</v>
+        <v>5.78</v>
       </c>
       <c r="I45">
-        <v>21.34</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2017,28 +2041,28 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>32870371</v>
+        <v>12765515</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G46">
-        <v>1734</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>40.94</v>
+        <v>2.73</v>
       </c>
       <c r="I46">
-        <v>126.49</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2046,28 +2070,28 @@
         <v>15</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47">
-        <v>19264853</v>
+        <v>12054191</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G47">
-        <v>468</v>
+        <v>968</v>
       </c>
       <c r="H47">
-        <v>8.23</v>
+        <v>19.96</v>
       </c>
       <c r="I47">
-        <v>13.08</v>
+        <v>38.92</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2075,28 +2099,28 @@
         <v>15</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>12765515</v>
+        <v>11939530</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G48">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
       <c r="I48">
-        <v>2.37</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2104,28 +2128,28 @@
         <v>15</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
         <v>61</v>
       </c>
       <c r="E49">
-        <v>11939530</v>
+        <v>19264853</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>459</v>
       </c>
       <c r="H49">
-        <v>4.1</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I49">
-        <v>3.59</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2133,28 +2157,28 @@
         <v>15</v>
       </c>
       <c r="B50">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50">
-        <v>12054191</v>
+        <v>32870371</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G50">
-        <v>1043</v>
+        <v>1734</v>
       </c>
       <c r="H50">
-        <v>20.47</v>
+        <v>40.94</v>
       </c>
       <c r="I50">
-        <v>41.24</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2162,28 +2186,28 @@
         <v>16</v>
       </c>
       <c r="B51">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51">
-        <v>14667825</v>
+        <v>11905183</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G51">
-        <v>1353</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>38.27</v>
+        <v>2.68</v>
       </c>
       <c r="I51">
-        <v>83.29000000000001</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2191,28 +2215,28 @@
         <v>16</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52">
-        <v>11939607</v>
+        <v>11904818</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G52">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>5.52</v>
+        <v>2.59</v>
       </c>
       <c r="I52">
-        <v>6.74</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2220,28 +2244,28 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53">
-        <v>11905183</v>
+        <v>14667825</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1353</v>
       </c>
       <c r="H53">
-        <v>2.66</v>
+        <v>38.27</v>
       </c>
       <c r="I53">
-        <v>2.82</v>
+        <v>83.29000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2249,28 +2273,173 @@
         <v>16</v>
       </c>
       <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54">
+        <v>11939607</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54">
+        <v>179</v>
+      </c>
+      <c r="H54">
+        <v>5.51</v>
+      </c>
+      <c r="I54">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>15134727</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>5.06</v>
+      </c>
+      <c r="I55">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56">
         <v>10</v>
       </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54">
-        <v>11904818</v>
-      </c>
-      <c r="F54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54">
-        <v>-3</v>
-      </c>
-      <c r="H54">
-        <v>2.58</v>
-      </c>
-      <c r="I54">
-        <v>2.38</v>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>19006053</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56">
+        <v>-10</v>
+      </c>
+      <c r="H56">
+        <v>2.62</v>
+      </c>
+      <c r="I56">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57">
+        <v>16349511</v>
+      </c>
+      <c r="F57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57">
+        <v>80</v>
+      </c>
+      <c r="H57">
+        <v>4.16</v>
+      </c>
+      <c r="I57">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58">
+        <v>11938640</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58">
+        <v>60</v>
+      </c>
+      <c r="H58">
+        <v>5.16</v>
+      </c>
+      <c r="I58">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59">
+        <v>11938367</v>
+      </c>
+      <c r="F59" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59">
+        <v>166</v>
+      </c>
+      <c r="H59">
+        <v>4.82</v>
+      </c>
+      <c r="I59">
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="120">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-20</t>
-  </si>
-  <si>
     <t>2025-06-23</t>
   </si>
   <si>
@@ -70,57 +67,60 @@
     <t>2025-07-03</t>
   </si>
   <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
-  </si>
-  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+  </si>
+  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
   </si>
   <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
@@ -133,15 +133,12 @@
     <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
   </si>
   <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
     <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>53262310</t>
-  </si>
-  <si>
     <t>52656287</t>
   </si>
   <si>
@@ -154,61 +151,70 @@
     <t>53416805</t>
   </si>
   <si>
+    <t>53418815</t>
+  </si>
+  <si>
     <t>53410381</t>
   </si>
   <si>
-    <t>53418815</t>
-  </si>
-  <si>
     <t>53470728</t>
   </si>
   <si>
     <t>53535567</t>
   </si>
   <si>
+    <t>53513588</t>
+  </si>
+  <si>
+    <t>53519543</t>
+  </si>
+  <si>
     <t>53518964</t>
   </si>
   <si>
-    <t>53519543</t>
-  </si>
-  <si>
-    <t>53513588</t>
+    <t>53683883</t>
+  </si>
+  <si>
+    <t>53686939</t>
   </si>
   <si>
     <t>53672093</t>
   </si>
   <si>
-    <t>53686939</t>
+    <t>53670179</t>
+  </si>
+  <si>
+    <t>53570037</t>
+  </si>
+  <si>
+    <t>53473082</t>
+  </si>
+  <si>
+    <t>53349149</t>
   </si>
   <si>
     <t>53674520</t>
   </si>
   <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53670179</t>
-  </si>
-  <si>
     <t>53647951</t>
   </si>
   <si>
-    <t>53473082</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
+    <t>53786165</t>
+  </si>
+  <si>
     <t>53772141</t>
   </si>
   <si>
     <t>53735480</t>
   </si>
   <si>
-    <t>53786165</t>
+    <t>53823314</t>
   </si>
   <si>
     <t>53833482</t>
@@ -217,66 +223,66 @@
     <t>53826453</t>
   </si>
   <si>
-    <t>53823314</t>
-  </si>
-  <si>
     <t>53815219</t>
   </si>
   <si>
+    <t>53876861</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+  </si>
+  <si>
     <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
   </si>
   <si>
+    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
+    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
     <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
   </si>
   <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
     <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
   </si>
   <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA ECONOMICO 900G</t>
-  </si>
-  <si>
     <t>LIMPA ALUMINIO BRINORT 500ML</t>
   </si>
   <si>
@@ -286,82 +292,82 @@
     <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
   </si>
   <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
     <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
   </si>
   <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
     <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
   </si>
   <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
     <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>RODO COM CABO G 60CM</t>
   </si>
   <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
-    <t>RODO COM CABO G 60CM</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
   </si>
   <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
     <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
   </si>
   <si>
     <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
   </si>
   <si>
     <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
   </si>
   <si>
     <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
@@ -765,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -774,271 +780,271 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>14413867</v>
+        <v>14589858</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>142</v>
+        <v>429</v>
       </c>
       <c r="H2">
-        <v>4.22</v>
+        <v>15.13</v>
       </c>
       <c r="I2">
-        <v>8.33</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>13881226</v>
+        <v>11936640</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>2535</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>10.74</v>
       </c>
       <c r="I3">
-        <v>4.35</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>16871438</v>
+        <v>14413867</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>1764</v>
+        <v>138</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4.23</v>
       </c>
       <c r="I4">
-        <v>10.53</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>14589858</v>
+        <v>22571192</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5">
-        <v>432</v>
+        <v>1437</v>
       </c>
       <c r="H5">
-        <v>15.19</v>
+        <v>19.56</v>
       </c>
       <c r="I5">
-        <v>20.41</v>
+        <v>38.07</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>994</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>26025260</v>
+        <v>17737776</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="H6">
-        <v>40.25</v>
+        <v>4.96</v>
       </c>
       <c r="I6">
-        <v>137.73</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>14413867</v>
+        <v>17486266</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>4.22</v>
+        <v>17.45</v>
       </c>
       <c r="I7">
-        <v>8.33</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>18003632</v>
+        <v>17737776</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="H8">
-        <v>3.14</v>
+        <v>4.96</v>
       </c>
       <c r="I8">
-        <v>4.96</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>17737776</v>
+        <v>11939689</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="H9">
-        <v>4.95</v>
+        <v>11.19</v>
       </c>
       <c r="I9">
-        <v>10.76</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>17737776</v>
+        <v>13881226</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>4.95</v>
+        <v>3.26</v>
       </c>
       <c r="I10">
-        <v>10.76</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>16368692</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1052,80 +1058,80 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>11939689</v>
+        <v>16871438</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>81</v>
+        <v>1750</v>
       </c>
       <c r="H12">
-        <v>11.19</v>
+        <v>8.99</v>
       </c>
       <c r="I12">
-        <v>10.33</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>17486266</v>
+        <v>18003632</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>17.45</v>
+        <v>3.14</v>
       </c>
       <c r="I13">
-        <v>22.15</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>35118277</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>399</v>
@@ -1139,10 +1145,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>994</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1151,19 +1157,19 @@
         <v>42</v>
       </c>
       <c r="E15">
-        <v>11936640</v>
+        <v>26025260</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15">
-        <v>2567</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>10.71</v>
+        <v>39.76</v>
       </c>
       <c r="I15">
-        <v>14.53</v>
+        <v>136.47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1171,173 +1177,173 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>22571192</v>
+        <v>32130390</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>1437</v>
+        <v>4094</v>
       </c>
       <c r="H16">
-        <v>19.56</v>
+        <v>21.13</v>
       </c>
       <c r="I16">
-        <v>38.07</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>30179650</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>4147</v>
+        <v>-4</v>
       </c>
       <c r="H17">
-        <v>21.18</v>
+        <v>2.88</v>
       </c>
       <c r="I17">
-        <v>50.47</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>39233880</v>
+        <v>28503269</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>1044</v>
       </c>
       <c r="H18">
-        <v>15.49</v>
+        <v>15.99</v>
       </c>
       <c r="I18">
-        <v>31.46</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19">
-        <v>28503269</v>
+        <v>31186309</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G19">
-        <v>1090</v>
+        <v>186</v>
       </c>
       <c r="H19">
-        <v>15.97</v>
+        <v>9.35</v>
       </c>
       <c r="I19">
-        <v>21.58</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>31186309</v>
+        <v>39233880</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>9.4</v>
+        <v>15.49</v>
       </c>
       <c r="I20">
-        <v>16.65</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>30179650</v>
+        <v>26329148</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="H21">
-        <v>2.93</v>
+        <v>12.66</v>
       </c>
       <c r="I21">
-        <v>2.26</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1345,28 +1351,28 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>26329148</v>
+        <v>13034365</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G22">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>12.65</v>
+        <v>4.13</v>
       </c>
       <c r="I22">
-        <v>20.25</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1374,68 +1380,68 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23">
-        <v>13034365</v>
+        <v>16859111</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G23">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>4.13</v>
+        <v>5.75</v>
       </c>
       <c r="I23">
-        <v>6.98</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24">
-        <v>16859111</v>
+        <v>32539989</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="I24">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
@@ -1444,74 +1450,74 @@
         <v>12054191</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G25">
-        <v>968</v>
+        <v>927</v>
       </c>
       <c r="H25">
-        <v>19.96</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>38.92</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>11939672</v>
+        <v>12054191</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>41</v>
+        <v>927</v>
       </c>
       <c r="H26">
-        <v>9.74</v>
+        <v>20</v>
       </c>
       <c r="I26">
-        <v>27.83</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
       <c r="E27">
-        <v>12054191</v>
+        <v>11939672</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G27">
-        <v>968</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>19.96</v>
+        <v>9.77</v>
       </c>
       <c r="I27">
-        <v>38.92</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1519,123 +1525,123 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
       </c>
       <c r="E28">
-        <v>32539989</v>
+        <v>15134725</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H28">
-        <v>2.5</v>
+        <v>12.69</v>
       </c>
       <c r="I28">
-        <v>2.38</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
       </c>
       <c r="E29">
-        <v>35118277</v>
+        <v>20651572</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G29">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="H29">
-        <v>17.71</v>
+        <v>1.55</v>
       </c>
       <c r="I29">
-        <v>29.47</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
       </c>
       <c r="E30">
-        <v>20651572</v>
+        <v>13995643</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G30">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>1.57</v>
+        <v>5.78</v>
       </c>
       <c r="I30">
-        <v>1.12</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
       </c>
       <c r="E31">
-        <v>12054191</v>
+        <v>14795919</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G31">
-        <v>968</v>
+        <v>554</v>
       </c>
       <c r="H31">
-        <v>19.96</v>
+        <v>41.19</v>
       </c>
       <c r="I31">
-        <v>38.92</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -1644,85 +1650,85 @@
         <v>56</v>
       </c>
       <c r="E32">
-        <v>28114424</v>
+        <v>25282346</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G32">
-        <v>69</v>
+        <v>-1</v>
       </c>
       <c r="H32">
-        <v>5.82</v>
+        <v>10.02</v>
       </c>
       <c r="I32">
-        <v>6.95</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
       <c r="E33">
-        <v>12054191</v>
+        <v>14488403</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>968</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>19.96</v>
+        <v>9.65</v>
       </c>
       <c r="I33">
-        <v>38.92</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E34">
-        <v>15134725</v>
+        <v>13451851</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H34">
-        <v>12.69</v>
+        <v>7.25</v>
       </c>
       <c r="I34">
-        <v>21.34</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -1731,82 +1737,82 @@
         <v>57</v>
       </c>
       <c r="E35">
-        <v>14795919</v>
+        <v>19264853</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G35">
-        <v>554</v>
+        <v>419</v>
       </c>
       <c r="H35">
-        <v>41.19</v>
+        <v>8.25</v>
       </c>
       <c r="I35">
-        <v>57.08</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36">
-        <v>36212982</v>
+        <v>28114424</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G36">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H36">
-        <v>12.71</v>
+        <v>5.81</v>
       </c>
       <c r="I36">
-        <v>13.92</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
       </c>
       <c r="E37">
-        <v>13451851</v>
+        <v>35118277</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G37">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="H37">
-        <v>7.28</v>
+        <v>17.71</v>
       </c>
       <c r="I37">
-        <v>12.8</v>
+        <v>29.47</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -1815,196 +1821,196 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38">
-        <v>19044038</v>
+        <v>12060072</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G38">
-        <v>847</v>
+        <v>87</v>
       </c>
       <c r="H38">
-        <v>7.13</v>
+        <v>9.1</v>
       </c>
       <c r="I38">
-        <v>9.66</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E39">
-        <v>14488403</v>
+        <v>17171383</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G39">
-        <v>37</v>
+        <v>-44</v>
       </c>
       <c r="H39">
-        <v>9.65</v>
+        <v>12.69</v>
       </c>
       <c r="I39">
-        <v>9.119999999999999</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>19264853</v>
+        <v>12054191</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G40">
-        <v>459</v>
+        <v>927</v>
       </c>
       <c r="H40">
-        <v>8.210000000000001</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>13.06</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>25282346</v>
+        <v>12054191</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G41">
-        <v>74</v>
+        <v>927</v>
       </c>
       <c r="H41">
-        <v>9.02</v>
+        <v>20</v>
       </c>
       <c r="I41">
-        <v>12.22</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>11936640</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G42">
-        <v>2567</v>
+        <v>2535</v>
       </c>
       <c r="H42">
-        <v>10.71</v>
+        <v>10.74</v>
       </c>
       <c r="I42">
-        <v>14.53</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E43">
-        <v>12060072</v>
+        <v>36212982</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G43">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H43">
-        <v>9.109999999999999</v>
+        <v>12.71</v>
       </c>
       <c r="I43">
-        <v>12.13</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E44">
-        <v>17171383</v>
+        <v>19044038</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G44">
-        <v>-44</v>
+        <v>838</v>
       </c>
       <c r="H44">
-        <v>12.55</v>
+        <v>7.07</v>
       </c>
       <c r="I44">
-        <v>26.71</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2012,144 +2018,144 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E45">
-        <v>13995643</v>
+        <v>32870371</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G45">
-        <v>13</v>
+        <v>1727</v>
       </c>
       <c r="H45">
-        <v>5.78</v>
+        <v>39.9</v>
       </c>
       <c r="I45">
-        <v>9.779999999999999</v>
+        <v>124.85</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
         <v>15</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46">
-        <v>12765515</v>
+        <v>11939530</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="H46">
-        <v>2.73</v>
+        <v>4.15</v>
       </c>
       <c r="I46">
-        <v>2.36</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>12054191</v>
+        <v>19264853</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G47">
-        <v>968</v>
+        <v>419</v>
       </c>
       <c r="H47">
-        <v>19.96</v>
+        <v>8.25</v>
       </c>
       <c r="I47">
-        <v>38.92</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E48">
-        <v>11939530</v>
+        <v>12765515</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="H48">
-        <v>4.12</v>
+        <v>2.73</v>
       </c>
       <c r="I48">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
         <v>61</v>
       </c>
       <c r="E49">
-        <v>19264853</v>
+        <v>12054191</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G49">
-        <v>459</v>
+        <v>927</v>
       </c>
       <c r="H49">
-        <v>8.210000000000001</v>
+        <v>20</v>
       </c>
       <c r="I49">
-        <v>13.06</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2157,33 +2163,33 @@
         <v>15</v>
       </c>
       <c r="B50">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E50">
-        <v>32870371</v>
+        <v>14667825</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G50">
-        <v>1734</v>
+        <v>1352</v>
       </c>
       <c r="H50">
-        <v>40.94</v>
+        <v>38.2</v>
       </c>
       <c r="I50">
-        <v>126.49</v>
+        <v>83.48</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -2192,80 +2198,80 @@
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>11905183</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>2.68</v>
       </c>
       <c r="I51">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>11904818</v>
+        <v>11939607</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="H52">
-        <v>2.59</v>
+        <v>5.5</v>
       </c>
       <c r="I52">
-        <v>2.38</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53">
-        <v>14667825</v>
+        <v>11904818</v>
       </c>
       <c r="F53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G53">
-        <v>1353</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>38.27</v>
+        <v>2.58</v>
       </c>
       <c r="I53">
-        <v>83.29000000000001</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2273,33 +2279,33 @@
         <v>16</v>
       </c>
       <c r="B54">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E54">
-        <v>11939607</v>
+        <v>16349511</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G54">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="H54">
-        <v>5.51</v>
+        <v>4.22</v>
       </c>
       <c r="I54">
-        <v>6.74</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <v>23</v>
@@ -2308,13 +2314,13 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E55">
         <v>15134727</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2328,25 +2334,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E56">
         <v>19006053</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G56">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>2.62</v>
@@ -2357,60 +2363,60 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57">
-        <v>16349511</v>
+        <v>11938640</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G57">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H57">
-        <v>4.16</v>
+        <v>5.16</v>
       </c>
       <c r="I57">
-        <v>4.53</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>11938640</v>
+        <v>11938367</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="H58">
-        <v>5.16</v>
+        <v>4.82</v>
       </c>
       <c r="I58">
-        <v>5.74</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2418,28 +2424,28 @@
         <v>17</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E59">
-        <v>11938367</v>
+        <v>25282346</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G59">
-        <v>166</v>
+        <v>-1</v>
       </c>
       <c r="H59">
-        <v>4.82</v>
+        <v>10.02</v>
       </c>
       <c r="I59">
-        <v>5.91</v>
+        <v>14.59</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
     <t>2025-06-24</t>
   </si>
   <si>
@@ -70,82 +67,79 @@
     <t>2025-07-04</t>
   </si>
   <si>
-    <t>COMERCIO DE MEDICAMENTO MODENA E SILVA LTDA</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
-    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
-  </si>
-  <si>
-    <t>52656287</t>
-  </si>
-  <si>
-    <t>53350345</t>
-  </si>
-  <si>
-    <t>53401197</t>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
+    <t>53410381</t>
   </si>
   <si>
     <t>53416805</t>
@@ -154,226 +148,211 @@
     <t>53418815</t>
   </si>
   <si>
-    <t>53410381</t>
-  </si>
-  <si>
     <t>53470728</t>
   </si>
   <si>
+    <t>53519543</t>
+  </si>
+  <si>
+    <t>53518964</t>
+  </si>
+  <si>
+    <t>53513588</t>
+  </si>
+  <si>
     <t>53535567</t>
   </si>
   <si>
-    <t>53513588</t>
-  </si>
-  <si>
-    <t>53519543</t>
-  </si>
-  <si>
-    <t>53518964</t>
+    <t>53686939</t>
+  </si>
+  <si>
+    <t>53670179</t>
+  </si>
+  <si>
+    <t>53647951</t>
+  </si>
+  <si>
+    <t>53674520</t>
+  </si>
+  <si>
+    <t>53349149</t>
+  </si>
+  <si>
+    <t>53672093</t>
+  </si>
+  <si>
+    <t>53473082</t>
   </si>
   <si>
     <t>53683883</t>
   </si>
   <si>
-    <t>53686939</t>
-  </si>
-  <si>
-    <t>53672093</t>
-  </si>
-  <si>
-    <t>53670179</t>
-  </si>
-  <si>
     <t>53570037</t>
   </si>
   <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53349149</t>
-  </si>
-  <si>
-    <t>53674520</t>
-  </si>
-  <si>
-    <t>53647951</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
+    <t>53735480</t>
+  </si>
+  <si>
+    <t>53772141</t>
+  </si>
+  <si>
     <t>53786165</t>
   </si>
   <si>
-    <t>53772141</t>
-  </si>
-  <si>
-    <t>53735480</t>
+    <t>53826453</t>
+  </si>
+  <si>
+    <t>53833482</t>
+  </si>
+  <si>
+    <t>53815219</t>
   </si>
   <si>
     <t>53823314</t>
   </si>
   <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53826453</t>
-  </si>
-  <si>
-    <t>53815219</t>
-  </si>
-  <si>
     <t>53876861</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
+    <t>53958498</t>
+  </si>
+  <si>
+    <t>53791039</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA BRINORT 1L</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
+  </si>
+  <si>
+    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>COPO POTE DESCARTAVEL TRANSP 100ML PCT C/100</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA PETALAS C/2 ROLOS</t>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>RODO COM CABO G 60CM</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ENVELOPE 24X34 OURO</t>
   </si>
   <si>
     <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
   </si>
   <si>
-    <t>LIMPA ALUMINIO 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN FLORAL 5L</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO BRILLANO 500 ML</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA ECONOMICO 900G</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
-  </si>
-  <si>
-    <t>RODO COM CABO G 60CM</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
   </si>
 </sst>
 </file>
@@ -731,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -780,19 +759,19 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>14589858</v>
+        <v>28503269</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>429</v>
+        <v>878</v>
       </c>
       <c r="H2">
-        <v>15.13</v>
+        <v>15.92</v>
       </c>
       <c r="I2">
-        <v>20.37</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,28 +779,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>11936640</v>
+        <v>32130390</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3">
-        <v>2535</v>
+        <v>3953</v>
       </c>
       <c r="H3">
-        <v>10.74</v>
+        <v>20.97</v>
       </c>
       <c r="I3">
-        <v>14.54</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,28 +808,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>14413867</v>
+        <v>39233880</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.23</v>
+        <v>15.46</v>
       </c>
       <c r="I4">
-        <v>8.34</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -858,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -867,19 +846,19 @@
         <v>41</v>
       </c>
       <c r="E5">
-        <v>22571192</v>
+        <v>31186309</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5">
-        <v>1437</v>
+        <v>159</v>
       </c>
       <c r="H5">
-        <v>19.56</v>
+        <v>9.08</v>
       </c>
       <c r="I5">
-        <v>38.07</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -887,28 +866,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>17737776</v>
+        <v>30179650</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6">
-        <v>174</v>
+        <v>-3</v>
       </c>
       <c r="H6">
-        <v>4.96</v>
+        <v>2.89</v>
       </c>
       <c r="I6">
-        <v>10.78</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -916,463 +895,463 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>17486266</v>
+        <v>26329148</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H7">
-        <v>17.45</v>
+        <v>12.43</v>
       </c>
       <c r="I7">
-        <v>22.15</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>17737776</v>
+        <v>13034365</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>4.96</v>
+        <v>4.13</v>
       </c>
       <c r="I8">
-        <v>10.78</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
       <c r="E9">
-        <v>11939689</v>
+        <v>12054191</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>788</v>
       </c>
       <c r="H9">
-        <v>11.19</v>
+        <v>19.91</v>
       </c>
       <c r="I9">
-        <v>10.33</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>13881226</v>
+        <v>12054191</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>62</v>
+        <v>788</v>
       </c>
       <c r="H10">
-        <v>3.26</v>
+        <v>19.91</v>
       </c>
       <c r="I10">
-        <v>4.34</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>16368692</v>
+        <v>11939672</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2.88</v>
+        <v>9.77</v>
       </c>
       <c r="I11">
-        <v>3.75</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>16871438</v>
+        <v>32539989</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>8.99</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>10.52</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>18003632</v>
+        <v>16859111</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>3.14</v>
+        <v>5.75</v>
       </c>
       <c r="I13">
-        <v>4.97</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>35118277</v>
+        <v>20651572</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="H14">
-        <v>17.71</v>
+        <v>1.57</v>
       </c>
       <c r="I14">
-        <v>29.47</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>994</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>26025260</v>
+        <v>14795919</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>554</v>
       </c>
       <c r="H15">
-        <v>39.76</v>
+        <v>41.19</v>
       </c>
       <c r="I15">
-        <v>136.47</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>32130390</v>
+        <v>36212982</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16">
-        <v>4094</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>21.13</v>
+        <v>12.71</v>
       </c>
       <c r="I16">
-        <v>50.36</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>30179650</v>
+        <v>13451851</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17">
-        <v>-4</v>
+        <v>198</v>
       </c>
       <c r="H17">
-        <v>2.88</v>
+        <v>7.19</v>
       </c>
       <c r="I17">
-        <v>2.23</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>28503269</v>
+        <v>19044038</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>1044</v>
+        <v>838</v>
       </c>
       <c r="H18">
-        <v>15.99</v>
+        <v>7.07</v>
       </c>
       <c r="I18">
-        <v>21.55</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>31186309</v>
+        <v>12060072</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>9.35</v>
+        <v>8.91</v>
       </c>
       <c r="I19">
-        <v>16.68</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>39233880</v>
+        <v>11936640</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>2499</v>
       </c>
       <c r="H20">
-        <v>15.49</v>
+        <v>10.51</v>
       </c>
       <c r="I20">
-        <v>31.46</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>26329148</v>
+        <v>17171383</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21">
-        <v>144</v>
+        <v>-44</v>
       </c>
       <c r="H21">
-        <v>12.66</v>
+        <v>12.8</v>
       </c>
       <c r="I21">
-        <v>20.21</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>13034365</v>
+        <v>13995643</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H22">
-        <v>4.13</v>
+        <v>5.78</v>
       </c>
       <c r="I22">
-        <v>6.96</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1380,28 +1359,28 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>16859111</v>
+        <v>19264853</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="H23">
-        <v>5.75</v>
+        <v>8.17</v>
       </c>
       <c r="I23">
-        <v>3.68</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1409,28 +1388,28 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>32539989</v>
+        <v>15134725</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2.5</v>
+        <v>12.43</v>
       </c>
       <c r="I24">
-        <v>2.38</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1438,28 +1417,28 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>12054191</v>
+        <v>14488403</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25">
-        <v>927</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>9.43</v>
       </c>
       <c r="I25">
-        <v>38.96</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1467,28 +1446,28 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>12054191</v>
+        <v>25282346</v>
       </c>
       <c r="F26" t="s">
         <v>93</v>
       </c>
       <c r="G26">
-        <v>927</v>
+        <v>-1</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="I26">
-        <v>38.96</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1496,115 +1475,115 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>11939672</v>
+        <v>35118277</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="H27">
-        <v>9.77</v>
+        <v>17.58</v>
       </c>
       <c r="I27">
-        <v>27.9</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>15134725</v>
+        <v>12054191</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>788</v>
       </c>
       <c r="H28">
-        <v>12.69</v>
+        <v>19.91</v>
       </c>
       <c r="I28">
-        <v>21.34</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>20651572</v>
+        <v>12054191</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G29">
-        <v>76</v>
+        <v>788</v>
       </c>
       <c r="H29">
-        <v>1.55</v>
+        <v>19.91</v>
       </c>
       <c r="I29">
-        <v>1.1</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>13995643</v>
+        <v>28114424</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="I30">
-        <v>9.779999999999999</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1612,28 +1591,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>14795919</v>
+        <v>12765515</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G31">
-        <v>554</v>
+        <v>-3</v>
       </c>
       <c r="H31">
-        <v>41.19</v>
+        <v>2.73</v>
       </c>
       <c r="I31">
-        <v>57.08</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1641,28 +1620,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>25282346</v>
+        <v>32870371</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>1710</v>
       </c>
       <c r="H32">
-        <v>10.02</v>
+        <v>38.03</v>
       </c>
       <c r="I32">
-        <v>14.59</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1670,28 +1649,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>14488403</v>
+        <v>12054191</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G33">
-        <v>37</v>
+        <v>788</v>
       </c>
       <c r="H33">
-        <v>9.65</v>
+        <v>19.91</v>
       </c>
       <c r="I33">
-        <v>9.119999999999999</v>
+        <v>38.81</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1699,28 +1678,28 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>13451851</v>
+        <v>11939530</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="H34">
-        <v>7.25</v>
+        <v>4.15</v>
       </c>
       <c r="I34">
-        <v>12.78</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1728,724 +1707,463 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>19264853</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G35">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H35">
-        <v>8.25</v>
+        <v>8.17</v>
       </c>
       <c r="I35">
-        <v>13.07</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>28114424</v>
+        <v>11904818</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G36">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>5.81</v>
+        <v>2.58</v>
       </c>
       <c r="I36">
-        <v>6.9</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
         <v>13</v>
       </c>
-      <c r="B37">
-        <v>140</v>
-      </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>35118277</v>
+        <v>11905183</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>399</v>
+        <v>-8</v>
       </c>
       <c r="H37">
-        <v>17.71</v>
+        <v>2.69</v>
       </c>
       <c r="I37">
-        <v>29.47</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>12060072</v>
+        <v>11939607</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G38">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="H38">
-        <v>9.1</v>
+        <v>5.45</v>
       </c>
       <c r="I38">
-        <v>12.12</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E39">
-        <v>17171383</v>
+        <v>14667825</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G39">
-        <v>-44</v>
+        <v>1305</v>
       </c>
       <c r="H39">
-        <v>12.69</v>
+        <v>36.89</v>
       </c>
       <c r="I39">
-        <v>26.84</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E40">
-        <v>12054191</v>
+        <v>19006053</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G40">
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>2.62</v>
       </c>
       <c r="I40">
-        <v>38.96</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E41">
-        <v>12054191</v>
+        <v>15134727</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G41">
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>5.06</v>
       </c>
       <c r="I41">
-        <v>38.96</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>11936640</v>
+        <v>11938640</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="G42">
-        <v>2535</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>10.74</v>
+        <v>5.16</v>
       </c>
       <c r="I42">
-        <v>14.54</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E43">
-        <v>36212982</v>
+        <v>11938367</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
       </c>
       <c r="G43">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="H43">
-        <v>12.71</v>
+        <v>4.8</v>
       </c>
       <c r="I43">
-        <v>13.92</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E44">
-        <v>19044038</v>
+        <v>16349511</v>
       </c>
       <c r="F44" t="s">
         <v>107</v>
       </c>
       <c r="G44">
-        <v>838</v>
+        <v>75</v>
       </c>
       <c r="H44">
-        <v>7.07</v>
+        <v>4.24</v>
       </c>
       <c r="I44">
-        <v>9.56</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>32870371</v>
+        <v>25282346</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G45">
-        <v>1727</v>
+        <v>-1</v>
       </c>
       <c r="H45">
-        <v>39.9</v>
+        <v>10.02</v>
       </c>
       <c r="I45">
-        <v>124.85</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E46">
-        <v>11939530</v>
+        <v>30240035</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="H46">
-        <v>4.15</v>
+        <v>13.85</v>
       </c>
       <c r="I46">
-        <v>3.61</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E47">
-        <v>19264853</v>
+        <v>11939645</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G47">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="H47">
-        <v>8.25</v>
+        <v>4.28</v>
       </c>
       <c r="I47">
-        <v>13.07</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E48">
-        <v>12765515</v>
+        <v>30176476</v>
       </c>
       <c r="F48" t="s">
         <v>110</v>
       </c>
       <c r="G48">
-        <v>-2</v>
+        <v>121</v>
       </c>
       <c r="H48">
-        <v>2.73</v>
+        <v>32</v>
       </c>
       <c r="I48">
-        <v>2.37</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>12054191</v>
+        <v>13881226</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G49">
-        <v>927</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>3.47</v>
       </c>
       <c r="I49">
-        <v>38.96</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E50">
-        <v>14667825</v>
+        <v>11939603</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G50">
-        <v>1352</v>
+        <v>133</v>
       </c>
       <c r="H50">
-        <v>38.2</v>
+        <v>5.3</v>
       </c>
       <c r="I50">
-        <v>83.48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51">
-        <v>11905183</v>
-      </c>
-      <c r="F51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <v>2.68</v>
-      </c>
-      <c r="I51">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52">
-        <v>11939607</v>
-      </c>
-      <c r="F52" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52">
-        <v>171</v>
-      </c>
-      <c r="H52">
-        <v>5.5</v>
-      </c>
-      <c r="I52">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53">
-        <v>11904818</v>
-      </c>
-      <c r="F53" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>2.58</v>
-      </c>
-      <c r="I53">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54">
-        <v>16349511</v>
-      </c>
-      <c r="F54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54">
-        <v>80</v>
-      </c>
-      <c r="H54">
-        <v>4.22</v>
-      </c>
-      <c r="I54">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55">
-        <v>15134727</v>
-      </c>
-      <c r="F55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>5.06</v>
-      </c>
-      <c r="I55">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56">
-        <v>19006053</v>
-      </c>
-      <c r="F56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>2.62</v>
-      </c>
-      <c r="I56">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57">
-        <v>11938640</v>
-      </c>
-      <c r="F57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57">
-        <v>58</v>
-      </c>
-      <c r="H57">
-        <v>5.16</v>
-      </c>
-      <c r="I57">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58">
-        <v>11938367</v>
-      </c>
-      <c r="F58" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58">
-        <v>161</v>
-      </c>
-      <c r="H58">
-        <v>4.82</v>
-      </c>
-      <c r="I58">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59">
-        <v>25282346</v>
-      </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59">
-        <v>-1</v>
-      </c>
-      <c r="H59">
-        <v>10.02</v>
-      </c>
-      <c r="I59">
-        <v>14.59</v>
+        <v>5.79</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
     <t>2025-06-25</t>
   </si>
   <si>
@@ -70,154 +67,148 @@
     <t>2025-07-07</t>
   </si>
   <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL CENTRAL PARK</t>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>SERVICO NACIONAL DE APRENDIZAGEM RURAL SENAR-AR/AM</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
     <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
   </si>
   <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
     <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
   </si>
   <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
     <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>53410381</t>
-  </si>
-  <si>
-    <t>53416805</t>
-  </si>
-  <si>
-    <t>53418815</t>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+  </si>
+  <si>
+    <t>52775479</t>
   </si>
   <si>
     <t>53470728</t>
   </si>
   <si>
+    <t>53518964</t>
+  </si>
+  <si>
     <t>53519543</t>
   </si>
   <si>
-    <t>53518964</t>
-  </si>
-  <si>
     <t>53513588</t>
   </si>
   <si>
     <t>53535567</t>
   </si>
   <si>
+    <t>53570037</t>
+  </si>
+  <si>
     <t>53686939</t>
   </si>
   <si>
     <t>53670179</t>
   </si>
   <si>
+    <t>53672093</t>
+  </si>
+  <si>
+    <t>53473082</t>
+  </si>
+  <si>
     <t>53647951</t>
   </si>
   <si>
+    <t>53349149</t>
+  </si>
+  <si>
     <t>53674520</t>
   </si>
   <si>
-    <t>53349149</t>
-  </si>
-  <si>
-    <t>53672093</t>
-  </si>
-  <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53683883</t>
-  </si>
-  <si>
-    <t>53570037</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
+    <t>53786165</t>
+  </si>
+  <si>
+    <t>53772141</t>
+  </si>
+  <si>
     <t>53735480</t>
   </si>
   <si>
-    <t>53772141</t>
-  </si>
-  <si>
-    <t>53786165</t>
+    <t>53815219</t>
+  </si>
+  <si>
+    <t>53823314</t>
+  </si>
+  <si>
+    <t>53833482</t>
   </si>
   <si>
     <t>53826453</t>
   </si>
   <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53815219</t>
-  </si>
-  <si>
-    <t>53823314</t>
-  </si>
-  <si>
-    <t>53876861</t>
+    <t>53879266</t>
   </si>
   <si>
     <t>53958498</t>
@@ -226,22 +217,13 @@
     <t>53791039</t>
   </si>
   <si>
-    <t>AGUA SANITARIA BRINORT 1L</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M VERDE NOBRE SLIM CA 41506</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA ECONOMICO 900G</t>
-  </si>
-  <si>
-    <t>LIMPA ALUMINIO BRINORT 500ML</t>
+    <t>53473755</t>
+  </si>
+  <si>
+    <t>54020891</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
@@ -259,100 +241,97 @@
     <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
   </si>
   <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
     <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
   </si>
   <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
-    <t>RODO COM CABO G 60CM</t>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
   </si>
   <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
   </si>
   <si>
     <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
   </si>
   <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO BRILLANO ERVA DOCE  5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L PRETO COMUM - PCT C/100 UND</t>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
+  </si>
+  <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
   </si>
 </sst>
 </file>
@@ -710,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -759,19 +738,19 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>28503269</v>
+        <v>32046831</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>878</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>15.92</v>
+        <v>3.88</v>
       </c>
       <c r="I2">
-        <v>21.47</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -779,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -788,85 +767,85 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>32130390</v>
+        <v>13034365</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>3953</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>20.97</v>
+        <v>4.13</v>
       </c>
       <c r="I3">
-        <v>50.05</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>39233880</v>
+        <v>12054191</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="H4">
-        <v>15.46</v>
+        <v>19.9</v>
       </c>
       <c r="I4">
-        <v>31.32</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>31186309</v>
+        <v>12054191</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="H5">
-        <v>9.08</v>
+        <v>19.9</v>
       </c>
       <c r="I5">
-        <v>16.37</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -875,48 +854,48 @@
         <v>43</v>
       </c>
       <c r="E6">
-        <v>30179650</v>
+        <v>11939672</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>636</v>
       </c>
       <c r="H6">
-        <v>2.89</v>
+        <v>9.77</v>
       </c>
       <c r="I6">
-        <v>2.22</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>26329148</v>
+        <v>32539989</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>12.43</v>
+        <v>2.5</v>
       </c>
       <c r="I7">
-        <v>19.97</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -924,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>13034365</v>
+        <v>16859111</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>4.13</v>
+        <v>5.75</v>
       </c>
       <c r="I8">
-        <v>6.96</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -953,28 +932,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>12054191</v>
+        <v>25282346</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>788</v>
+        <v>-20</v>
       </c>
       <c r="H9">
-        <v>19.91</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>38.81</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -982,28 +961,28 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>12054191</v>
+        <v>14488403</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>788</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>19.91</v>
+        <v>9.43</v>
       </c>
       <c r="I10">
-        <v>38.81</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1011,28 +990,28 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>11939672</v>
+        <v>15134725</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>9.77</v>
+        <v>12.33</v>
       </c>
       <c r="I11">
-        <v>27.9</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1040,28 +1019,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>32539989</v>
+        <v>13995643</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>5.78</v>
       </c>
       <c r="I12">
-        <v>2.38</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1069,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1078,367 +1057,367 @@
         <v>48</v>
       </c>
       <c r="E13">
-        <v>16859111</v>
+        <v>12060072</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>5.75</v>
+        <v>8.82</v>
       </c>
       <c r="I13">
-        <v>3.68</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>20651572</v>
+        <v>19264853</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="H14">
-        <v>1.57</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14">
-        <v>1.08</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>14795919</v>
+        <v>19044038</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>554</v>
+        <v>838</v>
       </c>
       <c r="H15">
-        <v>41.19</v>
+        <v>7.07</v>
       </c>
       <c r="I15">
-        <v>57.08</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>36212982</v>
+        <v>20651572</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H16">
-        <v>12.71</v>
+        <v>1.54</v>
       </c>
       <c r="I16">
-        <v>13.92</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>13451851</v>
+        <v>28114424</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>7.19</v>
+        <v>5.84</v>
       </c>
       <c r="I17">
-        <v>12.73</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
       <c r="E18">
-        <v>19044038</v>
+        <v>35118277</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18">
-        <v>838</v>
+        <v>348</v>
       </c>
       <c r="H18">
-        <v>7.07</v>
+        <v>17.38</v>
       </c>
       <c r="I18">
-        <v>9.56</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>12060072</v>
+        <v>36212982</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>8.91</v>
+        <v>12.71</v>
       </c>
       <c r="I19">
-        <v>11.97</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20">
-        <v>11936640</v>
+        <v>17171383</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20">
-        <v>2499</v>
+        <v>-46</v>
       </c>
       <c r="H20">
-        <v>10.51</v>
+        <v>12.67</v>
       </c>
       <c r="I20">
-        <v>14.28</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>17171383</v>
+        <v>12054191</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>-44</v>
+        <v>699</v>
       </c>
       <c r="H21">
-        <v>12.8</v>
+        <v>19.9</v>
       </c>
       <c r="I21">
-        <v>26.97</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>13995643</v>
+        <v>12054191</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>699</v>
       </c>
       <c r="H22">
-        <v>5.78</v>
+        <v>19.9</v>
       </c>
       <c r="I22">
-        <v>9.779999999999999</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>19264853</v>
+        <v>14795919</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G23">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="H23">
-        <v>8.17</v>
+        <v>41.55</v>
       </c>
       <c r="I23">
-        <v>13.01</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>11936640</v>
+      </c>
+      <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24">
-        <v>15134725</v>
-      </c>
-      <c r="F24" t="s">
-        <v>91</v>
-      </c>
       <c r="G24">
-        <v>2</v>
+        <v>2476</v>
       </c>
       <c r="H24">
-        <v>12.43</v>
+        <v>10.47</v>
       </c>
       <c r="I24">
-        <v>20.97</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>14488403</v>
+        <v>13451851</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="H25">
-        <v>9.43</v>
+        <v>7.15</v>
       </c>
       <c r="I25">
-        <v>9.08</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1446,28 +1425,28 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>25282346</v>
+        <v>12765515</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H26">
-        <v>10.02</v>
+        <v>2.74</v>
       </c>
       <c r="I26">
-        <v>14.59</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1475,28 +1454,28 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>35118277</v>
+        <v>12054191</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G27">
-        <v>367</v>
+        <v>699</v>
       </c>
       <c r="H27">
-        <v>17.58</v>
+        <v>19.9</v>
       </c>
       <c r="I27">
-        <v>29.24</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1504,28 +1483,28 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>12054191</v>
+        <v>19264853</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>788</v>
+        <v>360</v>
       </c>
       <c r="H28">
-        <v>19.91</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I28">
-        <v>38.81</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1533,57 +1512,57 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>12054191</v>
+        <v>32870371</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>788</v>
+        <v>1710</v>
       </c>
       <c r="H29">
-        <v>19.91</v>
+        <v>38.03</v>
       </c>
       <c r="I29">
-        <v>38.81</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
       </c>
       <c r="E30">
-        <v>28114424</v>
+        <v>14667825</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G30">
-        <v>39</v>
+        <v>1305</v>
       </c>
       <c r="H30">
-        <v>5.81</v>
+        <v>36.89</v>
       </c>
       <c r="I30">
-        <v>6.9</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1591,7 +1570,7 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1600,19 +1579,19 @@
         <v>58</v>
       </c>
       <c r="E31">
-        <v>12765515</v>
+        <v>11905183</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G31">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="I31">
-        <v>2.37</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1620,28 +1599,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>32870371</v>
+        <v>11939607</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>1710</v>
+        <v>168</v>
       </c>
       <c r="H32">
-        <v>38.03</v>
+        <v>5.45</v>
       </c>
       <c r="I32">
-        <v>121.74</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1649,86 +1628,86 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>12054191</v>
+        <v>11904818</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G33">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>19.91</v>
+        <v>2.58</v>
       </c>
       <c r="I33">
-        <v>38.81</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>11939530</v>
+        <v>11938640</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>4.15</v>
+        <v>5.15</v>
       </c>
       <c r="I34">
-        <v>3.61</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>19264853</v>
+        <v>11938367</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G35">
-        <v>407</v>
+        <v>142</v>
       </c>
       <c r="H35">
-        <v>8.17</v>
+        <v>4.79</v>
       </c>
       <c r="I35">
-        <v>13.01</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1736,28 +1715,28 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36">
-        <v>11904818</v>
+        <v>16349511</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H36">
-        <v>2.58</v>
+        <v>4.24</v>
       </c>
       <c r="I36">
-        <v>2.37</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1765,28 +1744,28 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
-        <v>11905183</v>
+        <v>15134727</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2.69</v>
+        <v>5.06</v>
       </c>
       <c r="I37">
-        <v>2.82</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1794,376 +1773,202 @@
         <v>14</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E38">
-        <v>11939607</v>
+        <v>19006053</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G38">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>5.45</v>
+        <v>2.62</v>
       </c>
       <c r="I38">
-        <v>6.72</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39">
-        <v>14667825</v>
+        <v>25282346</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="G39">
-        <v>1305</v>
+        <v>-20</v>
       </c>
       <c r="H39">
-        <v>36.89</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>82.06</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40">
-        <v>19006053</v>
+        <v>30176476</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H40">
-        <v>2.62</v>
+        <v>32</v>
       </c>
       <c r="I40">
-        <v>2.37</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>15134727</v>
+        <v>12775209</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H41">
-        <v>5.06</v>
+        <v>38.09</v>
       </c>
       <c r="I41">
-        <v>5.05</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
       </c>
       <c r="E42">
-        <v>11938640</v>
+        <v>30240035</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G42">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="H42">
-        <v>5.16</v>
+        <v>14.02</v>
       </c>
       <c r="I42">
-        <v>5.74</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43">
-        <v>11938367</v>
+        <v>12121233</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G43">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="H43">
-        <v>4.8</v>
+        <v>16.37</v>
       </c>
       <c r="I43">
-        <v>5.89</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
         <v>15</v>
       </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>16349511</v>
+        <v>27437852</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H44">
-        <v>4.24</v>
+        <v>4.07</v>
       </c>
       <c r="I44">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45">
-        <v>25282346</v>
-      </c>
-      <c r="F45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45">
-        <v>-1</v>
-      </c>
-      <c r="H45">
-        <v>10.02</v>
-      </c>
-      <c r="I45">
-        <v>14.59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46">
-        <v>30240035</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46">
-        <v>198</v>
-      </c>
-      <c r="H46">
-        <v>13.85</v>
-      </c>
-      <c r="I46">
-        <v>15.56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47">
-        <v>11939645</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47">
-        <v>82</v>
-      </c>
-      <c r="H47">
-        <v>4.28</v>
-      </c>
-      <c r="I47">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>350</v>
-      </c>
-      <c r="C48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48">
-        <v>30176476</v>
-      </c>
-      <c r="F48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48">
-        <v>121</v>
-      </c>
-      <c r="H48">
-        <v>32</v>
-      </c>
-      <c r="I48">
-        <v>63.03</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49">
-        <v>13881226</v>
-      </c>
-      <c r="F49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49">
-        <v>12</v>
-      </c>
-      <c r="H49">
-        <v>3.47</v>
-      </c>
-      <c r="I49">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50">
-        <v>11939603</v>
-      </c>
-      <c r="F50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50">
-        <v>133</v>
-      </c>
-      <c r="H50">
-        <v>5.3</v>
-      </c>
-      <c r="I50">
-        <v>5.79</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-25</t>
-  </si>
-  <si>
     <t>2025-06-26</t>
   </si>
   <si>
@@ -70,85 +67,85 @@
     <t>2025-07-08</t>
   </si>
   <si>
-    <t>SERVICO NACIONAL DE APRENDIZAGEM RURAL SENAR-AR/AM</t>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
+    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
-  </si>
-  <si>
-    <t>52775479</t>
-  </si>
-  <si>
-    <t>53470728</t>
-  </si>
-  <si>
     <t>53518964</t>
   </si>
   <si>
-    <t>53519543</t>
+    <t>53524160</t>
   </si>
   <si>
     <t>53513588</t>
@@ -157,30 +154,33 @@
     <t>53535567</t>
   </si>
   <si>
+    <t>53674520</t>
+  </si>
+  <si>
+    <t>53672093</t>
+  </si>
+  <si>
+    <t>53686939</t>
+  </si>
+  <si>
+    <t>53473082</t>
+  </si>
+  <si>
     <t>53570037</t>
   </si>
   <si>
-    <t>53686939</t>
+    <t>53686393</t>
+  </si>
+  <si>
+    <t>53683883</t>
+  </si>
+  <si>
+    <t>53647951</t>
   </si>
   <si>
     <t>53670179</t>
   </si>
   <si>
-    <t>53672093</t>
-  </si>
-  <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53647951</t>
-  </si>
-  <si>
-    <t>53349149</t>
-  </si>
-  <si>
-    <t>53674520</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
@@ -190,99 +190,102 @@
     <t>53786165</t>
   </si>
   <si>
+    <t>53735480</t>
+  </si>
+  <si>
     <t>53772141</t>
   </si>
   <si>
-    <t>53735480</t>
+    <t>53826453</t>
   </si>
   <si>
     <t>53815219</t>
   </si>
   <si>
+    <t>53833482</t>
+  </si>
+  <si>
     <t>53823314</t>
   </si>
   <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53826453</t>
-  </si>
-  <si>
     <t>53879266</t>
   </si>
   <si>
+    <t>53989115</t>
+  </si>
+  <si>
     <t>53958498</t>
   </si>
   <si>
     <t>53791039</t>
   </si>
   <si>
+    <t>54020891</t>
+  </si>
+  <si>
     <t>53473755</t>
   </si>
   <si>
-    <t>54020891</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+    <t>54093753</t>
+  </si>
+  <si>
+    <t>54093449</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
+    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
+  </si>
+  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
     <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
   </si>
   <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
     <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
   </si>
   <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
     <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
   </si>
   <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
   </si>
   <si>
@@ -295,43 +298,52 @@
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
     <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
   </si>
   <si>
     <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
   </si>
   <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA</t>
   </si>
   <si>
     <t>ENVELOPE 24X34 OURO</t>
   </si>
   <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
   </si>
   <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
   </si>
   <si>
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
 </sst>
 </file>
@@ -689,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,28 +741,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>32046831</v>
+        <v>12054191</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="H2">
-        <v>3.88</v>
+        <v>19.9</v>
       </c>
       <c r="I2">
-        <v>5.6</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -758,115 +770,115 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>13034365</v>
+        <v>12054191</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>655</v>
       </c>
       <c r="H3">
-        <v>4.13</v>
+        <v>19.9</v>
       </c>
       <c r="I3">
-        <v>6.96</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>10</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>12054191</v>
+        <v>32539989</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>19.9</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
-        <v>38.78</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>12054191</v>
+        <v>11939672</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="H5">
-        <v>19.9</v>
+        <v>9.75</v>
       </c>
       <c r="I5">
-        <v>38.78</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>11939672</v>
+        <v>16859111</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>636</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>9.77</v>
+        <v>5.75</v>
       </c>
       <c r="I6">
-        <v>27.9</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -874,28 +886,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>32539989</v>
+        <v>11936640</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2459</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>10.47</v>
       </c>
       <c r="I7">
-        <v>2.38</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -903,463 +915,463 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>16859111</v>
+        <v>13995643</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>5.75</v>
+        <v>5.78</v>
       </c>
       <c r="I8">
-        <v>3.68</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>25282346</v>
+        <v>14488403</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G9">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9.43</v>
       </c>
       <c r="I9">
-        <v>14.41</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>14488403</v>
+        <v>19264853</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>358</v>
       </c>
       <c r="H10">
-        <v>9.43</v>
+        <v>8.18</v>
       </c>
       <c r="I10">
-        <v>9.08</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>15134725</v>
+        <v>25282346</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="H11">
-        <v>12.33</v>
+        <v>9.93</v>
       </c>
       <c r="I11">
-        <v>20.99</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>13995643</v>
+        <v>19044038</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="H12">
-        <v>5.78</v>
+        <v>7.07</v>
       </c>
       <c r="I12">
-        <v>9.779999999999999</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13">
-        <v>12060072</v>
+        <v>20651572</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H13">
-        <v>8.82</v>
+        <v>1.54</v>
       </c>
       <c r="I13">
-        <v>11.91</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>19264853</v>
+        <v>28114424</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>8.199999999999999</v>
+        <v>5.84</v>
       </c>
       <c r="I14">
-        <v>12.98</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>19044038</v>
+        <v>17171383</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15">
-        <v>838</v>
+        <v>-46</v>
       </c>
       <c r="H15">
-        <v>7.07</v>
+        <v>12.67</v>
       </c>
       <c r="I15">
-        <v>9.56</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>20651572</v>
+        <v>35118277</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="H16">
-        <v>1.54</v>
+        <v>17.38</v>
       </c>
       <c r="I16">
-        <v>1.06</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>28114424</v>
+        <v>15134725</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>5.84</v>
+        <v>12.33</v>
       </c>
       <c r="I17">
-        <v>6.94</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>35118277</v>
+        <v>36212982</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18">
-        <v>348</v>
+        <v>67</v>
       </c>
       <c r="H18">
-        <v>17.38</v>
+        <v>13.29</v>
       </c>
       <c r="I18">
-        <v>29.02</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>36212982</v>
+        <v>12054191</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="H19">
-        <v>12.71</v>
+        <v>19.9</v>
       </c>
       <c r="I19">
-        <v>13.92</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>17171383</v>
+        <v>12054191</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>-46</v>
+        <v>655</v>
       </c>
       <c r="H20">
-        <v>12.67</v>
+        <v>19.9</v>
       </c>
       <c r="I20">
-        <v>26.84</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21">
-        <v>12054191</v>
+        <v>14795919</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G21">
-        <v>699</v>
+        <v>454</v>
       </c>
       <c r="H21">
-        <v>19.9</v>
+        <v>41.55</v>
       </c>
       <c r="I21">
-        <v>38.78</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>12054191</v>
+        <v>12060072</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G22">
-        <v>699</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>19.9</v>
+        <v>8.82</v>
       </c>
       <c r="I22">
-        <v>38.78</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>14795919</v>
+        <v>13451851</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>454</v>
+        <v>196</v>
       </c>
       <c r="H23">
-        <v>41.55</v>
+        <v>7.15</v>
       </c>
       <c r="I23">
-        <v>57.09</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1367,28 +1379,28 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>11936640</v>
+        <v>12054191</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G24">
-        <v>2476</v>
+        <v>655</v>
       </c>
       <c r="H24">
-        <v>10.47</v>
+        <v>19.9</v>
       </c>
       <c r="I24">
-        <v>14.25</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1396,39 +1408,39 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>13451851</v>
+        <v>19264853</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G25">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="H25">
-        <v>7.15</v>
+        <v>8.18</v>
       </c>
       <c r="I25">
-        <v>12.74</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -1437,7 +1449,7 @@
         <v>12765515</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26">
         <v>-3</v>
@@ -1451,31 +1463,31 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
       </c>
       <c r="E27">
-        <v>12054191</v>
+        <v>32870371</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G27">
-        <v>699</v>
+        <v>1710</v>
       </c>
       <c r="H27">
-        <v>19.9</v>
+        <v>38.03</v>
       </c>
       <c r="I27">
-        <v>38.78</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1483,28 +1495,28 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>19264853</v>
+        <v>14667825</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>360</v>
+        <v>1303</v>
       </c>
       <c r="H28">
-        <v>8.199999999999999</v>
+        <v>36.74</v>
       </c>
       <c r="I28">
-        <v>12.98</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1512,86 +1524,86 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>32870371</v>
+        <v>11904818</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G29">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>38.03</v>
+        <v>2.58</v>
       </c>
       <c r="I29">
-        <v>121.74</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="B30">
-        <v>300</v>
-      </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>14667825</v>
+        <v>11905183</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G30">
-        <v>1305</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>36.89</v>
+        <v>2.68</v>
       </c>
       <c r="I30">
-        <v>82.06</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
       </c>
       <c r="E31">
-        <v>11905183</v>
+        <v>11939607</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="H31">
-        <v>2.68</v>
+        <v>5.4</v>
       </c>
       <c r="I31">
-        <v>2.81</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1599,28 +1611,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>11939607</v>
+        <v>19006053</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>5.45</v>
+        <v>2.62</v>
       </c>
       <c r="I32">
-        <v>6.72</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1628,48 +1640,48 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33">
-        <v>11904818</v>
+        <v>11938367</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H33">
-        <v>2.58</v>
+        <v>4.78</v>
       </c>
       <c r="I33">
-        <v>2.38</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>11938640</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G34">
         <v>42</v>
@@ -1683,51 +1695,51 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>11938367</v>
+        <v>15134727</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>4.79</v>
+        <v>5.06</v>
       </c>
       <c r="I35">
-        <v>5.87</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>16349511</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G36">
         <v>75</v>
@@ -1744,57 +1756,57 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>15134727</v>
+        <v>25282346</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H37">
-        <v>5.06</v>
+        <v>9.93</v>
       </c>
       <c r="I37">
-        <v>5.05</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>19006053</v>
+        <v>42648800</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H38">
-        <v>2.62</v>
+        <v>45.43</v>
       </c>
       <c r="I38">
-        <v>2.37</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1802,77 +1814,77 @@
         <v>15</v>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>30176476</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39">
+        <v>121</v>
+      </c>
+      <c r="H39">
         <v>32</v>
       </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39">
-        <v>25282346</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39">
-        <v>-20</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
       <c r="I39">
-        <v>14.41</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40">
-        <v>30176476</v>
+        <v>30240035</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G40">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="H40">
-        <v>32</v>
+        <v>14.02</v>
       </c>
       <c r="I40">
-        <v>63.03</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>600</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>12775209</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G41">
         <v>126</v>
@@ -1889,33 +1901,33 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>30240035</v>
+        <v>27437852</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G42">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="H42">
-        <v>14.02</v>
+        <v>4.07</v>
       </c>
       <c r="I42">
-        <v>15.62</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -1924,22 +1936,22 @@
         <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>12121233</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G43">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="H43">
-        <v>16.37</v>
+        <v>16.42</v>
       </c>
       <c r="I43">
-        <v>25.38</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1947,28 +1959,57 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44">
-        <v>27437852</v>
+        <v>12118255</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G44">
-        <v>28</v>
+        <v>928</v>
       </c>
       <c r="H44">
-        <v>4.07</v>
+        <v>8.02</v>
       </c>
       <c r="I44">
-        <v>3.25</v>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>13811513</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45">
+        <v>641</v>
+      </c>
+      <c r="H45">
+        <v>18.66</v>
+      </c>
+      <c r="I45">
+        <v>34.11</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
     <t>2025-06-30</t>
   </si>
   <si>
@@ -70,16 +67,7 @@
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>INFO STORE COMPUTADORES DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>FABRICACAO DE CERVEJAS E CHOPES RIO NEGRO LTDA</t>
+    <t>2025-07-10</t>
   </si>
   <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
@@ -88,18 +76,18 @@
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
   </si>
   <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
   </si>
   <si>
@@ -115,43 +103,34 @@
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
     <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
     <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
   </si>
   <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
     <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
     <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>53518964</t>
-  </si>
-  <si>
-    <t>53524160</t>
-  </si>
-  <si>
-    <t>53513588</t>
-  </si>
-  <si>
-    <t>53535567</t>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
     <t>53674520</t>
@@ -160,139 +139,133 @@
     <t>53672093</t>
   </si>
   <si>
+    <t>53570037</t>
+  </si>
+  <si>
     <t>53686939</t>
   </si>
   <si>
+    <t>53670179</t>
+  </si>
+  <si>
     <t>53473082</t>
   </si>
   <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53686393</t>
-  </si>
-  <si>
-    <t>53683883</t>
+    <t>53349149</t>
   </si>
   <si>
     <t>53647951</t>
   </si>
   <si>
-    <t>53670179</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
     <t>53703458</t>
   </si>
   <si>
+    <t>53735480</t>
+  </si>
+  <si>
     <t>53786165</t>
   </si>
   <si>
-    <t>53735480</t>
-  </si>
-  <si>
     <t>53772141</t>
   </si>
   <si>
+    <t>53815219</t>
+  </si>
+  <si>
+    <t>53833482</t>
+  </si>
+  <si>
+    <t>53823314</t>
+  </si>
+  <si>
     <t>53826453</t>
   </si>
   <si>
-    <t>53815219</t>
-  </si>
-  <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53823314</t>
-  </si>
-  <si>
-    <t>53879266</t>
+    <t>53876861</t>
+  </si>
+  <si>
+    <t>53958498</t>
+  </si>
+  <si>
+    <t>53791039</t>
   </si>
   <si>
     <t>53989115</t>
   </si>
   <si>
-    <t>53958498</t>
-  </si>
-  <si>
-    <t>53791039</t>
+    <t>53473755</t>
   </si>
   <si>
     <t>54020891</t>
   </si>
   <si>
-    <t>53473755</t>
-  </si>
-  <si>
     <t>54093753</t>
   </si>
   <si>
     <t>54093449</t>
   </si>
   <si>
+    <t>54142176</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>SABAO EM BARRA NEUTRO YPE 900G</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE DE AMBIENTE CONC TALCO 140ML NOBRE</t>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
     <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
@@ -304,40 +277,37 @@
     <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
   </si>
   <si>
     <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA</t>
   </si>
   <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
     <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
     <t>LIMPA VIDROS GLOBO SAN 500ML</t>
@@ -701,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,28 +711,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>12054191</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="H2">
-        <v>19.9</v>
+        <v>19.95</v>
       </c>
       <c r="I2">
-        <v>38.75</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -770,28 +740,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>12054191</v>
+        <v>35118277</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>655</v>
+        <v>345</v>
       </c>
       <c r="H3">
-        <v>19.9</v>
+        <v>17.3</v>
       </c>
       <c r="I3">
-        <v>38.75</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -799,28 +769,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>32539989</v>
+        <v>25282346</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>9.93</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -828,28 +798,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5">
-        <v>11939672</v>
+        <v>14488403</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G5">
-        <v>635</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>9.75</v>
+        <v>9.43</v>
       </c>
       <c r="I5">
-        <v>27.87</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -857,376 +827,376 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>16859111</v>
+        <v>15134725</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>12.19</v>
       </c>
       <c r="I6">
-        <v>3.68</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>11936640</v>
+        <v>13995643</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>2459</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>10.47</v>
+        <v>5.78</v>
       </c>
       <c r="I7">
-        <v>14.24</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>13995643</v>
+        <v>19264853</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="H8">
-        <v>5.78</v>
+        <v>8.35</v>
       </c>
       <c r="I8">
-        <v>9.779999999999999</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>14488403</v>
+        <v>19044038</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>838</v>
       </c>
       <c r="H9">
-        <v>9.43</v>
+        <v>7.07</v>
       </c>
       <c r="I9">
-        <v>9.08</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>19264853</v>
+        <v>20651572</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>8.18</v>
+        <v>1.54</v>
       </c>
       <c r="I10">
-        <v>12.97</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>25282346</v>
+        <v>17171383</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G11">
-        <v>-5</v>
+        <v>-46</v>
       </c>
       <c r="H11">
-        <v>9.93</v>
+        <v>12.67</v>
       </c>
       <c r="I11">
-        <v>14.5</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>19044038</v>
+        <v>12060072</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>838</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>7.07</v>
+        <v>8.82</v>
       </c>
       <c r="I12">
-        <v>9.56</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>20651572</v>
+        <v>28114424</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G13">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>1.54</v>
+        <v>5.84</v>
       </c>
       <c r="I13">
-        <v>1.06</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>28114424</v>
+        <v>13451851</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G14">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="H14">
-        <v>5.84</v>
+        <v>7.18</v>
       </c>
       <c r="I14">
-        <v>6.94</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>17171383</v>
+        <v>14795919</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15">
-        <v>-46</v>
+        <v>454</v>
       </c>
       <c r="H15">
-        <v>12.67</v>
+        <v>40.91</v>
       </c>
       <c r="I15">
-        <v>26.84</v>
+        <v>57.03</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>35118277</v>
+        <v>11936640</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G16">
-        <v>348</v>
+        <v>2459</v>
       </c>
       <c r="H16">
-        <v>17.38</v>
+        <v>10.47</v>
       </c>
       <c r="I16">
-        <v>29.02</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>15134725</v>
+        <v>12054191</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>575</v>
       </c>
       <c r="H17">
-        <v>12.33</v>
+        <v>19.95</v>
       </c>
       <c r="I17">
-        <v>20.99</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>36212982</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H18">
-        <v>13.29</v>
+        <v>13.11</v>
       </c>
       <c r="I18">
-        <v>13.79</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1234,28 +1204,28 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>12054191</v>
+        <v>32870371</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G19">
-        <v>655</v>
+        <v>1710</v>
       </c>
       <c r="H19">
-        <v>19.9</v>
+        <v>38.03</v>
       </c>
       <c r="I19">
-        <v>38.75</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1263,28 +1233,28 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20">
-        <v>12054191</v>
+        <v>12765515</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>655</v>
+        <v>-7</v>
       </c>
       <c r="H20">
-        <v>19.9</v>
+        <v>2.74</v>
       </c>
       <c r="I20">
-        <v>38.75</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1292,28 +1262,28 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>14795919</v>
+        <v>19264853</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>454</v>
+        <v>248</v>
       </c>
       <c r="H21">
-        <v>41.55</v>
+        <v>8.35</v>
       </c>
       <c r="I21">
-        <v>57.09</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1321,57 +1291,57 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>12060072</v>
+        <v>12054191</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>575</v>
       </c>
       <c r="H22">
-        <v>8.82</v>
+        <v>19.95</v>
       </c>
       <c r="I22">
-        <v>11.91</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>13451851</v>
+        <v>11939607</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G23">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="H23">
-        <v>7.15</v>
+        <v>5.41</v>
       </c>
       <c r="I23">
-        <v>12.74</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1379,28 +1349,28 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>12054191</v>
+        <v>14667825</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>655</v>
+        <v>1303</v>
       </c>
       <c r="H24">
-        <v>19.9</v>
+        <v>36.74</v>
       </c>
       <c r="I24">
-        <v>38.75</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1408,28 +1378,28 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>19264853</v>
+        <v>11904818</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>8.18</v>
+        <v>2.58</v>
       </c>
       <c r="I25">
-        <v>12.97</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1437,57 +1407,57 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>12765515</v>
+        <v>11905183</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G26">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H26">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="I26">
-        <v>2.37</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>32870371</v>
+        <v>11938367</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G27">
-        <v>1710</v>
+        <v>104</v>
       </c>
       <c r="H27">
-        <v>38.03</v>
+        <v>4.83</v>
       </c>
       <c r="I27">
-        <v>121.74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1495,28 +1465,28 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>14667825</v>
+        <v>15134727</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G28">
-        <v>1303</v>
+        <v>-5</v>
       </c>
       <c r="H28">
-        <v>36.74</v>
+        <v>5.06</v>
       </c>
       <c r="I28">
-        <v>81.91</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1524,28 +1494,28 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E29">
-        <v>11904818</v>
+        <v>16349511</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>2.58</v>
+        <v>4.24</v>
       </c>
       <c r="I29">
-        <v>2.38</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1553,28 +1523,28 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E30">
-        <v>11905183</v>
+        <v>11938640</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>2.68</v>
+        <v>5.15</v>
       </c>
       <c r="I30">
-        <v>2.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1582,28 +1552,28 @@
         <v>12</v>
       </c>
       <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>11939607</v>
+        <v>19006053</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>5.4</v>
+        <v>2.62</v>
       </c>
       <c r="I31">
-        <v>6.68</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1611,173 +1581,173 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>19006053</v>
+        <v>25282346</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H32">
-        <v>2.62</v>
+        <v>9.93</v>
       </c>
       <c r="I32">
-        <v>2.37</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33">
-        <v>11938367</v>
+        <v>30176476</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H33">
-        <v>4.78</v>
+        <v>32</v>
       </c>
       <c r="I33">
-        <v>5.87</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>11938640</v>
+        <v>30240035</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G34">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="H34">
-        <v>5.15</v>
+        <v>14.02</v>
       </c>
       <c r="I34">
-        <v>5.73</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E35">
-        <v>15134727</v>
+        <v>12775209</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H35">
-        <v>5.06</v>
+        <v>37.52</v>
       </c>
       <c r="I35">
-        <v>5.05</v>
+        <v>61.79</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E36">
-        <v>16349511</v>
+        <v>42648800</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G36">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H36">
-        <v>4.24</v>
+        <v>45.43</v>
       </c>
       <c r="I36">
-        <v>4.52</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>25282346</v>
+        <v>12121233</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G37">
-        <v>-5</v>
+        <v>190</v>
       </c>
       <c r="H37">
-        <v>9.93</v>
+        <v>16.34</v>
       </c>
       <c r="I37">
-        <v>14.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1785,231 +1755,144 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>42648800</v>
+        <v>27437852</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="H38">
-        <v>45.43</v>
+        <v>4.07</v>
       </c>
       <c r="I38">
-        <v>51.14</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E39">
-        <v>30176476</v>
+        <v>12118255</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G39">
-        <v>121</v>
+        <v>928</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>8.02</v>
       </c>
       <c r="I39">
-        <v>63.03</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E40">
-        <v>30240035</v>
+        <v>13811513</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G40">
-        <v>198</v>
+        <v>641</v>
       </c>
       <c r="H40">
-        <v>14.02</v>
+        <v>18.66</v>
       </c>
       <c r="I40">
-        <v>15.62</v>
+        <v>34.11</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>600</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E41">
-        <v>12775209</v>
+        <v>11938367</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G41">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H41">
-        <v>38.09</v>
+        <v>4.83</v>
       </c>
       <c r="I41">
-        <v>62.07</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E42">
-        <v>27437852</v>
+        <v>19264853</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G42">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="H42">
-        <v>4.07</v>
+        <v>8.35</v>
       </c>
       <c r="I42">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43">
-        <v>12121233</v>
-      </c>
-      <c r="F43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43">
-        <v>206</v>
-      </c>
-      <c r="H43">
-        <v>16.42</v>
-      </c>
-      <c r="I43">
-        <v>25.32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44">
-        <v>12118255</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44">
-        <v>928</v>
-      </c>
-      <c r="H44">
-        <v>8.02</v>
-      </c>
-      <c r="I44">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45">
-        <v>13811513</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45">
-        <v>641</v>
-      </c>
-      <c r="H45">
-        <v>18.66</v>
-      </c>
-      <c r="I45">
-        <v>34.11</v>
+        <v>13.44</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
   <si>
     <t>data</t>
   </si>
@@ -70,27 +70,30 @@
     <t>2025-07-10</t>
   </si>
   <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
@@ -103,60 +106,72 @@
     <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
+    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
+  </si>
+  <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
-    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
-  </si>
-  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
+    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
+  </si>
+  <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
+    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
     <t>53674520</t>
   </si>
   <si>
+    <t>53570037</t>
+  </si>
+  <si>
+    <t>53670179</t>
+  </si>
+  <si>
+    <t>53686939</t>
+  </si>
+  <si>
+    <t>53647951</t>
+  </si>
+  <si>
+    <t>53473082</t>
+  </si>
+  <si>
+    <t>53683883</t>
+  </si>
+  <si>
     <t>53672093</t>
   </si>
   <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53686939</t>
-  </si>
-  <si>
-    <t>53670179</t>
-  </si>
-  <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53349149</t>
-  </si>
-  <si>
-    <t>53647951</t>
-  </si>
-  <si>
     <t>53737664</t>
   </si>
   <si>
@@ -172,148 +187,190 @@
     <t>53772141</t>
   </si>
   <si>
+    <t>53826453</t>
+  </si>
+  <si>
+    <t>53833482</t>
+  </si>
+  <si>
+    <t>53823314</t>
+  </si>
+  <si>
     <t>53815219</t>
   </si>
   <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53823314</t>
-  </si>
-  <si>
-    <t>53826453</t>
-  </si>
-  <si>
-    <t>53876861</t>
+    <t>53879266</t>
   </si>
   <si>
     <t>53958498</t>
   </si>
   <si>
+    <t>53989115</t>
+  </si>
+  <si>
     <t>53791039</t>
   </si>
   <si>
-    <t>53989115</t>
+    <t>54020891</t>
   </si>
   <si>
     <t>53473755</t>
   </si>
   <si>
-    <t>54020891</t>
+    <t>54093449</t>
   </si>
   <si>
     <t>54093753</t>
   </si>
   <si>
-    <t>54093449</t>
+    <t>54141318</t>
+  </si>
+  <si>
+    <t>54153624</t>
   </si>
   <si>
     <t>54142176</t>
   </si>
   <si>
+    <t>54123729</t>
+  </si>
+  <si>
+    <t>54124880</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
+    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
+  </si>
+  <si>
+    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
+  </si>
+  <si>
+    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
-  </si>
-  <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
   </si>
   <si>
     <t>ENVELOPE 24X34 OURO</t>
   </si>
   <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA</t>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
   </si>
   <si>
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
     <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
 </sst>
 </file>
@@ -671,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,25 +771,25 @@
         <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>12054191</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>575</v>
+        <v>6210</v>
       </c>
       <c r="H2">
-        <v>19.95</v>
+        <v>20.2</v>
       </c>
       <c r="I2">
-        <v>38.77</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -740,28 +797,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>35118277</v>
+        <v>28114424</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>17.3</v>
+        <v>5.84</v>
       </c>
       <c r="I3">
-        <v>28.95</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -769,28 +826,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>25282346</v>
+        <v>14795919</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>554</v>
       </c>
       <c r="H4">
-        <v>9.93</v>
+        <v>40.91</v>
       </c>
       <c r="I4">
-        <v>14.5</v>
+        <v>57.03</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -798,28 +855,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>14488403</v>
+        <v>20651572</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H5">
-        <v>9.43</v>
+        <v>1.54</v>
       </c>
       <c r="I5">
-        <v>9.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -827,28 +884,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>15134725</v>
+        <v>12060072</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>12.19</v>
+        <v>8.82</v>
       </c>
       <c r="I6">
-        <v>20.81</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -859,25 +916,25 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>13995643</v>
+        <v>36212982</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>5.78</v>
+        <v>13.11</v>
       </c>
       <c r="I7">
-        <v>9.779999999999999</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -885,28 +942,28 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>19264853</v>
+        <v>19044038</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>248</v>
+        <v>838</v>
       </c>
       <c r="H8">
-        <v>8.35</v>
+        <v>7.07</v>
       </c>
       <c r="I8">
-        <v>13.44</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -914,28 +971,28 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>19044038</v>
+        <v>11936640</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>838</v>
+        <v>2447</v>
       </c>
       <c r="H9">
-        <v>7.07</v>
+        <v>10.48</v>
       </c>
       <c r="I9">
-        <v>9.56</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -943,28 +1000,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10">
-        <v>20651572</v>
+        <v>13451851</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G10">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="H10">
-        <v>1.54</v>
+        <v>7.24</v>
       </c>
       <c r="I10">
-        <v>1.06</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -972,28 +1029,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>17171383</v>
+        <v>19264853</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G11">
-        <v>-46</v>
+        <v>244</v>
       </c>
       <c r="H11">
-        <v>12.67</v>
+        <v>8.34</v>
       </c>
       <c r="I11">
-        <v>26.84</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1001,28 +1058,28 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>12060072</v>
+        <v>15134725</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>8.82</v>
+        <v>12.19</v>
       </c>
       <c r="I12">
-        <v>11.91</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1030,28 +1087,28 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>28114424</v>
+        <v>13995643</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H13">
-        <v>5.84</v>
+        <v>5.78</v>
       </c>
       <c r="I13">
-        <v>6.94</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1059,28 +1116,28 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>13451851</v>
+        <v>14488403</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>7.18</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I14">
-        <v>12.76</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1088,28 +1145,28 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>14795919</v>
+        <v>25282346</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>40.91</v>
+        <v>9.93</v>
       </c>
       <c r="I15">
-        <v>57.03</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1117,28 +1174,28 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>11936640</v>
+        <v>35118277</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>2459</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>10.47</v>
+        <v>18.82</v>
       </c>
       <c r="I16">
-        <v>14.26</v>
+        <v>34.67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1149,25 +1206,25 @@
         <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>12054191</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G17">
-        <v>575</v>
+        <v>6210</v>
       </c>
       <c r="H17">
-        <v>19.95</v>
+        <v>20.2</v>
       </c>
       <c r="I17">
-        <v>38.77</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1175,28 +1232,28 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>36212982</v>
+        <v>17171383</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>-4</v>
       </c>
       <c r="H18">
-        <v>13.11</v>
+        <v>12.55</v>
       </c>
       <c r="I18">
-        <v>13.4</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1207,16 +1264,16 @@
         <v>600</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>32870371</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G19">
         <v>1710</v>
@@ -1236,16 +1293,16 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>12765515</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <v>-7</v>
@@ -1262,28 +1319,28 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>19264853</v>
+        <v>12054191</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G21">
-        <v>248</v>
+        <v>6210</v>
       </c>
       <c r="H21">
-        <v>8.35</v>
+        <v>20.2</v>
       </c>
       <c r="I21">
-        <v>13.44</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1291,28 +1348,28 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>12054191</v>
+        <v>19264853</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G22">
-        <v>575</v>
+        <v>244</v>
       </c>
       <c r="H22">
-        <v>19.95</v>
+        <v>8.34</v>
       </c>
       <c r="I22">
-        <v>38.77</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1320,28 +1377,28 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>11939607</v>
+        <v>11904818</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>5.41</v>
+        <v>2.58</v>
       </c>
       <c r="I23">
-        <v>6.67</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1352,16 +1409,16 @@
         <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>14667825</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>1303</v>
@@ -1378,28 +1435,28 @@
         <v>11</v>
       </c>
       <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>11905183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25">
-        <v>11904818</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="I25">
-        <v>2.38</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1407,28 +1464,28 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26">
-        <v>11905183</v>
+        <v>11939607</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G26">
-        <v>-5</v>
+        <v>159</v>
       </c>
       <c r="H26">
-        <v>2.68</v>
+        <v>5.41</v>
       </c>
       <c r="I26">
-        <v>2.81</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1436,28 +1493,28 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>11938367</v>
+        <v>19006053</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G27">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4.83</v>
+        <v>2.62</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1468,19 +1525,19 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>15134727</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>5.06</v>
@@ -1497,16 +1554,16 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>16349511</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G29">
         <v>75</v>
@@ -1526,25 +1583,25 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>11938640</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G30">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="I30">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1552,28 +1609,28 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>19006053</v>
+        <v>11938367</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H31">
-        <v>2.62</v>
+        <v>4.82</v>
       </c>
       <c r="I31">
-        <v>2.37</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1584,19 +1641,19 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>25282346</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G32">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>9.93</v>
@@ -1610,28 +1667,28 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>30176476</v>
+        <v>30240035</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G33">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>14.02</v>
       </c>
       <c r="I33">
-        <v>63.03</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1639,28 +1696,28 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>30240035</v>
+        <v>42648800</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G34">
-        <v>198</v>
+        <v>2020</v>
       </c>
       <c r="H34">
-        <v>14.02</v>
+        <v>45.41</v>
       </c>
       <c r="I34">
-        <v>15.62</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1671,22 +1728,22 @@
         <v>600</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>12775209</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G35">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H35">
-        <v>37.52</v>
+        <v>37.49</v>
       </c>
       <c r="I35">
         <v>61.79</v>
@@ -1697,28 +1754,28 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E36">
-        <v>42648800</v>
+        <v>30176476</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G36">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H36">
-        <v>45.43</v>
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>51.14</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1726,28 +1783,28 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>12121233</v>
+        <v>27437852</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G37">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="H37">
-        <v>16.34</v>
+        <v>4.07</v>
       </c>
       <c r="I37">
-        <v>25.2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1755,28 +1812,28 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E38">
-        <v>27437852</v>
+        <v>12121233</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G38">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="H38">
-        <v>4.07</v>
+        <v>16.34</v>
       </c>
       <c r="I38">
-        <v>3.25</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1784,28 +1841,28 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E39">
-        <v>12118255</v>
+        <v>13811513</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G39">
-        <v>928</v>
+        <v>641</v>
       </c>
       <c r="H39">
-        <v>8.02</v>
+        <v>18.66</v>
       </c>
       <c r="I39">
-        <v>10.6</v>
+        <v>34.11</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1813,28 +1870,28 @@
         <v>16</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E40">
-        <v>13811513</v>
+        <v>12118255</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G40">
-        <v>641</v>
+        <v>913</v>
       </c>
       <c r="H40">
-        <v>18.66</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I40">
-        <v>34.11</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1842,28 +1899,28 @@
         <v>17</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>11938367</v>
+        <v>35118277</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>4.83</v>
+        <v>18.82</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>34.67</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1871,28 +1928,376 @@
         <v>17</v>
       </c>
       <c r="B42">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>13995639</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42">
+        <v>-16</v>
+      </c>
+      <c r="H42">
+        <v>4.4</v>
+      </c>
+      <c r="I42">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43">
+        <v>16871438</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>1524</v>
+      </c>
+      <c r="H43">
+        <v>9.15</v>
+      </c>
+      <c r="I43">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42">
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44">
+        <v>11939551</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44">
+        <v>-70</v>
+      </c>
+      <c r="H44">
+        <v>6.4</v>
+      </c>
+      <c r="I44">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>32130390</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45">
+        <v>3557</v>
+      </c>
+      <c r="H45">
+        <v>21.1</v>
+      </c>
+      <c r="I45">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>16537374</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <v>2305</v>
+      </c>
+      <c r="H46">
+        <v>8.15</v>
+      </c>
+      <c r="I46">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47">
         <v>19264853</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47">
+        <v>244</v>
+      </c>
+      <c r="H47">
+        <v>8.34</v>
+      </c>
+      <c r="I47">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>33278408</v>
+      </c>
+      <c r="F48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48">
+        <v>36</v>
+      </c>
+      <c r="H48">
+        <v>5.83</v>
+      </c>
+      <c r="I48">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49">
+        <v>11939681</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49">
+        <v>112</v>
+      </c>
+      <c r="H49">
+        <v>5.94</v>
+      </c>
+      <c r="I49">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>12285275</v>
+      </c>
+      <c r="F50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50">
+        <v>82</v>
+      </c>
+      <c r="H50">
+        <v>9.19</v>
+      </c>
+      <c r="I50">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
         <v>71</v>
       </c>
-      <c r="G42">
-        <v>248</v>
-      </c>
-      <c r="H42">
-        <v>8.35</v>
-      </c>
-      <c r="I42">
-        <v>13.44</v>
+      <c r="E51">
+        <v>11938367</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>99</v>
+      </c>
+      <c r="H51">
+        <v>4.82</v>
+      </c>
+      <c r="I51">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <v>14589837</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52">
+        <v>-192</v>
+      </c>
+      <c r="H52">
+        <v>15.51</v>
+      </c>
+      <c r="I52">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>310</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53">
+        <v>12054191</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53">
+        <v>6210</v>
+      </c>
+      <c r="H53">
+        <v>20.2</v>
+      </c>
+      <c r="I53">
+        <v>39.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54">
+        <v>11939672</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54">
+        <v>481</v>
+      </c>
+      <c r="H54">
+        <v>10.16</v>
+      </c>
+      <c r="I54">
+        <v>28.88</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
     <t>2025-07-01</t>
   </si>
   <si>
@@ -73,33 +70,15 @@
     <t>2025-07-11</t>
   </si>
   <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>A. C. B. LOCADORA DE VEICULOS LTDA</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
     <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
   </si>
   <si>
@@ -112,27 +91,27 @@
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
   </si>
   <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
     <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
+    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
-  </si>
-  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
@@ -148,58 +127,43 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>53674520</t>
-  </si>
-  <si>
-    <t>53570037</t>
-  </si>
-  <si>
-    <t>53670179</t>
-  </si>
-  <si>
-    <t>53686939</t>
-  </si>
-  <si>
-    <t>53647951</t>
-  </si>
-  <si>
-    <t>53473082</t>
-  </si>
-  <si>
-    <t>53683883</t>
-  </si>
-  <si>
-    <t>53672093</t>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>53703458</t>
   </si>
   <si>
     <t>53737664</t>
   </si>
   <si>
-    <t>53703458</t>
+    <t>53786165</t>
   </si>
   <si>
     <t>53735480</t>
   </si>
   <si>
-    <t>53786165</t>
-  </si>
-  <si>
     <t>53772141</t>
   </si>
   <si>
     <t>53826453</t>
   </si>
   <si>
+    <t>53823314</t>
+  </si>
+  <si>
+    <t>53815219</t>
+  </si>
+  <si>
     <t>53833482</t>
   </si>
   <si>
-    <t>53823314</t>
-  </si>
-  <si>
-    <t>53815219</t>
-  </si>
-  <si>
-    <t>53879266</t>
+    <t>53876861</t>
+  </si>
+  <si>
+    <t>53791039</t>
   </si>
   <si>
     <t>53958498</t>
@@ -208,21 +172,18 @@
     <t>53989115</t>
   </si>
   <si>
-    <t>53791039</t>
-  </si>
-  <si>
     <t>54020891</t>
   </si>
   <si>
     <t>53473755</t>
   </si>
   <si>
+    <t>54093753</t>
+  </si>
+  <si>
     <t>54093449</t>
   </si>
   <si>
-    <t>54093753</t>
-  </si>
-  <si>
     <t>54141318</t>
   </si>
   <si>
@@ -235,142 +196,121 @@
     <t>54123729</t>
   </si>
   <si>
+    <t>54127333</t>
+  </si>
+  <si>
     <t>54124880</t>
   </si>
   <si>
+    <t>54263882</t>
+  </si>
+  <si>
+    <t>54285324</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>LIMPA VIDROS FACILITA 500ML AUDAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 40X60CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM G AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>MASCARA DESCARTAVEL TRIPLA TALGE C/50 UND</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DISCO REMOVEDOR PRETO P ENCERADEIRA 510MM</t>
-  </si>
-  <si>
-    <t>ESCOVA PARA VASO SANITARIO SEM POTE</t>
-  </si>
-  <si>
-    <t>INSETICIDA SBP AEROSSOL 380ML</t>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
   </si>
   <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+  </si>
+  <si>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
+  </si>
+  <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
-  </si>
-  <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
-  </si>
-  <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
 </sst>
 </file>
@@ -728,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,28 +708,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>12054191</v>
+        <v>19264853</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>6210</v>
+        <v>231</v>
       </c>
       <c r="H2">
-        <v>20.2</v>
+        <v>8.26</v>
       </c>
       <c r="I2">
-        <v>39.52</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -797,28 +737,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>28114424</v>
+        <v>12765515</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="H3">
-        <v>5.84</v>
+        <v>2.75</v>
       </c>
       <c r="I3">
-        <v>6.94</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -826,28 +766,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>14795919</v>
+        <v>32870371</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>554</v>
+        <v>1659</v>
       </c>
       <c r="H4">
-        <v>40.91</v>
+        <v>37.23</v>
       </c>
       <c r="I4">
-        <v>57.03</v>
+        <v>119.47</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -855,309 +795,309 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>20651572</v>
+        <v>12054191</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G5">
-        <v>73</v>
+        <v>6099</v>
       </c>
       <c r="H5">
-        <v>1.54</v>
+        <v>20.15</v>
       </c>
       <c r="I5">
-        <v>1.06</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>12060072</v>
+        <v>14667825</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>1273</v>
       </c>
       <c r="H6">
-        <v>8.82</v>
+        <v>35.77</v>
       </c>
       <c r="I6">
-        <v>11.91</v>
+        <v>80.87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>36212982</v>
+        <v>11939607</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="H7">
-        <v>13.11</v>
+        <v>5.43</v>
       </c>
       <c r="I7">
-        <v>13.4</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>19044038</v>
+        <v>11904818</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7.07</v>
+        <v>2.58</v>
       </c>
       <c r="I8">
-        <v>9.56</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>11936640</v>
+        <v>11905183</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>2447</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>10.48</v>
+        <v>2.69</v>
       </c>
       <c r="I9">
-        <v>14.26</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>13451851</v>
+        <v>19006053</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.24</v>
+        <v>2.62</v>
       </c>
       <c r="I10">
-        <v>12.76</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>19264853</v>
+        <v>16349511</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G11">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="H11">
-        <v>8.34</v>
+        <v>4.24</v>
       </c>
       <c r="I11">
-        <v>13.43</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>15134725</v>
+        <v>11938640</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>12.19</v>
+        <v>5.16</v>
       </c>
       <c r="I12">
-        <v>20.81</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>13995643</v>
+        <v>15134727</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>5.78</v>
+        <v>5.06</v>
       </c>
       <c r="I13">
-        <v>9.779999999999999</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>14488403</v>
+        <v>11938367</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="H14">
-        <v>9.279999999999999</v>
+        <v>4.81</v>
       </c>
       <c r="I14">
-        <v>8.99</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>25282346</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1171,1133 +1111,698 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>35118277</v>
+        <v>12775209</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H16">
-        <v>18.82</v>
+        <v>37.49</v>
       </c>
       <c r="I16">
-        <v>34.67</v>
+        <v>61.79</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>12054191</v>
+        <v>30176476</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17">
-        <v>6210</v>
+        <v>121</v>
       </c>
       <c r="H17">
-        <v>20.2</v>
+        <v>32</v>
       </c>
       <c r="I17">
-        <v>39.52</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18">
-        <v>17171383</v>
+        <v>30240035</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>-4</v>
+        <v>198</v>
       </c>
       <c r="H18">
-        <v>12.55</v>
+        <v>14.02</v>
       </c>
       <c r="I18">
-        <v>26.71</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>32870371</v>
+        <v>42648800</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G19">
-        <v>1710</v>
+        <v>2020</v>
       </c>
       <c r="H19">
-        <v>38.03</v>
+        <v>45.41</v>
       </c>
       <c r="I19">
-        <v>121.74</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
       <c r="E20">
-        <v>12765515</v>
+        <v>27437852</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>2.74</v>
+        <v>4.07</v>
       </c>
       <c r="I20">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>12054191</v>
+        <v>12121233</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G21">
-        <v>6210</v>
+        <v>156</v>
       </c>
       <c r="H21">
-        <v>20.2</v>
+        <v>16.34</v>
       </c>
       <c r="I21">
-        <v>39.52</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>19264853</v>
+        <v>12118255</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22">
-        <v>244</v>
+        <v>910</v>
       </c>
       <c r="H22">
-        <v>8.34</v>
+        <v>8.02</v>
       </c>
       <c r="I22">
-        <v>13.43</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>11904818</v>
+        <v>13811513</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="H23">
-        <v>2.58</v>
+        <v>18.61</v>
       </c>
       <c r="I23">
-        <v>2.38</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>14667825</v>
+        <v>14589837</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G24">
-        <v>1303</v>
+        <v>288</v>
       </c>
       <c r="H24">
-        <v>36.74</v>
+        <v>15.51</v>
       </c>
       <c r="I24">
-        <v>81.91</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25">
-        <v>11905183</v>
+        <v>12285275</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>2.68</v>
+        <v>9.19</v>
       </c>
       <c r="I25">
-        <v>2.81</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>11939607</v>
+        <v>16537374</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G26">
-        <v>159</v>
+        <v>2305</v>
       </c>
       <c r="H26">
-        <v>5.41</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I26">
-        <v>6.66</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27">
-        <v>19006053</v>
+        <v>32130390</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3489</v>
       </c>
       <c r="H27">
-        <v>2.62</v>
+        <v>21.12</v>
       </c>
       <c r="I27">
-        <v>2.37</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
       </c>
       <c r="E28">
-        <v>15134727</v>
+        <v>11938367</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H28">
-        <v>5.06</v>
+        <v>4.81</v>
       </c>
       <c r="I28">
-        <v>4.97</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>16349511</v>
+        <v>11939681</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G29">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H29">
-        <v>4.24</v>
+        <v>5.92</v>
       </c>
       <c r="I29">
-        <v>4.52</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E30">
-        <v>11938640</v>
+        <v>13995639</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G30">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H30">
-        <v>5.16</v>
+        <v>4.39</v>
       </c>
       <c r="I30">
-        <v>5.72</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>11938367</v>
+        <v>19264853</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="H31">
-        <v>4.82</v>
+        <v>8.26</v>
       </c>
       <c r="I31">
-        <v>5.99</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>25282346</v>
+        <v>33278408</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>9.93</v>
+        <v>5.92</v>
       </c>
       <c r="I32">
-        <v>14.5</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E33">
-        <v>30240035</v>
+        <v>16871438</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G33">
-        <v>198</v>
+        <v>1510</v>
       </c>
       <c r="H33">
-        <v>14.02</v>
+        <v>9.18</v>
       </c>
       <c r="I33">
-        <v>15.62</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E34">
-        <v>42648800</v>
+        <v>11939551</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>45.41</v>
+        <v>6.4</v>
       </c>
       <c r="I34">
-        <v>49.82</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E35">
-        <v>12775209</v>
+        <v>35118277</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G35">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>37.49</v>
+        <v>18.53</v>
       </c>
       <c r="I35">
-        <v>61.79</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>350</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>30176476</v>
+        <v>11939672</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G36">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>10.16</v>
       </c>
       <c r="I36">
-        <v>63.03</v>
+        <v>28.88</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>27437852</v>
+        <v>12054191</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="G37">
-        <v>28</v>
+        <v>6099</v>
       </c>
       <c r="H37">
-        <v>4.07</v>
+        <v>20.15</v>
       </c>
       <c r="I37">
-        <v>3.25</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E38">
-        <v>12121233</v>
+        <v>15011531</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>156</v>
+        <v>-134</v>
       </c>
       <c r="H38">
-        <v>16.34</v>
+        <v>20.07</v>
       </c>
       <c r="I38">
-        <v>25.08</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>13811513</v>
+        <v>27262762</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G39">
-        <v>641</v>
+        <v>-33</v>
       </c>
       <c r="H39">
-        <v>18.66</v>
+        <v>7.18</v>
       </c>
       <c r="I39">
-        <v>34.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40">
-        <v>12118255</v>
-      </c>
-      <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40">
-        <v>913</v>
-      </c>
-      <c r="H40">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="I40">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>270</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41">
-        <v>35118277</v>
-      </c>
-      <c r="F41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41">
-        <v>50</v>
-      </c>
-      <c r="H41">
-        <v>18.82</v>
-      </c>
-      <c r="I41">
-        <v>34.67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42">
-        <v>13995639</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42">
-        <v>-16</v>
-      </c>
-      <c r="H42">
-        <v>4.4</v>
-      </c>
-      <c r="I42">
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43">
-        <v>16871438</v>
-      </c>
-      <c r="F43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43">
-        <v>1524</v>
-      </c>
-      <c r="H43">
-        <v>9.15</v>
-      </c>
-      <c r="I43">
-        <v>11.38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44">
-        <v>11939551</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44">
-        <v>-70</v>
-      </c>
-      <c r="H44">
-        <v>6.4</v>
-      </c>
-      <c r="I44">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45">
-        <v>240</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45">
-        <v>32130390</v>
-      </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45">
-        <v>3557</v>
-      </c>
-      <c r="H45">
-        <v>21.1</v>
-      </c>
-      <c r="I45">
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46">
-        <v>16537374</v>
-      </c>
-      <c r="F46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46">
-        <v>2305</v>
-      </c>
-      <c r="H46">
-        <v>8.15</v>
-      </c>
-      <c r="I46">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47">
-        <v>19264853</v>
-      </c>
-      <c r="F47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47">
-        <v>244</v>
-      </c>
-      <c r="H47">
-        <v>8.34</v>
-      </c>
-      <c r="I47">
-        <v>13.43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48">
-        <v>33278408</v>
-      </c>
-      <c r="F48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48">
-        <v>36</v>
-      </c>
-      <c r="H48">
-        <v>5.83</v>
-      </c>
-      <c r="I48">
-        <v>5.79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49">
-        <v>11939681</v>
-      </c>
-      <c r="F49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49">
-        <v>112</v>
-      </c>
-      <c r="H49">
-        <v>5.94</v>
-      </c>
-      <c r="I49">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>141</v>
-      </c>
-      <c r="C50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50">
-        <v>12285275</v>
-      </c>
-      <c r="F50" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50">
-        <v>82</v>
-      </c>
-      <c r="H50">
-        <v>9.19</v>
-      </c>
-      <c r="I50">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51">
-        <v>11938367</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51">
-        <v>99</v>
-      </c>
-      <c r="H51">
-        <v>4.82</v>
-      </c>
-      <c r="I51">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <v>270</v>
-      </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52">
-        <v>14589837</v>
-      </c>
-      <c r="F52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52">
-        <v>-192</v>
-      </c>
-      <c r="H52">
-        <v>15.51</v>
-      </c>
-      <c r="I52">
-        <v>28.38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>310</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53">
-        <v>12054191</v>
-      </c>
-      <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53">
-        <v>6210</v>
-      </c>
-      <c r="H53">
-        <v>20.2</v>
-      </c>
-      <c r="I53">
-        <v>39.52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <v>154</v>
-      </c>
-      <c r="C54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54">
-        <v>11939672</v>
-      </c>
-      <c r="F54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54">
-        <v>481</v>
-      </c>
-      <c r="H54">
-        <v>10.16</v>
-      </c>
-      <c r="I54">
-        <v>28.88</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
     <t>2025-07-02</t>
   </si>
   <si>
@@ -73,244 +70,250 @@
     <t>2025-07-14</t>
   </si>
   <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
     <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
     <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
   </si>
   <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+  </si>
+  <si>
     <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>53703458</t>
-  </si>
-  <si>
-    <t>53737664</t>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>53735480</t>
+  </si>
+  <si>
+    <t>53772141</t>
   </si>
   <si>
     <t>53786165</t>
   </si>
   <si>
-    <t>53735480</t>
-  </si>
-  <si>
-    <t>53772141</t>
+    <t>53823314</t>
+  </si>
+  <si>
+    <t>53815219</t>
   </si>
   <si>
     <t>53826453</t>
   </si>
   <si>
-    <t>53823314</t>
-  </si>
-  <si>
-    <t>53815219</t>
-  </si>
-  <si>
     <t>53833482</t>
   </si>
   <si>
-    <t>53876861</t>
+    <t>53879266</t>
+  </si>
+  <si>
+    <t>53958498</t>
   </si>
   <si>
     <t>53791039</t>
   </si>
   <si>
-    <t>53958498</t>
-  </si>
-  <si>
     <t>53989115</t>
   </si>
   <si>
+    <t>53473755</t>
+  </si>
+  <si>
     <t>54020891</t>
   </si>
   <si>
-    <t>53473755</t>
+    <t>54093449</t>
   </si>
   <si>
     <t>54093753</t>
   </si>
   <si>
-    <t>54093449</t>
-  </si>
-  <si>
     <t>54141318</t>
   </si>
   <si>
+    <t>54123729</t>
+  </si>
+  <si>
+    <t>54142176</t>
+  </si>
+  <si>
     <t>54153624</t>
   </si>
   <si>
-    <t>54142176</t>
-  </si>
-  <si>
-    <t>54123729</t>
-  </si>
-  <si>
     <t>54127333</t>
   </si>
   <si>
     <t>54124880</t>
   </si>
   <si>
+    <t>54285324</t>
+  </si>
+  <si>
     <t>54263882</t>
   </si>
   <si>
-    <t>54285324</t>
+    <t>54346779</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
+  </si>
+  <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
-  </si>
-  <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
-  </si>
-  <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>WIPERPLUS PRO 70 PANO 28X40CM ROLO C/ 88 UND</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,28 +711,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>19264853</v>
+        <v>11939607</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
       </c>
       <c r="G2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="H2">
-        <v>8.26</v>
+        <v>5.43</v>
       </c>
       <c r="I2">
-        <v>13.37</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -737,25 +740,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3">
-        <v>12765515</v>
+        <v>11904818</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
       </c>
       <c r="G3">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="I3">
         <v>2.38</v>
@@ -766,28 +769,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>32870371</v>
+        <v>11905183</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
       <c r="G4">
-        <v>1659</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>37.23</v>
+        <v>2.68</v>
       </c>
       <c r="I4">
-        <v>119.47</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -795,28 +798,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>12054191</v>
+        <v>14667825</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
       </c>
       <c r="G5">
-        <v>6099</v>
+        <v>1270</v>
       </c>
       <c r="H5">
-        <v>20.15</v>
+        <v>35.64</v>
       </c>
       <c r="I5">
-        <v>39.45</v>
+        <v>80.72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -824,28 +827,28 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>14667825</v>
+        <v>16349511</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
       </c>
       <c r="G6">
-        <v>1273</v>
+        <v>75</v>
       </c>
       <c r="H6">
-        <v>35.77</v>
+        <v>4.31</v>
       </c>
       <c r="I6">
-        <v>80.87</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -856,25 +859,25 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>11939607</v>
+        <v>11938640</v>
       </c>
       <c r="F7" t="s">
         <v>69</v>
       </c>
       <c r="G7">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>5.43</v>
+        <v>5.16</v>
       </c>
       <c r="I7">
-        <v>6.68</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -885,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>11904818</v>
+        <v>19006053</v>
       </c>
       <c r="F8" t="s">
         <v>70</v>
@@ -900,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I8">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -911,36 +914,36 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>11905183</v>
+        <v>15134727</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.69</v>
+        <v>5.06</v>
       </c>
       <c r="I9">
-        <v>2.81</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -949,19 +952,19 @@
         <v>44</v>
       </c>
       <c r="E10">
-        <v>19006053</v>
+        <v>11938367</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H10">
-        <v>2.62</v>
+        <v>4.8</v>
       </c>
       <c r="I10">
-        <v>2.37</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -969,115 +972,115 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>16349511</v>
+        <v>25282346</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4.24</v>
+        <v>9.93</v>
       </c>
       <c r="I11">
-        <v>4.52</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>11938640</v>
+        <v>30176476</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
         <v>32</v>
       </c>
-      <c r="H12">
-        <v>5.16</v>
-      </c>
       <c r="I12">
-        <v>5.72</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>15134727</v>
+        <v>12775209</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H13">
-        <v>5.06</v>
+        <v>37.53</v>
       </c>
       <c r="I13">
-        <v>4.97</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
-        <v>11938367</v>
+        <v>30240035</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
       </c>
       <c r="G14">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="H14">
-        <v>4.81</v>
+        <v>13.85</v>
       </c>
       <c r="I14">
-        <v>5.98</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,28 +1088,28 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>25282346</v>
+        <v>42648800</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="H15">
-        <v>9.93</v>
+        <v>45.41</v>
       </c>
       <c r="I15">
-        <v>14.5</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1114,28 +1117,28 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>12775209</v>
+        <v>12121233</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="H16">
-        <v>37.49</v>
+        <v>16.34</v>
       </c>
       <c r="I16">
-        <v>61.79</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1143,144 +1146,144 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>30176476</v>
+        <v>27437852</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
       </c>
       <c r="G17">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>4.07</v>
       </c>
       <c r="I17">
-        <v>63.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>30240035</v>
+        <v>13811513</v>
       </c>
       <c r="F18" t="s">
         <v>80</v>
       </c>
       <c r="G18">
-        <v>198</v>
+        <v>612</v>
       </c>
       <c r="H18">
-        <v>14.02</v>
+        <v>18.54</v>
       </c>
       <c r="I18">
-        <v>15.62</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>42648800</v>
+        <v>12118255</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
       </c>
       <c r="G19">
-        <v>2020</v>
+        <v>905</v>
       </c>
       <c r="H19">
-        <v>45.41</v>
+        <v>8.01</v>
       </c>
       <c r="I19">
-        <v>49.82</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>27437852</v>
+        <v>35118277</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>4.07</v>
+        <v>18.48</v>
       </c>
       <c r="I20">
-        <v>3.25</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>12121233</v>
+        <v>16871438</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
       </c>
       <c r="G21">
-        <v>156</v>
+        <v>1495</v>
       </c>
       <c r="H21">
-        <v>16.34</v>
+        <v>9.17</v>
       </c>
       <c r="I21">
-        <v>25.08</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1288,28 +1291,28 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>12118255</v>
+        <v>11939551</v>
       </c>
       <c r="F22" t="s">
         <v>84</v>
       </c>
       <c r="G22">
-        <v>910</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>8.02</v>
+        <v>6.4</v>
       </c>
       <c r="I22">
-        <v>10.58</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1317,129 +1320,129 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>13811513</v>
+        <v>33278408</v>
       </c>
       <c r="F23" t="s">
         <v>85</v>
       </c>
       <c r="G23">
-        <v>615</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>18.61</v>
+        <v>5.92</v>
       </c>
       <c r="I23">
-        <v>33.98</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>14589837</v>
+        <v>19264853</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
       </c>
       <c r="G24">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="H24">
-        <v>15.51</v>
+        <v>8.24</v>
       </c>
       <c r="I24">
-        <v>28.38</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>12285275</v>
+        <v>13995639</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
       </c>
       <c r="G25">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H25">
-        <v>9.19</v>
+        <v>4.39</v>
       </c>
       <c r="I25">
-        <v>16.4</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>16537374</v>
+        <v>12285275</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
       </c>
       <c r="G26">
-        <v>2305</v>
+        <v>82</v>
       </c>
       <c r="H26">
-        <v>8.140000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="I26">
-        <v>10.04</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>32130390</v>
@@ -1448,129 +1451,129 @@
         <v>89</v>
       </c>
       <c r="G27">
-        <v>3489</v>
+        <v>3457</v>
       </c>
       <c r="H27">
-        <v>21.12</v>
+        <v>21.11</v>
       </c>
       <c r="I27">
-        <v>50.22</v>
+        <v>50.18</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>11938367</v>
+        <v>16537374</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G28">
-        <v>94</v>
+        <v>2287</v>
       </c>
       <c r="H28">
-        <v>4.81</v>
+        <v>8.17</v>
       </c>
       <c r="I28">
-        <v>5.98</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>11939681</v>
+        <v>14589837</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="H29">
-        <v>5.92</v>
+        <v>15.51</v>
       </c>
       <c r="I29">
-        <v>11.32</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>13995639</v>
+        <v>11938367</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G30">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H30">
-        <v>4.39</v>
+        <v>4.8</v>
       </c>
       <c r="I30">
-        <v>10.73</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>19264853</v>
+        <v>11939681</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G31">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="H31">
-        <v>8.26</v>
+        <v>5.92</v>
       </c>
       <c r="I31">
-        <v>13.37</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1578,28 +1581,28 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32">
-        <v>33278408</v>
+        <v>11939672</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32">
-        <v>36</v>
+        <v>476</v>
       </c>
       <c r="H32">
-        <v>5.92</v>
+        <v>10.11</v>
       </c>
       <c r="I32">
-        <v>5.81</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1607,144 +1610,144 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>16871438</v>
+        <v>12054191</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33">
-        <v>1510</v>
+        <v>5999</v>
       </c>
       <c r="H33">
-        <v>9.18</v>
+        <v>20.13</v>
       </c>
       <c r="I33">
-        <v>11.38</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>27262762</v>
+      </c>
+      <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34">
-        <v>11939551</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
-      </c>
       <c r="G34">
-        <v>50</v>
+        <v>-33</v>
       </c>
       <c r="H34">
-        <v>6.4</v>
+        <v>7.13</v>
       </c>
       <c r="I34">
-        <v>15.76</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>35118277</v>
+        <v>15011531</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="H35">
-        <v>18.53</v>
+        <v>20.15</v>
       </c>
       <c r="I35">
-        <v>34.32</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>11939672</v>
+        <v>17171383</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G36">
-        <v>479</v>
+        <v>-128</v>
       </c>
       <c r="H36">
-        <v>10.16</v>
+        <v>13.89</v>
       </c>
       <c r="I36">
-        <v>28.88</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>12054191</v>
+        <v>14795919</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G37">
-        <v>6099</v>
+        <v>254</v>
       </c>
       <c r="H37">
-        <v>20.15</v>
+        <v>42.72</v>
       </c>
       <c r="I37">
-        <v>39.45</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1752,57 +1755,28 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>250</v>
+        <v>17600</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38">
-        <v>15011531</v>
+        <v>24481562</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38">
-        <v>-134</v>
+        <v>-17601</v>
       </c>
       <c r="H38">
-        <v>20.07</v>
+        <v>5736.57</v>
       </c>
       <c r="I38">
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39">
-        <v>27262762</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39">
-        <v>-33</v>
-      </c>
-      <c r="H39">
-        <v>7.18</v>
-      </c>
-      <c r="I39">
-        <v>8.109999999999999</v>
+        <v>3937.4</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-02</t>
-  </si>
-  <si>
     <t>2025-07-03</t>
   </si>
   <si>
@@ -73,247 +70,247 @@
     <t>2025-07-15</t>
   </si>
   <si>
-    <t>CONDOMINIO MUNDI RESORT RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
   </si>
   <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
     <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
   </si>
   <si>
+    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+  </si>
+  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
   </si>
   <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
     <t>SAWEM DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>53735480</t>
-  </si>
-  <si>
-    <t>53772141</t>
-  </si>
-  <si>
-    <t>53786165</t>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
+    <t>53833482</t>
+  </si>
+  <si>
+    <t>53815219</t>
+  </si>
+  <si>
+    <t>53826453</t>
   </si>
   <si>
     <t>53823314</t>
   </si>
   <si>
-    <t>53815219</t>
-  </si>
-  <si>
-    <t>53826453</t>
-  </si>
-  <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53879266</t>
+    <t>53876861</t>
+  </si>
+  <si>
+    <t>53791039</t>
   </si>
   <si>
     <t>53958498</t>
   </si>
   <si>
-    <t>53791039</t>
-  </si>
-  <si>
     <t>53989115</t>
   </si>
   <si>
+    <t>54020891</t>
+  </si>
+  <si>
     <t>53473755</t>
   </si>
   <si>
-    <t>54020891</t>
+    <t>54093753</t>
   </si>
   <si>
     <t>54093449</t>
   </si>
   <si>
-    <t>54093753</t>
+    <t>54142176</t>
+  </si>
+  <si>
+    <t>54153624</t>
+  </si>
+  <si>
+    <t>54123729</t>
   </si>
   <si>
     <t>54141318</t>
   </si>
   <si>
-    <t>54123729</t>
-  </si>
-  <si>
-    <t>54142176</t>
-  </si>
-  <si>
-    <t>54153624</t>
-  </si>
-  <si>
     <t>54127333</t>
   </si>
   <si>
     <t>54124880</t>
   </si>
   <si>
+    <t>54263882</t>
+  </si>
+  <si>
     <t>54285324</t>
   </si>
   <si>
-    <t>54263882</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ALCOOL EM GEL 70% ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO FACILITA 70% INPM 5L</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>54396269</t>
+  </si>
+  <si>
+    <t>54316914</t>
+  </si>
+  <si>
+    <t>54119372</t>
+  </si>
+  <si>
+    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
   </si>
   <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
-  </si>
-  <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
     <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
   </si>
   <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+  </si>
+  <si>
     <t>ENVELOPE 24X34 OURO</t>
   </si>
   <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
     <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
   </si>
   <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+  </si>
+  <si>
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
     <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
     <t>WIPERPLUS PRO 70 PANO 28X40CM ROLO C/ 88 UND</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,28 +708,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>11939607</v>
+        <v>15134727</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.43</v>
+        <v>5.06</v>
       </c>
       <c r="I2">
-        <v>6.69</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -740,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -749,19 +746,19 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>11904818</v>
+        <v>11938640</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>2.58</v>
+        <v>5.17</v>
       </c>
       <c r="I3">
-        <v>2.38</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -769,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -778,19 +775,19 @@
         <v>41</v>
       </c>
       <c r="E4">
-        <v>11905183</v>
+        <v>19006053</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I4">
-        <v>2.81</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -798,48 +795,48 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>14667825</v>
+        <v>11938367</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>1270</v>
+        <v>89</v>
       </c>
       <c r="H5">
-        <v>35.64</v>
+        <v>4.79</v>
       </c>
       <c r="I5">
-        <v>80.72</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>16349511</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>75</v>
@@ -856,115 +853,115 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>11938640</v>
+        <v>25282346</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5.16</v>
+        <v>9.93</v>
       </c>
       <c r="I7">
-        <v>5.72</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>19006053</v>
+        <v>12775209</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H8">
-        <v>2.62</v>
+        <v>37.53</v>
       </c>
       <c r="I8">
-        <v>2.37</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>15134727</v>
+        <v>30176476</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H9">
-        <v>5.06</v>
+        <v>32</v>
       </c>
       <c r="I9">
-        <v>4.97</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>11938367</v>
+        <v>30240035</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>13.85</v>
       </c>
       <c r="I10">
-        <v>5.97</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -972,28 +969,28 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>25282346</v>
+        <v>42648800</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="H11">
-        <v>9.93</v>
+        <v>45.54</v>
       </c>
       <c r="I11">
-        <v>14.5</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1001,28 +998,28 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>30176476</v>
+        <v>27437852</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>4.07</v>
       </c>
       <c r="I12">
-        <v>63.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1030,144 +1027,144 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
-        <v>12775209</v>
+        <v>12121233</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="H13">
-        <v>37.53</v>
+        <v>16.34</v>
       </c>
       <c r="I13">
-        <v>61.96</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>30240035</v>
+        <v>12118255</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14">
-        <v>195</v>
+        <v>905</v>
       </c>
       <c r="H14">
-        <v>13.85</v>
+        <v>8.01</v>
       </c>
       <c r="I14">
-        <v>15.56</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>42648800</v>
+        <v>13811513</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15">
-        <v>2020</v>
+        <v>582</v>
       </c>
       <c r="H15">
-        <v>45.41</v>
+        <v>18.67</v>
       </c>
       <c r="I15">
-        <v>49.82</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16">
-        <v>12121233</v>
+        <v>11938367</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G16">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="H16">
-        <v>16.34</v>
+        <v>4.79</v>
       </c>
       <c r="I16">
-        <v>25.08</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17">
-        <v>27437852</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>3422</v>
       </c>
       <c r="H17">
-        <v>4.07</v>
+        <v>21.09</v>
       </c>
       <c r="I17">
-        <v>3.25</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1175,28 +1172,28 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18">
-        <v>13811513</v>
+        <v>33278408</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>612</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>18.54</v>
+        <v>5.92</v>
       </c>
       <c r="I18">
-        <v>33.92</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1204,260 +1201,260 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19">
-        <v>12118255</v>
+        <v>11939551</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>905</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>8.01</v>
+        <v>6.4</v>
       </c>
       <c r="I19">
-        <v>10.58</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>35118277</v>
+        <v>13995639</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="H20">
-        <v>18.48</v>
+        <v>4.39</v>
       </c>
       <c r="I20">
-        <v>34.23</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>16871438</v>
+        <v>11939681</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21">
-        <v>1495</v>
+        <v>98</v>
       </c>
       <c r="H21">
-        <v>9.17</v>
+        <v>5.85</v>
       </c>
       <c r="I21">
-        <v>11.37</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>11939551</v>
+        <v>16871438</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>1485</v>
       </c>
       <c r="H22">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I22">
-        <v>15.76</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>33278408</v>
+        <v>16537374</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23">
-        <v>36</v>
+        <v>2287</v>
       </c>
       <c r="H23">
-        <v>5.92</v>
+        <v>8.17</v>
       </c>
       <c r="I23">
-        <v>5.81</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>19264853</v>
+        <v>35118277</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>8.24</v>
+        <v>18.41</v>
       </c>
       <c r="I24">
-        <v>13.34</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>13995639</v>
+        <v>12285275</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>4.39</v>
+        <v>9.19</v>
       </c>
       <c r="I25">
-        <v>10.73</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26">
-        <v>12285275</v>
+        <v>14589837</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G26">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="H26">
-        <v>9.19</v>
+        <v>15.43</v>
       </c>
       <c r="I26">
-        <v>16.4</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>32130390</v>
+        <v>19264853</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G27">
-        <v>3457</v>
+        <v>147</v>
       </c>
       <c r="H27">
-        <v>21.11</v>
+        <v>8.33</v>
       </c>
       <c r="I27">
-        <v>50.18</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1465,28 +1462,28 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28">
-        <v>16537374</v>
+        <v>11939672</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28">
-        <v>2287</v>
+        <v>473</v>
       </c>
       <c r="H28">
-        <v>8.17</v>
+        <v>10.09</v>
       </c>
       <c r="I28">
-        <v>10.04</v>
+        <v>28.86</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1494,36 +1491,36 @@
         <v>15</v>
       </c>
       <c r="B29">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>14589837</v>
+        <v>12054191</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G29">
-        <v>288</v>
+        <v>5962</v>
       </c>
       <c r="H29">
-        <v>15.51</v>
+        <v>20.08</v>
       </c>
       <c r="I29">
-        <v>28.38</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1532,56 +1529,56 @@
         <v>57</v>
       </c>
       <c r="E30">
-        <v>11938367</v>
+        <v>15011531</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H30">
-        <v>4.8</v>
+        <v>20.43</v>
       </c>
       <c r="I30">
-        <v>5.97</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>11939681</v>
+        <v>27262762</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H31">
-        <v>5.92</v>
+        <v>7.13</v>
       </c>
       <c r="I31">
-        <v>11.31</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -1590,48 +1587,48 @@
         <v>59</v>
       </c>
       <c r="E32">
-        <v>11939672</v>
+        <v>14795919</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>476</v>
+        <v>254</v>
       </c>
       <c r="H32">
-        <v>10.11</v>
+        <v>42.97</v>
       </c>
       <c r="I32">
-        <v>28.9</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>12054191</v>
+        <v>17171383</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33">
-        <v>5999</v>
+        <v>-128</v>
       </c>
       <c r="H33">
-        <v>20.13</v>
+        <v>13.89</v>
       </c>
       <c r="I33">
-        <v>39.4</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1639,57 +1636,57 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>60</v>
+        <v>17600</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34">
-        <v>27262762</v>
+        <v>24481562</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>-33</v>
+        <v>-20417</v>
       </c>
       <c r="H34">
-        <v>7.13</v>
+        <v>5541.87</v>
       </c>
       <c r="I34">
-        <v>8.140000000000001</v>
+        <v>3868.39</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>15011531</v>
+        <v>17541022</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>20.15</v>
+        <v>2.08</v>
       </c>
       <c r="I35">
-        <v>30.69</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1697,28 +1694,28 @@
         <v>18</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>17171383</v>
+        <v>42173656</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36">
-        <v>-128</v>
+        <v>-49</v>
       </c>
       <c r="H36">
-        <v>13.89</v>
+        <v>6.07</v>
       </c>
       <c r="I36">
-        <v>29.36</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1726,28 +1723,28 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>14795919</v>
+        <v>17125814</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37">
-        <v>254</v>
+        <v>-3</v>
       </c>
       <c r="H37">
-        <v>42.72</v>
+        <v>2.19</v>
       </c>
       <c r="I37">
-        <v>60.72</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1755,28 +1752,57 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>17600</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>24481562</v>
+        <v>19264853</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G38">
-        <v>-17601</v>
+        <v>147</v>
       </c>
       <c r="H38">
-        <v>5736.57</v>
+        <v>8.33</v>
       </c>
       <c r="I38">
-        <v>3937.4</v>
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39">
+        <v>28133466</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>-10</v>
+      </c>
+      <c r="H39">
+        <v>2.34</v>
+      </c>
+      <c r="I39">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
     <t>2025-07-04</t>
   </si>
   <si>
@@ -73,48 +70,45 @@
     <t>2025-07-16</t>
   </si>
   <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
-    <t>LACHI ENGENHARIA E PROJETOS DE INSTALACAO DE MAQUINAS E EQUI</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
     <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
+    <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
@@ -133,184 +127,172 @@
     <t>CONDOMINIO DO TVLANDIA MALL</t>
   </si>
   <si>
-    <t>53833482</t>
-  </si>
-  <si>
-    <t>53815219</t>
-  </si>
-  <si>
-    <t>53826453</t>
-  </si>
-  <si>
-    <t>53823314</t>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
     <t>53876861</t>
   </si>
   <si>
+    <t>53989115</t>
+  </si>
+  <si>
+    <t>53958498</t>
+  </si>
+  <si>
     <t>53791039</t>
   </si>
   <si>
-    <t>53958498</t>
-  </si>
-  <si>
-    <t>53989115</t>
+    <t>53473755</t>
   </si>
   <si>
     <t>54020891</t>
   </si>
   <si>
-    <t>53473755</t>
+    <t>54093449</t>
   </si>
   <si>
     <t>54093753</t>
   </si>
   <si>
-    <t>54093449</t>
+    <t>54141318</t>
   </si>
   <si>
     <t>54142176</t>
   </si>
   <si>
+    <t>54123729</t>
+  </si>
+  <si>
     <t>54153624</t>
   </si>
   <si>
-    <t>54123729</t>
-  </si>
-  <si>
-    <t>54141318</t>
+    <t>54124880</t>
   </si>
   <si>
     <t>54127333</t>
   </si>
   <si>
-    <t>54124880</t>
-  </si>
-  <si>
     <t>54263882</t>
   </si>
   <si>
     <t>54285324</t>
   </si>
   <si>
+    <t>54338890</t>
+  </si>
+  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54316914</t>
+  </si>
+  <si>
     <t>54396269</t>
   </si>
   <si>
-    <t>54316914</t>
-  </si>
-  <si>
     <t>54119372</t>
   </si>
   <si>
-    <t>DISCO LIMPEZA VERDE P ENCERADEIRA 510MM NOBRE</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA 6X200M NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO MULTIPLIC BUTTERFLY AUDAX 5L</t>
+    <t>54443314</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
+  </si>
+  <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
-  </si>
-  <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
-  </si>
-  <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
   </si>
   <si>
     <t>ESCOVA OVAL PLASTICA</t>
   </si>
   <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
     <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
+    <t>WIPERPLUS PRO 70 PANO 28X40CM ROLO C/ 88 UND</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
-    <t>WIPERPLUS PRO 70 PANO 28X40CM ROLO C/ 88 UND</t>
+    <t>COADOR DE CAFE P</t>
   </si>
   <si>
     <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
   </si>
   <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
     <t>COADOR DE CAFÉ G</t>
   </si>
   <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
 </sst>
 </file>
@@ -668,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,173 +690,173 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>15134727</v>
+        <v>25282346</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5.06</v>
+        <v>9.93</v>
       </c>
       <c r="I2">
-        <v>4.97</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>11938640</v>
+        <v>42648800</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>1924</v>
       </c>
       <c r="H3">
-        <v>5.17</v>
+        <v>45.54</v>
       </c>
       <c r="I3">
-        <v>5.73</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>19006053</v>
+        <v>30240035</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H4">
-        <v>2.62</v>
+        <v>13.91</v>
       </c>
       <c r="I4">
-        <v>2.37</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>11938367</v>
+        <v>30176476</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="H5">
-        <v>4.79</v>
+        <v>32</v>
       </c>
       <c r="I5">
-        <v>5.97</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>16349511</v>
+        <v>12775209</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>4.31</v>
+        <v>37.38</v>
       </c>
       <c r="I6">
-        <v>4.57</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>25282346</v>
+        <v>12121233</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H7">
-        <v>9.93</v>
+        <v>16.4</v>
       </c>
       <c r="I7">
-        <v>14.5</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -882,173 +864,173 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>12775209</v>
+        <v>27437852</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>37.53</v>
+        <v>4.07</v>
       </c>
       <c r="I8">
-        <v>61.96</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>30176476</v>
+        <v>13811513</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>121</v>
+        <v>576</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>18.61</v>
       </c>
       <c r="I9">
-        <v>63.03</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10">
-        <v>30240035</v>
+        <v>12118255</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>195</v>
+        <v>905</v>
       </c>
       <c r="H10">
-        <v>13.85</v>
+        <v>8.01</v>
       </c>
       <c r="I10">
-        <v>15.56</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11">
-        <v>42648800</v>
+        <v>35118277</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11">
-        <v>1924</v>
+        <v>-9</v>
       </c>
       <c r="H11">
-        <v>45.54</v>
+        <v>18.21</v>
       </c>
       <c r="I11">
-        <v>48.67</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>27437852</v>
+        <v>11939551</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>4.07</v>
+        <v>6.4</v>
       </c>
       <c r="I12">
-        <v>3.25</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>12121233</v>
+        <v>19264853</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H13">
-        <v>16.34</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I13">
-        <v>25.08</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1056,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14">
-        <v>12118255</v>
+        <v>33278408</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14">
-        <v>905</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>8.01</v>
+        <v>5.92</v>
       </c>
       <c r="I14">
-        <v>10.58</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1085,231 +1067,231 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>13811513</v>
+        <v>11938367</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="H15">
-        <v>18.67</v>
+        <v>4.8</v>
       </c>
       <c r="I15">
-        <v>33.92</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>11938367</v>
+        <v>32130390</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G16">
-        <v>89</v>
+        <v>3388</v>
       </c>
       <c r="H16">
-        <v>4.79</v>
+        <v>21.06</v>
       </c>
       <c r="I16">
-        <v>5.97</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>16871438</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>3422</v>
+        <v>1481</v>
       </c>
       <c r="H17">
-        <v>21.09</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17">
-        <v>50.11</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>33278408</v>
+        <v>12285275</v>
       </c>
       <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
         <v>78</v>
       </c>
-      <c r="G18">
-        <v>36</v>
-      </c>
       <c r="H18">
-        <v>5.92</v>
+        <v>9.16</v>
       </c>
       <c r="I18">
-        <v>5.81</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>11939551</v>
+        <v>11939681</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H19">
-        <v>6.4</v>
+        <v>5.85</v>
       </c>
       <c r="I19">
-        <v>15.76</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>13995639</v>
+        <v>14589837</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="H20">
-        <v>4.39</v>
+        <v>15.43</v>
       </c>
       <c r="I20">
-        <v>10.73</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>11939681</v>
+        <v>13995639</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>5.85</v>
+        <v>4.39</v>
       </c>
       <c r="I21">
-        <v>11.21</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>16871438</v>
+        <v>16537374</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>1485</v>
+        <v>2287</v>
       </c>
       <c r="H22">
-        <v>9.199999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="I22">
-        <v>11.38</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1317,28 +1299,28 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>16537374</v>
+        <v>12054191</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23">
-        <v>2287</v>
+        <v>5816</v>
       </c>
       <c r="H23">
-        <v>8.17</v>
+        <v>20.05</v>
       </c>
       <c r="I23">
-        <v>10.04</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1346,231 +1328,231 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>35118277</v>
+        <v>11939672</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>473</v>
       </c>
       <c r="H24">
-        <v>18.41</v>
+        <v>10.09</v>
       </c>
       <c r="I24">
-        <v>34.15</v>
+        <v>28.86</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>12285275</v>
+        <v>15011531</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="H25">
-        <v>9.19</v>
+        <v>20.58</v>
       </c>
       <c r="I25">
-        <v>16.4</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>14589837</v>
+        <v>27262762</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="H26">
-        <v>15.43</v>
+        <v>7.25</v>
       </c>
       <c r="I26">
-        <v>28.28</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>17600</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>19264853</v>
+        <v>24481562</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>147</v>
+        <v>-20417</v>
       </c>
       <c r="H27">
-        <v>8.33</v>
+        <v>5541.87</v>
       </c>
       <c r="I27">
-        <v>13.56</v>
+        <v>3868.39</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28">
-        <v>11939672</v>
+        <v>14795919</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28">
-        <v>473</v>
+        <v>244</v>
       </c>
       <c r="H28">
-        <v>10.09</v>
+        <v>42.91</v>
       </c>
       <c r="I28">
-        <v>28.86</v>
+        <v>60.86</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>12054191</v>
+        <v>17171383</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29">
-        <v>5962</v>
+        <v>-128</v>
       </c>
       <c r="H29">
-        <v>20.08</v>
+        <v>14.02</v>
       </c>
       <c r="I29">
-        <v>39.35</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30">
-        <v>15011531</v>
+        <v>19264853</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G30">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H30">
-        <v>20.43</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I30">
-        <v>30.8</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>27262762</v>
+        <v>17125814</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G31">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H31">
-        <v>7.13</v>
+        <v>2.19</v>
       </c>
       <c r="I31">
-        <v>8.140000000000001</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1578,28 +1560,28 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32">
-        <v>14795919</v>
+        <v>17541022</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G32">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>42.97</v>
+        <v>2.08</v>
       </c>
       <c r="I32">
-        <v>60.83</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1607,28 +1589,28 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>17171383</v>
+        <v>28133466</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>-128</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>13.89</v>
+        <v>2.34</v>
       </c>
       <c r="I33">
-        <v>29.36</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1636,28 +1618,28 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>17600</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>24481562</v>
+        <v>42173656</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G34">
-        <v>-20417</v>
+        <v>23</v>
       </c>
       <c r="H34">
-        <v>5541.87</v>
+        <v>6.07</v>
       </c>
       <c r="I34">
-        <v>3868.39</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1665,144 +1647,28 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35">
-        <v>17541022</v>
+        <v>11936640</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>2262</v>
       </c>
       <c r="H35">
-        <v>2.08</v>
+        <v>10.54</v>
       </c>
       <c r="I35">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>42173656</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36">
-        <v>-49</v>
-      </c>
-      <c r="H36">
-        <v>6.07</v>
-      </c>
-      <c r="I36">
-        <v>15.64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>17125814</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37">
-        <v>-3</v>
-      </c>
-      <c r="H37">
-        <v>2.19</v>
-      </c>
-      <c r="I37">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38">
-        <v>19264853</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38">
-        <v>147</v>
-      </c>
-      <c r="H38">
-        <v>8.33</v>
-      </c>
-      <c r="I38">
-        <v>13.56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39">
-        <v>28133466</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39">
-        <v>-10</v>
-      </c>
-      <c r="H39">
-        <v>2.34</v>
-      </c>
-      <c r="I39">
-        <v>1.91</v>
+        <v>14.63</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-04</t>
-  </si>
-  <si>
     <t>2025-07-07</t>
   </si>
   <si>
@@ -73,24 +70,24 @@
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
     <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
   </si>
   <si>
+    <t>ABC - AMAZONIA BRASIL CONCENTRADOS LTDA</t>
+  </si>
+  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+  </si>
+  <si>
     <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
@@ -112,12 +109,12 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
@@ -130,24 +127,24 @@
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
-    <t>53876861</t>
-  </si>
-  <si>
     <t>53989115</t>
   </si>
   <si>
+    <t>53975591</t>
+  </si>
+  <si>
     <t>53958498</t>
   </si>
   <si>
     <t>53791039</t>
   </si>
   <si>
+    <t>54020891</t>
+  </si>
+  <si>
     <t>53473755</t>
   </si>
   <si>
-    <t>54020891</t>
-  </si>
-  <si>
     <t>54093449</t>
   </si>
   <si>
@@ -166,57 +163,54 @@
     <t>54153624</t>
   </si>
   <si>
+    <t>54127333</t>
+  </si>
+  <si>
     <t>54124880</t>
   </si>
   <si>
-    <t>54127333</t>
+    <t>54285324</t>
   </si>
   <si>
     <t>54263882</t>
   </si>
   <si>
-    <t>54285324</t>
-  </si>
-  <si>
-    <t>54338890</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54396269</t>
+  </si>
+  <si>
     <t>54316914</t>
   </si>
   <si>
-    <t>54396269</t>
-  </si>
-  <si>
     <t>54119372</t>
   </si>
   <si>
     <t>54443314</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM AZUL UND NOBRE</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
   </si>
   <si>
+    <t>LAMINA LARGA 18MM P/ ESTILETE C/10UND LEOARTE JOCAR</t>
+  </si>
+  <si>
+    <t>ENVELOPE 24X34 OURO</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
   </si>
   <si>
+    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+  </si>
+  <si>
     <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
-  </si>
-  <si>
     <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
@@ -241,55 +235,52 @@
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
     <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
   </si>
   <si>
     <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
+  </si>
+  <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>WIPERPLUS PRO 70 PANO 28X40CM ROLO C/ 88 UND</t>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
   </si>
   <si>
     <t>COADOR DE CAFE P</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFÉ G</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
@@ -650,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,138 +681,138 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>25282346</v>
+        <v>42648800</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="H2">
-        <v>9.93</v>
+        <v>45.4</v>
       </c>
       <c r="I2">
-        <v>14.5</v>
+        <v>48.05</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>42648800</v>
+        <v>27450023</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>1924</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>45.54</v>
+        <v>3.17</v>
       </c>
       <c r="I3">
-        <v>48.67</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>30240035</v>
+        <v>30176476</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="H4">
-        <v>13.91</v>
+        <v>32</v>
       </c>
       <c r="I4">
-        <v>15.67</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>30176476</v>
+        <v>30240035</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="H5">
-        <v>32</v>
+        <v>13.97</v>
       </c>
       <c r="I5">
-        <v>63.03</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>12775209</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>1076</v>
       </c>
       <c r="H6">
         <v>37.38</v>
@@ -832,80 +823,80 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>12121233</v>
+        <v>27437852</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>16.4</v>
+        <v>4.07</v>
       </c>
       <c r="I7">
-        <v>25.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>27437852</v>
+        <v>12121233</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="H8">
-        <v>4.07</v>
+        <v>16.52</v>
       </c>
       <c r="I8">
-        <v>3.25</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>13811513</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>576</v>
@@ -919,22 +910,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>12118255</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>905</v>
@@ -948,51 +939,51 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>35118277</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>-9</v>
+        <v>711</v>
       </c>
       <c r="H11">
-        <v>18.21</v>
+        <v>18.27</v>
       </c>
       <c r="I11">
-        <v>33.9</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>11939551</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -1006,22 +997,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>19264853</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>142</v>
@@ -1035,22 +1026,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>33278408</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14">
         <v>36</v>
@@ -1064,51 +1055,51 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>11938367</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H15">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="I15">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>32130390</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16">
         <v>3388</v>
@@ -1122,341 +1113,341 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>16871438</v>
+        <v>16537374</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17">
-        <v>1481</v>
+        <v>2281</v>
       </c>
       <c r="H17">
-        <v>9.199999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I17">
-        <v>11.38</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>12285275</v>
+        <v>14589837</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="H18">
-        <v>9.16</v>
+        <v>15.43</v>
       </c>
       <c r="I18">
-        <v>16.4</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>11939681</v>
+        <v>16871438</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>1481</v>
       </c>
       <c r="H19">
-        <v>5.85</v>
+        <v>9.23</v>
       </c>
       <c r="I19">
-        <v>11.19</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>14589837</v>
+        <v>13995639</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>15.43</v>
+        <v>4.37</v>
       </c>
       <c r="I20">
-        <v>28.28</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>13995639</v>
+        <v>12285275</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H21">
-        <v>4.39</v>
+        <v>9.16</v>
       </c>
       <c r="I21">
-        <v>10.73</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>16537374</v>
+        <v>11939681</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22">
-        <v>2287</v>
+        <v>85</v>
       </c>
       <c r="H22">
-        <v>8.23</v>
+        <v>5.85</v>
       </c>
       <c r="I22">
-        <v>10.07</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>12054191</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23">
-        <v>5816</v>
+        <v>5764</v>
       </c>
       <c r="H23">
-        <v>20.05</v>
+        <v>20.03</v>
       </c>
       <c r="I23">
-        <v>39.33</v>
+        <v>39.31</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>11939672</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H24">
-        <v>10.09</v>
+        <v>10.05</v>
       </c>
       <c r="I24">
-        <v>28.86</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>15011531</v>
+        <v>27262762</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25">
-        <v>20.58</v>
+        <v>7.25</v>
       </c>
       <c r="I25">
-        <v>30.93</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>27262762</v>
+        <v>15011531</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="H26">
-        <v>7.25</v>
+        <v>20.58</v>
       </c>
       <c r="I26">
-        <v>8.130000000000001</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>17600</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>24481562</v>
+        <v>17171383</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>-20417</v>
+        <v>-128</v>
       </c>
       <c r="H27">
-        <v>5541.87</v>
+        <v>14.02</v>
       </c>
       <c r="I27">
-        <v>3868.39</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>14795919</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28">
         <v>244</v>
@@ -1473,77 +1464,77 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29">
-        <v>17171383</v>
+        <v>42173656</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>-128</v>
+        <v>23</v>
       </c>
       <c r="H29">
-        <v>14.02</v>
+        <v>6.07</v>
       </c>
       <c r="I29">
-        <v>29.5</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>19264853</v>
+        <v>17541022</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G30">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>8.289999999999999</v>
+        <v>2.08</v>
       </c>
       <c r="I30">
-        <v>13.53</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>17125814</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31">
         <v>21</v>
@@ -1557,51 +1548,51 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32">
-        <v>17541022</v>
+        <v>19264853</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="H32">
-        <v>2.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I32">
-        <v>2.06</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>28133466</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -1618,57 +1609,28 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
       </c>
       <c r="E34">
-        <v>42173656</v>
+        <v>11936640</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>3426</v>
       </c>
       <c r="H34">
-        <v>6.07</v>
+        <v>10.58</v>
       </c>
       <c r="I34">
-        <v>15.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35">
-        <v>11936640</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35">
-        <v>2262</v>
-      </c>
-      <c r="H35">
-        <v>10.54</v>
-      </c>
-      <c r="I35">
-        <v>14.63</v>
+        <v>14.64</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
     <t>2025-07-08</t>
   </si>
   <si>
@@ -70,54 +67,51 @@
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>OCRIM S A PRODUTOS ALIMENTICIOS</t>
-  </si>
-  <si>
-    <t>ABC - AMAZONIA BRASIL CONCENTRADOS LTDA</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
   </si>
   <si>
     <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
   </si>
   <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
     <t>SAWEM DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
+  </si>
+  <si>
     <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
@@ -127,60 +121,54 @@
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
-    <t>53989115</t>
-  </si>
-  <si>
-    <t>53975591</t>
-  </si>
-  <si>
-    <t>53958498</t>
-  </si>
-  <si>
-    <t>53791039</t>
+    <t>54037662</t>
+  </si>
+  <si>
+    <t>53473755</t>
   </si>
   <si>
     <t>54020891</t>
   </si>
   <si>
-    <t>53473755</t>
-  </si>
-  <si>
     <t>54093449</t>
   </si>
   <si>
     <t>54093753</t>
   </si>
   <si>
+    <t>54123729</t>
+  </si>
+  <si>
     <t>54141318</t>
   </si>
   <si>
     <t>54142176</t>
   </si>
   <si>
-    <t>54123729</t>
-  </si>
-  <si>
     <t>54153624</t>
   </si>
   <si>
+    <t>54124880</t>
+  </si>
+  <si>
     <t>54127333</t>
   </si>
   <si>
-    <t>54124880</t>
+    <t>54263882</t>
   </si>
   <si>
     <t>54285324</t>
   </si>
   <si>
-    <t>54263882</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
     <t>54396269</t>
   </si>
   <si>
+    <t>54365832</t>
+  </si>
+  <si>
     <t>54316914</t>
   </si>
   <si>
@@ -190,100 +178,103 @@
     <t>54443314</t>
   </si>
   <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/ 5 UND CIDADE LIMPA/MAX LEVE</t>
-  </si>
-  <si>
-    <t>LAMINA LARGA 18MM P/ ESTILETE C/10UND LEOARTE JOCAR</t>
-  </si>
-  <si>
-    <t>ENVELOPE 24X34 OURO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L COMUM PACOTINHO C/5 UND PAPALIXO</t>
+    <t>54503121</t>
+  </si>
+  <si>
+    <t>54563773</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
   </si>
   <si>
     <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
   </si>
   <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
     <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
     <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
+  </si>
+  <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>RODO COM CABO P 30CM</t>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
     <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
     <t>COADOR DE CAFÉ G</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
   </si>
 </sst>
 </file>
@@ -641,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,28 +672,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>42648800</v>
+        <v>12060072</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>1884</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>45.4</v>
+        <v>8.69</v>
       </c>
       <c r="I2">
-        <v>48.05</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -710,28 +701,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>27450023</v>
+        <v>12121233</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>3.17</v>
+        <v>16.44</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -739,144 +730,144 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>30176476</v>
+        <v>27437852</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>4.07</v>
       </c>
       <c r="I4">
-        <v>63.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>30240035</v>
+        <v>13811513</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>195</v>
+        <v>536</v>
       </c>
       <c r="H5">
-        <v>13.97</v>
+        <v>18.7</v>
       </c>
       <c r="I5">
-        <v>15.79</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>12775209</v>
+        <v>12118255</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>1076</v>
+        <v>905</v>
       </c>
       <c r="H6">
-        <v>37.38</v>
+        <v>8.01</v>
       </c>
       <c r="I6">
-        <v>61.82</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>27437852</v>
+        <v>33278408</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>4.07</v>
+        <v>5.92</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>12121233</v>
+        <v>11939681</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>16.52</v>
+        <v>5.85</v>
       </c>
       <c r="I8">
-        <v>25.02</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -884,28 +875,28 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>13811513</v>
+        <v>11939551</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>18.61</v>
+        <v>6.4</v>
       </c>
       <c r="I9">
-        <v>33.86</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -913,260 +904,260 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>12118255</v>
+        <v>35118277</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>905</v>
+        <v>711</v>
       </c>
       <c r="H10">
-        <v>8.01</v>
+        <v>18.27</v>
       </c>
       <c r="I10">
-        <v>10.58</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>35118277</v>
+        <v>13995639</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G11">
-        <v>711</v>
+        <v>62</v>
       </c>
       <c r="H11">
-        <v>18.27</v>
+        <v>4.37</v>
       </c>
       <c r="I11">
-        <v>33.82</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>11939551</v>
+        <v>12285275</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>6.4</v>
+        <v>9.16</v>
       </c>
       <c r="I12">
-        <v>15.76</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>19264853</v>
+        <v>14589837</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="H13">
-        <v>8.289999999999999</v>
+        <v>15.43</v>
       </c>
       <c r="I13">
-        <v>13.53</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>33278408</v>
+        <v>16871438</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>1477</v>
       </c>
       <c r="H14">
-        <v>5.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I14">
-        <v>5.81</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>11938367</v>
       </c>
       <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
         <v>71</v>
-      </c>
-      <c r="G15">
-        <v>74</v>
       </c>
       <c r="H15">
         <v>4.79</v>
       </c>
       <c r="I15">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>32130390</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16">
-        <v>3388</v>
+        <v>12373</v>
       </c>
       <c r="H16">
         <v>21.06</v>
       </c>
       <c r="I16">
-        <v>50.05</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>16537374</v>
+        <v>19264853</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>2281</v>
+        <v>137</v>
       </c>
       <c r="H17">
-        <v>8.220000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I17">
-        <v>10.07</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>14589837</v>
+        <v>16537374</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18">
-        <v>283</v>
+        <v>2271</v>
       </c>
       <c r="H18">
-        <v>15.43</v>
+        <v>8.23</v>
       </c>
       <c r="I18">
-        <v>28.28</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1174,28 +1165,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>16871438</v>
+        <v>11939672</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19">
-        <v>1481</v>
+        <v>468</v>
       </c>
       <c r="H19">
-        <v>9.23</v>
+        <v>10.01</v>
       </c>
       <c r="I19">
-        <v>11.4</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1203,202 +1194,202 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20">
-        <v>13995639</v>
+        <v>12054191</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20">
-        <v>62</v>
+        <v>5744</v>
       </c>
       <c r="H20">
-        <v>4.37</v>
+        <v>20.06</v>
       </c>
       <c r="I20">
-        <v>10.69</v>
+        <v>39.32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>12285275</v>
+        <v>15011531</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="H21">
-        <v>9.16</v>
+        <v>20.68</v>
       </c>
       <c r="I21">
-        <v>16.4</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>11939681</v>
+        <v>27262762</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H22">
-        <v>5.85</v>
+        <v>7.25</v>
       </c>
       <c r="I22">
-        <v>11.19</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>12054191</v>
+        <v>17171383</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>5764</v>
+        <v>-128</v>
       </c>
       <c r="H23">
-        <v>20.03</v>
+        <v>14.02</v>
       </c>
       <c r="I23">
-        <v>39.31</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>11939672</v>
+        <v>14795919</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24">
-        <v>472</v>
+        <v>244</v>
       </c>
       <c r="H24">
-        <v>10.05</v>
+        <v>42.91</v>
       </c>
       <c r="I24">
-        <v>28.9</v>
+        <v>60.86</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>27262762</v>
+        <v>17125814</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H25">
-        <v>7.25</v>
+        <v>2.19</v>
       </c>
       <c r="I25">
-        <v>8.130000000000001</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26">
-        <v>15011531</v>
+        <v>17541022</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="H26">
-        <v>20.58</v>
+        <v>2.09</v>
       </c>
       <c r="I26">
-        <v>30.93</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1406,28 +1397,28 @@
         <v>15</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>17171383</v>
+        <v>20619556</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27">
-        <v>-128</v>
+        <v>181</v>
       </c>
       <c r="H27">
-        <v>14.02</v>
+        <v>13.25</v>
       </c>
       <c r="I27">
-        <v>29.5</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1435,86 +1426,86 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>14795919</v>
+        <v>19264853</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G28">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="H28">
-        <v>42.91</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I28">
-        <v>60.86</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>42173656</v>
+        <v>28133466</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>6.07</v>
+        <v>2.34</v>
       </c>
       <c r="I29">
-        <v>15.64</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>17541022</v>
+        <v>42173656</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>2.08</v>
+        <v>6.07</v>
       </c>
       <c r="I30">
-        <v>2.06</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1522,115 +1513,86 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>17125814</v>
+        <v>11936640</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>3387</v>
       </c>
       <c r="H31">
-        <v>2.19</v>
+        <v>10.62</v>
       </c>
       <c r="I31">
-        <v>1.98</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32">
-        <v>19264853</v>
+        <v>13996941</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="H32">
-        <v>8.289999999999999</v>
+        <v>13.57</v>
       </c>
       <c r="I32">
-        <v>13.53</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>28133466</v>
+        <v>16933123</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H33">
-        <v>2.34</v>
+        <v>36.81</v>
       </c>
       <c r="I33">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34">
-        <v>11936640</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34">
-        <v>3426</v>
-      </c>
-      <c r="H34">
-        <v>10.58</v>
-      </c>
-      <c r="I34">
-        <v>14.64</v>
+        <v>63.74</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
   </si>
   <si>
@@ -70,27 +67,21 @@
     <t>2025-07-21</t>
   </si>
   <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>MAYCA CONSTRUCOES E INSTALACOES ELETROMECANICAS EIRELI</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL QUINTA DAS MARINAS</t>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
     <t>CR OBRAS DA CONSTRUCAO LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
     <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
   </si>
   <si>
@@ -100,69 +91,66 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
     <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
   </si>
   <si>
     <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
-    <t>54037662</t>
-  </si>
-  <si>
-    <t>53473755</t>
-  </si>
-  <si>
-    <t>54020891</t>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
+    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
+  </si>
+  <si>
+    <t>54093753</t>
   </si>
   <si>
     <t>54093449</t>
   </si>
   <si>
-    <t>54093753</t>
+    <t>54141318</t>
   </si>
   <si>
     <t>54123729</t>
   </si>
   <si>
-    <t>54141318</t>
-  </si>
-  <si>
     <t>54142176</t>
   </si>
   <si>
     <t>54153624</t>
   </si>
   <si>
-    <t>54124880</t>
-  </si>
-  <si>
     <t>54127333</t>
   </si>
   <si>
+    <t>54285324</t>
+  </si>
+  <si>
     <t>54263882</t>
   </si>
   <si>
-    <t>54285324</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54119372</t>
+  </si>
+  <si>
     <t>54396269</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>54316914</t>
   </si>
   <si>
-    <t>54119372</t>
-  </si>
-  <si>
     <t>54443314</t>
   </si>
   <si>
@@ -184,87 +169,84 @@
     <t>54563773</t>
   </si>
   <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ALA LAVANDA ROUPAS 400G</t>
-  </si>
-  <si>
-    <t>OCULOS DE PROTECAO SKY ESCURO CA 39878 DELTAPLUS</t>
+    <t>54625981</t>
+  </si>
+  <si>
+    <t>54625975</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
   </si>
   <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
+  </si>
+  <si>
+    <t>RODO COM CABO P 30CM</t>
   </si>
   <si>
     <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
   </si>
   <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
     <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
-    <t>RODO COM CABO P 30CM</t>
+    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
-  </si>
-  <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
     <t>COADOR DE CAFE P</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
     <t>COADOR DE CAFÉ G</t>
   </si>
   <si>
@@ -275,6 +257,12 @@
   </si>
   <si>
     <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
   </si>
 </sst>
 </file>
@@ -632,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,28 +660,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>12060072</v>
+        <v>12118255</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>905</v>
       </c>
       <c r="H2">
-        <v>8.69</v>
+        <v>8.01</v>
       </c>
       <c r="I2">
-        <v>11.89</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -701,57 +689,57 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>12121233</v>
+        <v>13811513</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="H3">
-        <v>16.44</v>
+        <v>18.64</v>
       </c>
       <c r="I3">
-        <v>24.98</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>27437852</v>
+        <v>12285275</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H4">
-        <v>4.07</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I4">
-        <v>3.25</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -759,28 +747,28 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>13811513</v>
+        <v>11939551</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>536</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>18.7</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>33.81</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -788,289 +776,289 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>12118255</v>
+        <v>33278408</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>905</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>8.01</v>
+        <v>5.92</v>
       </c>
       <c r="I6">
-        <v>10.58</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>33278408</v>
+        <v>14589837</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="H7">
-        <v>5.92</v>
+        <v>15.44</v>
       </c>
       <c r="I7">
-        <v>5.81</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>11939681</v>
+        <v>13995639</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>5.85</v>
+        <v>4.34</v>
       </c>
       <c r="I8">
-        <v>11.19</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>11939551</v>
+        <v>11939681</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>6.4</v>
+        <v>5.85</v>
       </c>
       <c r="I9">
-        <v>15.76</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>35118277</v>
+        <v>16537374</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>711</v>
+        <v>2269</v>
       </c>
       <c r="H10">
-        <v>18.27</v>
+        <v>8.23</v>
       </c>
       <c r="I10">
-        <v>33.82</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>13995639</v>
+        <v>16871438</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <v>62</v>
+        <v>1452</v>
       </c>
       <c r="H11">
-        <v>4.37</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I11">
-        <v>10.69</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>12285275</v>
+        <v>19264853</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>78</v>
+        <v>532</v>
       </c>
       <c r="H12">
-        <v>9.16</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I12">
-        <v>16.4</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>14589837</v>
+        <v>11938367</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>15.43</v>
+        <v>4.77</v>
       </c>
       <c r="I13">
-        <v>28.28</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>16871438</v>
+        <v>32130390</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>1477</v>
+        <v>12345</v>
       </c>
       <c r="H14">
-        <v>9.220000000000001</v>
+        <v>21.02</v>
       </c>
       <c r="I14">
-        <v>11.39</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>11938367</v>
+        <v>35118277</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>71</v>
+        <v>711</v>
       </c>
       <c r="H15">
-        <v>4.79</v>
+        <v>18.27</v>
       </c>
       <c r="I15">
-        <v>5.95</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1078,28 +1066,28 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>32130390</v>
+        <v>12054191</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G16">
-        <v>12373</v>
+        <v>5708</v>
       </c>
       <c r="H16">
-        <v>21.06</v>
+        <v>20.03</v>
       </c>
       <c r="I16">
-        <v>50.03</v>
+        <v>39.27</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1107,57 +1095,57 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>19264853</v>
+        <v>11939672</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>137</v>
+        <v>465</v>
       </c>
       <c r="H17">
-        <v>8.289999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="I17">
-        <v>13.53</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18">
-        <v>16537374</v>
+        <v>27262762</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>2271</v>
+        <v>111</v>
       </c>
       <c r="H18">
-        <v>8.23</v>
+        <v>7.31</v>
       </c>
       <c r="I18">
-        <v>10.07</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1165,57 +1153,57 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>11939672</v>
+        <v>15011531</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="H19">
-        <v>10.01</v>
+        <v>20.68</v>
       </c>
       <c r="I19">
-        <v>28.83</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>12054191</v>
+        <v>17171383</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G20">
-        <v>5744</v>
+        <v>-128</v>
       </c>
       <c r="H20">
-        <v>20.06</v>
+        <v>14.02</v>
       </c>
       <c r="I20">
-        <v>39.32</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1223,57 +1211,57 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>15011531</v>
+        <v>14795919</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G21">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H21">
-        <v>20.68</v>
+        <v>43.11</v>
       </c>
       <c r="I21">
-        <v>30.82</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22">
-        <v>27262762</v>
+        <v>28133466</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G22">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>7.25</v>
+        <v>2.34</v>
       </c>
       <c r="I22">
-        <v>8.130000000000001</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1281,28 +1269,28 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>17171383</v>
+        <v>17541022</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>-128</v>
+        <v>26</v>
       </c>
       <c r="H23">
-        <v>14.02</v>
+        <v>2.09</v>
       </c>
       <c r="I23">
-        <v>29.5</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1310,115 +1298,115 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>14795919</v>
+        <v>17125814</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>42.91</v>
+        <v>2.19</v>
       </c>
       <c r="I24">
-        <v>60.86</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>17125814</v>
+        <v>20619556</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="H25">
-        <v>2.19</v>
+        <v>13.2</v>
       </c>
       <c r="I25">
-        <v>1.98</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>17541022</v>
+        <v>19264853</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G26">
-        <v>26</v>
+        <v>532</v>
       </c>
       <c r="H26">
-        <v>2.09</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I26">
-        <v>2.05</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>20619556</v>
+        <v>42173656</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G27">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="H27">
-        <v>13.25</v>
+        <v>6.07</v>
       </c>
       <c r="I27">
-        <v>8.65</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1426,115 +1414,115 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>19264853</v>
+        <v>11936640</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>137</v>
+        <v>3383</v>
       </c>
       <c r="H28">
-        <v>8.289999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="I28">
-        <v>13.53</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>28133466</v>
+        <v>13996941</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H29">
-        <v>2.34</v>
+        <v>13.5</v>
       </c>
       <c r="I29">
-        <v>1.91</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>42173656</v>
+        <v>16933123</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H30">
-        <v>6.07</v>
+        <v>36.81</v>
       </c>
       <c r="I30">
-        <v>15.64</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>11936640</v>
+        <v>11939645</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G31">
-        <v>3387</v>
+        <v>154</v>
       </c>
       <c r="H31">
-        <v>10.62</v>
+        <v>4.29</v>
       </c>
       <c r="I31">
-        <v>14.64</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1542,57 +1530,28 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>13996941</v>
+        <v>17059594</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32">
-        <v>115</v>
+        <v>-3</v>
       </c>
       <c r="H32">
-        <v>13.57</v>
+        <v>1.94</v>
       </c>
       <c r="I32">
-        <v>22.41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>240</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33">
-        <v>16933123</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33">
-        <v>67</v>
-      </c>
-      <c r="H33">
-        <v>36.81</v>
-      </c>
-      <c r="I33">
-        <v>63.74</v>
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
     <t>2025-07-10</t>
   </si>
   <si>
@@ -70,96 +67,90 @@
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>GREE ELECTRIC APPLIANCES DO BRASIL LTDA.</t>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
+  </si>
+  <si>
+    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>CONDOMINIO DO TVLANDIA MALL</t>
   </si>
   <si>
     <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
+    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
+  </si>
+  <si>
     <t>CONDOMINIO CRISTAL TOWER</t>
   </si>
   <si>
-    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
-  </si>
-  <si>
-    <t>54093753</t>
-  </si>
-  <si>
-    <t>54093449</t>
-  </si>
-  <si>
     <t>54141318</t>
   </si>
   <si>
+    <t>54142176</t>
+  </si>
+  <si>
     <t>54123729</t>
   </si>
   <si>
-    <t>54142176</t>
-  </si>
-  <si>
     <t>54153624</t>
   </si>
   <si>
-    <t>54127333</t>
+    <t>54124880</t>
+  </si>
+  <si>
+    <t>54263882</t>
   </si>
   <si>
     <t>54285324</t>
   </si>
   <si>
-    <t>54263882</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54316914</t>
+  </si>
+  <si>
+    <t>54396269</t>
+  </si>
+  <si>
     <t>54119372</t>
   </si>
   <si>
-    <t>54396269</t>
-  </si>
-  <si>
     <t>54365832</t>
   </si>
   <si>
-    <t>54316914</t>
-  </si>
-  <si>
     <t>54443314</t>
   </si>
   <si>
@@ -169,16 +160,37 @@
     <t>54563773</t>
   </si>
   <si>
+    <t>54625975</t>
+  </si>
+  <si>
     <t>54625981</t>
   </si>
   <si>
-    <t>54625975</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA PESADA 102X260mm</t>
+    <t>54692772</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>ESCOVA OVAL PLASTICA</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
     <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
@@ -187,69 +199,45 @@
     <t>RODO COM CABO P 30CM</t>
   </si>
   <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
   </si>
   <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
     <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
   </si>
   <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
     <t>COADOR DE CAFE P</t>
   </si>
   <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
@@ -259,10 +247,10 @@
     <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
   </si>
   <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
   </si>
 </sst>
 </file>
@@ -620,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,28 +648,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>12118255</v>
+        <v>11939681</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>905</v>
+        <v>72</v>
       </c>
       <c r="H2">
-        <v>8.01</v>
+        <v>5.86</v>
       </c>
       <c r="I2">
-        <v>10.58</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -689,318 +677,318 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>13811513</v>
+        <v>11938367</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>513</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>18.64</v>
+        <v>4.76</v>
       </c>
       <c r="I3">
-        <v>33.68</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>12285275</v>
+        <v>19264853</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>530</v>
       </c>
       <c r="H4">
-        <v>9.130000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I4">
-        <v>16.33</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>11939551</v>
+        <v>35118277</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>711</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>18.27</v>
       </c>
       <c r="I5">
-        <v>15.76</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>33278408</v>
+        <v>13995639</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H6">
-        <v>5.92</v>
+        <v>4.34</v>
       </c>
       <c r="I6">
-        <v>5.81</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>14589837</v>
+        <v>33278408</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>15.44</v>
+        <v>5.83</v>
       </c>
       <c r="I7">
-        <v>28.27</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>13995639</v>
+        <v>14589837</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="H8">
-        <v>4.34</v>
+        <v>15.44</v>
       </c>
       <c r="I8">
-        <v>10.63</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>11939681</v>
+        <v>16871438</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>84</v>
+        <v>1452</v>
       </c>
       <c r="H9">
-        <v>5.85</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I9">
-        <v>11.19</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>16537374</v>
+        <v>12285275</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>2269</v>
+        <v>68</v>
       </c>
       <c r="H10">
-        <v>8.23</v>
+        <v>9.15</v>
       </c>
       <c r="I10">
-        <v>10.07</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>16871438</v>
+        <v>11939551</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>1452</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>9.210000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I11">
-        <v>11.36</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>19264853</v>
+        <v>16537374</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12">
-        <v>532</v>
+        <v>2269</v>
       </c>
       <c r="H12">
-        <v>8.289999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="I12">
-        <v>13.52</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>11938367</v>
+        <v>32130390</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>68</v>
+        <v>11885</v>
       </c>
       <c r="H13">
-        <v>4.77</v>
+        <v>21.36</v>
       </c>
       <c r="I13">
-        <v>5.94</v>
+        <v>51.13</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1008,28 +996,28 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>32130390</v>
+        <v>12054191</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>12345</v>
+        <v>5506</v>
       </c>
       <c r="H14">
-        <v>21.02</v>
+        <v>20.1</v>
       </c>
       <c r="I14">
-        <v>49.96</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1037,28 +1025,28 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>35118277</v>
+        <v>11939672</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15">
-        <v>711</v>
+        <v>465</v>
       </c>
       <c r="H15">
-        <v>18.27</v>
+        <v>9.99</v>
       </c>
       <c r="I15">
-        <v>33.82</v>
+        <v>28.79</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1066,28 +1054,28 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>12054191</v>
+        <v>15011531</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16">
-        <v>5708</v>
+        <v>301</v>
       </c>
       <c r="H16">
-        <v>20.03</v>
+        <v>20.68</v>
       </c>
       <c r="I16">
-        <v>39.27</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1095,28 +1083,28 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>11939672</v>
+        <v>27262762</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>465</v>
+        <v>111</v>
       </c>
       <c r="H17">
-        <v>9.99</v>
+        <v>7.31</v>
       </c>
       <c r="I17">
-        <v>28.79</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1124,28 +1112,28 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>27262762</v>
+        <v>17171383</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18">
-        <v>111</v>
+        <v>-8</v>
       </c>
       <c r="H18">
-        <v>7.31</v>
+        <v>14.02</v>
       </c>
       <c r="I18">
-        <v>8.16</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1153,28 +1141,28 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>15011531</v>
+        <v>14795919</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H19">
-        <v>20.68</v>
+        <v>43.11</v>
       </c>
       <c r="I19">
-        <v>30.82</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1182,28 +1170,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>17171383</v>
+        <v>19264853</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G20">
-        <v>-128</v>
+        <v>530</v>
       </c>
       <c r="H20">
-        <v>14.02</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I20">
-        <v>29.5</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1211,106 +1199,106 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>14795919</v>
+        <v>42173656</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G21">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>43.11</v>
+        <v>6.07</v>
       </c>
       <c r="I21">
-        <v>61.16</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>28133466</v>
+        <v>17541022</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H22">
-        <v>2.34</v>
+        <v>2.09</v>
       </c>
       <c r="I22">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>17541022</v>
+        <v>28133466</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>2.09</v>
+        <v>2.34</v>
       </c>
       <c r="I23">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>17125814</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1324,7 +1312,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -1333,13 +1321,13 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>20619556</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>176</v>
@@ -1356,57 +1344,57 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>19264853</v>
+        <v>11936640</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G26">
-        <v>532</v>
+        <v>3383</v>
       </c>
       <c r="H26">
-        <v>8.289999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="I26">
-        <v>13.52</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>42173656</v>
+        <v>13996941</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="H27">
-        <v>6.07</v>
+        <v>13.49</v>
       </c>
       <c r="I27">
-        <v>15.64</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1414,28 +1402,28 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>11936640</v>
+        <v>16933123</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G28">
-        <v>3383</v>
+        <v>67</v>
       </c>
       <c r="H28">
-        <v>10.61</v>
+        <v>37.23</v>
       </c>
       <c r="I28">
-        <v>14.63</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1443,28 +1431,28 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29">
-        <v>13996941</v>
+        <v>17059594</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>13.5</v>
+        <v>1.94</v>
       </c>
       <c r="I29">
-        <v>22.32</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1472,28 +1460,28 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>16933123</v>
+        <v>11939645</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G30">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="H30">
-        <v>36.81</v>
+        <v>4.3</v>
       </c>
       <c r="I30">
-        <v>63.74</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1501,57 +1489,28 @@
         <v>17</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>11939645</v>
+        <v>32130390</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G31">
-        <v>154</v>
+        <v>11885</v>
       </c>
       <c r="H31">
-        <v>4.29</v>
+        <v>21.36</v>
       </c>
       <c r="I31">
-        <v>4.77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32">
-        <v>17059594</v>
-      </c>
-      <c r="F32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32">
-        <v>-3</v>
-      </c>
-      <c r="H32">
-        <v>1.94</v>
-      </c>
-      <c r="I32">
-        <v>1.87</v>
+        <v>51.13</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
@@ -70,42 +67,33 @@
     <t>2025-07-23</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>SAT BRAS INDUSTRIA ELETRONICA DA AMAZONIA LTDA.</t>
-  </si>
-  <si>
-    <t>CR OBRAS DA CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+    <t>2025-07-24</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
+  </si>
+  <si>
     <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
     <t>CONDOMINIO DO TVLANDIA MALL</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
@@ -115,51 +103,39 @@
     <t>CONDOMINIO CRISTAL TOWER</t>
   </si>
   <si>
-    <t>54141318</t>
-  </si>
-  <si>
-    <t>54142176</t>
-  </si>
-  <si>
-    <t>54123729</t>
-  </si>
-  <si>
-    <t>54153624</t>
+    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
   </si>
   <si>
     <t>54124880</t>
   </si>
   <si>
+    <t>54285324</t>
+  </si>
+  <si>
     <t>54263882</t>
   </si>
   <si>
-    <t>54285324</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54396269</t>
+  </si>
+  <si>
+    <t>54365832</t>
+  </si>
+  <si>
     <t>54316914</t>
   </si>
   <si>
-    <t>54396269</t>
-  </si>
-  <si>
     <t>54119372</t>
   </si>
   <si>
-    <t>54365832</t>
-  </si>
-  <si>
     <t>54443314</t>
   </si>
   <si>
     <t>54503121</t>
   </si>
   <si>
-    <t>54563773</t>
-  </si>
-  <si>
     <t>54625975</t>
   </si>
   <si>
@@ -169,88 +145,61 @@
     <t>54692772</t>
   </si>
   <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>54704921</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>ESCOVA OVAL PLASTICA</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA ALGODAO 120ML</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>LUSTRA MOVEIS BUTTERFLY 200ML AUDAX LAVANDA</t>
-  </si>
-  <si>
-    <t>RODO COM CABO P 30CM</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360 ML LAVANDA</t>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
 </sst>
 </file>
@@ -608,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,28 +597,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>11939681</v>
+        <v>12054191</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>5466</v>
       </c>
       <c r="H2">
-        <v>5.86</v>
+        <v>20.11</v>
       </c>
       <c r="I2">
-        <v>11.18</v>
+        <v>39.31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -677,840 +626,521 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>11938367</v>
+        <v>11939672</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>458</v>
       </c>
       <c r="H3">
-        <v>4.76</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I3">
-        <v>5.94</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>19264853</v>
+        <v>27262762</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>530</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>8.279999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>13.51</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>35118277</v>
+        <v>15011531</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>711</v>
+        <v>301</v>
       </c>
       <c r="H5">
-        <v>18.27</v>
+        <v>20.4</v>
       </c>
       <c r="I5">
-        <v>33.82</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6">
-        <v>13995639</v>
+        <v>14795919</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="H6">
-        <v>4.34</v>
+        <v>43.84</v>
       </c>
       <c r="I6">
-        <v>10.67</v>
+        <v>61.77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>33278408</v>
+        <v>17171383</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>-9</v>
       </c>
       <c r="H7">
-        <v>5.83</v>
+        <v>13.88</v>
       </c>
       <c r="I7">
-        <v>5.79</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>14589837</v>
+        <v>42173656</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>15.44</v>
+        <v>6.07</v>
       </c>
       <c r="I8">
-        <v>28.27</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>16871438</v>
+        <v>20619556</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G9">
-        <v>1452</v>
+        <v>136</v>
       </c>
       <c r="H9">
-        <v>9.210000000000001</v>
+        <v>13.21</v>
       </c>
       <c r="I9">
-        <v>11.36</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>12285275</v>
+        <v>19264853</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>68</v>
+        <v>524</v>
       </c>
       <c r="H10">
-        <v>9.15</v>
+        <v>8.25</v>
       </c>
       <c r="I10">
-        <v>16.36</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>11939551</v>
+        <v>28133466</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>6.4</v>
+        <v>2.34</v>
       </c>
       <c r="I11">
-        <v>15.76</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>16537374</v>
+        <v>17125814</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G12">
-        <v>2269</v>
+        <v>21</v>
       </c>
       <c r="H12">
-        <v>8.24</v>
+        <v>2.17</v>
       </c>
       <c r="I12">
-        <v>10.09</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>32130390</v>
+        <v>17541022</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>11885</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>21.36</v>
+        <v>2.09</v>
       </c>
       <c r="I13">
-        <v>51.13</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>12054191</v>
+        <v>11936640</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>5506</v>
+        <v>3372</v>
       </c>
       <c r="H14">
-        <v>20.1</v>
+        <v>10.59</v>
       </c>
       <c r="I14">
-        <v>39.29</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>11939672</v>
+        <v>16933123</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G15">
-        <v>465</v>
+        <v>67</v>
       </c>
       <c r="H15">
-        <v>9.99</v>
+        <v>37.23</v>
       </c>
       <c r="I15">
-        <v>28.79</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>15011531</v>
+        <v>13996941</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="H16">
-        <v>20.68</v>
+        <v>13.5</v>
       </c>
       <c r="I16">
-        <v>30.82</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>27262762</v>
+        <v>17059594</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>7.31</v>
+        <v>1.94</v>
       </c>
       <c r="I17">
-        <v>8.16</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>17171383</v>
+        <v>11939645</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>-8</v>
+        <v>154</v>
       </c>
       <c r="H18">
-        <v>14.02</v>
+        <v>4.3</v>
       </c>
       <c r="I18">
-        <v>29.5</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>14795919</v>
+        <v>32130390</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>244</v>
+        <v>11855</v>
       </c>
       <c r="H19">
-        <v>43.11</v>
+        <v>21.35</v>
       </c>
       <c r="I19">
-        <v>61.16</v>
+        <v>51.09</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>19264853</v>
+        <v>20619556</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20">
-        <v>530</v>
+        <v>136</v>
       </c>
       <c r="H20">
-        <v>8.279999999999999</v>
+        <v>13.21</v>
       </c>
       <c r="I20">
-        <v>13.51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>42173656</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21">
-        <v>23</v>
-      </c>
-      <c r="H21">
-        <v>6.07</v>
-      </c>
-      <c r="I21">
-        <v>15.64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <v>17541022</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>26</v>
-      </c>
-      <c r="H22">
-        <v>2.09</v>
-      </c>
-      <c r="I22">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>28133466</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>2.34</v>
-      </c>
-      <c r="I23">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24">
-        <v>17125814</v>
-      </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>2.19</v>
-      </c>
-      <c r="I24">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25">
-        <v>20619556</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25">
-        <v>176</v>
-      </c>
-      <c r="H25">
-        <v>13.2</v>
-      </c>
-      <c r="I25">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>11936640</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26">
-        <v>3383</v>
-      </c>
-      <c r="H26">
-        <v>10.62</v>
-      </c>
-      <c r="I26">
-        <v>14.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>13996941</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27">
-        <v>91</v>
-      </c>
-      <c r="H27">
-        <v>13.49</v>
-      </c>
-      <c r="I27">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>240</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28">
-        <v>16933123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28">
-        <v>67</v>
-      </c>
-      <c r="H28">
-        <v>37.23</v>
-      </c>
-      <c r="I28">
-        <v>64.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29">
-        <v>17059594</v>
-      </c>
-      <c r="F29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1.94</v>
-      </c>
-      <c r="I29">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>11939645</v>
-      </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30">
-        <v>154</v>
-      </c>
-      <c r="H30">
-        <v>4.3</v>
-      </c>
-      <c r="I30">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31">
-        <v>32130390</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31">
-        <v>11885</v>
-      </c>
-      <c r="H31">
-        <v>21.36</v>
-      </c>
-      <c r="I31">
-        <v>51.13</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
     <t>2025-07-14</t>
   </si>
   <si>
@@ -70,136 +67,157 @@
     <t>2025-07-24</t>
   </si>
   <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
-  </si>
-  <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
+    <t>CONDOMINIO CRISTAL TOWER</t>
   </si>
   <si>
     <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
   </si>
   <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
     <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
   </si>
   <si>
-    <t>54124880</t>
+    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>54263882</t>
   </si>
   <si>
     <t>54285324</t>
   </si>
   <si>
-    <t>54263882</t>
-  </si>
-  <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54316914</t>
+  </si>
+  <si>
     <t>54396269</t>
   </si>
   <si>
     <t>54365832</t>
   </si>
   <si>
-    <t>54316914</t>
-  </si>
-  <si>
     <t>54119372</t>
   </si>
   <si>
     <t>54443314</t>
   </si>
   <si>
+    <t>54563773</t>
+  </si>
+  <si>
     <t>54503121</t>
   </si>
   <si>
+    <t>54627290</t>
+  </si>
+  <si>
     <t>54625975</t>
   </si>
   <si>
-    <t>54625981</t>
-  </si>
-  <si>
     <t>54692772</t>
   </si>
   <si>
     <t>54704921</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+    <t>54736983</t>
+  </si>
+  <si>
+    <t>54791493</t>
+  </si>
+  <si>
+    <t>54799813</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
   </si>
   <si>
     <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
+    <t>LA DE ACO ASSOLAN 45G</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,28 +615,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>12054191</v>
+        <v>15011531</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>5466</v>
+        <v>133</v>
       </c>
       <c r="H2">
-        <v>20.11</v>
+        <v>21.89</v>
       </c>
       <c r="I2">
-        <v>39.31</v>
+        <v>34.09</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -626,28 +644,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>11939672</v>
+        <v>27262762</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>458</v>
+        <v>104</v>
       </c>
       <c r="H3">
-        <v>9.949999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="I3">
-        <v>28.72</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -655,28 +673,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>27262762</v>
+        <v>17171383</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>-9</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>13.88</v>
       </c>
       <c r="I4">
-        <v>8.16</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -684,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>15011531</v>
+        <v>14795919</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H5">
-        <v>20.4</v>
+        <v>43.84</v>
       </c>
       <c r="I5">
-        <v>30.85</v>
+        <v>61.77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -713,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>14795919</v>
+        <v>19264853</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>244</v>
+        <v>722</v>
       </c>
       <c r="H6">
-        <v>43.84</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I6">
-        <v>61.77</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -742,144 +760,144 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>17125814</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>17171383</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>-9</v>
-      </c>
       <c r="H7">
-        <v>13.88</v>
+        <v>2.17</v>
       </c>
       <c r="I7">
-        <v>29.36</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>42173656</v>
+        <v>20619556</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="H8">
-        <v>6.07</v>
+        <v>13.17</v>
       </c>
       <c r="I8">
-        <v>15.64</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>20619556</v>
+        <v>17541022</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>13.21</v>
+        <v>2.09</v>
       </c>
       <c r="I9">
-        <v>8.6</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>19264853</v>
+        <v>28133466</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>524</v>
+        <v>105</v>
       </c>
       <c r="H10">
-        <v>8.25</v>
+        <v>2.37</v>
       </c>
       <c r="I10">
-        <v>13.48</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>28133466</v>
+        <v>42173656</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>2.34</v>
+        <v>6.07</v>
       </c>
       <c r="I11">
-        <v>1.91</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -887,57 +905,57 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>17125814</v>
+        <v>11936640</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>3364</v>
       </c>
       <c r="H12">
-        <v>2.17</v>
+        <v>10.53</v>
       </c>
       <c r="I12">
-        <v>2.01</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>17541022</v>
+        <v>16933123</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H13">
-        <v>2.09</v>
+        <v>33.69</v>
       </c>
       <c r="I13">
-        <v>2.05</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -945,28 +963,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>11936640</v>
+        <v>13996941</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>3372</v>
+        <v>81</v>
       </c>
       <c r="H14">
-        <v>10.59</v>
+        <v>13.55</v>
       </c>
       <c r="I14">
-        <v>14.65</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -974,28 +992,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>16933123</v>
+        <v>11939645</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="H15">
-        <v>37.23</v>
+        <v>4.3</v>
       </c>
       <c r="I15">
-        <v>64.78</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1003,28 +1021,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>13996941</v>
+        <v>17059594</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>13.5</v>
+        <v>1.94</v>
       </c>
       <c r="I16">
-        <v>22.32</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1032,57 +1050,57 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>17059594</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>11689</v>
       </c>
       <c r="H17">
-        <v>1.94</v>
+        <v>21.45</v>
       </c>
       <c r="I17">
-        <v>1.87</v>
+        <v>51.21</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>11939645</v>
+        <v>20619556</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H18">
-        <v>4.3</v>
+        <v>13.17</v>
       </c>
       <c r="I18">
-        <v>4.78</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1090,28 +1108,28 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>32130390</v>
+        <v>12097805</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G19">
-        <v>11855</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>21.35</v>
+        <v>15.16</v>
       </c>
       <c r="I19">
-        <v>51.09</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1119,28 +1137,86 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>20619556</v>
+        <v>11939672</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G20">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="H20">
-        <v>13.21</v>
+        <v>10.05</v>
       </c>
       <c r="I20">
-        <v>8.6</v>
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>31186309</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>9.59</v>
+      </c>
+      <c r="I21">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>15011531</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <v>133</v>
+      </c>
+      <c r="H22">
+        <v>21.89</v>
+      </c>
+      <c r="I22">
+        <v>34.09</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-14</t>
-  </si>
-  <si>
     <t>2025-07-15</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
     <t>2025-07-17</t>
   </si>
   <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -70,30 +70,30 @@
     <t>2025-07-25</t>
   </si>
   <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
+    <t>2025-07-28</t>
   </si>
   <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
+    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
+  </si>
+  <si>
+    <t>CONDOMINIO DO TVLANDIA MALL</t>
+  </si>
+  <si>
     <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
+    <t>RADIO TV DO AMAZONAS LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
@@ -112,31 +112,28 @@
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
-    <t>54263882</t>
-  </si>
-  <si>
-    <t>54285324</t>
+    <t>PARENTE ANDRADE LTDA</t>
   </si>
   <si>
     <t>54346779</t>
   </si>
   <si>
+    <t>54365832</t>
+  </si>
+  <si>
+    <t>54119372</t>
+  </si>
+  <si>
     <t>54316914</t>
   </si>
   <si>
     <t>54396269</t>
   </si>
   <si>
-    <t>54365832</t>
-  </si>
-  <si>
-    <t>54119372</t>
-  </si>
-  <si>
     <t>54443314</t>
   </si>
   <si>
-    <t>54563773</t>
+    <t>54489760</t>
   </si>
   <si>
     <t>54503121</t>
@@ -151,73 +148,79 @@
     <t>54692772</t>
   </si>
   <si>
-    <t>54704921</t>
+    <t>54705126</t>
   </si>
   <si>
     <t>54736983</t>
   </si>
   <si>
+    <t>54799813</t>
+  </si>
+  <si>
     <t>54791493</t>
   </si>
   <si>
-    <t>54799813</t>
+    <t>54869922</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
-    <t>MARCA TEXTO AMARELO UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
 </sst>
 </file>
@@ -615,28 +618,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>15011531</v>
+        <v>17171383</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
       </c>
       <c r="G2">
-        <v>133</v>
+        <v>-9</v>
       </c>
       <c r="H2">
-        <v>21.89</v>
+        <v>13.97</v>
       </c>
       <c r="I2">
-        <v>34.09</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -644,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -653,19 +656,19 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>27262762</v>
+        <v>14795919</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="H3">
-        <v>7.32</v>
+        <v>43.75</v>
       </c>
       <c r="I3">
-        <v>8.15</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -673,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -682,19 +685,19 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>17171383</v>
+        <v>20619556</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
       </c>
       <c r="G4">
-        <v>-9</v>
+        <v>136</v>
       </c>
       <c r="H4">
-        <v>13.88</v>
+        <v>13.18</v>
       </c>
       <c r="I4">
-        <v>29.36</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -702,42 +705,42 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>14795919</v>
+        <v>28133466</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
       </c>
       <c r="G5">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>43.84</v>
+        <v>2.31</v>
       </c>
       <c r="I5">
-        <v>61.77</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>19264853</v>
@@ -757,39 +760,39 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>17125814</v>
+        <v>42173656</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>2.17</v>
+        <v>6.07</v>
       </c>
       <c r="I7">
-        <v>2.01</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -798,33 +801,33 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>20619556</v>
+        <v>17125814</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>13.17</v>
+        <v>2.17</v>
       </c>
       <c r="I8">
-        <v>8.539999999999999</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>17541022</v>
@@ -836,10 +839,10 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="I9">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -847,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -856,77 +859,77 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>28133466</v>
+        <v>11936640</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
       <c r="G10">
-        <v>105</v>
+        <v>3353</v>
       </c>
       <c r="H10">
-        <v>2.37</v>
+        <v>10.39</v>
       </c>
       <c r="I10">
-        <v>1.91</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>42173656</v>
+        <v>11938367</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>384</v>
       </c>
       <c r="H11">
-        <v>6.07</v>
+        <v>4.79</v>
       </c>
       <c r="I11">
-        <v>15.64</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>11936640</v>
+        <v>16933123</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
       </c>
       <c r="G12">
-        <v>3364</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>10.53</v>
+        <v>33.23</v>
       </c>
       <c r="I12">
-        <v>14.59</v>
+        <v>61.86</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -934,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -943,48 +946,48 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>16933123</v>
+        <v>13996941</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
       </c>
       <c r="G13">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>33.69</v>
+        <v>13.55</v>
       </c>
       <c r="I13">
-        <v>62.9</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14">
-        <v>13996941</v>
+        <v>11939645</v>
       </c>
       <c r="F14" t="s">
         <v>61</v>
       </c>
       <c r="G14">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H14">
-        <v>13.55</v>
+        <v>4.3</v>
       </c>
       <c r="I14">
-        <v>22.47</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -992,86 +995,86 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
       </c>
       <c r="E15">
-        <v>11939645</v>
+        <v>17059594</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
       </c>
       <c r="G15">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>4.3</v>
+        <v>1.94</v>
       </c>
       <c r="I15">
-        <v>4.78</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16">
-        <v>17059594</v>
+        <v>32130390</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>11669</v>
       </c>
       <c r="H16">
-        <v>1.94</v>
+        <v>21.44</v>
       </c>
       <c r="I16">
-        <v>1.87</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>20619556</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G17">
-        <v>11689</v>
+        <v>136</v>
       </c>
       <c r="H17">
-        <v>21.45</v>
+        <v>13.18</v>
       </c>
       <c r="I17">
-        <v>51.21</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1079,57 +1082,57 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18">
-        <v>20619556</v>
+        <v>12097805</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G18">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>13.17</v>
+        <v>15.16</v>
       </c>
       <c r="I18">
-        <v>8.539999999999999</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19">
-        <v>12097805</v>
+        <v>31186309</v>
       </c>
       <c r="F19" t="s">
         <v>65</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>15.16</v>
+        <v>9.59</v>
       </c>
       <c r="I19">
-        <v>13.57</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1152,13 +1155,13 @@
         <v>66</v>
       </c>
       <c r="G20">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="H20">
-        <v>10.05</v>
+        <v>10.11</v>
       </c>
       <c r="I20">
-        <v>29.14</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1166,57 +1169,57 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>31186309</v>
+        <v>15011531</v>
       </c>
       <c r="F21" t="s">
         <v>67</v>
       </c>
       <c r="G21">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="H21">
-        <v>9.59</v>
+        <v>21.89</v>
       </c>
       <c r="I21">
-        <v>17.49</v>
+        <v>34.09</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>15011531</v>
+        <v>14413867</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G22">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>21.89</v>
+        <v>4.3</v>
       </c>
       <c r="I22">
-        <v>34.09</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>data</t>
   </si>
@@ -43,18 +43,12 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
     <t>2025-07-16</t>
   </si>
   <si>
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -73,7 +67,13 @@
     <t>2025-07-28</t>
   </si>
   <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
     <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
@@ -82,16 +82,10 @@
     <t>CONDOMINIO DO TVLANDIA MALL</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
     <t>TEL TELECOMUNICACOES LTDA.</t>
   </si>
   <si>
-    <t>RADIO TV DO AMAZONAS LTDA</t>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
@@ -115,7 +109,10 @@
     <t>PARENTE ANDRADE LTDA</t>
   </si>
   <si>
-    <t>54346779</t>
+    <t>54396269</t>
+  </si>
+  <si>
+    <t>54316914</t>
   </si>
   <si>
     <t>54365832</t>
@@ -124,22 +121,16 @@
     <t>54119372</t>
   </si>
   <si>
-    <t>54316914</t>
-  </si>
-  <si>
-    <t>54396269</t>
-  </si>
-  <si>
     <t>54443314</t>
   </si>
   <si>
-    <t>54489760</t>
+    <t>54586025</t>
   </si>
   <si>
     <t>54503121</t>
   </si>
   <si>
-    <t>54627290</t>
+    <t>54625981</t>
   </si>
   <si>
     <t>54625975</t>
@@ -148,7 +139,7 @@
     <t>54692772</t>
   </si>
   <si>
-    <t>54705126</t>
+    <t>54704921</t>
   </si>
   <si>
     <t>54736983</t>
@@ -157,16 +148,22 @@
     <t>54799813</t>
   </si>
   <si>
-    <t>54791493</t>
-  </si>
-  <si>
     <t>54869922</t>
   </si>
   <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+    <t>54402873</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFÉ G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE P</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
   </si>
   <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
@@ -175,52 +172,46 @@
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
   </si>
   <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
+    <t>RODO COM CABO M 40CM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
     <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
-    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
 </sst>
 </file>
@@ -618,28 +609,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>17171383</v>
+        <v>42173656</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>13.97</v>
+        <v>6.07</v>
       </c>
       <c r="I2">
-        <v>29.52</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -647,144 +638,144 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>14795919</v>
+        <v>17541022</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>43.75</v>
+        <v>2.12</v>
       </c>
       <c r="I3">
-        <v>61.58</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>20619556</v>
+        <v>17125814</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>13.18</v>
+        <v>2.18</v>
       </c>
       <c r="I4">
-        <v>8.56</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>28133466</v>
+        <v>19264853</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>105</v>
+        <v>722</v>
       </c>
       <c r="H5">
-        <v>2.31</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I5">
-        <v>1.83</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>19264853</v>
+        <v>20619556</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>722</v>
+        <v>118</v>
       </c>
       <c r="H6">
-        <v>8.220000000000001</v>
+        <v>13.21</v>
       </c>
       <c r="I6">
-        <v>13.46</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>42173656</v>
+        <v>28133466</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="H7">
-        <v>6.07</v>
+        <v>2.31</v>
       </c>
       <c r="I7">
-        <v>15.64</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -792,57 +783,57 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>17125814</v>
+        <v>11936640</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>3312</v>
       </c>
       <c r="H8">
-        <v>2.17</v>
+        <v>10.39</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>14832</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>17541022</v>
+        <v>11939543</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>2.08</v>
+        <v>44.98</v>
       </c>
       <c r="I9">
-        <v>2.06</v>
+        <v>780.46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -850,289 +841,289 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>35000</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>11936640</v>
+        <v>12067332</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>3353</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10.39</v>
+        <v>2830.62</v>
       </c>
       <c r="I10">
-        <v>14.35</v>
+        <v>9667.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>2400</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>11938367</v>
+        <v>11939672</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>384</v>
+        <v>-2131</v>
       </c>
       <c r="H11">
-        <v>4.79</v>
+        <v>16.57</v>
       </c>
       <c r="I11">
-        <v>5.98</v>
+        <v>128.26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>16933123</v>
+        <v>13996941</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>33.23</v>
+        <v>13.52</v>
       </c>
       <c r="I12">
-        <v>61.86</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>13996941</v>
+        <v>11939645</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="H13">
-        <v>13.55</v>
+        <v>4.3</v>
       </c>
       <c r="I13">
-        <v>22.47</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>11939645</v>
+        <v>17059594</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4.3</v>
+        <v>1.91</v>
       </c>
       <c r="I14">
-        <v>4.79</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>17059594</v>
+        <v>32130390</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>11606</v>
       </c>
       <c r="H15">
-        <v>1.94</v>
+        <v>21.42</v>
       </c>
       <c r="I15">
-        <v>1.87</v>
+        <v>51.23</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>32130390</v>
+        <v>20619556</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>11669</v>
+        <v>118</v>
       </c>
       <c r="H16">
-        <v>21.44</v>
+        <v>13.21</v>
       </c>
       <c r="I16">
-        <v>51.19</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>20619556</v>
+        <v>12097805</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>136</v>
+        <v>-11</v>
       </c>
       <c r="H17">
-        <v>13.18</v>
+        <v>15.7</v>
       </c>
       <c r="I17">
-        <v>8.56</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>12097805</v>
+        <v>31186309</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>15.16</v>
+        <v>9.44</v>
       </c>
       <c r="I18">
-        <v>13.57</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>31186309</v>
+        <v>14413867</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H19">
-        <v>9.59</v>
+        <v>4.31</v>
       </c>
       <c r="I19">
-        <v>17.49</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1140,28 +1131,28 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>11939672</v>
+        <v>11938367</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G20">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H20">
-        <v>10.11</v>
+        <v>4.89</v>
       </c>
       <c r="I20">
-        <v>29.21</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1172,16 +1163,16 @@
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>15011531</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>133</v>
@@ -1195,31 +1186,31 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>14413867</v>
+        <v>12054191</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22">
-        <v>79</v>
+        <v>4835</v>
       </c>
       <c r="H22">
-        <v>4.3</v>
+        <v>20.15</v>
       </c>
       <c r="I22">
-        <v>8.390000000000001</v>
+        <v>39.65</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
     <t>2025-07-17</t>
   </si>
   <si>
@@ -70,33 +67,27 @@
     <t>2025-07-29</t>
   </si>
   <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+  </si>
+  <si>
+    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
+  </si>
+  <si>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
-  </si>
-  <si>
-    <t>CONDOMINIO RESIDENCIAL EPHYGENIO SALLES</t>
-  </si>
-  <si>
-    <t>CONDOMINIO DO TVLANDIA MALL</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
-  </si>
-  <si>
     <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
   </si>
   <si>
@@ -109,37 +100,40 @@
     <t>PARENTE ANDRADE LTDA</t>
   </si>
   <si>
-    <t>54396269</t>
-  </si>
-  <si>
-    <t>54316914</t>
-  </si>
-  <si>
-    <t>54365832</t>
-  </si>
-  <si>
-    <t>54119372</t>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
     <t>54443314</t>
   </si>
   <si>
+    <t>54503121</t>
+  </si>
+  <si>
     <t>54586025</t>
   </si>
   <si>
-    <t>54503121</t>
-  </si>
-  <si>
-    <t>54625981</t>
-  </si>
-  <si>
     <t>54625975</t>
   </si>
   <si>
+    <t>54627290</t>
+  </si>
+  <si>
     <t>54692772</t>
   </si>
   <si>
-    <t>54704921</t>
+    <t>54705126</t>
   </si>
   <si>
     <t>54736983</t>
@@ -154,48 +148,51 @@
     <t>54402873</t>
   </si>
   <si>
-    <t>COADOR DE CAFÉ G</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE P</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+    <t>54983766</t>
+  </si>
+  <si>
+    <t>54973325</t>
+  </si>
+  <si>
+    <t>54994649</t>
+  </si>
+  <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54973922</t>
+  </si>
+  <si>
+    <t>54973342</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>RODO COM CABO M 40CM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - LAVANDA</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>RODO COM CABO M 40CM</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
     <t>FLANELA LARANJA TAM G 38x58CM</t>
   </si>
   <si>
@@ -212,6 +209,30 @@
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
   </si>
 </sst>
 </file>
@@ -569,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,521 +630,521 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>42173656</v>
+        <v>11936640</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>3256</v>
       </c>
       <c r="H2">
-        <v>6.07</v>
+        <v>10.33</v>
       </c>
       <c r="I2">
-        <v>15.64</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>17541022</v>
+        <v>13996941</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>2.12</v>
+        <v>13.42</v>
       </c>
       <c r="I3">
-        <v>2.12</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>14832</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>17125814</v>
+        <v>11939543</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="H4">
-        <v>2.18</v>
+        <v>44.7</v>
       </c>
       <c r="I4">
-        <v>2.04</v>
+        <v>780.46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>35000</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>19264853</v>
+        <v>12067332</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.210000000000001</v>
+        <v>2830.62</v>
       </c>
       <c r="I5">
-        <v>13.48</v>
+        <v>9667.6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>2400</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>20619556</v>
+        <v>11939672</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>118</v>
+        <v>-2131</v>
       </c>
       <c r="H6">
-        <v>13.21</v>
+        <v>16.67</v>
       </c>
       <c r="I6">
-        <v>8.550000000000001</v>
+        <v>128.79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>9</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>28133466</v>
+        <v>17059594</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>105</v>
+        <v>-3</v>
       </c>
       <c r="H7">
-        <v>2.31</v>
+        <v>1.89</v>
       </c>
       <c r="I7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>11936640</v>
+        <v>11939645</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>3312</v>
+        <v>132</v>
       </c>
       <c r="H8">
-        <v>10.39</v>
+        <v>4.31</v>
       </c>
       <c r="I8">
-        <v>14.42</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>14832</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>11939543</v>
+        <v>32130390</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>11020</v>
       </c>
       <c r="H9">
-        <v>44.98</v>
+        <v>21.83</v>
       </c>
       <c r="I9">
-        <v>780.46</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>35000</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>12067332</v>
+        <v>20619556</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>2830.62</v>
+        <v>13.35</v>
       </c>
       <c r="I10">
-        <v>9667.6</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>2400</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>11939672</v>
+        <v>12097805</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>-2131</v>
+        <v>-11</v>
       </c>
       <c r="H11">
-        <v>16.57</v>
+        <v>15.7</v>
       </c>
       <c r="I11">
-        <v>128.26</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>13996941</v>
+        <v>31186309</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>81</v>
+        <v>-30</v>
       </c>
       <c r="H12">
-        <v>13.52</v>
+        <v>9.73</v>
       </c>
       <c r="I12">
-        <v>22.52</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>11939645</v>
+        <v>14413867</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="I13">
-        <v>4.81</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>17059594</v>
+        <v>11938367</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H14">
-        <v>1.91</v>
+        <v>4.87</v>
       </c>
       <c r="I14">
-        <v>1.85</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>400</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15">
-        <v>32130390</v>
+        <v>15011531</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G15">
-        <v>11606</v>
+        <v>607</v>
       </c>
       <c r="H15">
-        <v>21.42</v>
+        <v>21.73</v>
       </c>
       <c r="I15">
-        <v>51.23</v>
+        <v>33.95</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>20619556</v>
+        <v>12054191</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G16">
-        <v>118</v>
+        <v>4523</v>
       </c>
       <c r="H16">
-        <v>13.21</v>
+        <v>19.93</v>
       </c>
       <c r="I16">
-        <v>8.550000000000001</v>
+        <v>38.48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>12097805</v>
+        <v>35118277</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G17">
-        <v>-11</v>
+        <v>513</v>
       </c>
       <c r="H17">
-        <v>15.7</v>
+        <v>18.84</v>
       </c>
       <c r="I17">
-        <v>13.96</v>
+        <v>34.76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>31186309</v>
+        <v>16831898</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H18">
-        <v>9.44</v>
+        <v>2.37</v>
       </c>
       <c r="I18">
-        <v>17.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>14413867</v>
+        <v>13817289</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G19">
-        <v>63</v>
+        <v>743</v>
       </c>
       <c r="H19">
-        <v>4.31</v>
+        <v>23.89</v>
       </c>
       <c r="I19">
-        <v>8.41</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1131,28 +1152,28 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>11938367</v>
+        <v>32130390</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>293</v>
+        <v>11020</v>
       </c>
       <c r="H20">
-        <v>4.89</v>
+        <v>21.83</v>
       </c>
       <c r="I20">
-        <v>6.86</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1160,28 +1181,28 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>15011531</v>
+        <v>13715128</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G21">
-        <v>133</v>
+        <v>1279</v>
       </c>
       <c r="H21">
-        <v>21.89</v>
+        <v>12.72</v>
       </c>
       <c r="I21">
-        <v>34.09</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1189,28 +1210,173 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
+        <v>11936523</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>-9</v>
+      </c>
+      <c r="H22">
+        <v>4.26</v>
+      </c>
+      <c r="I22">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
         <v>12054191</v>
       </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22">
-        <v>4835</v>
-      </c>
-      <c r="H22">
-        <v>20.15</v>
-      </c>
-      <c r="I22">
-        <v>39.65</v>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>4523</v>
+      </c>
+      <c r="H23">
+        <v>19.93</v>
+      </c>
+      <c r="I23">
+        <v>38.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>16871438</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>1243</v>
+      </c>
+      <c r="H24">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="I24">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>20619556</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>13.35</v>
+      </c>
+      <c r="I25">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>13034365</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <v>147</v>
+      </c>
+      <c r="H26">
+        <v>4.12</v>
+      </c>
+      <c r="I26">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>16175304</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27">
+        <v>-35</v>
+      </c>
+      <c r="H27">
+        <v>6.07</v>
+      </c>
+      <c r="I27">
+        <v>6.48</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -70,75 +67,78 @@
     <t>2025-07-30</t>
   </si>
   <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+    <t>CONDOMINIO CRISTAL TOWER</t>
   </si>
   <si>
     <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
   </si>
   <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
+    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
+  </si>
+  <si>
     <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
   </si>
   <si>
-    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
-  </si>
-  <si>
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
     <t>PARENTE ANDRADE LTDA</t>
   </si>
   <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
   </si>
   <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
     <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
-    <t>54443314</t>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>54586025</t>
   </si>
   <si>
     <t>54503121</t>
   </si>
   <si>
-    <t>54586025</t>
+    <t>54627290</t>
   </si>
   <si>
     <t>54625975</t>
   </si>
   <si>
-    <t>54627290</t>
-  </si>
-  <si>
     <t>54692772</t>
   </si>
   <si>
+    <t>54736983</t>
+  </si>
+  <si>
     <t>54705126</t>
   </si>
   <si>
-    <t>54736983</t>
-  </si>
-  <si>
     <t>54799813</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>54402873</t>
   </si>
   <si>
+    <t>54973325</t>
+  </si>
+  <si>
     <t>54983766</t>
   </si>
   <si>
-    <t>54973325</t>
-  </si>
-  <si>
     <t>54994649</t>
   </si>
   <si>
@@ -163,76 +163,91 @@
     <t>54973922</t>
   </si>
   <si>
+    <t>54967812</t>
+  </si>
+  <si>
     <t>54973342</t>
   </si>
   <si>
+    <t>55029275</t>
+  </si>
+  <si>
+    <t>55027598</t>
+  </si>
+  <si>
+    <t>RODO COM CABO M 40CM</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ESPUMIL 4KG</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>RODO COM CABO M 40CM</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
+  </si>
+  <si>
+    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
   </si>
 </sst>
 </file>
@@ -590,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,106 +645,106 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>14832</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>11936640</v>
+        <v>11939543</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>3256</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>10.33</v>
+        <v>43.57</v>
       </c>
       <c r="I2">
-        <v>14.33</v>
+        <v>769.87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
-        <v>13996941</v>
+        <v>11939672</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>-2134</v>
       </c>
       <c r="H3">
-        <v>13.42</v>
+        <v>16.73</v>
       </c>
       <c r="I3">
-        <v>22.48</v>
+        <v>129.14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>14832</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4">
-        <v>11939543</v>
+        <v>13996941</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>-2</v>
+        <v>53</v>
       </c>
       <c r="H4">
-        <v>44.7</v>
+        <v>13.22</v>
       </c>
       <c r="I4">
-        <v>780.46</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>35000</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>12067332</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -746,33 +761,33 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2400</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>11939672</v>
+        <v>11939645</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>-2131</v>
+        <v>115</v>
       </c>
       <c r="H6">
-        <v>16.67</v>
+        <v>4.33</v>
       </c>
       <c r="I6">
-        <v>128.79</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -781,16 +796,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>17059594</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>1.89</v>
@@ -804,28 +819,28 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>11939645</v>
+        <v>32130390</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8">
-        <v>132</v>
+        <v>10922</v>
       </c>
       <c r="H8">
-        <v>4.31</v>
+        <v>21.67</v>
       </c>
       <c r="I8">
-        <v>4.8</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -833,33 +848,33 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>32130390</v>
+        <v>12097805</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>11020</v>
+        <v>-41</v>
       </c>
       <c r="H9">
-        <v>21.83</v>
+        <v>16.08</v>
       </c>
       <c r="I9">
-        <v>53.1</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -868,22 +883,22 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>20619556</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>63</v>
       </c>
       <c r="H10">
-        <v>13.35</v>
+        <v>13.27</v>
       </c>
       <c r="I10">
-        <v>8.75</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -891,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>12097805</v>
+        <v>31186309</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <v>-11</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>15.7</v>
+        <v>9.69</v>
       </c>
       <c r="I11">
-        <v>13.96</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -920,28 +935,28 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>31186309</v>
+        <v>14413867</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>-30</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>9.73</v>
+        <v>4.33</v>
       </c>
       <c r="I12">
-        <v>17.9</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -949,36 +964,36 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>14413867</v>
+        <v>11938367</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="H13">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="I13">
-        <v>8.4</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -987,24 +1002,24 @@
         <v>43</v>
       </c>
       <c r="E14">
-        <v>11938367</v>
+        <v>12054191</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>280</v>
+        <v>3946</v>
       </c>
       <c r="H14">
-        <v>4.87</v>
+        <v>20.12</v>
       </c>
       <c r="I14">
-        <v>6.83</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>168</v>
@@ -1019,16 +1034,16 @@
         <v>15011531</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="H15">
-        <v>21.73</v>
+        <v>21.75</v>
       </c>
       <c r="I15">
-        <v>33.95</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1036,33 +1051,33 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>12054191</v>
+        <v>16831898</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G16">
-        <v>4523</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>19.93</v>
+        <v>2.35</v>
       </c>
       <c r="I16">
-        <v>38.48</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -1071,312 +1086,428 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>35118277</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H17">
-        <v>18.84</v>
+        <v>18.78</v>
       </c>
       <c r="I17">
-        <v>34.76</v>
+        <v>34.68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>16831898</v>
+        <v>13817289</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="H18">
-        <v>2.37</v>
+        <v>23.46</v>
       </c>
       <c r="I18">
-        <v>1.67</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>13817289</v>
+        <v>13034365</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G19">
-        <v>743</v>
+        <v>128</v>
       </c>
       <c r="H19">
-        <v>23.89</v>
+        <v>4.22</v>
       </c>
       <c r="I19">
-        <v>38.25</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20">
-        <v>32130390</v>
+        <v>20619556</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G20">
-        <v>11020</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>21.83</v>
+        <v>13.27</v>
       </c>
       <c r="I20">
-        <v>53.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>13715128</v>
+        <v>11936523</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>1279</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>12.72</v>
+        <v>4.28</v>
       </c>
       <c r="I21">
-        <v>15.22</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>11936523</v>
+        <v>11936640</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G22">
-        <v>-9</v>
+        <v>3123</v>
       </c>
       <c r="H22">
-        <v>4.26</v>
+        <v>10.38</v>
       </c>
       <c r="I22">
-        <v>5.21</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>12054191</v>
+        <v>32130390</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>4523</v>
+        <v>10922</v>
       </c>
       <c r="H23">
-        <v>19.93</v>
+        <v>21.67</v>
       </c>
       <c r="I23">
-        <v>38.48</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>16871438</v>
+        <v>12054191</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G24">
-        <v>1243</v>
+        <v>3946</v>
       </c>
       <c r="H24">
-        <v>9.460000000000001</v>
+        <v>20.12</v>
       </c>
       <c r="I24">
-        <v>12.63</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>20619556</v>
+        <v>12054191</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G25">
-        <v>63</v>
+        <v>3946</v>
       </c>
       <c r="H25">
-        <v>13.35</v>
+        <v>20.12</v>
       </c>
       <c r="I25">
-        <v>8.75</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>13034365</v>
+        <v>16871438</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26">
-        <v>147</v>
+        <v>1212</v>
       </c>
       <c r="H26">
-        <v>4.12</v>
+        <v>9.44</v>
       </c>
       <c r="I26">
-        <v>6.74</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>13715128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27">
+        <v>1254</v>
+      </c>
+      <c r="H27">
+        <v>12.66</v>
+      </c>
+      <c r="I27">
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>16175304</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>-36</v>
+      </c>
+      <c r="H28">
+        <v>6.03</v>
+      </c>
+      <c r="I28">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B27">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27">
-        <v>16175304</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27">
-        <v>-35</v>
-      </c>
-      <c r="H27">
-        <v>6.07</v>
-      </c>
-      <c r="I27">
-        <v>6.48</v>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>13449319</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>361</v>
+      </c>
+      <c r="H29">
+        <v>14.27</v>
+      </c>
+      <c r="I29">
+        <v>37.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>12054191</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>3946</v>
+      </c>
+      <c r="H30">
+        <v>20.12</v>
+      </c>
+      <c r="I30">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>28197686</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>-5</v>
+      </c>
+      <c r="H31">
+        <v>6.94</v>
+      </c>
+      <c r="I31">
+        <v>5.97</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
   <si>
     <t>data</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
     <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
   </si>
   <si>
@@ -94,30 +97,48 @@
     <t>MANJAR SERVICOS GERAIS SA</t>
   </si>
   <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
     <t>PARENTE ANDRADE LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
     <t>IJP COMERCIO DE MOVEIS LTDA</t>
   </si>
   <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
+  </si>
+  <si>
     <t>54586025</t>
   </si>
   <si>
@@ -142,45 +163,69 @@
     <t>54799813</t>
   </si>
   <si>
+    <t>54864525</t>
+  </si>
+  <si>
     <t>54869922</t>
   </si>
   <si>
     <t>54402873</t>
   </si>
   <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54983766</t>
+  </si>
+  <si>
+    <t>54973922</t>
+  </si>
+  <si>
     <t>54973325</t>
   </si>
   <si>
-    <t>54983766</t>
+    <t>54967812</t>
+  </si>
+  <si>
+    <t>54973342</t>
   </si>
   <si>
     <t>54994649</t>
   </si>
   <si>
-    <t>54984053</t>
-  </si>
-  <si>
-    <t>54973922</t>
-  </si>
-  <si>
-    <t>54967812</t>
-  </si>
-  <si>
-    <t>54973342</t>
+    <t>55027598</t>
+  </si>
+  <si>
+    <t>55056464</t>
   </si>
   <si>
     <t>55029275</t>
   </si>
   <si>
-    <t>55027598</t>
+    <t>55110485</t>
+  </si>
+  <si>
+    <t>55109869</t>
+  </si>
+  <si>
+    <t>55086189</t>
+  </si>
+  <si>
+    <t>55081856</t>
+  </si>
+  <si>
+    <t>55108816</t>
+  </si>
+  <si>
+    <t>55112082</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
   </si>
   <si>
     <t>RODO COM CABO M 40CM</t>
   </si>
   <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
   </si>
   <si>
@@ -205,6 +250,9 @@
     <t>LA DE ACO ASSOLAN 45G</t>
   </si>
   <si>
+    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
@@ -217,37 +265,61 @@
     <t>DETERGENTE LIMPOL COCO 500ML</t>
   </si>
   <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
     <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
   </si>
   <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
     <t>ESPANADOR DE TETO C/2 CABOS</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
     <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
   </si>
   <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
     <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
 </sst>
 </file>
@@ -605,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,28 +717,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>14832</v>
+        <v>2400</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>11939543</v>
+        <v>11939672</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="H2">
-        <v>43.57</v>
+        <v>16.82</v>
       </c>
       <c r="I2">
-        <v>769.87</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -674,28 +746,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2400</v>
+        <v>14832</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>11939672</v>
+        <v>11939543</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>-2134</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>16.73</v>
+        <v>43.56</v>
       </c>
       <c r="I3">
-        <v>129.14</v>
+        <v>769.87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -706,25 +778,25 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>13996941</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>53</v>
       </c>
       <c r="H4">
-        <v>13.22</v>
+        <v>13.19</v>
       </c>
       <c r="I4">
-        <v>22.26</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -735,16 +807,16 @@
         <v>35000</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>12067332</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -764,25 +836,25 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>11939645</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H6">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="I6">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -793,25 +865,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>17059594</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I7">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -822,25 +894,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>32130390</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>10922</v>
+        <v>10825</v>
       </c>
       <c r="H8">
-        <v>21.67</v>
+        <v>21.62</v>
       </c>
       <c r="I8">
-        <v>52.88</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -851,25 +923,25 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>12097805</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>-41</v>
+        <v>124</v>
       </c>
       <c r="H9">
-        <v>16.08</v>
+        <v>16.05</v>
       </c>
       <c r="I9">
-        <v>13.96</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -880,25 +952,25 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>20619556</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>13.27</v>
+        <v>13.17</v>
       </c>
       <c r="I10">
-        <v>8.699999999999999</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -909,25 +981,25 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>31186309</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>9.69</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I11">
-        <v>17.78</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -935,57 +1007,57 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>14413867</v>
+        <v>12846443</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H12">
-        <v>4.33</v>
+        <v>5.98</v>
       </c>
       <c r="I12">
-        <v>8.390000000000001</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>11938367</v>
+        <v>14413867</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>4.9</v>
+        <v>4.37</v>
       </c>
       <c r="I13">
-        <v>6.85</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -993,28 +1065,28 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>12054191</v>
+        <v>11938367</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>3946</v>
+        <v>240</v>
       </c>
       <c r="H14">
-        <v>20.12</v>
+        <v>4.82</v>
       </c>
       <c r="I14">
-        <v>38.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1022,57 +1094,57 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>15011531</v>
+        <v>12054191</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>583</v>
+        <v>3805</v>
       </c>
       <c r="H15">
-        <v>21.75</v>
+        <v>20.17</v>
       </c>
       <c r="I15">
-        <v>33.79</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>16831898</v>
+        <v>15011531</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>48</v>
+        <v>583</v>
       </c>
       <c r="H16">
-        <v>2.35</v>
+        <v>21.75</v>
       </c>
       <c r="I16">
-        <v>1.67</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1080,28 +1152,28 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>35118277</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G17">
-        <v>507</v>
+        <v>10825</v>
       </c>
       <c r="H17">
-        <v>18.78</v>
+        <v>21.62</v>
       </c>
       <c r="I17">
-        <v>34.68</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1109,28 +1181,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>13817289</v>
+        <v>35118277</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>718</v>
+        <v>500</v>
       </c>
       <c r="H18">
-        <v>23.46</v>
+        <v>18.71</v>
       </c>
       <c r="I18">
-        <v>37.81</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1138,28 +1210,28 @@
         <v>16</v>
       </c>
       <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>13034365</v>
+        <v>20619556</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G19">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="H19">
-        <v>4.22</v>
+        <v>13.17</v>
       </c>
       <c r="I19">
-        <v>6.82</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1170,25 +1242,25 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>20619556</v>
+        <v>17541022</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G20">
-        <v>63</v>
+        <v>-34</v>
       </c>
       <c r="H20">
-        <v>13.27</v>
+        <v>2.38</v>
       </c>
       <c r="I20">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1196,28 +1268,28 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>11936523</v>
+        <v>16831898</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G21">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>4.28</v>
+        <v>2.35</v>
       </c>
       <c r="I21">
-        <v>5.19</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1225,28 +1297,28 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>11936640</v>
+        <v>13715128</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G22">
-        <v>3123</v>
+        <v>1208</v>
       </c>
       <c r="H22">
-        <v>10.38</v>
+        <v>12.65</v>
       </c>
       <c r="I22">
-        <v>14.64</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1254,28 +1326,28 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>32130390</v>
+        <v>12054191</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G23">
-        <v>10922</v>
+        <v>3805</v>
       </c>
       <c r="H23">
-        <v>21.67</v>
+        <v>20.17</v>
       </c>
       <c r="I23">
-        <v>52.88</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1283,28 +1355,28 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>12054191</v>
+        <v>16175304</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G24">
-        <v>3946</v>
+        <v>62</v>
       </c>
       <c r="H24">
-        <v>20.12</v>
+        <v>6.01</v>
       </c>
       <c r="I24">
-        <v>38.9</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1312,28 +1384,28 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>12054191</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G25">
-        <v>3946</v>
+        <v>3805</v>
       </c>
       <c r="H25">
-        <v>20.12</v>
+        <v>20.17</v>
       </c>
       <c r="I25">
-        <v>38.9</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1341,28 +1413,28 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>16871438</v>
+        <v>11936640</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G26">
-        <v>1212</v>
+        <v>3055</v>
       </c>
       <c r="H26">
-        <v>9.44</v>
+        <v>10.42</v>
       </c>
       <c r="I26">
-        <v>12.59</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1370,28 +1442,28 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>13715128</v>
+        <v>13034365</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>1254</v>
+        <v>124</v>
       </c>
       <c r="H27">
-        <v>12.66</v>
+        <v>4.22</v>
       </c>
       <c r="I27">
-        <v>15.21</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1399,86 +1471,86 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>16175304</v>
+        <v>13817289</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G28">
-        <v>-36</v>
+        <v>718</v>
       </c>
       <c r="H28">
-        <v>6.03</v>
+        <v>23.46</v>
       </c>
       <c r="I28">
-        <v>6.47</v>
+        <v>37.81</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>13449319</v>
+        <v>11936523</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>14.27</v>
+        <v>4.24</v>
       </c>
       <c r="I29">
-        <v>37.83</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>12054191</v>
+        <v>16871438</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G30">
-        <v>3946</v>
+        <v>1141</v>
       </c>
       <c r="H30">
-        <v>20.12</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I30">
-        <v>38.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1486,28 +1558,318 @@
         <v>17</v>
       </c>
       <c r="B31">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>12054191</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31">
+        <v>3805</v>
+      </c>
+      <c r="H31">
+        <v>20.17</v>
+      </c>
+      <c r="I31">
+        <v>38.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>12060072</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32">
+        <v>159</v>
+      </c>
+      <c r="H32">
+        <v>8.6</v>
+      </c>
+      <c r="I32">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>13449319</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33">
+        <v>361</v>
+      </c>
+      <c r="H33">
+        <v>14.36</v>
+      </c>
+      <c r="I33">
+        <v>37.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>17098035</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>3.12</v>
+      </c>
+      <c r="I34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
         <v>28197686</v>
       </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31">
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35">
         <v>-5</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>6.94</v>
       </c>
-      <c r="I31">
+      <c r="I35">
         <v>5.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>12904510</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36">
+        <v>68</v>
+      </c>
+      <c r="H36">
+        <v>2.58</v>
+      </c>
+      <c r="I36">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37">
+        <v>13228910</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>341</v>
+      </c>
+      <c r="H37">
+        <v>16.54</v>
+      </c>
+      <c r="I37">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38">
+        <v>20651572</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>3.33</v>
+      </c>
+      <c r="I38">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39">
+        <v>16871438</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39">
+        <v>1141</v>
+      </c>
+      <c r="H39">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I39">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>12765515</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>205</v>
+      </c>
+      <c r="H40">
+        <v>2.76</v>
+      </c>
+      <c r="I40">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41">
+        <v>14667825</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41">
+        <v>765</v>
+      </c>
+      <c r="H41">
+        <v>34.86</v>
+      </c>
+      <c r="I41">
+        <v>81.45999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
     <t>2025-07-22</t>
   </si>
   <si>
@@ -73,34 +70,37 @@
     <t>2025-08-01</t>
   </si>
   <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>CONDOMINIO CRISTAL TOWER</t>
+  </si>
+  <si>
+    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
+  </si>
+  <si>
+    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
-  </si>
-  <si>
-    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>PARENTE ANDRADE LTDA</t>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
@@ -109,43 +109,40 @@
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
     <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+    <t>L FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
   </si>
   <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
   </si>
   <si>
     <t>SAWEM DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>54586025</t>
-  </si>
-  <si>
-    <t>54503121</t>
-  </si>
-  <si>
-    <t>54627290</t>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>54625981</t>
   </si>
   <si>
     <t>54625975</t>
@@ -157,7 +154,7 @@
     <t>54736983</t>
   </si>
   <si>
-    <t>54705126</t>
+    <t>54704921</t>
   </si>
   <si>
     <t>54799813</t>
@@ -166,70 +163,79 @@
     <t>54864525</t>
   </si>
   <si>
-    <t>54869922</t>
-  </si>
-  <si>
     <t>54402873</t>
   </si>
   <si>
+    <t>54967812</t>
+  </si>
+  <si>
+    <t>54973325</t>
+  </si>
+  <si>
+    <t>54983766</t>
+  </si>
+  <si>
     <t>54984053</t>
   </si>
   <si>
-    <t>54983766</t>
-  </si>
-  <si>
     <t>54973922</t>
   </si>
   <si>
-    <t>54973325</t>
-  </si>
-  <si>
-    <t>54967812</t>
-  </si>
-  <si>
     <t>54973342</t>
   </si>
   <si>
     <t>54994649</t>
   </si>
   <si>
-    <t>55027598</t>
-  </si>
-  <si>
     <t>55056464</t>
   </si>
   <si>
     <t>55029275</t>
   </si>
   <si>
+    <t>55029796</t>
+  </si>
+  <si>
+    <t>55052066</t>
+  </si>
+  <si>
+    <t>55086189</t>
+  </si>
+  <si>
     <t>55110485</t>
   </si>
   <si>
+    <t>55112082</t>
+  </si>
+  <si>
+    <t>55108816</t>
+  </si>
+  <si>
     <t>55109869</t>
   </si>
   <si>
-    <t>55086189</t>
-  </si>
-  <si>
     <t>55081856</t>
   </si>
   <si>
-    <t>55108816</t>
-  </si>
-  <si>
-    <t>55112082</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>RODO COM CABO M 40CM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 30L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO BRANCO ALVEJADO CC COMUM 43X70CM</t>
+    <t>55197346</t>
+  </si>
+  <si>
+    <t>55104593</t>
+  </si>
+  <si>
+    <t>55094820</t>
+  </si>
+  <si>
+    <t>55104128</t>
+  </si>
+  <si>
+    <t>55196954</t>
+  </si>
+  <si>
+    <t>55101538</t>
+  </si>
+  <si>
+    <t>55184583</t>
   </si>
   <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
@@ -253,73 +259,103 @@
     <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
   </si>
   <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
+  </si>
+  <si>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
+  </si>
+  <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
-  </si>
-  <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
-    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
   </si>
 </sst>
 </file>
@@ -677,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,28 +753,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2400</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>11939672</v>
+        <v>11939645</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H2">
-        <v>16.82</v>
+        <v>4.46</v>
       </c>
       <c r="I2">
-        <v>129.5</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -746,318 +782,318 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>14832</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>11939543</v>
+        <v>17059594</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>43.56</v>
+        <v>1.94</v>
       </c>
       <c r="I3">
-        <v>769.87</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>13996941</v>
+        <v>32130390</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>10610</v>
       </c>
       <c r="H4">
-        <v>13.19</v>
+        <v>21.74</v>
       </c>
       <c r="I4">
-        <v>22.39</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>35000</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>12067332</v>
+        <v>12097805</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H5">
-        <v>2830.62</v>
+        <v>15.8</v>
       </c>
       <c r="I5">
-        <v>9667.6</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>11939645</v>
+        <v>20619556</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>93</v>
+        <v>-5</v>
       </c>
       <c r="H6">
-        <v>4.39</v>
+        <v>13.27</v>
       </c>
       <c r="I6">
-        <v>4.85</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>17059594</v>
+        <v>31186309</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>1.94</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I7">
-        <v>1.84</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>32130390</v>
+        <v>12846443</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>10825</v>
+        <v>80</v>
       </c>
       <c r="H8">
-        <v>21.62</v>
+        <v>5.99</v>
       </c>
       <c r="I8">
-        <v>52.84</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>12097805</v>
+        <v>15011531</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>124</v>
+        <v>559</v>
       </c>
       <c r="H9">
-        <v>16.05</v>
+        <v>21.77</v>
       </c>
       <c r="I9">
-        <v>13.78</v>
+        <v>33.62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>20619556</v>
+        <v>12054191</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10">
-        <v>55</v>
+        <v>2866</v>
       </c>
       <c r="H10">
-        <v>13.17</v>
+        <v>20.71</v>
       </c>
       <c r="I10">
-        <v>8.73</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>31186309</v>
+        <v>11938367</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="H11">
-        <v>9.619999999999999</v>
+        <v>4.82</v>
       </c>
       <c r="I11">
-        <v>17.66</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>12846443</v>
+        <v>11936640</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G12">
-        <v>85</v>
+        <v>2985</v>
       </c>
       <c r="H12">
-        <v>5.98</v>
+        <v>10.47</v>
       </c>
       <c r="I12">
-        <v>6.37</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>14413867</v>
+        <v>16831898</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H13">
-        <v>4.37</v>
+        <v>2.35</v>
       </c>
       <c r="I13">
-        <v>8.44</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1065,28 +1101,28 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>11938367</v>
+        <v>11936523</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>4.82</v>
+        <v>4.24</v>
       </c>
       <c r="I14">
-        <v>6.4</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1094,28 +1130,28 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>12054191</v>
+        <v>35118277</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G15">
-        <v>3805</v>
+        <v>478</v>
       </c>
       <c r="H15">
-        <v>20.17</v>
+        <v>18.63</v>
       </c>
       <c r="I15">
-        <v>38.91</v>
+        <v>34.44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1123,91 +1159,91 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>15011531</v>
+        <v>13034365</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>583</v>
+        <v>118</v>
       </c>
       <c r="H16">
-        <v>21.75</v>
+        <v>4.1</v>
       </c>
       <c r="I16">
-        <v>33.79</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>17541022</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G17">
-        <v>10825</v>
+        <v>-34</v>
       </c>
       <c r="H17">
-        <v>21.62</v>
+        <v>2.38</v>
       </c>
       <c r="I17">
-        <v>52.84</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>35118277</v>
+        <v>13715128</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>500</v>
+        <v>1137</v>
       </c>
       <c r="H18">
-        <v>18.71</v>
+        <v>12.83</v>
       </c>
       <c r="I18">
-        <v>34.6</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>40</v>
@@ -1222,190 +1258,190 @@
         <v>20619556</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19">
-        <v>55</v>
+        <v>-5</v>
       </c>
       <c r="H19">
-        <v>13.17</v>
+        <v>13.27</v>
       </c>
       <c r="I19">
-        <v>8.73</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>17541022</v>
+        <v>16175304</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>-34</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>2.38</v>
+        <v>6.01</v>
       </c>
       <c r="I20">
-        <v>3.9</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>16831898</v>
+        <v>16871438</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>1058</v>
       </c>
       <c r="H21">
-        <v>2.35</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I21">
-        <v>1.67</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22">
-        <v>13715128</v>
+        <v>32130390</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G22">
-        <v>1208</v>
+        <v>10610</v>
       </c>
       <c r="H22">
-        <v>12.65</v>
+        <v>21.74</v>
       </c>
       <c r="I22">
-        <v>15.12</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>12054191</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23">
-        <v>3805</v>
+        <v>2866</v>
       </c>
       <c r="H23">
-        <v>20.17</v>
+        <v>20.71</v>
       </c>
       <c r="I23">
-        <v>38.91</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>16175304</v>
+        <v>12054191</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>62</v>
+        <v>2866</v>
       </c>
       <c r="H24">
-        <v>6.01</v>
+        <v>20.71</v>
       </c>
       <c r="I24">
-        <v>6.46</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>12054191</v>
+        <v>13817289</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G25">
-        <v>3805</v>
+        <v>658</v>
       </c>
       <c r="H25">
-        <v>20.17</v>
+        <v>23.49</v>
       </c>
       <c r="I25">
-        <v>38.91</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1413,28 +1449,28 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>11936640</v>
+        <v>12060072</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>3055</v>
+        <v>157</v>
       </c>
       <c r="H26">
-        <v>10.42</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I26">
-        <v>14.64</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1445,25 +1481,25 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>13034365</v>
+        <v>28197686</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G27">
-        <v>124</v>
+        <v>-5</v>
       </c>
       <c r="H27">
-        <v>4.22</v>
+        <v>6.94</v>
       </c>
       <c r="I27">
-        <v>6.8</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1471,28 +1507,28 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
       </c>
       <c r="E28">
-        <v>13817289</v>
+        <v>13449319</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G28">
-        <v>718</v>
+        <v>361</v>
       </c>
       <c r="H28">
-        <v>23.46</v>
+        <v>14.46</v>
       </c>
       <c r="I28">
-        <v>37.81</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1500,28 +1536,28 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>11936523</v>
+        <v>12054191</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>2866</v>
       </c>
       <c r="H29">
-        <v>4.24</v>
+        <v>20.71</v>
       </c>
       <c r="I29">
-        <v>5.18</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1529,57 +1565,57 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>16871438</v>
+        <v>14413763</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G30">
-        <v>1141</v>
+        <v>123</v>
       </c>
       <c r="H30">
-        <v>9.470000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="I30">
-        <v>12.6</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>12054191</v>
+        <v>17098035</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G31">
-        <v>3805</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>20.17</v>
+        <v>3.12</v>
       </c>
       <c r="I31">
-        <v>38.91</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1587,28 +1623,28 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>12060072</v>
+        <v>20651572</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G32">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>8.6</v>
+        <v>3.32</v>
       </c>
       <c r="I32">
-        <v>12.03</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1616,28 +1652,28 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>13449319</v>
+        <v>12904510</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>361</v>
+        <v>65</v>
       </c>
       <c r="H33">
-        <v>14.36</v>
+        <v>2.58</v>
       </c>
       <c r="I33">
-        <v>37.98</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1645,28 +1681,28 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>17098035</v>
+        <v>14667825</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>2265</v>
       </c>
       <c r="H34">
-        <v>3.12</v>
+        <v>34.86</v>
       </c>
       <c r="I34">
-        <v>3.9</v>
+        <v>81.45999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1674,86 +1710,86 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>28197686</v>
+        <v>12765515</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G35">
-        <v>-5</v>
+        <v>198</v>
       </c>
       <c r="H35">
-        <v>6.94</v>
+        <v>2.76</v>
       </c>
       <c r="I35">
-        <v>5.97</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>12904510</v>
+        <v>13228910</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G36">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="H36">
-        <v>2.58</v>
+        <v>16.59</v>
       </c>
       <c r="I36">
-        <v>2.32</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E37">
-        <v>13228910</v>
+        <v>16871438</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G37">
-        <v>341</v>
+        <v>1058</v>
       </c>
       <c r="H37">
-        <v>16.54</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I37">
-        <v>28.5</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1761,28 +1797,28 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38">
-        <v>20651572</v>
+        <v>22571192</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>1006</v>
       </c>
       <c r="H38">
-        <v>3.33</v>
+        <v>19.4</v>
       </c>
       <c r="I38">
-        <v>6.39</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1790,28 +1826,28 @@
         <v>18</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E39">
-        <v>16871438</v>
+        <v>11939645</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G39">
-        <v>1141</v>
+        <v>66</v>
       </c>
       <c r="H39">
-        <v>9.470000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="I39">
-        <v>12.6</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1819,28 +1855,28 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
-        <v>12765515</v>
+        <v>22571174</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G40">
-        <v>205</v>
+        <v>668</v>
       </c>
       <c r="H40">
-        <v>2.76</v>
+        <v>17.97</v>
       </c>
       <c r="I40">
-        <v>2.45</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1848,28 +1884,260 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>14667825</v>
+        <v>12428795</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G41">
-        <v>765</v>
+        <v>134</v>
       </c>
       <c r="H41">
-        <v>34.86</v>
+        <v>15.02</v>
       </c>
       <c r="I41">
-        <v>81.45999999999999</v>
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>19006434</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42">
+        <v>646</v>
+      </c>
+      <c r="H42">
+        <v>10.25</v>
+      </c>
+      <c r="I42">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>700</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>12054191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43">
+        <v>2866</v>
+      </c>
+      <c r="H43">
+        <v>20.71</v>
+      </c>
+      <c r="I43">
+        <v>42.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44">
+        <v>12120701</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44">
+        <v>197</v>
+      </c>
+      <c r="H44">
+        <v>5.44</v>
+      </c>
+      <c r="I44">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>17199336</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45">
+        <v>1974</v>
+      </c>
+      <c r="H45">
+        <v>14.1</v>
+      </c>
+      <c r="I45">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>17737776</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46">
+        <v>136</v>
+      </c>
+      <c r="H46">
+        <v>4.99</v>
+      </c>
+      <c r="I46">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>14413867</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47">
+        <v>180</v>
+      </c>
+      <c r="H47">
+        <v>4.44</v>
+      </c>
+      <c r="I47">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48">
+        <v>17417338</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48">
+        <v>-8</v>
+      </c>
+      <c r="H48">
+        <v>4.83</v>
+      </c>
+      <c r="I48">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>32046831</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49">
+        <v>92</v>
+      </c>
+      <c r="H49">
+        <v>4.08</v>
+      </c>
+      <c r="I49">
+        <v>5.87</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
     <t>2025-07-23</t>
   </si>
   <si>
@@ -73,10 +70,7 @@
     <t>2025-08-04</t>
   </si>
   <si>
-    <t>CONDOMINIO CRISTAL TOWER</t>
-  </si>
-  <si>
-    <t>CARITAS ARQUIDIOCESANA DE MANAUS</t>
+    <t>2025-08-05</t>
   </si>
   <si>
     <t>V V REFEICOES LTDA</t>
@@ -97,22 +91,25 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
     <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
+    <t>L FERREIRA DA SILVA</t>
   </si>
   <si>
     <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
@@ -121,31 +118,28 @@
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
-    <t>L FERREIRA DA SILVA</t>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
   </si>
   <si>
     <t>B.P DISTRIBUIDORA LTDA</t>
   </si>
   <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
-    <t>54625981</t>
-  </si>
-  <si>
-    <t>54625975</t>
+    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
   </si>
   <si>
     <t>54692772</t>
@@ -166,196 +160,202 @@
     <t>54402873</t>
   </si>
   <si>
+    <t>54983766</t>
+  </si>
+  <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54994649</t>
+  </si>
+  <si>
+    <t>54973325</t>
+  </si>
+  <si>
     <t>54967812</t>
   </si>
   <si>
-    <t>54973325</t>
-  </si>
-  <si>
-    <t>54983766</t>
-  </si>
-  <si>
-    <t>54984053</t>
+    <t>54973342</t>
   </si>
   <si>
     <t>54973922</t>
   </si>
   <si>
-    <t>54973342</t>
-  </si>
-  <si>
-    <t>54994649</t>
+    <t>55052066</t>
+  </si>
+  <si>
+    <t>55029275</t>
   </si>
   <si>
     <t>55056464</t>
   </si>
   <si>
-    <t>55029275</t>
-  </si>
-  <si>
     <t>55029796</t>
   </si>
   <si>
-    <t>55052066</t>
+    <t>55110485</t>
+  </si>
+  <si>
+    <t>55081856</t>
+  </si>
+  <si>
+    <t>55109869</t>
+  </si>
+  <si>
+    <t>55108816</t>
   </si>
   <si>
     <t>55086189</t>
   </si>
   <si>
-    <t>55110485</t>
-  </si>
-  <si>
     <t>55112082</t>
   </si>
   <si>
-    <t>55108816</t>
-  </si>
-  <si>
-    <t>55109869</t>
-  </si>
-  <si>
-    <t>55081856</t>
-  </si>
-  <si>
     <t>55197346</t>
   </si>
   <si>
-    <t>55104593</t>
-  </si>
-  <si>
     <t>55094820</t>
   </si>
   <si>
-    <t>55104128</t>
+    <t>55184583</t>
   </si>
   <si>
     <t>55196954</t>
   </si>
   <si>
-    <t>55101538</t>
-  </si>
-  <si>
-    <t>55184583</t>
+    <t>55095582</t>
+  </si>
+  <si>
+    <t>55248840</t>
+  </si>
+  <si>
+    <t>55172306</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
+  </si>
+  <si>
+    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
+  </si>
+  <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
   </si>
   <si>
-    <t>SABAO EM PO ESPUMIL 4KG</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
-  </si>
-  <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
-  </si>
-  <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -762,27 +762,27 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>11939645</v>
+        <v>32130390</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>10526</v>
       </c>
       <c r="H2">
-        <v>4.46</v>
+        <v>21.78</v>
       </c>
       <c r="I2">
-        <v>4.99</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -791,19 +791,19 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <v>17059594</v>
+        <v>12097805</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="H3">
-        <v>1.94</v>
+        <v>15.8</v>
       </c>
       <c r="I3">
-        <v>1.84</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -820,19 +820,19 @@
         <v>44</v>
       </c>
       <c r="E4">
-        <v>32130390</v>
+        <v>20619556</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4">
-        <v>10610</v>
+        <v>-5</v>
       </c>
       <c r="H4">
-        <v>21.74</v>
+        <v>13.28</v>
       </c>
       <c r="I4">
-        <v>52.93</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -849,24 +849,24 @@
         <v>45</v>
       </c>
       <c r="E5">
-        <v>12097805</v>
+        <v>31186309</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>15.8</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I5">
-        <v>13.69</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -878,27 +878,27 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <v>20619556</v>
+        <v>12846443</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6">
-        <v>-5</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>13.27</v>
+        <v>6.01</v>
       </c>
       <c r="I6">
-        <v>8.779999999999999</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -907,19 +907,19 @@
         <v>47</v>
       </c>
       <c r="E7">
-        <v>31186309</v>
+        <v>12054191</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>2762</v>
       </c>
       <c r="H7">
-        <v>9.619999999999999</v>
+        <v>20.78</v>
       </c>
       <c r="I7">
-        <v>17.66</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -927,57 +927,57 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>12846443</v>
+        <v>15011531</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="H8">
-        <v>5.99</v>
+        <v>21.77</v>
       </c>
       <c r="I8">
-        <v>6.36</v>
+        <v>33.62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>15011531</v>
+        <v>11938367</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9">
-        <v>559</v>
+        <v>221</v>
       </c>
       <c r="H9">
-        <v>21.77</v>
+        <v>4.82</v>
       </c>
       <c r="I9">
-        <v>33.62</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -985,28 +985,28 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>12054191</v>
+        <v>35118277</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>2866</v>
+        <v>475</v>
       </c>
       <c r="H10">
-        <v>20.71</v>
+        <v>18.55</v>
       </c>
       <c r="I10">
-        <v>42.82</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1014,376 +1014,376 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11">
-        <v>11938367</v>
+        <v>17541022</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>4.82</v>
+        <v>2.38</v>
       </c>
       <c r="I11">
-        <v>6.39</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>11936640</v>
+        <v>11936523</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12">
-        <v>2985</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>10.47</v>
+        <v>4.24</v>
       </c>
       <c r="I12">
-        <v>14.63</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>16831898</v>
+        <v>13817289</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>643</v>
       </c>
       <c r="H13">
-        <v>2.35</v>
+        <v>23.42</v>
       </c>
       <c r="I13">
-        <v>1.67</v>
+        <v>37.45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>11936523</v>
+        <v>16831898</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>4.24</v>
+        <v>2.35</v>
       </c>
       <c r="I14">
-        <v>5.19</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15">
-        <v>35118277</v>
+        <v>13715128</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>478</v>
+        <v>1135</v>
       </c>
       <c r="H15">
-        <v>18.63</v>
+        <v>12.84</v>
       </c>
       <c r="I15">
-        <v>34.44</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>13034365</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16">
         <v>4.1</v>
       </c>
       <c r="I16">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>17541022</v>
+        <v>11936640</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17">
-        <v>-34</v>
+        <v>2978</v>
       </c>
       <c r="H17">
-        <v>2.38</v>
+        <v>10.46</v>
       </c>
       <c r="I17">
-        <v>3.9</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18">
-        <v>13715128</v>
+        <v>16871438</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18">
-        <v>1137</v>
+        <v>1052</v>
       </c>
       <c r="H18">
-        <v>12.83</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I18">
-        <v>15.24</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
-        <v>20619556</v>
+        <v>16175304</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G19">
-        <v>-5</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>13.27</v>
+        <v>5.95</v>
       </c>
       <c r="I19">
-        <v>8.779999999999999</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20">
-        <v>16175304</v>
+        <v>32130390</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>62</v>
+        <v>10526</v>
       </c>
       <c r="H20">
-        <v>6.01</v>
+        <v>21.78</v>
       </c>
       <c r="I20">
-        <v>6.46</v>
+        <v>52.95</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>16871438</v>
+        <v>12054191</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G21">
-        <v>1058</v>
+        <v>2762</v>
       </c>
       <c r="H21">
-        <v>9.460000000000001</v>
+        <v>20.78</v>
       </c>
       <c r="I21">
-        <v>12.57</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>32130390</v>
+        <v>12054191</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22">
-        <v>10610</v>
+        <v>2762</v>
       </c>
       <c r="H22">
-        <v>21.74</v>
+        <v>20.78</v>
       </c>
       <c r="I22">
-        <v>52.93</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>12054191</v>
+        <v>20619556</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>2866</v>
+        <v>-5</v>
       </c>
       <c r="H23">
-        <v>20.71</v>
+        <v>13.28</v>
       </c>
       <c r="I23">
-        <v>42.82</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1391,28 +1391,28 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>12054191</v>
+        <v>14413763</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>2866</v>
+        <v>87</v>
       </c>
       <c r="H24">
-        <v>20.71</v>
+        <v>8.27</v>
       </c>
       <c r="I24">
-        <v>42.82</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1420,144 +1420,144 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
       </c>
       <c r="E25">
-        <v>13817289</v>
+        <v>28197686</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25">
-        <v>658</v>
+        <v>-5</v>
       </c>
       <c r="H25">
-        <v>23.49</v>
+        <v>6.94</v>
       </c>
       <c r="I25">
-        <v>37.61</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="E26">
-        <v>12060072</v>
+        <v>17098035</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G26">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>8.539999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="I26">
-        <v>12.02</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>58</v>
       </c>
       <c r="E27">
-        <v>28197686</v>
+        <v>12054191</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G27">
-        <v>-5</v>
+        <v>2762</v>
       </c>
       <c r="H27">
-        <v>6.94</v>
+        <v>20.78</v>
       </c>
       <c r="I27">
-        <v>5.97</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>13449319</v>
+        <v>12060072</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="H28">
-        <v>14.46</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I28">
-        <v>38.12</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>12054191</v>
+        <v>13449319</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G29">
-        <v>2866</v>
+        <v>361</v>
       </c>
       <c r="H29">
-        <v>20.71</v>
+        <v>14.46</v>
       </c>
       <c r="I29">
-        <v>42.82</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1565,28 +1565,28 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>14413763</v>
+        <v>12904510</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G30">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H30">
-        <v>7.97</v>
+        <v>2.58</v>
       </c>
       <c r="I30">
-        <v>6.95</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1594,94 +1594,94 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>17098035</v>
+        <v>16871438</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>1052</v>
       </c>
       <c r="H31">
-        <v>3.12</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I31">
-        <v>3.9</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
       </c>
       <c r="E32">
-        <v>20651572</v>
+        <v>13228910</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G32">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="H32">
-        <v>3.32</v>
+        <v>16.56</v>
       </c>
       <c r="I32">
-        <v>6.26</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33">
-        <v>12904510</v>
+        <v>12765515</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G33">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="H33">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="I33">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1690,48 +1690,48 @@
         <v>63</v>
       </c>
       <c r="E34">
-        <v>14667825</v>
+        <v>20651572</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>2265</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>34.86</v>
+        <v>3.23</v>
       </c>
       <c r="I34">
-        <v>81.45999999999999</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
       </c>
       <c r="E35">
-        <v>12765515</v>
+        <v>14667825</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>198</v>
+        <v>2264</v>
       </c>
       <c r="H35">
-        <v>2.76</v>
+        <v>34.72</v>
       </c>
       <c r="I35">
-        <v>2.43</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1739,28 +1739,28 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>65</v>
       </c>
       <c r="E36">
-        <v>13228910</v>
+        <v>22571192</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>341</v>
+        <v>996</v>
       </c>
       <c r="H36">
-        <v>16.59</v>
+        <v>19.43</v>
       </c>
       <c r="I36">
-        <v>28.59</v>
+        <v>40.76</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1768,318 +1768,318 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>16871438</v>
+        <v>22571174</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G37">
-        <v>1058</v>
+        <v>658</v>
       </c>
       <c r="H37">
-        <v>9.460000000000001</v>
+        <v>17.92</v>
       </c>
       <c r="I37">
-        <v>12.57</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38">
-        <v>22571192</v>
+        <v>17199336</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G38">
-        <v>1006</v>
+        <v>1867</v>
       </c>
       <c r="H38">
-        <v>19.4</v>
+        <v>14.3</v>
       </c>
       <c r="I38">
-        <v>40.77</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39">
-        <v>11939645</v>
+        <v>12428795</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G39">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="H39">
-        <v>4.46</v>
+        <v>15.23</v>
       </c>
       <c r="I39">
-        <v>4.99</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>67</v>
       </c>
       <c r="E40">
-        <v>22571174</v>
+        <v>17417338</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40">
-        <v>668</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>17.97</v>
+        <v>4.83</v>
       </c>
       <c r="I40">
-        <v>19.42</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>12428795</v>
+        <v>12120701</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="H41">
-        <v>15.02</v>
+        <v>5.48</v>
       </c>
       <c r="I41">
-        <v>21.05</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>94</v>
+        <v>700</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>19006434</v>
+        <v>12054191</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G42">
-        <v>646</v>
+        <v>2762</v>
       </c>
       <c r="H42">
-        <v>10.25</v>
+        <v>20.78</v>
       </c>
       <c r="I42">
-        <v>15.32</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>700</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43">
-        <v>12054191</v>
+        <v>19006434</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G43">
-        <v>2866</v>
+        <v>646</v>
       </c>
       <c r="H43">
-        <v>20.71</v>
+        <v>10.29</v>
       </c>
       <c r="I43">
-        <v>42.82</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44">
-        <v>12120701</v>
+        <v>32046831</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G44">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="H44">
-        <v>5.44</v>
+        <v>4.07</v>
       </c>
       <c r="I44">
-        <v>5.7</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>17199336</v>
+        <v>17737776</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45">
-        <v>1974</v>
+        <v>135</v>
       </c>
       <c r="H45">
-        <v>14.1</v>
+        <v>5.02</v>
       </c>
       <c r="I45">
-        <v>17.31</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E46">
-        <v>17737776</v>
+        <v>11939645</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G46">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="H46">
-        <v>4.99</v>
+        <v>4.43</v>
       </c>
       <c r="I46">
-        <v>10.93</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>14413867</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G47">
         <v>180</v>
       </c>
       <c r="H47">
-        <v>4.44</v>
+        <v>4.46</v>
       </c>
       <c r="I47">
-        <v>8.59</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2087,28 +2087,28 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E48">
-        <v>17417338</v>
+        <v>20017789</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G48">
-        <v>-8</v>
+        <v>-196</v>
       </c>
       <c r="H48">
-        <v>4.83</v>
+        <v>36.7</v>
       </c>
       <c r="I48">
-        <v>3.35</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B49">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
@@ -2125,19 +2125,48 @@
         <v>70</v>
       </c>
       <c r="E49">
-        <v>32046831</v>
+        <v>16831510</v>
       </c>
       <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>5.46</v>
+      </c>
+      <c r="I49">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>36665399</v>
+      </c>
+      <c r="F50" t="s">
         <v>113</v>
       </c>
-      <c r="G49">
-        <v>92</v>
-      </c>
-      <c r="H49">
-        <v>4.08</v>
-      </c>
-      <c r="I49">
-        <v>5.87</v>
+      <c r="G50">
+        <v>-8</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>5.22</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-23</t>
-  </si>
-  <si>
     <t>2025-07-24</t>
   </si>
   <si>
@@ -73,22 +70,31 @@
     <t>2025-08-05</t>
   </si>
   <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
+  </si>
+  <si>
+    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
+  </si>
+  <si>
+    <t>MANJAR SERVICOS GERAIS SA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
-  </si>
-  <si>
-    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
   </si>
   <si>
     <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
@@ -103,12 +109,6 @@
     <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
   </si>
   <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
     <t>L FERREIRA DA SILVA</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
     <t>SAWEM DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
@@ -142,15 +142,18 @@
     <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
   </si>
   <si>
-    <t>54692772</t>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>54705126</t>
   </si>
   <si>
     <t>54736983</t>
   </si>
   <si>
-    <t>54704921</t>
-  </si>
-  <si>
     <t>54799813</t>
   </si>
   <si>
@@ -160,12 +163,18 @@
     <t>54402873</t>
   </si>
   <si>
+    <t>54973342</t>
+  </si>
+  <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54973922</t>
+  </si>
+  <si>
     <t>54983766</t>
   </si>
   <si>
-    <t>54984053</t>
-  </si>
-  <si>
     <t>54994649</t>
   </si>
   <si>
@@ -175,18 +184,12 @@
     <t>54967812</t>
   </si>
   <si>
-    <t>54973342</t>
-  </si>
-  <si>
-    <t>54973922</t>
+    <t>55029275</t>
   </si>
   <si>
     <t>55052066</t>
   </si>
   <si>
-    <t>55029275</t>
-  </si>
-  <si>
     <t>55056464</t>
   </si>
   <si>
@@ -196,166 +199,184 @@
     <t>55110485</t>
   </si>
   <si>
+    <t>55108816</t>
+  </si>
+  <si>
+    <t>55086189</t>
+  </si>
+  <si>
+    <t>55109869</t>
+  </si>
+  <si>
+    <t>55112082</t>
+  </si>
+  <si>
     <t>55081856</t>
   </si>
   <si>
-    <t>55109869</t>
-  </si>
-  <si>
-    <t>55108816</t>
-  </si>
-  <si>
-    <t>55086189</t>
-  </si>
-  <si>
-    <t>55112082</t>
-  </si>
-  <si>
     <t>55197346</t>
   </si>
   <si>
-    <t>55094820</t>
+    <t>55095582</t>
   </si>
   <si>
     <t>55184583</t>
   </si>
   <si>
+    <t>55095072</t>
+  </si>
+  <si>
+    <t>55095033</t>
+  </si>
+  <si>
     <t>55196954</t>
   </si>
   <si>
-    <t>55095582</t>
-  </si>
-  <si>
     <t>55248840</t>
   </si>
   <si>
     <t>55172306</t>
   </si>
   <si>
+    <t>55307008</t>
+  </si>
+  <si>
+    <t>55318262</t>
+  </si>
+  <si>
+    <t>55306513</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM G 38x58CM</t>
+  </si>
+  <si>
+    <t>LA DE ACO ASSOLAN 45G</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
   </si>
   <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
     <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
   </si>
   <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
-  </si>
-  <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
   </si>
   <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
     <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
     <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
   </si>
   <si>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+  </si>
+  <si>
     <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
   </si>
   <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
   </si>
 </sst>
 </file>
@@ -713,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,33 +774,33 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>32130390</v>
+        <v>20619556</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>10526</v>
+        <v>-5</v>
       </c>
       <c r="H2">
-        <v>21.78</v>
+        <v>13.21</v>
       </c>
       <c r="I2">
-        <v>52.95</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -788,13 +809,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>12097805</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>118</v>
@@ -811,28 +832,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>20619556</v>
+        <v>31186309</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>13.28</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I4">
-        <v>8.800000000000001</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -840,28 +861,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>31186309</v>
+        <v>12846443</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>9.619999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="I5">
-        <v>17.66</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -869,86 +890,86 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>12846443</v>
+        <v>12054191</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>2737</v>
       </c>
       <c r="H6">
-        <v>6.01</v>
+        <v>20.79</v>
       </c>
       <c r="I6">
-        <v>6.38</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>12054191</v>
+        <v>15011531</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>2762</v>
+        <v>559</v>
       </c>
       <c r="H7">
-        <v>20.78</v>
+        <v>21.77</v>
       </c>
       <c r="I7">
-        <v>42.85</v>
+        <v>33.62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>15011531</v>
+        <v>11938367</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>559</v>
+        <v>214</v>
       </c>
       <c r="H8">
-        <v>21.77</v>
+        <v>4.8</v>
       </c>
       <c r="I8">
-        <v>33.62</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -956,135 +977,135 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>11938367</v>
+        <v>16175304</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G9">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>4.82</v>
+        <v>5.94</v>
       </c>
       <c r="I9">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>35118277</v>
+        <v>17541022</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G10">
-        <v>475</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>18.55</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
-        <v>34.37</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>17541022</v>
+        <v>20619556</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>-5</v>
       </c>
       <c r="H11">
-        <v>2.38</v>
+        <v>13.21</v>
       </c>
       <c r="I11">
-        <v>3.9</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>11936523</v>
+        <v>13715128</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>1134</v>
       </c>
       <c r="H12">
-        <v>4.24</v>
+        <v>12.83</v>
       </c>
       <c r="I12">
-        <v>5.19</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>13817289</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <v>643</v>
@@ -1098,216 +1119,216 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>16831898</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>2.35</v>
       </c>
       <c r="I14">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>13715128</v>
+        <v>32130390</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15">
-        <v>1135</v>
+        <v>10098</v>
       </c>
       <c r="H15">
-        <v>12.84</v>
+        <v>22.07</v>
       </c>
       <c r="I15">
-        <v>15.27</v>
+        <v>54.09</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>13034365</v>
+        <v>16871438</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16">
-        <v>115</v>
+        <v>1033</v>
       </c>
       <c r="H16">
-        <v>4.1</v>
+        <v>9.43</v>
       </c>
       <c r="I16">
-        <v>6.7</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17">
-        <v>11936640</v>
+        <v>11936523</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17">
-        <v>2978</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>10.46</v>
+        <v>4.18</v>
       </c>
       <c r="I17">
-        <v>14.63</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>16871438</v>
+        <v>11936640</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18">
-        <v>1052</v>
+        <v>2978</v>
       </c>
       <c r="H18">
-        <v>9.449999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="I18">
-        <v>12.57</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>16175304</v>
+        <v>13034365</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G19">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19">
-        <v>5.95</v>
+        <v>4.41</v>
       </c>
       <c r="I19">
-        <v>6.43</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>32130390</v>
+        <v>35118277</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G20">
-        <v>10526</v>
+        <v>475</v>
       </c>
       <c r="H20">
-        <v>21.78</v>
+        <v>18.55</v>
       </c>
       <c r="I20">
-        <v>52.95</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
@@ -1316,45 +1337,45 @@
         <v>12054191</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G21">
-        <v>2762</v>
+        <v>2737</v>
       </c>
       <c r="H21">
-        <v>20.78</v>
+        <v>20.79</v>
       </c>
       <c r="I21">
-        <v>42.85</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>12054191</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G22">
-        <v>2762</v>
+        <v>2737</v>
       </c>
       <c r="H22">
-        <v>20.78</v>
+        <v>20.79</v>
       </c>
       <c r="I22">
-        <v>42.85</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1362,33 +1383,33 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>20619556</v>
+        <v>13449319</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G23">
-        <v>-5</v>
+        <v>356</v>
       </c>
       <c r="H23">
-        <v>13.28</v>
+        <v>14.38</v>
       </c>
       <c r="I23">
-        <v>8.800000000000001</v>
+        <v>37.97</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -1397,13 +1418,13 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>14413763</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G24">
         <v>87</v>
@@ -1417,94 +1438,94 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>28197686</v>
+        <v>17098035</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G25">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>6.94</v>
+        <v>3.12</v>
       </c>
       <c r="I25">
-        <v>5.97</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>17098035</v>
+        <v>12054191</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>2737</v>
       </c>
       <c r="H26">
-        <v>3.12</v>
+        <v>20.79</v>
       </c>
       <c r="I26">
-        <v>3.9</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>12054191</v>
+        <v>28197686</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G27">
-        <v>2762</v>
+        <v>-5</v>
       </c>
       <c r="H27">
-        <v>20.78</v>
+        <v>6.94</v>
       </c>
       <c r="I27">
-        <v>42.85</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -1513,13 +1534,13 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>12060072</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>150</v>
@@ -1536,91 +1557,91 @@
         <v>15</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>13449319</v>
+        <v>12904510</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G29">
-        <v>361</v>
+        <v>65</v>
       </c>
       <c r="H29">
-        <v>14.46</v>
+        <v>2.59</v>
       </c>
       <c r="I29">
-        <v>38.12</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30">
-        <v>12904510</v>
+        <v>12765515</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G30">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="H30">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I30">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>20651572</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
         <v>16</v>
       </c>
-      <c r="B31">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <v>16871438</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31">
-        <v>1052</v>
-      </c>
       <c r="H31">
-        <v>9.449999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="I31">
-        <v>12.57</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>112</v>
@@ -1629,80 +1650,80 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>13228910</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G32">
         <v>334</v>
       </c>
       <c r="H32">
-        <v>16.56</v>
+        <v>16.6</v>
       </c>
       <c r="I32">
-        <v>28.54</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33">
-        <v>12765515</v>
+        <v>14667825</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G33">
-        <v>197</v>
+        <v>2264</v>
       </c>
       <c r="H33">
-        <v>2.75</v>
+        <v>34.72</v>
       </c>
       <c r="I33">
-        <v>2.43</v>
+        <v>81.31999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>20651572</v>
+        <v>16871438</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>1033</v>
       </c>
       <c r="H34">
-        <v>3.23</v>
+        <v>9.43</v>
       </c>
       <c r="I34">
-        <v>6.15</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1710,347 +1731,347 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35">
-        <v>14667825</v>
+        <v>22571174</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G35">
-        <v>2264</v>
+        <v>598</v>
       </c>
       <c r="H35">
-        <v>34.72</v>
+        <v>18.11</v>
       </c>
       <c r="I35">
-        <v>81.31999999999999</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>22571192</v>
+        <v>12428795</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G36">
-        <v>996</v>
+        <v>134</v>
       </c>
       <c r="H36">
-        <v>19.43</v>
+        <v>15.23</v>
       </c>
       <c r="I36">
-        <v>40.76</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37">
-        <v>22571174</v>
+        <v>22571192</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G37">
-        <v>658</v>
+        <v>896</v>
       </c>
       <c r="H37">
-        <v>17.92</v>
+        <v>19.81</v>
       </c>
       <c r="I37">
-        <v>19.36</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E38">
-        <v>17199336</v>
+        <v>17417338</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G38">
-        <v>1867</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>14.3</v>
+        <v>4.83</v>
       </c>
       <c r="I38">
-        <v>17.39</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E39">
-        <v>12428795</v>
+        <v>19006434</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G39">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="H39">
-        <v>15.23</v>
+        <v>11.58</v>
       </c>
       <c r="I39">
-        <v>21.18</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40">
-        <v>17417338</v>
+        <v>11939645</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H40">
-        <v>4.83</v>
+        <v>4.43</v>
       </c>
       <c r="I40">
-        <v>3.35</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E41">
-        <v>12120701</v>
+        <v>17737776</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G41">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="H41">
-        <v>5.48</v>
+        <v>4.99</v>
       </c>
       <c r="I41">
-        <v>5.73</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>700</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42">
-        <v>12054191</v>
+        <v>32046831</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="G42">
-        <v>2762</v>
+        <v>88</v>
       </c>
       <c r="H42">
-        <v>20.78</v>
+        <v>4.05</v>
       </c>
       <c r="I42">
-        <v>42.85</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>19006434</v>
+        <v>14413867</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G43">
-        <v>646</v>
+        <v>177</v>
       </c>
       <c r="H43">
-        <v>10.29</v>
+        <v>4.44</v>
       </c>
       <c r="I43">
-        <v>15.36</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E44">
-        <v>32046831</v>
+        <v>12120701</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="H44">
-        <v>4.07</v>
+        <v>5.46</v>
       </c>
       <c r="I44">
-        <v>5.86</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>17737776</v>
+        <v>12054191</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="G45">
-        <v>135</v>
+        <v>2737</v>
       </c>
       <c r="H45">
-        <v>5.02</v>
+        <v>20.79</v>
       </c>
       <c r="I45">
-        <v>10.97</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>11939645</v>
+        <v>17199336</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G46">
-        <v>61</v>
+        <v>1842</v>
       </c>
       <c r="H46">
-        <v>4.43</v>
+        <v>14.26</v>
       </c>
       <c r="I46">
-        <v>4.97</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2058,62 +2079,62 @@
         <v>17</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E47">
-        <v>14413867</v>
+        <v>20017789</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G47">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>4.46</v>
+        <v>36.7</v>
       </c>
       <c r="I47">
-        <v>8.630000000000001</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E48">
-        <v>20017789</v>
+        <v>36665399</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G48">
-        <v>-196</v>
+        <v>-8</v>
       </c>
       <c r="H48">
-        <v>36.7</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>45.03</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -2122,13 +2143,13 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49">
         <v>16831510</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G49">
         <v>23</v>
@@ -2145,28 +2166,144 @@
         <v>18</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <v>36665399</v>
+        <v>32130390</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G50">
-        <v>-8</v>
+        <v>10098</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>22.07</v>
       </c>
       <c r="I50">
-        <v>5.22</v>
+        <v>54.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51">
+        <v>30240035</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51">
+        <v>64</v>
+      </c>
+      <c r="H51">
+        <v>15.3</v>
+      </c>
+      <c r="I51">
+        <v>17.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
+        <v>31167530</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52">
+        <v>13</v>
+      </c>
+      <c r="H52">
+        <v>3.39</v>
+      </c>
+      <c r="I52">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53">
+        <v>13034365</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53">
+        <v>57</v>
+      </c>
+      <c r="H53">
+        <v>4.41</v>
+      </c>
+      <c r="I53">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>19006434</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54">
+        <v>411</v>
+      </c>
+      <c r="H54">
+        <v>11.58</v>
+      </c>
+      <c r="I54">
+        <v>21.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="118">
   <si>
     <t>data</t>
   </si>
@@ -43,12 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
     <t>2025-07-28</t>
   </si>
   <si>
@@ -73,13 +67,7 @@
     <t>2025-08-06</t>
   </si>
   <si>
-    <t>MUNDY SERVIS LIMPEZAS PREDIAIS LTDA</t>
-  </si>
-  <si>
-    <t>SUPER G - TRANSPORTE E LOCACAO DE EQUIPAMENTOS INDUSTRIAIS L</t>
-  </si>
-  <si>
-    <t>MANJAR SERVICOS GERAIS SA</t>
+    <t>2025-08-07</t>
   </si>
   <si>
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
@@ -88,27 +76,27 @@
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
     <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
     <t>L FERREIRA DA SILVA</t>
   </si>
   <si>
@@ -118,6 +106,9 @@
     <t>L T MARTINS LTDA</t>
   </si>
   <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
@@ -127,34 +118,28 @@
     <t>B.P DISTRIBUIDORA LTDA</t>
   </si>
   <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
     <t>ZARAPLAST DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
   </si>
   <si>
+    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>54705126</t>
-  </si>
-  <si>
-    <t>54736983</t>
-  </si>
-  <si>
-    <t>54799813</t>
+    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
     <t>54864525</t>
@@ -163,37 +148,40 @@
     <t>54402873</t>
   </si>
   <si>
+    <t>54983766</t>
+  </si>
+  <si>
+    <t>54973922</t>
+  </si>
+  <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54967812</t>
+  </si>
+  <si>
+    <t>54973325</t>
+  </si>
+  <si>
+    <t>54994649</t>
+  </si>
+  <si>
     <t>54973342</t>
   </si>
   <si>
-    <t>54984053</t>
-  </si>
-  <si>
-    <t>54973922</t>
-  </si>
-  <si>
-    <t>54983766</t>
-  </si>
-  <si>
-    <t>54994649</t>
-  </si>
-  <si>
-    <t>54973325</t>
-  </si>
-  <si>
-    <t>54967812</t>
+    <t>55052066</t>
   </si>
   <si>
     <t>55029275</t>
   </si>
   <si>
-    <t>55052066</t>
-  </si>
-  <si>
     <t>55056464</t>
   </si>
   <si>
-    <t>55029796</t>
+    <t>55027598</t>
+  </si>
+  <si>
+    <t>55081856</t>
   </si>
   <si>
     <t>55110485</t>
@@ -202,28 +190,22 @@
     <t>55108816</t>
   </si>
   <si>
+    <t>55109869</t>
+  </si>
+  <si>
     <t>55086189</t>
   </si>
   <si>
-    <t>55109869</t>
-  </si>
-  <si>
     <t>55112082</t>
   </si>
   <si>
-    <t>55081856</t>
+    <t>55095582</t>
   </si>
   <si>
     <t>55197346</t>
   </si>
   <si>
-    <t>55095582</t>
-  </si>
-  <si>
-    <t>55184583</t>
-  </si>
-  <si>
-    <t>55095072</t>
+    <t>55094820</t>
   </si>
   <si>
     <t>55095033</t>
@@ -238,132 +220,132 @@
     <t>55172306</t>
   </si>
   <si>
+    <t>55225885</t>
+  </si>
+  <si>
     <t>55307008</t>
   </si>
   <si>
+    <t>55306513</t>
+  </si>
+  <si>
     <t>55318262</t>
   </si>
   <si>
-    <t>55306513</t>
+    <t>55370368</t>
+  </si>
+  <si>
+    <t>54928134</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL COCO 500ML</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM G 38x58CM</t>
-  </si>
-  <si>
-    <t>LA DE ACO ASSOLAN 45G</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
   </si>
   <si>
     <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
     <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
+    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
+  </si>
+  <si>
+    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
+  </si>
+  <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
     <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
-  </si>
-  <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
-    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
   </si>
   <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
     <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
     <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
     <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
     <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
   </si>
   <si>
@@ -373,10 +355,19 @@
     <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
   </si>
   <si>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
   </si>
 </sst>
 </file>
@@ -777,54 +768,54 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>20619556</v>
+        <v>12846443</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>-5</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>13.21</v>
+        <v>6.07</v>
       </c>
       <c r="I2">
-        <v>8.82</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>12097805</v>
+        <v>15011531</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>531</v>
       </c>
       <c r="H3">
-        <v>15.8</v>
+        <v>21.83</v>
       </c>
       <c r="I3">
-        <v>13.69</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -832,1478 +823,1478 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>31186309</v>
+        <v>12054191</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>2588</v>
       </c>
       <c r="H4">
-        <v>9.619999999999999</v>
+        <v>20.41</v>
       </c>
       <c r="I4">
-        <v>17.66</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>12846443</v>
+        <v>11938367</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="H5">
-        <v>6.01</v>
+        <v>4.83</v>
       </c>
       <c r="I5">
-        <v>6.39</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>12054191</v>
+        <v>35118277</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>2737</v>
+        <v>467</v>
       </c>
       <c r="H6">
-        <v>20.79</v>
+        <v>18.4</v>
       </c>
       <c r="I6">
-        <v>42.86</v>
+        <v>34.22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>15011531</v>
+        <v>20619556</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>559</v>
+        <v>55</v>
       </c>
       <c r="H7">
-        <v>21.77</v>
+        <v>13.21</v>
       </c>
       <c r="I7">
-        <v>33.62</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>11938367</v>
+        <v>17541022</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>4.8</v>
+        <v>2.34</v>
       </c>
       <c r="I8">
-        <v>6.39</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>16175304</v>
+        <v>11936523</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>5.94</v>
+        <v>4.16</v>
       </c>
       <c r="I9">
-        <v>6.41</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>17541022</v>
+        <v>16871438</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>963</v>
       </c>
       <c r="H10">
-        <v>2.38</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I10">
-        <v>3.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>20619556</v>
+        <v>11936640</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G11">
-        <v>-5</v>
+        <v>2835</v>
       </c>
       <c r="H11">
-        <v>13.21</v>
+        <v>10.44</v>
       </c>
       <c r="I11">
-        <v>8.82</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>13715128</v>
+        <v>13034365</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12">
-        <v>1134</v>
+        <v>53</v>
       </c>
       <c r="H12">
-        <v>12.83</v>
+        <v>4.37</v>
       </c>
       <c r="I12">
-        <v>15.28</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>13817289</v>
+        <v>32130390</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>643</v>
+        <v>9946</v>
       </c>
       <c r="H13">
-        <v>23.42</v>
+        <v>21.93</v>
       </c>
       <c r="I13">
-        <v>37.45</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>16831898</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="I14">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
-        <v>32130390</v>
+        <v>13817289</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15">
-        <v>10098</v>
+        <v>628</v>
       </c>
       <c r="H15">
-        <v>22.07</v>
+        <v>23.14</v>
       </c>
       <c r="I15">
-        <v>54.09</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>16871438</v>
+        <v>16175304</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>1033</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>9.43</v>
+        <v>5.96</v>
       </c>
       <c r="I16">
-        <v>12.54</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17">
-        <v>11936523</v>
+        <v>12054191</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G17">
-        <v>32</v>
+        <v>2588</v>
       </c>
       <c r="H17">
-        <v>4.18</v>
+        <v>20.41</v>
       </c>
       <c r="I17">
-        <v>5.14</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>11936640</v>
+        <v>12054191</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G18">
-        <v>2978</v>
+        <v>2588</v>
       </c>
       <c r="H18">
-        <v>10.44</v>
+        <v>20.41</v>
       </c>
       <c r="I18">
-        <v>14.63</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19">
-        <v>13034365</v>
+        <v>13715128</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G19">
-        <v>57</v>
+        <v>1114</v>
       </c>
       <c r="H19">
-        <v>4.41</v>
+        <v>12.8</v>
       </c>
       <c r="I19">
-        <v>7.57</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>35118277</v>
+        <v>14413763</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>475</v>
+        <v>66</v>
       </c>
       <c r="H20">
-        <v>18.55</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I20">
-        <v>34.37</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>12054191</v>
+        <v>28197686</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>2737</v>
+        <v>-10</v>
       </c>
       <c r="H21">
-        <v>20.79</v>
+        <v>6.71</v>
       </c>
       <c r="I21">
-        <v>42.86</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>12054191</v>
+        <v>17098035</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G22">
-        <v>2737</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>20.79</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>42.86</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>13449319</v>
+        <v>12054191</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G23">
-        <v>356</v>
+        <v>2588</v>
       </c>
       <c r="H23">
-        <v>14.38</v>
+        <v>20.41</v>
       </c>
       <c r="I23">
-        <v>37.97</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>14413763</v>
+        <v>12060072</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H24">
-        <v>8.27</v>
+        <v>8.35</v>
       </c>
       <c r="I24">
-        <v>7.36</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>17098035</v>
+        <v>13449319</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="H25">
-        <v>3.12</v>
+        <v>14.49</v>
       </c>
       <c r="I25">
-        <v>3.9</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>12054191</v>
+        <v>16871438</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>2737</v>
+        <v>963</v>
       </c>
       <c r="H26">
-        <v>20.79</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I26">
-        <v>42.86</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
       </c>
       <c r="E27">
-        <v>28197686</v>
+        <v>12904510</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G27">
-        <v>-5</v>
+        <v>64</v>
       </c>
       <c r="H27">
-        <v>6.94</v>
+        <v>2.59</v>
       </c>
       <c r="I27">
-        <v>5.97</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
         <v>14</v>
-      </c>
-      <c r="B28">
-        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <v>12060072</v>
+        <v>12765515</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="H28">
-        <v>8.539999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>12904510</v>
+        <v>13228910</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G29">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="H29">
-        <v>2.59</v>
+        <v>16.55</v>
       </c>
       <c r="I29">
-        <v>2.33</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>12765515</v>
+        <v>20651572</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>2.76</v>
+        <v>3.23</v>
       </c>
       <c r="I30">
-        <v>2.43</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>20651572</v>
+        <v>14667825</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>2229</v>
       </c>
       <c r="H31">
-        <v>3.23</v>
+        <v>33.62</v>
       </c>
       <c r="I31">
-        <v>6.15</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>13228910</v>
+        <v>11939645</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G32">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="H32">
-        <v>16.6</v>
+        <v>4.41</v>
       </c>
       <c r="I32">
-        <v>28.59</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E33">
-        <v>14667825</v>
+        <v>12120701</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33">
-        <v>2264</v>
+        <v>171</v>
       </c>
       <c r="H33">
-        <v>34.72</v>
+        <v>5.4</v>
       </c>
       <c r="I33">
-        <v>81.31999999999999</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>12428795</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34">
+        <v>132</v>
+      </c>
+      <c r="H34">
         <v>15</v>
       </c>
-      <c r="B34">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34">
-        <v>16871438</v>
-      </c>
-      <c r="F34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34">
-        <v>1033</v>
-      </c>
-      <c r="H34">
-        <v>9.43</v>
-      </c>
       <c r="I34">
-        <v>12.54</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>22571174</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G35">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H35">
-        <v>18.11</v>
+        <v>18.01</v>
       </c>
       <c r="I35">
-        <v>19.64</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>12428795</v>
+        <v>17199336</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G36">
-        <v>134</v>
+        <v>1807</v>
       </c>
       <c r="H36">
-        <v>15.23</v>
+        <v>13.92</v>
       </c>
       <c r="I36">
-        <v>21.18</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>22571192</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="H37">
-        <v>19.81</v>
+        <v>19.67</v>
       </c>
       <c r="I37">
-        <v>41.27</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>17417338</v>
+        <v>32046831</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H38">
-        <v>4.83</v>
+        <v>4.05</v>
       </c>
       <c r="I38">
-        <v>3.35</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E39">
-        <v>19006434</v>
+        <v>14413867</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39">
-        <v>411</v>
+        <v>172</v>
       </c>
       <c r="H39">
-        <v>11.58</v>
+        <v>4.46</v>
       </c>
       <c r="I39">
-        <v>21.45</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>11939645</v>
+        <v>17737776</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="H40">
-        <v>4.43</v>
+        <v>5.01</v>
       </c>
       <c r="I40">
-        <v>4.98</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>17737776</v>
+        <v>12054191</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="G41">
-        <v>131</v>
+        <v>2588</v>
       </c>
       <c r="H41">
-        <v>4.99</v>
+        <v>20.41</v>
       </c>
       <c r="I41">
-        <v>10.94</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E42">
-        <v>32046831</v>
+        <v>19006434</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G42">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="H42">
-        <v>4.05</v>
+        <v>11.48</v>
       </c>
       <c r="I42">
-        <v>5.86</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E43">
-        <v>14413867</v>
+        <v>20017789</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G43">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>4.44</v>
+        <v>36.7</v>
       </c>
       <c r="I43">
-        <v>8.619999999999999</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>36665399</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44">
         <v>38</v>
       </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44">
-        <v>12120701</v>
-      </c>
-      <c r="F44" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44">
-        <v>196</v>
-      </c>
       <c r="H44">
-        <v>5.46</v>
+        <v>3.87</v>
       </c>
       <c r="I44">
-        <v>5.73</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>700</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E45">
-        <v>12054191</v>
+        <v>16831510</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G45">
-        <v>2737</v>
+        <v>23</v>
       </c>
       <c r="H45">
-        <v>20.79</v>
+        <v>5.46</v>
       </c>
       <c r="I45">
-        <v>42.86</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E46">
-        <v>17199336</v>
+        <v>14413763</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G46">
-        <v>1842</v>
+        <v>66</v>
       </c>
       <c r="H46">
-        <v>14.26</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I46">
-        <v>17.37</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E47">
-        <v>20017789</v>
+        <v>13034365</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H47">
-        <v>36.7</v>
+        <v>4.37</v>
       </c>
       <c r="I47">
-        <v>45.03</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E48">
-        <v>36665399</v>
+        <v>31167530</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G48">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>3.43</v>
       </c>
       <c r="I48">
-        <v>5.22</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E49">
-        <v>16831510</v>
+        <v>19006434</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G49">
-        <v>23</v>
+        <v>393</v>
       </c>
       <c r="H49">
-        <v>5.46</v>
+        <v>11.48</v>
       </c>
       <c r="I49">
-        <v>5.49</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E50">
-        <v>32130390</v>
+        <v>30240035</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G50">
-        <v>10098</v>
+        <v>64</v>
       </c>
       <c r="H50">
-        <v>22.07</v>
+        <v>15.3</v>
       </c>
       <c r="I50">
-        <v>54.09</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E51">
-        <v>30240035</v>
+        <v>32130390</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="G51">
-        <v>64</v>
+        <v>9946</v>
       </c>
       <c r="H51">
-        <v>15.3</v>
+        <v>21.93</v>
       </c>
       <c r="I51">
-        <v>17.69</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>11912991</v>
+      </c>
+      <c r="F52" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52">
         <v>30</v>
       </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52">
-        <v>31167530</v>
-      </c>
-      <c r="F52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52">
-        <v>13</v>
-      </c>
       <c r="H52">
-        <v>3.39</v>
+        <v>6.15</v>
       </c>
       <c r="I52">
-        <v>5.24</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53">
-        <v>13034365</v>
+        <v>18200976</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G53">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="H53">
-        <v>4.41</v>
+        <v>5.84</v>
       </c>
       <c r="I53">
-        <v>7.57</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E54">
-        <v>19006434</v>
+        <v>14413482</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G54">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="H54">
-        <v>11.58</v>
+        <v>13.15</v>
       </c>
       <c r="I54">
-        <v>21.45</v>
+        <v>13.66</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
     <t>2025-07-29</t>
   </si>
   <si>
@@ -70,66 +67,69 @@
     <t>2025-08-07</t>
   </si>
   <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
+  </si>
+  <si>
+    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO DE MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
+  </si>
+  <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>L FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>L FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
   </si>
   <si>
     <t>ZARAPLAST DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
-  </si>
-  <si>
-    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
-  </si>
-  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
@@ -142,93 +142,90 @@
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>54864525</t>
-  </si>
-  <si>
     <t>54402873</t>
   </si>
   <si>
+    <t>54984053</t>
+  </si>
+  <si>
+    <t>54973922</t>
+  </si>
+  <si>
     <t>54983766</t>
   </si>
   <si>
-    <t>54973922</t>
-  </si>
-  <si>
-    <t>54984053</t>
+    <t>54994649</t>
+  </si>
+  <si>
+    <t>54973325</t>
+  </si>
+  <si>
+    <t>54973342</t>
   </si>
   <si>
     <t>54967812</t>
   </si>
   <si>
-    <t>54973325</t>
-  </si>
-  <si>
-    <t>54994649</t>
-  </si>
-  <si>
-    <t>54973342</t>
+    <t>55056464</t>
+  </si>
+  <si>
+    <t>55029275</t>
   </si>
   <si>
     <t>55052066</t>
   </si>
   <si>
-    <t>55029275</t>
-  </si>
-  <si>
-    <t>55056464</t>
-  </si>
-  <si>
-    <t>55027598</t>
+    <t>55029796</t>
+  </si>
+  <si>
+    <t>55108816</t>
+  </si>
+  <si>
+    <t>55110485</t>
+  </si>
+  <si>
+    <t>55086189</t>
+  </si>
+  <si>
+    <t>55112082</t>
+  </si>
+  <si>
+    <t>55109869</t>
   </si>
   <si>
     <t>55081856</t>
   </si>
   <si>
-    <t>55110485</t>
-  </si>
-  <si>
-    <t>55108816</t>
-  </si>
-  <si>
-    <t>55109869</t>
-  </si>
-  <si>
-    <t>55086189</t>
-  </si>
-  <si>
-    <t>55112082</t>
-  </si>
-  <si>
-    <t>55095582</t>
+    <t>55104593</t>
+  </si>
+  <si>
+    <t>55095072</t>
+  </si>
+  <si>
+    <t>55196954</t>
   </si>
   <si>
     <t>55197346</t>
   </si>
   <si>
-    <t>55094820</t>
-  </si>
-  <si>
-    <t>55095033</t>
-  </si>
-  <si>
-    <t>55196954</t>
+    <t>55105668</t>
+  </si>
+  <si>
+    <t>55225885</t>
+  </si>
+  <si>
+    <t>55172306</t>
   </si>
   <si>
     <t>55248840</t>
   </si>
   <si>
-    <t>55172306</t>
-  </si>
-  <si>
-    <t>55225885</t>
+    <t>55306513</t>
   </si>
   <si>
     <t>55307008</t>
   </si>
   <si>
-    <t>55306513</t>
-  </si>
-  <si>
     <t>55318262</t>
   </si>
   <si>
@@ -238,7 +235,10 @@
     <t>54928134</t>
   </si>
   <si>
-    <t>COPO DESCARTAVEL 180ML COPOBRAS BRANCO PCT C/100 UND</t>
+    <t>55522107</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
   </si>
   <si>
     <t>DETERGENTE LIMPOL COCO 500ML</t>
@@ -247,43 +247,46 @@
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
+  </si>
+  <si>
+    <t>ESPANADOR DE TETO C/2 CABOS</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
     <t>SABAO EM PO ABSOLUTO 400G</t>
   </si>
   <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
     <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
   </si>
   <si>
     <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
@@ -292,28 +295,34 @@
     <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
   </si>
   <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
     <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
   </si>
   <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
   </si>
   <si>
     <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
   </si>
   <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
   </si>
   <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
     <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
@@ -322,39 +331,27 @@
     <t>SABAO EM BARRA NAZARE 1KG</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
     <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+  </si>
+  <si>
     <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
   </si>
   <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
-  </si>
-  <si>
     <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
   </si>
   <si>
@@ -364,10 +361,13 @@
     <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
   </si>
   <si>
+    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
+  </si>
+  <si>
     <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -774,33 +774,33 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>12846443</v>
+        <v>11938367</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="H2">
-        <v>6.07</v>
+        <v>4.83</v>
       </c>
       <c r="I2">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>15011531</v>
@@ -809,27 +809,27 @@
         <v>75</v>
       </c>
       <c r="G3">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H3">
-        <v>21.83</v>
+        <v>21.66</v>
       </c>
       <c r="I3">
-        <v>33.42</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>12054191</v>
@@ -838,13 +838,13 @@
         <v>76</v>
       </c>
       <c r="G4">
-        <v>2588</v>
+        <v>2402</v>
       </c>
       <c r="H4">
-        <v>20.41</v>
+        <v>20.5</v>
       </c>
       <c r="I4">
-        <v>41.98</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -861,27 +861,27 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>11938367</v>
+        <v>17541022</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
       </c>
       <c r="G5">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>4.83</v>
+        <v>2.34</v>
       </c>
       <c r="I5">
-        <v>6.42</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -890,352 +890,352 @@
         <v>44</v>
       </c>
       <c r="E6">
-        <v>35118277</v>
+        <v>20619556</v>
       </c>
       <c r="F6" t="s">
         <v>78</v>
       </c>
       <c r="G6">
-        <v>467</v>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>18.4</v>
+        <v>13.21</v>
       </c>
       <c r="I6">
-        <v>34.22</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>20619556</v>
+        <v>13034365</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7">
-        <v>13.21</v>
+        <v>4.22</v>
       </c>
       <c r="I7">
-        <v>8.82</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>17541022</v>
+        <v>13715128</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>1066</v>
       </c>
       <c r="H8">
-        <v>2.34</v>
+        <v>13.02</v>
       </c>
       <c r="I8">
-        <v>3.85</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>11936523</v>
+        <v>13817289</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>618</v>
       </c>
       <c r="H9">
-        <v>4.16</v>
+        <v>23.1</v>
       </c>
       <c r="I9">
-        <v>5.13</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10">
-        <v>16871438</v>
+        <v>16831898</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
       </c>
       <c r="G10">
-        <v>963</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>9.529999999999999</v>
+        <v>2.31</v>
       </c>
       <c r="I10">
-        <v>12.6</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>11936640</v>
+        <v>11936523</v>
       </c>
       <c r="F11" t="s">
         <v>83</v>
       </c>
       <c r="G11">
-        <v>2835</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>10.44</v>
+        <v>4.16</v>
       </c>
       <c r="I11">
-        <v>14.59</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>13034365</v>
+        <v>16175304</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
       </c>
       <c r="G12">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>4.37</v>
+        <v>5.96</v>
       </c>
       <c r="I12">
-        <v>7.53</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>32130390</v>
+        <v>12054191</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13">
-        <v>9946</v>
+        <v>2402</v>
       </c>
       <c r="H13">
-        <v>21.93</v>
+        <v>20.5</v>
       </c>
       <c r="I13">
-        <v>53.81</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>16831898</v>
+        <v>11936640</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>2715</v>
       </c>
       <c r="H14">
-        <v>2.34</v>
+        <v>10.61</v>
       </c>
       <c r="I14">
-        <v>1.65</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>13817289</v>
+        <v>35118277</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>628</v>
+        <v>467</v>
       </c>
       <c r="H15">
-        <v>23.14</v>
+        <v>18.4</v>
       </c>
       <c r="I15">
-        <v>37.19</v>
+        <v>34.22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>16175304</v>
+        <v>16871438</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16">
-        <v>45</v>
+        <v>963</v>
       </c>
       <c r="H16">
-        <v>5.96</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I16">
-        <v>6.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>12054191</v>
+        <v>32130390</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G17">
-        <v>2588</v>
+        <v>9861</v>
       </c>
       <c r="H17">
-        <v>20.41</v>
+        <v>21.97</v>
       </c>
       <c r="I17">
-        <v>41.98</v>
+        <v>53.82</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>12054191</v>
@@ -1244,13 +1244,13 @@
         <v>76</v>
       </c>
       <c r="G18">
-        <v>2588</v>
+        <v>2402</v>
       </c>
       <c r="H18">
-        <v>20.41</v>
+        <v>20.5</v>
       </c>
       <c r="I18">
-        <v>41.98</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1258,152 +1258,152 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>13715128</v>
+        <v>17098035</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
       </c>
       <c r="G19">
-        <v>1114</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>15.23</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
       <c r="E20">
-        <v>14413763</v>
+        <v>13449319</v>
       </c>
       <c r="F20" t="s">
         <v>90</v>
       </c>
       <c r="G20">
-        <v>66</v>
+        <v>356</v>
       </c>
       <c r="H20">
-        <v>8.210000000000001</v>
+        <v>14.27</v>
       </c>
       <c r="I20">
-        <v>7.23</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>28197686</v>
+        <v>14413763</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
       </c>
       <c r="G21">
-        <v>-10</v>
+        <v>66</v>
       </c>
       <c r="H21">
-        <v>6.71</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I21">
-        <v>5.9</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>17098035</v>
+        <v>28197686</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.1</v>
+        <v>6.71</v>
       </c>
       <c r="I22">
-        <v>3.89</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>12054191</v>
+        <v>12060072</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G23">
-        <v>2588</v>
+        <v>102</v>
       </c>
       <c r="H23">
-        <v>20.41</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I23">
-        <v>41.98</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -1412,19 +1412,19 @@
         <v>53</v>
       </c>
       <c r="E24">
-        <v>12060072</v>
+        <v>12054191</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G24">
-        <v>109</v>
+        <v>2402</v>
       </c>
       <c r="H24">
-        <v>8.35</v>
+        <v>20.5</v>
       </c>
       <c r="I24">
-        <v>11.84</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1432,36 +1432,36 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>13449319</v>
+        <v>12765515</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25">
-        <v>356</v>
+        <v>192</v>
       </c>
       <c r="H25">
-        <v>14.49</v>
+        <v>2.76</v>
       </c>
       <c r="I25">
-        <v>38.12</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -1470,27 +1470,27 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <v>16871438</v>
+        <v>12904510</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G26">
-        <v>963</v>
+        <v>64</v>
       </c>
       <c r="H26">
-        <v>9.529999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="I26">
-        <v>12.6</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1499,59 +1499,59 @@
         <v>56</v>
       </c>
       <c r="E27">
-        <v>12904510</v>
+        <v>20651572</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>2.59</v>
+        <v>3.19</v>
       </c>
       <c r="I27">
-        <v>2.33</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28">
-        <v>12765515</v>
+        <v>14667825</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28">
-        <v>192</v>
+        <v>2229</v>
       </c>
       <c r="H28">
-        <v>2.76</v>
+        <v>33.62</v>
       </c>
       <c r="I28">
-        <v>2.43</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -1560,45 +1560,45 @@
         <v>13228910</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H29">
-        <v>16.55</v>
+        <v>16.49</v>
       </c>
       <c r="I29">
-        <v>28.42</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
       </c>
       <c r="E30">
-        <v>20651572</v>
+        <v>16871438</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>963</v>
       </c>
       <c r="H30">
-        <v>3.23</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I30">
-        <v>6.15</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1606,213 +1606,213 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31">
-        <v>14667825</v>
+        <v>12428795</v>
       </c>
       <c r="F31" t="s">
         <v>99</v>
       </c>
       <c r="G31">
-        <v>2229</v>
+        <v>132</v>
       </c>
       <c r="H31">
-        <v>33.62</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>80.06</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
       </c>
       <c r="E32">
-        <v>11939645</v>
+        <v>17199336</v>
       </c>
       <c r="F32" t="s">
         <v>100</v>
       </c>
       <c r="G32">
-        <v>55</v>
+        <v>1703</v>
       </c>
       <c r="H32">
-        <v>4.41</v>
+        <v>13.9</v>
       </c>
       <c r="I32">
-        <v>4.97</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>12120701</v>
+        <v>12054191</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G33">
-        <v>171</v>
+        <v>2402</v>
       </c>
       <c r="H33">
-        <v>5.4</v>
+        <v>20.5</v>
       </c>
       <c r="I33">
-        <v>5.68</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>12428795</v>
+        <v>22571174</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34">
-        <v>132</v>
+        <v>594</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>18.01</v>
       </c>
       <c r="I34">
-        <v>21.06</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35">
-        <v>22571174</v>
+        <v>14413867</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35">
-        <v>594</v>
+        <v>172</v>
       </c>
       <c r="H35">
-        <v>18.01</v>
+        <v>4.46</v>
       </c>
       <c r="I35">
-        <v>19.61</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>17199336</v>
+        <v>11939645</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36">
-        <v>1807</v>
+        <v>55</v>
       </c>
       <c r="H36">
-        <v>13.92</v>
+        <v>4.41</v>
       </c>
       <c r="I36">
-        <v>17.27</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>22571192</v>
+        <v>12120701</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37">
-        <v>881</v>
+        <v>151</v>
       </c>
       <c r="H37">
-        <v>19.67</v>
+        <v>5.45</v>
       </c>
       <c r="I37">
-        <v>41.07</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>64</v>
@@ -1821,103 +1821,103 @@
         <v>32046831</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H38">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="I38">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E39">
-        <v>14413867</v>
+        <v>17737776</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="H39">
-        <v>4.46</v>
+        <v>5.01</v>
       </c>
       <c r="I39">
-        <v>8.630000000000001</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40">
-        <v>17737776</v>
+        <v>22571192</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G40">
-        <v>119</v>
+        <v>881</v>
       </c>
       <c r="H40">
-        <v>5.01</v>
+        <v>19.67</v>
       </c>
       <c r="I40">
-        <v>10.94</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>700</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>12054191</v>
+        <v>19006434</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G41">
-        <v>2588</v>
+        <v>393</v>
       </c>
       <c r="H41">
-        <v>20.41</v>
+        <v>11.48</v>
       </c>
       <c r="I41">
-        <v>41.98</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1925,115 +1925,115 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>19006434</v>
+        <v>14413763</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G42">
-        <v>393</v>
+        <v>66</v>
       </c>
       <c r="H42">
-        <v>11.48</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I42">
-        <v>21.27</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
       </c>
       <c r="E43">
-        <v>20017789</v>
+        <v>36665399</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>36.7</v>
+        <v>3.87</v>
       </c>
       <c r="I43">
-        <v>45.03</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
         <v>67</v>
       </c>
       <c r="E44">
-        <v>36665399</v>
+        <v>16831510</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G44">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H44">
-        <v>3.87</v>
+        <v>5.2</v>
       </c>
       <c r="I44">
-        <v>5.05</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>16831510</v>
+        <v>20017789</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G45">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>5.46</v>
+        <v>36.7</v>
       </c>
       <c r="I45">
-        <v>5.49</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2041,39 +2041,39 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
         <v>68</v>
       </c>
       <c r="E46">
-        <v>14413763</v>
+        <v>19006434</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G46">
-        <v>66</v>
+        <v>393</v>
       </c>
       <c r="H46">
-        <v>8.210000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="I46">
-        <v>7.23</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -2082,27 +2082,27 @@
         <v>13034365</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G47">
         <v>53</v>
       </c>
       <c r="H47">
-        <v>4.37</v>
+        <v>4.22</v>
       </c>
       <c r="I47">
-        <v>7.53</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
@@ -2111,50 +2111,50 @@
         <v>31167530</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="I48">
-        <v>5.32</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>19006434</v>
+        <v>32130390</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G49">
-        <v>393</v>
+        <v>9861</v>
       </c>
       <c r="H49">
-        <v>11.48</v>
+        <v>21.97</v>
       </c>
       <c r="I49">
-        <v>21.27</v>
+        <v>53.82</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>80</v>
@@ -2163,13 +2163,13 @@
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50">
         <v>30240035</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50">
         <v>64</v>
@@ -2186,62 +2186,62 @@
         <v>16</v>
       </c>
       <c r="B51">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E51">
-        <v>32130390</v>
+        <v>11912991</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G51">
-        <v>9946</v>
+        <v>15</v>
       </c>
       <c r="H51">
-        <v>21.93</v>
+        <v>6.25</v>
       </c>
       <c r="I51">
-        <v>53.81</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
         <v>72</v>
       </c>
       <c r="E52">
-        <v>11912991</v>
+        <v>14413482</v>
       </c>
       <c r="F52" t="s">
         <v>115</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H52">
-        <v>6.15</v>
+        <v>13.46</v>
       </c>
       <c r="I52">
-        <v>10.2</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>27</v>
@@ -2250,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53">
         <v>18200976</v>
@@ -2259,13 +2259,13 @@
         <v>116</v>
       </c>
       <c r="G53">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H53">
-        <v>5.84</v>
+        <v>5.8</v>
       </c>
       <c r="I53">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2273,28 +2273,28 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>1060</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
         <v>73</v>
       </c>
       <c r="E54">
-        <v>14413482</v>
+        <v>32870371</v>
       </c>
       <c r="F54" t="s">
         <v>117</v>
       </c>
       <c r="G54">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="H54">
-        <v>13.15</v>
+        <v>39.33</v>
       </c>
       <c r="I54">
-        <v>13.66</v>
+        <v>141.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>data</t>
   </si>
@@ -43,12 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
     <t>2025-07-31</t>
   </si>
   <si>
@@ -70,117 +64,108 @@
     <t>2025-08-11</t>
   </si>
   <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>L FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>L T MARTINS LTDA</t>
+  </si>
+  <si>
     <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
   </si>
   <si>
+    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>POTENCIAL HUMANO RECRUTAMENTO E SELECAO LTDA</t>
-  </si>
-  <si>
-    <t>MAP SERVICOS DE CONSERVACAO - EIRELI</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO DE MOVEIS LTDA</t>
-  </si>
-  <si>
-    <t>IJP COMERCIO VAREJISTA DE MATERIAIS DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>MM DA AMAZONIA INDUSTRIA E COMERCIO DE PLASTICOS LTDA.</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>L FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
-  </si>
-  <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
-  </si>
-  <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
     <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>54402873</t>
-  </si>
-  <si>
-    <t>54984053</t>
-  </si>
-  <si>
-    <t>54973922</t>
-  </si>
-  <si>
-    <t>54983766</t>
-  </si>
-  <si>
-    <t>54994649</t>
-  </si>
-  <si>
-    <t>54973325</t>
-  </si>
-  <si>
-    <t>54973342</t>
-  </si>
-  <si>
-    <t>54967812</t>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONIA FORMULA LTDA</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>55052066</t>
+  </si>
+  <si>
+    <t>55027598</t>
+  </si>
+  <si>
+    <t>55029275</t>
   </si>
   <si>
     <t>55056464</t>
   </si>
   <si>
-    <t>55029275</t>
-  </si>
-  <si>
-    <t>55052066</t>
-  </si>
-  <si>
-    <t>55029796</t>
+    <t>55109869</t>
   </si>
   <si>
     <t>55108816</t>
   </si>
   <si>
+    <t>55081856</t>
+  </si>
+  <si>
     <t>55110485</t>
   </si>
   <si>
@@ -190,25 +175,25 @@
     <t>55112082</t>
   </si>
   <si>
-    <t>55109869</t>
-  </si>
-  <si>
-    <t>55081856</t>
-  </si>
-  <si>
-    <t>55104593</t>
-  </si>
-  <si>
-    <t>55095072</t>
+    <t>55197346</t>
   </si>
   <si>
     <t>55196954</t>
   </si>
   <si>
-    <t>55197346</t>
-  </si>
-  <si>
-    <t>55105668</t>
+    <t>55094820</t>
+  </si>
+  <si>
+    <t>55095033</t>
+  </si>
+  <si>
+    <t>55184583</t>
+  </si>
+  <si>
+    <t>55100163</t>
+  </si>
+  <si>
+    <t>55248840</t>
   </si>
   <si>
     <t>55225885</t>
@@ -217,157 +202,178 @@
     <t>55172306</t>
   </si>
   <si>
-    <t>55248840</t>
+    <t>55307008</t>
   </si>
   <si>
     <t>55306513</t>
   </si>
   <si>
-    <t>55307008</t>
-  </si>
-  <si>
     <t>55318262</t>
   </si>
   <si>
+    <t>54928134</t>
+  </si>
+  <si>
     <t>55370368</t>
   </si>
   <si>
-    <t>54928134</t>
-  </si>
-  <si>
     <t>55522107</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
-  </si>
-  <si>
-    <t>DETERGENTE LIMPOL COCO 500ML</t>
+    <t>55106463</t>
+  </si>
+  <si>
+    <t>55550785</t>
+  </si>
+  <si>
+    <t>55555450</t>
+  </si>
+  <si>
+    <t>55552831</t>
+  </si>
+  <si>
+    <t>55599071</t>
+  </si>
+  <si>
+    <t>55621627</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
   </si>
   <si>
     <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
   </si>
   <si>
-    <t>COADOR DE CAFE INDUSTRIAL (MAIOR)</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
+  </si>
+  <si>
+    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
+  </si>
+  <si>
+    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
+  </si>
+  <si>
+    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
+  </si>
+  <si>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+  </si>
+  <si>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
-    <t>SAPONACEO LIQUIDO CREMOSO 300ML FACILITA</t>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
+  </si>
+  <si>
+    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
+  </si>
+  <si>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
   </si>
   <si>
-    <t>TESOURA ESCRITORIO INOX 19,5 CM UND</t>
-  </si>
-  <si>
-    <t>ESPANADOR DE TETO C/2 CABOS</t>
-  </si>
-  <si>
-    <t>COPO DESCARTAVEL 180ML CRISTALCOPO BRANCO PCT C/100 UND</t>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>SABAO EM PO ABSOLUTO 400G</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
-  </si>
-  <si>
-    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
-  </si>
-  <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+    <t>DESENGRAXANTE DL START 5L</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,28 +771,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
-        <v>11938367</v>
+        <v>14413763</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
       </c>
       <c r="G2">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="H2">
-        <v>4.83</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I2">
-        <v>6.43</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -794,28 +800,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>15011531</v>
+        <v>12054191</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
       </c>
       <c r="G3">
-        <v>526</v>
+        <v>2188</v>
       </c>
       <c r="H3">
-        <v>21.66</v>
+        <v>20.57</v>
       </c>
       <c r="I3">
-        <v>33.3</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -823,115 +829,115 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>12054191</v>
+        <v>13449319</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
       </c>
       <c r="G4">
-        <v>2402</v>
+        <v>356</v>
       </c>
       <c r="H4">
-        <v>20.5</v>
+        <v>14.27</v>
       </c>
       <c r="I4">
-        <v>42.05</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>17541022</v>
+        <v>17098035</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>20619556</v>
+        <v>28197686</v>
       </c>
       <c r="F6" t="s">
         <v>78</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.21</v>
+        <v>6.71</v>
       </c>
       <c r="I6">
-        <v>8.82</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>13034365</v>
+        <v>12060072</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>4.22</v>
+        <v>8.44</v>
       </c>
       <c r="I7">
-        <v>7.29</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -939,28 +945,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>13715128</v>
+        <v>13228910</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
       </c>
       <c r="G8">
-        <v>1066</v>
+        <v>216</v>
       </c>
       <c r="H8">
-        <v>13.02</v>
+        <v>16.65</v>
       </c>
       <c r="I8">
-        <v>15.4</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -968,28 +974,28 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>13817289</v>
+        <v>12765515</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
       </c>
       <c r="G9">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="H9">
-        <v>23.1</v>
+        <v>2.77</v>
       </c>
       <c r="I9">
-        <v>37.2</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -997,28 +1003,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>16831898</v>
+        <v>16871438</v>
       </c>
       <c r="F10" t="s">
         <v>82</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>938</v>
       </c>
       <c r="H10">
-        <v>2.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I10">
-        <v>1.64</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1026,28 +1032,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>11936523</v>
+        <v>12904510</v>
       </c>
       <c r="F11" t="s">
         <v>83</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H11">
-        <v>4.16</v>
+        <v>2.65</v>
       </c>
       <c r="I11">
-        <v>5.13</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1055,28 +1061,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>16175304</v>
+        <v>20651572</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>5.96</v>
+        <v>3.25</v>
       </c>
       <c r="I12">
-        <v>6.4</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1084,173 +1090,173 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>12054191</v>
+        <v>14667825</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>2402</v>
+        <v>2225</v>
       </c>
       <c r="H13">
-        <v>20.5</v>
+        <v>33.5</v>
       </c>
       <c r="I13">
-        <v>42.05</v>
+        <v>79.93000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>11936640</v>
+        <v>22571192</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>2715</v>
+        <v>878</v>
       </c>
       <c r="H14">
-        <v>10.61</v>
+        <v>19.59</v>
       </c>
       <c r="I14">
-        <v>15.17</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>35118277</v>
+        <v>12054191</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>467</v>
+        <v>2188</v>
       </c>
       <c r="H15">
-        <v>18.4</v>
+        <v>20.57</v>
       </c>
       <c r="I15">
-        <v>34.22</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>16871438</v>
+        <v>17199336</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
       </c>
       <c r="G16">
-        <v>963</v>
+        <v>1691</v>
       </c>
       <c r="H16">
-        <v>9.529999999999999</v>
+        <v>13.94</v>
       </c>
       <c r="I16">
-        <v>12.6</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <v>32130390</v>
+        <v>12428795</v>
       </c>
       <c r="F17" t="s">
         <v>88</v>
       </c>
       <c r="G17">
-        <v>9861</v>
+        <v>132</v>
       </c>
       <c r="H17">
-        <v>21.97</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>53.82</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>12054191</v>
+        <v>22571174</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G18">
-        <v>2402</v>
+        <v>594</v>
       </c>
       <c r="H18">
-        <v>20.5</v>
+        <v>18.01</v>
       </c>
       <c r="I18">
-        <v>42.05</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1258,28 +1264,28 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>17098035</v>
+        <v>17737776</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>3.89</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1287,28 +1293,28 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>13449319</v>
+        <v>17417338</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>14.27</v>
+        <v>4.78</v>
       </c>
       <c r="I20">
-        <v>38.21</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1316,28 +1322,28 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>14413763</v>
+        <v>19006434</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="H21">
-        <v>8.210000000000001</v>
+        <v>11.52</v>
       </c>
       <c r="I21">
-        <v>7.23</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1345,28 +1351,28 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E22">
-        <v>28197686</v>
+        <v>14413867</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H22">
-        <v>6.71</v>
+        <v>4.57</v>
       </c>
       <c r="I22">
-        <v>5.9</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1374,28 +1380,28 @@
         <v>11</v>
       </c>
       <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>11939645</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>12060072</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23">
-        <v>102</v>
-      </c>
       <c r="H23">
-        <v>8.380000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="I23">
-        <v>11.85</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1403,57 +1409,57 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>12054191</v>
+        <v>12120701</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G24">
-        <v>2402</v>
+        <v>141</v>
       </c>
       <c r="H24">
-        <v>20.5</v>
+        <v>5.46</v>
       </c>
       <c r="I24">
-        <v>42.05</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>12765515</v>
+        <v>32046831</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>2.76</v>
+        <v>4.05</v>
       </c>
       <c r="I25">
-        <v>2.43</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1461,28 +1467,28 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>12904510</v>
+        <v>16831510</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>2.64</v>
+        <v>5.08</v>
       </c>
       <c r="I26">
-        <v>2.34</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1496,22 +1502,22 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>20651572</v>
+        <v>14413763</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H27">
-        <v>3.19</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I27">
-        <v>6.03</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1519,28 +1525,28 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28">
-        <v>14667825</v>
+        <v>20017789</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28">
-        <v>2229</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>33.62</v>
+        <v>37.45</v>
       </c>
       <c r="I28">
-        <v>80.06</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1548,57 +1554,57 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29">
-        <v>13228910</v>
+        <v>36665399</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>16.49</v>
+        <v>3.87</v>
       </c>
       <c r="I29">
-        <v>28.38</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30">
-        <v>16871438</v>
+        <v>31167530</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>963</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>9.529999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="I30">
-        <v>12.6</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1606,28 +1612,28 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31">
-        <v>12428795</v>
+        <v>32130390</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G31">
-        <v>132</v>
+        <v>9722</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>21.58</v>
       </c>
       <c r="I31">
-        <v>21.06</v>
+        <v>51.95</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1635,28 +1641,28 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32">
-        <v>17199336</v>
+        <v>13034365</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G32">
-        <v>1703</v>
+        <v>53</v>
       </c>
       <c r="H32">
-        <v>13.9</v>
+        <v>4.22</v>
       </c>
       <c r="I32">
-        <v>17.3</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1664,28 +1670,28 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33">
-        <v>12054191</v>
+        <v>19006434</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>2402</v>
+        <v>383</v>
       </c>
       <c r="H33">
-        <v>20.5</v>
+        <v>11.52</v>
       </c>
       <c r="I33">
-        <v>42.05</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1693,608 +1699,521 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34">
-        <v>22571174</v>
+        <v>30240035</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G34">
-        <v>594</v>
+        <v>64</v>
       </c>
       <c r="H34">
-        <v>18.01</v>
+        <v>15.3</v>
       </c>
       <c r="I34">
-        <v>19.61</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>14413867</v>
+        <v>18200976</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G35">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H35">
-        <v>4.46</v>
+        <v>5.86</v>
       </c>
       <c r="I35">
-        <v>8.640000000000001</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>11939645</v>
+        <v>14413482</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G36">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="H36">
-        <v>4.41</v>
+        <v>13.46</v>
       </c>
       <c r="I36">
-        <v>4.98</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E37">
-        <v>12120701</v>
+        <v>11912991</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G37">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H37">
-        <v>5.45</v>
+        <v>6.22</v>
       </c>
       <c r="I37">
-        <v>5.72</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>28</v>
+        <v>1060</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38">
-        <v>32046831</v>
+        <v>32870371</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G38">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="H38">
-        <v>4.04</v>
+        <v>39.33</v>
       </c>
       <c r="I38">
-        <v>5.86</v>
+        <v>141.51</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E39">
-        <v>17737776</v>
+        <v>19792364</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G39">
-        <v>119</v>
+        <v>-222</v>
       </c>
       <c r="H39">
-        <v>5.01</v>
+        <v>23.31</v>
       </c>
       <c r="I39">
-        <v>10.94</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E40">
-        <v>22571192</v>
+        <v>13817289</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G40">
-        <v>881</v>
+        <v>418</v>
       </c>
       <c r="H40">
-        <v>19.67</v>
+        <v>24.62</v>
       </c>
       <c r="I40">
-        <v>41.07</v>
+        <v>40.51</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E41">
-        <v>19006434</v>
+        <v>24700108</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G41">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="H41">
-        <v>11.48</v>
+        <v>20.45</v>
       </c>
       <c r="I41">
-        <v>21.27</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>14413763</v>
+        <v>17185953</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G42">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="H42">
-        <v>8.210000000000001</v>
+        <v>24.46</v>
       </c>
       <c r="I42">
-        <v>7.23</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>36665399</v>
+        <v>11939681</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G43">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="H43">
-        <v>3.87</v>
+        <v>5.61</v>
       </c>
       <c r="I43">
-        <v>5.05</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E44">
-        <v>16831510</v>
+        <v>11936640</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G44">
-        <v>23</v>
+        <v>2674</v>
       </c>
       <c r="H44">
-        <v>5.2</v>
+        <v>10.6</v>
       </c>
       <c r="I44">
-        <v>5.43</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>12285429</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45">
         <v>14</v>
       </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45">
-        <v>20017789</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
       <c r="H45">
-        <v>36.7</v>
+        <v>2.35</v>
       </c>
       <c r="I45">
-        <v>45.03</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46">
-        <v>19006434</v>
+        <v>17199341</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G46">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="H46">
-        <v>11.48</v>
+        <v>2.67</v>
       </c>
       <c r="I46">
-        <v>21.27</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E47">
-        <v>13034365</v>
+        <v>16069106</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G47">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>4.22</v>
+        <v>18.96</v>
       </c>
       <c r="I47">
-        <v>7.29</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E48">
-        <v>31167530</v>
+        <v>12118255</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>679</v>
       </c>
       <c r="H48">
-        <v>3.39</v>
+        <v>7.96</v>
       </c>
       <c r="I48">
-        <v>5.24</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>32130390</v>
+        <v>14589858</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G49">
-        <v>9861</v>
+        <v>74</v>
       </c>
       <c r="H49">
-        <v>21.97</v>
+        <v>16.23</v>
       </c>
       <c r="I49">
-        <v>53.82</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E50">
-        <v>30240035</v>
+        <v>14413867</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G50">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="H50">
-        <v>15.3</v>
+        <v>4.57</v>
       </c>
       <c r="I50">
-        <v>17.69</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51">
-        <v>11912991</v>
+        <v>39292785</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H51">
-        <v>6.25</v>
+        <v>52.53</v>
       </c>
       <c r="I51">
-        <v>10.19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52">
-        <v>14413482</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52">
-        <v>130</v>
-      </c>
-      <c r="H52">
-        <v>13.46</v>
-      </c>
-      <c r="I52">
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53">
-        <v>18200976</v>
-      </c>
-      <c r="F53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53">
-        <v>152</v>
-      </c>
-      <c r="H53">
-        <v>5.8</v>
-      </c>
-      <c r="I53">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>1060</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54">
-        <v>32870371</v>
-      </c>
-      <c r="F54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54">
-        <v>274</v>
-      </c>
-      <c r="H54">
-        <v>39.33</v>
-      </c>
-      <c r="I54">
-        <v>141.51</v>
+        <v>55.02</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -70,16 +67,10 @@
     <t>2025-08-13</t>
   </si>
   <si>
-    <t>L FERREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>L T MARTINS LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA REFEICOES E SERVICOS LTDA</t>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>B.P DISTRIBUIDORA LTDA</t>
   </si>
   <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
@@ -91,7 +82,7 @@
     <t>SAWEM DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
@@ -100,9 +91,6 @@
     <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
   </si>
   <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
-  </si>
-  <si>
     <t>RIVER SPARK PUBLICIDADE LTDA</t>
   </si>
   <si>
@@ -115,21 +103,21 @@
     <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
   </si>
   <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
   </si>
   <si>
     <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
-    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
-  </si>
-  <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
@@ -145,16 +133,16 @@
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>55052066</t>
-  </si>
-  <si>
-    <t>55027598</t>
-  </si>
-  <si>
-    <t>55029275</t>
-  </si>
-  <si>
-    <t>55056464</t>
+    <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
+  </si>
+  <si>
+    <t>55086189</t>
+  </si>
+  <si>
+    <t>55110485</t>
+  </si>
+  <si>
+    <t>55112082</t>
   </si>
   <si>
     <t>55109869</t>
@@ -166,33 +154,21 @@
     <t>55081856</t>
   </si>
   <si>
-    <t>55110485</t>
-  </si>
-  <si>
-    <t>55086189</t>
-  </si>
-  <si>
-    <t>55112082</t>
+    <t>55095033</t>
   </si>
   <si>
     <t>55197346</t>
   </si>
   <si>
+    <t>55095582</t>
+  </si>
+  <si>
     <t>55196954</t>
   </si>
   <si>
-    <t>55094820</t>
-  </si>
-  <si>
-    <t>55095033</t>
-  </si>
-  <si>
     <t>55184583</t>
   </si>
   <si>
-    <t>55100163</t>
-  </si>
-  <si>
     <t>55248840</t>
   </si>
   <si>
@@ -202,33 +178,33 @@
     <t>55172306</t>
   </si>
   <si>
+    <t>55318262</t>
+  </si>
+  <si>
+    <t>55306513</t>
+  </si>
+  <si>
     <t>55307008</t>
   </si>
   <si>
-    <t>55306513</t>
-  </si>
-  <si>
-    <t>55318262</t>
+    <t>55370368</t>
   </si>
   <si>
     <t>54928134</t>
   </si>
   <si>
-    <t>55370368</t>
-  </si>
-  <si>
     <t>55522107</t>
   </si>
   <si>
     <t>55106463</t>
   </si>
   <si>
+    <t>55555450</t>
+  </si>
+  <si>
     <t>55550785</t>
   </si>
   <si>
-    <t>55555450</t>
-  </si>
-  <si>
     <t>55552831</t>
   </si>
   <si>
@@ -238,94 +214,88 @@
     <t>55621627</t>
   </si>
   <si>
+    <t>55665457</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
+  </si>
+  <si>
+    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
+  </si>
+  <si>
+    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+  </si>
+  <si>
     <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
   </si>
   <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>COLHER REFEICAO STRAWPLAST PCT C/50</t>
-  </si>
-  <si>
-    <t>SACO PLAST 5KG TRANSP AD 28X44</t>
-  </si>
-  <si>
-    <t>ESPONJA ACO INOX LIMPEZA PESADA MAX</t>
-  </si>
-  <si>
-    <t>AVENTAL PVC FORRADO PLUS 1,20X0,65 BRANCO C.A. 28303 BRASCAMP</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
-  </si>
-  <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
-  </si>
-  <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
   </si>
   <si>
     <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
   </si>
   <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
     <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
   </si>
   <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
   </si>
   <si>
     <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
@@ -334,46 +304,46 @@
     <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
   </si>
   <si>
-    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
-  </si>
-  <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
+    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+    <t>DESENGRAXANTE DL START 5L</t>
   </si>
   <si>
     <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>DESENGRAXANTE DL START 5L</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
     <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
   </si>
   <si>
     <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
+    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
+  </si>
+  <si>
     <t>FLANELA LARANJA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
 </sst>
 </file>
@@ -731,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,28 +741,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>14413763</v>
+        <v>20651572</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>8.210000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
-        <v>7.23</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,28 +770,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>12054191</v>
+        <v>12904510</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>2188</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>20.57</v>
+        <v>2.65</v>
       </c>
       <c r="I3">
-        <v>42.05</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,28 +799,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>13449319</v>
+        <v>14667825</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>356</v>
+        <v>2165</v>
       </c>
       <c r="H4">
-        <v>14.27</v>
+        <v>32.9</v>
       </c>
       <c r="I4">
-        <v>38.21</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -858,28 +828,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>17098035</v>
+        <v>13228910</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>16.55</v>
       </c>
       <c r="I5">
-        <v>3.88</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -887,28 +857,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>28197686</v>
+        <v>12765515</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="H6">
-        <v>6.71</v>
+        <v>2.76</v>
       </c>
       <c r="I6">
-        <v>5.9</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -916,28 +886,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>12060072</v>
+        <v>16871438</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>933</v>
       </c>
       <c r="H7">
-        <v>8.44</v>
+        <v>9.48</v>
       </c>
       <c r="I7">
-        <v>11.93</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -945,28 +915,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>13228910</v>
+        <v>19006434</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G8">
-        <v>216</v>
+        <v>378</v>
       </c>
       <c r="H8">
-        <v>16.65</v>
+        <v>11.48</v>
       </c>
       <c r="I8">
-        <v>28.42</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -974,28 +944,28 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>12765515</v>
+        <v>22571174</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>187</v>
+        <v>582</v>
       </c>
       <c r="H9">
-        <v>2.77</v>
+        <v>18.03</v>
       </c>
       <c r="I9">
-        <v>2.43</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1003,28 +973,28 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>16871438</v>
+        <v>17737776</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10">
-        <v>938</v>
+        <v>111</v>
       </c>
       <c r="H10">
-        <v>9.529999999999999</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>12.59</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1032,28 +1002,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11">
-        <v>12904510</v>
+        <v>11939645</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G11">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>2.65</v>
+        <v>4.41</v>
       </c>
       <c r="I11">
-        <v>2.37</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1061,28 +1031,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>20651572</v>
+        <v>32046831</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>3.25</v>
+        <v>4.04</v>
       </c>
       <c r="I12">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1090,202 +1060,202 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>14667825</v>
+        <v>14413867</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G13">
-        <v>2225</v>
+        <v>96</v>
       </c>
       <c r="H13">
-        <v>33.5</v>
+        <v>4.54</v>
       </c>
       <c r="I13">
-        <v>79.93000000000001</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>22571192</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G14">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="H14">
-        <v>19.59</v>
+        <v>19.41</v>
       </c>
       <c r="I14">
-        <v>40.98</v>
+        <v>40.79</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>700</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>12054191</v>
+        <v>12428795</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15">
-        <v>2188</v>
+        <v>122</v>
       </c>
       <c r="H15">
-        <v>20.57</v>
+        <v>14.91</v>
       </c>
       <c r="I15">
-        <v>42.05</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>700</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>17199336</v>
+        <v>12054191</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G16">
-        <v>1691</v>
+        <v>2087</v>
       </c>
       <c r="H16">
-        <v>13.94</v>
+        <v>20.46</v>
       </c>
       <c r="I16">
-        <v>17.32</v>
+        <v>41.93</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>12428795</v>
+        <v>17417338</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>4.78</v>
       </c>
       <c r="I17">
-        <v>21.06</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>22571174</v>
+        <v>17199336</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>594</v>
+        <v>1616</v>
       </c>
       <c r="H18">
-        <v>18.01</v>
+        <v>13.68</v>
       </c>
       <c r="I18">
-        <v>19.61</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>17737776</v>
+        <v>12120701</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G19">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="I19">
-        <v>10.93</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1293,28 +1263,28 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>17417338</v>
+        <v>16831510</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>4.78</v>
+        <v>5.08</v>
       </c>
       <c r="I20">
-        <v>3.4</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1322,28 +1292,28 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>19006434</v>
+        <v>14413763</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="H21">
-        <v>11.52</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I21">
-        <v>21.26</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1351,28 +1321,28 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>14413867</v>
+        <v>36665399</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G22">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>4.57</v>
+        <v>4.25</v>
       </c>
       <c r="I22">
-        <v>9.07</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1380,86 +1350,86 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23">
-        <v>11939645</v>
+        <v>20017789</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>4.42</v>
+        <v>37.45</v>
       </c>
       <c r="I23">
-        <v>4.97</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24">
-        <v>12120701</v>
+        <v>30240035</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G24">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="H24">
-        <v>5.46</v>
+        <v>15.3</v>
       </c>
       <c r="I24">
-        <v>5.72</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>32046831</v>
+        <v>19006434</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G25">
-        <v>85</v>
+        <v>378</v>
       </c>
       <c r="H25">
-        <v>4.05</v>
+        <v>11.48</v>
       </c>
       <c r="I25">
-        <v>5.87</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1467,28 +1437,28 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>16831510</v>
+        <v>31167530</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>5.08</v>
+        <v>3.43</v>
       </c>
       <c r="I26">
-        <v>5.36</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1496,28 +1466,28 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27">
-        <v>14413763</v>
+        <v>13034365</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G27">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>8.210000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="I27">
-        <v>7.23</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1525,57 +1495,57 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>20017789</v>
+        <v>32130390</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>9628</v>
       </c>
       <c r="H28">
-        <v>37.45</v>
+        <v>21.47</v>
       </c>
       <c r="I28">
-        <v>45.94</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>36665399</v>
+        <v>11912991</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>3.87</v>
+        <v>6.22</v>
       </c>
       <c r="I29">
-        <v>5.05</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1583,28 +1553,28 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E30">
-        <v>31167530</v>
+        <v>18200976</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H30">
-        <v>3.39</v>
+        <v>5.85</v>
       </c>
       <c r="I30">
-        <v>5.24</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1612,62 +1582,62 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>32130390</v>
+        <v>14413482</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G31">
-        <v>9722</v>
+        <v>130</v>
       </c>
       <c r="H31">
-        <v>21.58</v>
+        <v>13</v>
       </c>
       <c r="I31">
-        <v>51.95</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>1060</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>13034365</v>
+        <v>32870371</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G32">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="H32">
-        <v>4.22</v>
+        <v>38.42</v>
       </c>
       <c r="I32">
-        <v>7.29</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -1676,138 +1646,138 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>19006434</v>
+        <v>17185953</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G33">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H33">
-        <v>11.52</v>
+        <v>24.46</v>
       </c>
       <c r="I33">
-        <v>21.26</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>30240035</v>
+        <v>11936640</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>64</v>
+        <v>2645</v>
       </c>
       <c r="H34">
-        <v>15.3</v>
+        <v>10.55</v>
       </c>
       <c r="I34">
-        <v>17.69</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>18200976</v>
+        <v>24700108</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="H35">
-        <v>5.86</v>
+        <v>20.45</v>
       </c>
       <c r="I35">
-        <v>4.78</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E36">
-        <v>14413482</v>
+        <v>13817289</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="H36">
-        <v>13.46</v>
+        <v>24.32</v>
       </c>
       <c r="I36">
-        <v>13.83</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>11912991</v>
+        <v>17199341</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H37">
-        <v>6.22</v>
+        <v>2.67</v>
       </c>
       <c r="I37">
-        <v>10.14</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1815,86 +1785,86 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>1060</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>32870371</v>
+        <v>19792364</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G38">
-        <v>274</v>
+        <v>-222</v>
       </c>
       <c r="H38">
-        <v>39.33</v>
+        <v>23.31</v>
       </c>
       <c r="I38">
-        <v>141.51</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E39">
-        <v>19792364</v>
+        <v>12285429</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G39">
-        <v>-222</v>
+        <v>14</v>
       </c>
       <c r="H39">
-        <v>23.31</v>
+        <v>2.35</v>
       </c>
       <c r="I39">
-        <v>34.81</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E40">
-        <v>13817289</v>
+        <v>11939681</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G40">
-        <v>418</v>
+        <v>87</v>
       </c>
       <c r="H40">
-        <v>24.62</v>
+        <v>5.58</v>
       </c>
       <c r="I40">
-        <v>40.51</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1902,28 +1872,28 @@
         <v>16</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41">
-        <v>24700108</v>
+        <v>16069106</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G41">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>20.45</v>
+        <v>18.96</v>
       </c>
       <c r="I41">
-        <v>30.66</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1931,28 +1901,28 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42">
-        <v>17185953</v>
+        <v>12118255</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G42">
-        <v>379</v>
+        <v>673</v>
       </c>
       <c r="H42">
-        <v>24.46</v>
+        <v>7.95</v>
       </c>
       <c r="I42">
-        <v>40.03</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1960,28 +1930,28 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E43">
-        <v>11939681</v>
+        <v>14413867</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G43">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H43">
-        <v>5.61</v>
+        <v>4.54</v>
       </c>
       <c r="I43">
-        <v>10.18</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1989,28 +1959,28 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E44">
-        <v>11936640</v>
+        <v>39292785</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G44">
-        <v>2674</v>
+        <v>69</v>
       </c>
       <c r="H44">
-        <v>10.6</v>
+        <v>52.53</v>
       </c>
       <c r="I44">
-        <v>15.15</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2018,202 +1988,57 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E45">
-        <v>12285429</v>
+        <v>14589858</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>2.35</v>
+        <v>16.23</v>
       </c>
       <c r="I45">
-        <v>2.67</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46">
-        <v>17199341</v>
+        <v>20619556</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G46">
-        <v>90</v>
+        <v>-50</v>
       </c>
       <c r="H46">
-        <v>2.67</v>
+        <v>13.44</v>
       </c>
       <c r="I46">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47">
-        <v>16069106</v>
-      </c>
-      <c r="F47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47">
-        <v>11</v>
-      </c>
-      <c r="H47">
-        <v>18.96</v>
-      </c>
-      <c r="I47">
-        <v>18.78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48">
-        <v>12118255</v>
-      </c>
-      <c r="F48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48">
-        <v>679</v>
-      </c>
-      <c r="H48">
-        <v>7.96</v>
-      </c>
-      <c r="I48">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>230</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49">
-        <v>14589858</v>
-      </c>
-      <c r="F49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49">
-        <v>74</v>
-      </c>
-      <c r="H49">
-        <v>16.23</v>
-      </c>
-      <c r="I49">
-        <v>25.84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50">
-        <v>14413867</v>
-      </c>
-      <c r="F50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50">
-        <v>101</v>
-      </c>
-      <c r="H50">
-        <v>4.57</v>
-      </c>
-      <c r="I50">
-        <v>9.07</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>230</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51">
-        <v>39292785</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51">
-        <v>69</v>
-      </c>
-      <c r="H51">
-        <v>52.53</v>
-      </c>
-      <c r="I51">
-        <v>55.02</v>
+        <v>9.35</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -70,99 +67,81 @@
     <t>2025-08-14</t>
   </si>
   <si>
-    <t>B.P DISTRIBUIDORA LTDA</t>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>RIVER SPARK PUBLICIDADE LTDA</t>
+  </si>
+  <si>
+    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
   </si>
   <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
-    <t>NORTE TECH SERVICOS EM ENERGIA LTDA</t>
-  </si>
-  <si>
-    <t>SAWEM DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
   </si>
   <si>
     <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
     <t>AMAZONIA FORMULA LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
     <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
   </si>
   <si>
-    <t>55086189</t>
-  </si>
-  <si>
-    <t>55110485</t>
-  </si>
-  <si>
-    <t>55112082</t>
-  </si>
-  <si>
-    <t>55109869</t>
-  </si>
-  <si>
-    <t>55108816</t>
-  </si>
-  <si>
-    <t>55081856</t>
+    <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
     <t>55095033</t>
   </si>
   <si>
+    <t>55095582</t>
+  </si>
+  <si>
     <t>55197346</t>
   </si>
   <si>
-    <t>55095582</t>
-  </si>
-  <si>
     <t>55196954</t>
   </si>
   <si>
@@ -178,172 +157,169 @@
     <t>55172306</t>
   </si>
   <si>
+    <t>55307008</t>
+  </si>
+  <si>
+    <t>55306513</t>
+  </si>
+  <si>
     <t>55318262</t>
   </si>
   <si>
-    <t>55306513</t>
-  </si>
-  <si>
-    <t>55307008</t>
+    <t>54928134</t>
   </si>
   <si>
     <t>55370368</t>
   </si>
   <si>
-    <t>54928134</t>
-  </si>
-  <si>
     <t>55522107</t>
   </si>
   <si>
+    <t>55555450</t>
+  </si>
+  <si>
+    <t>55552831</t>
+  </si>
+  <si>
     <t>55106463</t>
   </si>
   <si>
-    <t>55555450</t>
-  </si>
-  <si>
     <t>55550785</t>
   </si>
   <si>
-    <t>55552831</t>
+    <t>55621627</t>
   </si>
   <si>
     <t>55599071</t>
   </si>
   <si>
-    <t>55621627</t>
-  </si>
-  <si>
     <t>55665457</t>
   </si>
   <si>
-    <t>PANO MULTIUSO ROLO 28X300 M PICOTADO LARANJA NOBRE</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - TALCO</t>
-  </si>
-  <si>
-    <t>LUVAS DESCARTAVEIS C/ 100 UND</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO FLOR DE LOTUS 4X30M</t>
-  </si>
-  <si>
-    <t>DESINFETANTE CONCENTRADO 5L AUDAX MAX 1:200 - FLORAL</t>
-  </si>
-  <si>
-    <t>DESODORISADOR LADY AEROSSOL 360ML TALCO SUAVE CARINHO</t>
+    <t>55488858</t>
+  </si>
+  <si>
+    <t>55734192</t>
+  </si>
+  <si>
+    <t>FLANELA BRANCA TAM M 28X48CM</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
+    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
+  </si>
+  <si>
     <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA NAZARE 1KG</t>
+  </si>
+  <si>
+    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
   </si>
   <si>
     <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
   </si>
   <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
     <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
   </si>
   <si>
+    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
+  </si>
+  <si>
     <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
   </si>
   <si>
     <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
   </si>
   <si>
-    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
   </si>
   <si>
     <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
   </si>
   <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
-  </si>
-  <si>
     <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
   </si>
   <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
+    <t>DESENGRAXANTE DL START 5L</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
   </si>
   <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>DESENGRAXANTE DL START 5L</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
     <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
   </si>
   <si>
     <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
     <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
   </si>
   <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
 </sst>
 </file>
@@ -701,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,28 +717,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>20651572</v>
+        <v>12428795</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>14.5</v>
       </c>
       <c r="I2">
-        <v>6.04</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -770,28 +746,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>12904510</v>
+        <v>11939645</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>2.65</v>
+        <v>4.4</v>
       </c>
       <c r="I3">
-        <v>2.37</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -799,28 +775,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>14667825</v>
+        <v>14413867</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>2165</v>
+        <v>90</v>
       </c>
       <c r="H4">
-        <v>32.9</v>
+        <v>4.54</v>
       </c>
       <c r="I4">
-        <v>79.09999999999999</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -828,28 +804,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>13228910</v>
+        <v>19006434</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="H5">
-        <v>16.55</v>
+        <v>11.44</v>
       </c>
       <c r="I5">
-        <v>28.34</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -857,28 +833,28 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>12765515</v>
+        <v>32046831</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G6">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>2.76</v>
+        <v>4.05</v>
       </c>
       <c r="I6">
-        <v>2.41</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -886,202 +862,202 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>16871438</v>
+        <v>17737776</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>933</v>
+        <v>101</v>
       </c>
       <c r="H7">
-        <v>9.48</v>
+        <v>4.99</v>
       </c>
       <c r="I7">
-        <v>12.58</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>19006434</v>
+        <v>22571174</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>378</v>
+        <v>582</v>
       </c>
       <c r="H8">
-        <v>11.48</v>
+        <v>18.08</v>
       </c>
       <c r="I8">
-        <v>21.2</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>22571174</v>
+        <v>12054191</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G9">
-        <v>582</v>
+        <v>2070</v>
       </c>
       <c r="H9">
-        <v>18.03</v>
+        <v>20.39</v>
       </c>
       <c r="I9">
-        <v>19.6</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>17737776</v>
+        <v>12120701</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="I10">
-        <v>10.93</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>11939645</v>
+        <v>17417338</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>4.41</v>
+        <v>4.78</v>
       </c>
       <c r="I11">
-        <v>4.97</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>32046831</v>
+        <v>17199336</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>81</v>
+        <v>1592</v>
       </c>
       <c r="H12">
-        <v>4.04</v>
+        <v>13.44</v>
       </c>
       <c r="I12">
-        <v>5.87</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>14413867</v>
+        <v>22571192</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G13">
-        <v>96</v>
+        <v>857</v>
       </c>
       <c r="H13">
-        <v>4.54</v>
+        <v>19.25</v>
       </c>
       <c r="I13">
-        <v>9.06</v>
+        <v>40.84</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1089,28 +1065,28 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>22571192</v>
+        <v>16831510</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14">
-        <v>857</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>19.41</v>
+        <v>5.08</v>
       </c>
       <c r="I14">
-        <v>40.79</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1118,28 +1094,28 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>12428795</v>
+        <v>20017789</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>14.91</v>
+        <v>37.45</v>
       </c>
       <c r="I15">
-        <v>20.89</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1147,28 +1123,28 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>12054191</v>
+        <v>14413763</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16">
-        <v>2087</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>20.46</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I16">
-        <v>41.93</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1176,86 +1152,86 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>17417338</v>
+        <v>36665399</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>4.78</v>
+        <v>4.25</v>
       </c>
       <c r="I17">
-        <v>3.4</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
-        <v>17199336</v>
+        <v>31167530</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>1616</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>13.68</v>
+        <v>3.43</v>
       </c>
       <c r="I18">
-        <v>17.12</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>12120701</v>
+        <v>19006434</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G19">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="H19">
-        <v>5.45</v>
+        <v>11.44</v>
       </c>
       <c r="I19">
-        <v>5.68</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1263,28 +1239,28 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>16831510</v>
+        <v>13034365</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>5.08</v>
+        <v>4.25</v>
       </c>
       <c r="I20">
-        <v>5.36</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1292,28 +1268,28 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>14413763</v>
+        <v>32130390</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G21">
-        <v>66</v>
+        <v>9597</v>
       </c>
       <c r="H21">
-        <v>8.210000000000001</v>
+        <v>21.41</v>
       </c>
       <c r="I21">
-        <v>7.23</v>
+        <v>51.81</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1321,57 +1297,57 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>36665399</v>
+        <v>30240035</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H22">
-        <v>4.25</v>
+        <v>15.03</v>
       </c>
       <c r="I22">
-        <v>5.12</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>20017789</v>
+        <v>18200976</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="H23">
-        <v>37.45</v>
+        <v>5.85</v>
       </c>
       <c r="I23">
-        <v>45.94</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1379,28 +1355,28 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>30240035</v>
+        <v>11912991</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>15.3</v>
+        <v>6.24</v>
       </c>
       <c r="I24">
-        <v>17.69</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1408,202 +1384,202 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>19006434</v>
+        <v>14413482</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G25">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="H25">
-        <v>11.48</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>21.2</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
+        <v>1060</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>31167530</v>
+        <v>32870371</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="H26">
-        <v>3.43</v>
+        <v>38.09</v>
       </c>
       <c r="I26">
-        <v>5.32</v>
+        <v>137.94</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>13034365</v>
+        <v>12285429</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G27">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>4.25</v>
+        <v>2.35</v>
       </c>
       <c r="I27">
-        <v>7.27</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>32130390</v>
+        <v>17199341</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G28">
-        <v>9628</v>
+        <v>86</v>
       </c>
       <c r="H28">
-        <v>21.47</v>
+        <v>2.67</v>
       </c>
       <c r="I28">
-        <v>51.84</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>11912991</v>
+        <v>19792364</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>-237</v>
       </c>
       <c r="H29">
-        <v>6.22</v>
+        <v>23.17</v>
       </c>
       <c r="I29">
-        <v>10.14</v>
+        <v>34.69</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>18200976</v>
+        <v>11939681</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G30">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>5.85</v>
+        <v>5.58</v>
       </c>
       <c r="I30">
-        <v>4.79</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>14413482</v>
+        <v>13817289</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G31">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>24.32</v>
       </c>
       <c r="I31">
-        <v>13.91</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1611,86 +1587,86 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>1060</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>32870371</v>
+        <v>11936640</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G32">
-        <v>182</v>
+        <v>2637</v>
       </c>
       <c r="H32">
-        <v>38.42</v>
+        <v>10.53</v>
       </c>
       <c r="I32">
-        <v>138.5</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>17185953</v>
+        <v>24700108</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="H33">
-        <v>24.46</v>
+        <v>20.34</v>
       </c>
       <c r="I33">
-        <v>40.03</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>11936640</v>
+        <v>17185953</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G34">
-        <v>2645</v>
+        <v>370</v>
       </c>
       <c r="H34">
-        <v>10.55</v>
+        <v>24.6</v>
       </c>
       <c r="I34">
-        <v>15.12</v>
+        <v>40.09</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1698,28 +1674,28 @@
         <v>15</v>
       </c>
       <c r="B35">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35">
-        <v>24700108</v>
+        <v>14413867</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G35">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="H35">
-        <v>20.45</v>
+        <v>4.54</v>
       </c>
       <c r="I35">
-        <v>30.66</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1727,28 +1703,28 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36">
-        <v>13817289</v>
+        <v>16069106</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>24.32</v>
+        <v>18.96</v>
       </c>
       <c r="I36">
-        <v>40.23</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1756,28 +1732,28 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E37">
-        <v>17199341</v>
+        <v>12118255</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G37">
-        <v>86</v>
+        <v>673</v>
       </c>
       <c r="H37">
-        <v>2.67</v>
+        <v>7.95</v>
       </c>
       <c r="I37">
-        <v>2.67</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1785,28 +1761,28 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38">
-        <v>19792364</v>
+        <v>14589858</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G38">
-        <v>-222</v>
+        <v>51</v>
       </c>
       <c r="H38">
-        <v>23.31</v>
+        <v>16.1</v>
       </c>
       <c r="I38">
-        <v>34.81</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1814,231 +1790,144 @@
         <v>15</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>12285429</v>
+        <v>39292785</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G39">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>2.35</v>
+        <v>52.53</v>
       </c>
       <c r="I39">
-        <v>2.67</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>11939681</v>
+        <v>20619556</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G40">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="H40">
-        <v>5.58</v>
+        <v>13.32</v>
       </c>
       <c r="I40">
-        <v>10.16</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>16069106</v>
+        <v>16349511</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>18.96</v>
+        <v>5.41</v>
       </c>
       <c r="I41">
-        <v>18.78</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E42">
-        <v>12118255</v>
+        <v>17171383</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>673</v>
+        <v>-148</v>
       </c>
       <c r="H42">
-        <v>7.95</v>
+        <v>15.16</v>
       </c>
       <c r="I42">
-        <v>11.85</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E43">
-        <v>14413867</v>
+        <v>14795919</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G43">
-        <v>96</v>
+        <v>-263</v>
       </c>
       <c r="H43">
-        <v>4.54</v>
+        <v>46.78</v>
       </c>
       <c r="I43">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44">
-        <v>230</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44">
-        <v>39292785</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44">
-        <v>69</v>
-      </c>
-      <c r="H44">
-        <v>52.53</v>
-      </c>
-      <c r="I44">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45">
-        <v>230</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45">
-        <v>14589858</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45">
-        <v>59</v>
-      </c>
-      <c r="H45">
-        <v>16.23</v>
-      </c>
-      <c r="I45">
-        <v>25.77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46">
-        <v>20619556</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46">
-        <v>-50</v>
-      </c>
-      <c r="H46">
-        <v>13.44</v>
-      </c>
-      <c r="I46">
-        <v>9.35</v>
+        <v>65.97</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
     <t>2025-08-05</t>
   </si>
   <si>
@@ -70,108 +67,93 @@
     <t>2025-08-15</t>
   </si>
   <si>
-    <t>PHOENIX SERVICOS DE HIGIENIZACAO E LIMPEZA LTDA</t>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>ZARAPLAST DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
+  </si>
+  <si>
+    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>BRAGA MOTOS LTDA</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
   </si>
   <si>
     <t>A F S DA CRUZ LTDA</t>
   </si>
   <si>
-    <t>HISAMITSU FARMACEUTICA DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>RIVER SPARK PUBLICIDADE LTDA</t>
-  </si>
-  <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
-  </si>
-  <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+  </si>
+  <si>
+    <t>AMAZONIA FORMULA LTDA</t>
   </si>
   <si>
     <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
   </si>
   <si>
-    <t>AMAZONIA FORMULA LTDA</t>
-  </si>
-  <si>
     <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
   </si>
   <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
     <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
   </si>
   <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>55095033</t>
-  </si>
-  <si>
-    <t>55095582</t>
-  </si>
-  <si>
-    <t>55197346</t>
-  </si>
-  <si>
-    <t>55196954</t>
-  </si>
-  <si>
-    <t>55184583</t>
+    <t>TARLESON DOS SANTOS FERREIRA LTDA</t>
+  </si>
+  <si>
+    <t>55225885</t>
   </si>
   <si>
     <t>55248840</t>
   </si>
   <si>
-    <t>55225885</t>
-  </si>
-  <si>
     <t>55172306</t>
   </si>
   <si>
+    <t>55318262</t>
+  </si>
+  <si>
     <t>55307008</t>
   </si>
   <si>
     <t>55306513</t>
   </si>
   <si>
-    <t>55318262</t>
+    <t>55370368</t>
   </si>
   <si>
     <t>54928134</t>
   </si>
   <si>
-    <t>55370368</t>
-  </si>
-  <si>
     <t>55522107</t>
   </si>
   <si>
@@ -187,139 +169,118 @@
     <t>55550785</t>
   </si>
   <si>
+    <t>55574504</t>
+  </si>
+  <si>
+    <t>55599071</t>
+  </si>
+  <si>
     <t>55621627</t>
   </si>
   <si>
-    <t>55599071</t>
-  </si>
-  <si>
     <t>55665457</t>
   </si>
   <si>
+    <t>55734192</t>
+  </si>
+  <si>
     <t>55488858</t>
   </si>
   <si>
-    <t>55734192</t>
-  </si>
-  <si>
-    <t>FLANELA BRANCA TAM M 28X48CM</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L PRETO COMUM - PCT C/100 UND</t>
+    <t>55805492</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
+  </si>
+  <si>
+    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
+  </si>
+  <si>
+    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
+  </si>
+  <si>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+  </si>
+  <si>
+    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
+  </si>
+  <si>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
+  </si>
+  <si>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>DESENGRAXANTE DL START 5L</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+  </si>
+  <si>
+    <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
   </si>
   <si>
     <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DETERGENTE NEUTRO GLOBO SAN 5L</t>
-  </si>
-  <si>
-    <t>DESINFETANTE GLOBO SAN LAVANDA 5L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA LEVE BRANCA 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO FLANELADO C REFORCADO ITATEX 42x62CM</t>
-  </si>
-  <si>
-    <t>SABAO EM BARRA NAZARE 1KG</t>
-  </si>
-  <si>
-    <t>PRANCHETA OFICIO MADEIRA C/ PRENDEDOR METAL</t>
-  </si>
-  <si>
-    <t>ALCOOL LIQUIDO 70% INPM FACILITA AUDAX 1L</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA USO GERAL 98X229MM SLIM NOBRE</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
-  </si>
-  <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
-  </si>
-  <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
-  </si>
-  <si>
-    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
-  </si>
-  <si>
-    <t>DESENGRAXANTE DL START 5L</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
-  </si>
-  <si>
-    <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
   </si>
   <si>
     <t>FLANELA LARANJA TAM P 28X38CM</t>
   </si>
   <si>
-    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
-  </si>
-  <si>
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
     <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
   </si>
   <si>
     <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
 </sst>
 </file>
@@ -677,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,28 +678,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>12428795</v>
+        <v>14413763</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="H2">
-        <v>14.5</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I2">
-        <v>20.9</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -746,28 +707,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>11939645</v>
+        <v>20017789</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>4.4</v>
+        <v>37.45</v>
       </c>
       <c r="I3">
-        <v>4.97</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -775,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
       <c r="E4">
-        <v>14413867</v>
+        <v>16831510</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>4.54</v>
+        <v>5.08</v>
       </c>
       <c r="I4">
-        <v>9.050000000000001</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -804,637 +765,637 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>19006434</v>
+        <v>36665399</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>374</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>11.44</v>
+        <v>4.25</v>
       </c>
       <c r="I5">
-        <v>21.14</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>32046831</v>
+        <v>30240035</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="H6">
-        <v>4.05</v>
+        <v>15.03</v>
       </c>
       <c r="I6">
-        <v>5.88</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
       <c r="E7">
-        <v>17737776</v>
+        <v>32130390</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>101</v>
+        <v>9353</v>
       </c>
       <c r="H7">
-        <v>4.99</v>
+        <v>21.58</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>52.01</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>22571174</v>
+        <v>13034365</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>582</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>18.08</v>
+        <v>4.28</v>
       </c>
       <c r="I8">
-        <v>19.66</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>12054191</v>
+        <v>19006434</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>2070</v>
+        <v>356</v>
       </c>
       <c r="H9">
-        <v>20.39</v>
+        <v>11.41</v>
       </c>
       <c r="I9">
-        <v>41.91</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>12120701</v>
+        <v>31167530</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>5.45</v>
+        <v>3.43</v>
       </c>
       <c r="I10">
-        <v>5.68</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>17417338</v>
+        <v>11912991</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>4.78</v>
+        <v>6.24</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>17199336</v>
+        <v>14413482</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12">
-        <v>1592</v>
+        <v>130</v>
       </c>
       <c r="H12">
-        <v>13.44</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>16.98</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>22571192</v>
+        <v>18200976</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G13">
-        <v>857</v>
+        <v>132</v>
       </c>
       <c r="H13">
-        <v>19.25</v>
+        <v>5.85</v>
       </c>
       <c r="I13">
-        <v>40.84</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>1060</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>16831510</v>
+        <v>32870371</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="H14">
-        <v>5.08</v>
+        <v>37.48</v>
       </c>
       <c r="I14">
-        <v>5.36</v>
+        <v>136.25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>20017789</v>
+        <v>12285429</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>37.45</v>
+        <v>2.35</v>
       </c>
       <c r="I15">
-        <v>45.94</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>14413763</v>
+        <v>17199341</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H16">
-        <v>8.210000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="I16">
-        <v>7.23</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>36665399</v>
+        <v>24700108</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="H17">
-        <v>4.25</v>
+        <v>20.34</v>
       </c>
       <c r="I17">
-        <v>5.12</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>31167530</v>
+        <v>19792364</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>763</v>
       </c>
       <c r="H18">
-        <v>3.43</v>
+        <v>23.17</v>
       </c>
       <c r="I18">
-        <v>5.32</v>
+        <v>34.69</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19">
-        <v>19006434</v>
+        <v>11936640</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>374</v>
+        <v>2631</v>
       </c>
       <c r="H19">
-        <v>11.44</v>
+        <v>10.53</v>
       </c>
       <c r="I19">
-        <v>21.14</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
       <c r="E20">
-        <v>13034365</v>
+        <v>13817289</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="H20">
-        <v>4.25</v>
+        <v>24.2</v>
       </c>
       <c r="I20">
-        <v>7.27</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21">
-        <v>32130390</v>
+        <v>11939681</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21">
-        <v>9597</v>
+        <v>87</v>
       </c>
       <c r="H21">
-        <v>21.41</v>
+        <v>5.58</v>
       </c>
       <c r="I21">
-        <v>51.81</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>9848</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>30240035</v>
+        <v>11939672</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22">
-        <v>51</v>
+        <v>-4689</v>
       </c>
       <c r="H22">
-        <v>15.03</v>
+        <v>43.28</v>
       </c>
       <c r="I22">
-        <v>17.5</v>
+        <v>526.8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>18200976</v>
+        <v>17185953</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="H23">
-        <v>5.85</v>
+        <v>24.53</v>
       </c>
       <c r="I23">
-        <v>4.79</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>11912991</v>
+        <v>16069106</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>11</v>
       </c>
       <c r="H24">
-        <v>6.24</v>
+        <v>18.96</v>
       </c>
       <c r="I24">
-        <v>10.23</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>14413482</v>
+        <v>12118255</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G25">
-        <v>130</v>
+        <v>673</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>7.96</v>
       </c>
       <c r="I25">
-        <v>13.91</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>1060</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>32870371</v>
+        <v>14413867</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G26">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>38.09</v>
+        <v>4.54</v>
       </c>
       <c r="I26">
-        <v>137.94</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1442,28 +1403,28 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
       </c>
       <c r="E27">
-        <v>12285429</v>
+        <v>39292785</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H27">
-        <v>2.35</v>
+        <v>52.53</v>
       </c>
       <c r="I27">
-        <v>2.67</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1471,463 +1432,173 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>17199341</v>
+        <v>14589858</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G28">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>2.67</v>
+        <v>16.13</v>
       </c>
       <c r="I28">
-        <v>2.67</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29">
-        <v>19792364</v>
+        <v>20619556</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>-237</v>
+        <v>415</v>
       </c>
       <c r="H29">
-        <v>23.17</v>
+        <v>13.34</v>
       </c>
       <c r="I29">
-        <v>34.69</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>11939681</v>
+        <v>14795919</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G30">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="H30">
-        <v>5.58</v>
+        <v>46.76</v>
       </c>
       <c r="I30">
-        <v>10.16</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
       </c>
       <c r="E31">
-        <v>13817289</v>
+        <v>16349511</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>24.32</v>
+        <v>5.41</v>
       </c>
       <c r="I31">
-        <v>40.23</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32">
-        <v>11936640</v>
+        <v>17171383</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32">
-        <v>2637</v>
+        <v>-148</v>
       </c>
       <c r="H32">
-        <v>10.53</v>
+        <v>15.16</v>
       </c>
       <c r="I32">
-        <v>15.13</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33">
-        <v>24700108</v>
+        <v>32130390</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G33">
-        <v>151</v>
+        <v>9353</v>
       </c>
       <c r="H33">
-        <v>20.34</v>
+        <v>21.58</v>
       </c>
       <c r="I33">
-        <v>30.59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34">
-        <v>17185953</v>
-      </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34">
-        <v>370</v>
-      </c>
-      <c r="H34">
-        <v>24.6</v>
-      </c>
-      <c r="I34">
-        <v>40.09</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35">
-        <v>14413867</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35">
-        <v>90</v>
-      </c>
-      <c r="H35">
-        <v>4.54</v>
-      </c>
-      <c r="I35">
-        <v>9.050000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36">
-        <v>16069106</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <v>18.96</v>
-      </c>
-      <c r="I36">
-        <v>18.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37">
-        <v>12118255</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37">
-        <v>673</v>
-      </c>
-      <c r="H37">
-        <v>7.95</v>
-      </c>
-      <c r="I37">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>230</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38">
-        <v>14589858</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38">
-        <v>51</v>
-      </c>
-      <c r="H38">
-        <v>16.1</v>
-      </c>
-      <c r="I38">
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39">
-        <v>230</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39">
-        <v>39292785</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39">
-        <v>69</v>
-      </c>
-      <c r="H39">
-        <v>52.53</v>
-      </c>
-      <c r="I39">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40">
-        <v>20619556</v>
-      </c>
-      <c r="F40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40">
-        <v>415</v>
-      </c>
-      <c r="H40">
-        <v>13.32</v>
-      </c>
-      <c r="I40">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41">
-        <v>16349511</v>
-      </c>
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41">
-        <v>8</v>
-      </c>
-      <c r="H41">
-        <v>5.41</v>
-      </c>
-      <c r="I41">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>150</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42">
-        <v>17171383</v>
-      </c>
-      <c r="F42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <v>-148</v>
-      </c>
-      <c r="H42">
-        <v>15.16</v>
-      </c>
-      <c r="I42">
-        <v>32.62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>300</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43">
-        <v>14795919</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43">
-        <v>-263</v>
-      </c>
-      <c r="H43">
-        <v>46.78</v>
-      </c>
-      <c r="I43">
-        <v>65.97</v>
+        <v>52.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>data</t>
   </si>
@@ -43,9 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
     <t>2025-08-06</t>
   </si>
   <si>
@@ -70,30 +67,24 @@
     <t>2025-08-18</t>
   </si>
   <si>
-    <t>INTERCONTINENTAL HOTELS GROUP DO BRASIL LTDA.</t>
-  </si>
-  <si>
-    <t>ZARAPLAST DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>CONDOMINIO LEVE-CASTANHEIRA RESIDENCIAL PARK</t>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>V V REFEICOES LTDA</t>
+  </si>
+  <si>
+    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
     <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
   </si>
   <si>
-    <t>V V REFEICOES LTDA</t>
-  </si>
-  <si>
-    <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
+    <t>BRAGA MOTOS LTDA</t>
   </si>
   <si>
     <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
   </si>
   <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
     <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
   </si>
   <si>
@@ -112,48 +103,42 @@
     <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
   </si>
   <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
     <t>AMAZONIA FORMULA LTDA</t>
   </si>
   <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
     <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
   </si>
   <si>
+    <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
+  </si>
+  <si>
     <t>MUSASHI DA AMAZONIA LTDA</t>
   </si>
   <si>
-    <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
-  </si>
-  <si>
     <t>TARLESON DOS SANTOS FERREIRA LTDA</t>
   </si>
   <si>
-    <t>55225885</t>
-  </si>
-  <si>
-    <t>55248840</t>
-  </si>
-  <si>
-    <t>55172306</t>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>55307008</t>
+  </si>
+  <si>
+    <t>55306513</t>
   </si>
   <si>
     <t>55318262</t>
   </si>
   <si>
-    <t>55307008</t>
-  </si>
-  <si>
-    <t>55306513</t>
+    <t>54928134</t>
   </si>
   <si>
     <t>55370368</t>
   </si>
   <si>
-    <t>54928134</t>
-  </si>
-  <si>
     <t>55522107</t>
   </si>
   <si>
@@ -172,99 +157,90 @@
     <t>55574504</t>
   </si>
   <si>
+    <t>55621627</t>
+  </si>
+  <si>
     <t>55599071</t>
   </si>
   <si>
-    <t>55621627</t>
-  </si>
-  <si>
     <t>55665457</t>
   </si>
   <si>
+    <t>55488858</t>
+  </si>
+  <si>
     <t>55734192</t>
   </si>
   <si>
-    <t>55488858</t>
-  </si>
-  <si>
     <t>55805492</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM AMARELO UND NOBRE</t>
-  </si>
-  <si>
-    <t>PASTA SUSPENSA MARMORIZADA KRAFT</t>
-  </si>
-  <si>
-    <t>MARCA TEXTO LARANJA UND JOCAR OFFICE</t>
-  </si>
-  <si>
-    <t>DIFUSOR DE AROMAS COALA CHA BRANCO 100ML</t>
+    <t>55848044</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO JEITOSA</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
     <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
   </si>
   <si>
-    <t>ESPONJA MULTIUSO JEITOSA</t>
+    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
   </si>
   <si>
     <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
   </si>
   <si>
-    <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
-  </si>
-  <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
+    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
+  </si>
+  <si>
+    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
   </si>
   <si>
     <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
   </si>
   <si>
-    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
-  </si>
-  <si>
     <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
   </si>
   <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
     <t>DESENGRAXANTE DL START 5L</t>
   </si>
   <si>
-    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
     <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
   </si>
   <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
     <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
   </si>
   <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
   </si>
   <si>
     <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
   </si>
   <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
     <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
   </si>
   <si>
@@ -274,13 +250,16 @@
     <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
   </si>
   <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
     <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
   </si>
   <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
   </si>
 </sst>
 </file>
@@ -638,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,28 +657,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>14413763</v>
+        <v>32130390</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>9313</v>
       </c>
       <c r="H2">
-        <v>8.210000000000001</v>
+        <v>21.57</v>
       </c>
       <c r="I2">
-        <v>7.23</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -713,22 +692,22 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>20017789</v>
+        <v>19006434</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="H3">
-        <v>37.45</v>
+        <v>11.41</v>
       </c>
       <c r="I3">
-        <v>45.94</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -736,28 +715,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>16831510</v>
+        <v>30240035</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="H4">
-        <v>5.08</v>
+        <v>15.03</v>
       </c>
       <c r="I4">
-        <v>5.36</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -765,57 +744,57 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>36665399</v>
+        <v>31167530</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="I5">
-        <v>5.12</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>30240035</v>
+        <v>13034365</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>15.03</v>
+        <v>4.3</v>
       </c>
       <c r="I6">
-        <v>17.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -823,28 +802,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>32130390</v>
+        <v>18200976</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>9353</v>
+        <v>132</v>
       </c>
       <c r="H7">
-        <v>21.58</v>
+        <v>5.85</v>
       </c>
       <c r="I7">
-        <v>52.01</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -852,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>13034365</v>
+        <v>14413482</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>4.28</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>7.29</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -881,144 +860,144 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>19006434</v>
+        <v>11912991</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>11.41</v>
+        <v>6.24</v>
       </c>
       <c r="I9">
-        <v>21.02</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>1060</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>31167530</v>
+        <v>32870371</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="H10">
-        <v>3.43</v>
+        <v>37.48</v>
       </c>
       <c r="I10">
-        <v>5.32</v>
+        <v>136.25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>11912991</v>
+        <v>11939681</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H11">
-        <v>6.24</v>
+        <v>5.58</v>
       </c>
       <c r="I11">
-        <v>10.23</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>14413482</v>
+        <v>17199341</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>2.66</v>
       </c>
       <c r="I12">
-        <v>13.91</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>18200976</v>
+        <v>17185953</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="H13">
-        <v>5.85</v>
+        <v>24.53</v>
       </c>
       <c r="I13">
-        <v>4.79</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1026,48 +1005,48 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1060</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>32870371</v>
+        <v>24700108</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H14">
-        <v>37.48</v>
+        <v>20.34</v>
       </c>
       <c r="I14">
-        <v>136.25</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>12285429</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1081,118 +1060,118 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>17199341</v>
+        <v>19792364</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>762</v>
       </c>
       <c r="H16">
-        <v>2.66</v>
+        <v>23.08</v>
       </c>
       <c r="I16">
-        <v>2.68</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>24700108</v>
+        <v>13817289</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="H17">
-        <v>20.34</v>
+        <v>24.32</v>
       </c>
       <c r="I17">
-        <v>30.59</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>200</v>
+        <v>9848</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>19792364</v>
+        <v>11939672</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>763</v>
+        <v>-4698</v>
       </c>
       <c r="H18">
-        <v>23.17</v>
+        <v>43.18</v>
       </c>
       <c r="I18">
-        <v>34.69</v>
+        <v>526.1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>11936640</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G19">
-        <v>2631</v>
+        <v>2592</v>
       </c>
       <c r="H19">
-        <v>10.53</v>
+        <v>10.56</v>
       </c>
       <c r="I19">
-        <v>15.12</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1200,28 +1179,28 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>13817289</v>
+        <v>12118255</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>394</v>
+        <v>673</v>
       </c>
       <c r="H20">
-        <v>24.2</v>
+        <v>7.98</v>
       </c>
       <c r="I20">
-        <v>40.08</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1229,28 +1208,28 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
       </c>
       <c r="E21">
-        <v>11939681</v>
+        <v>14413867</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G21">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>5.58</v>
+        <v>4.54</v>
       </c>
       <c r="I21">
-        <v>10.16</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1258,28 +1237,28 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>9848</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>11939672</v>
+        <v>16069106</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22">
-        <v>-4689</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>43.28</v>
+        <v>19.12</v>
       </c>
       <c r="I22">
-        <v>526.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1287,57 +1266,57 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>17185953</v>
+        <v>39292785</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G23">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="H23">
-        <v>24.53</v>
+        <v>52.53</v>
       </c>
       <c r="I23">
-        <v>40.01</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>16069106</v>
+        <v>14589858</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>18.96</v>
+        <v>16.13</v>
       </c>
       <c r="I24">
-        <v>18.78</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1345,260 +1324,173 @@
         <v>14</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>12118255</v>
+        <v>20619556</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G25">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="H25">
-        <v>7.96</v>
+        <v>13.38</v>
       </c>
       <c r="I25">
-        <v>11.87</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>14413867</v>
+        <v>16349511</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>4.54</v>
+        <v>5.48</v>
       </c>
       <c r="I26">
-        <v>9.01</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>39292785</v>
+        <v>17171383</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G27">
-        <v>69</v>
+        <v>-148</v>
       </c>
       <c r="H27">
-        <v>52.53</v>
+        <v>15.16</v>
       </c>
       <c r="I27">
-        <v>55.02</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>14589858</v>
+        <v>14795919</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="H28">
-        <v>16.13</v>
+        <v>46.76</v>
       </c>
       <c r="I28">
-        <v>25.57</v>
+        <v>66.19</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>32130390</v>
+      </c>
+      <c r="F29" t="s">
         <v>54</v>
       </c>
-      <c r="E29">
-        <v>20619556</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
-      </c>
       <c r="G29">
-        <v>415</v>
+        <v>9313</v>
       </c>
       <c r="H29">
-        <v>13.34</v>
+        <v>21.57</v>
       </c>
       <c r="I29">
-        <v>9.359999999999999</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>14795919</v>
+        <v>16933123</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G30">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="H30">
-        <v>46.76</v>
+        <v>35.6</v>
       </c>
       <c r="I30">
-        <v>66.19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31">
-        <v>16349511</v>
-      </c>
-      <c r="F31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <v>5.41</v>
-      </c>
-      <c r="I31">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32">
-        <v>17171383</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32">
-        <v>-148</v>
-      </c>
-      <c r="H32">
-        <v>15.16</v>
-      </c>
-      <c r="I32">
-        <v>32.62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>180</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33">
-        <v>32130390</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33">
-        <v>9353</v>
-      </c>
-      <c r="H33">
-        <v>21.58</v>
-      </c>
-      <c r="I33">
-        <v>52.01</v>
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
+++ b/dados/ADD/Dados_ADD_PF/vendas_atipicas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>data</t>
   </si>
@@ -43,12 +43,6 @@
     <t>desvio_padrao</t>
   </si>
   <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
     <t>2025-08-11</t>
   </si>
   <si>
@@ -70,90 +64,84 @@
     <t>2025-08-19</t>
   </si>
   <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
+  </si>
+  <si>
+    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
+  </si>
+  <si>
+    <t>A F S DA CRUZ LTDA</t>
+  </si>
+  <si>
+    <t>SAWEM DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>TEL TELECOMUNICACOES LTDA.</t>
+  </si>
+  <si>
+    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
+  </si>
+  <si>
+    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
+  </si>
+  <si>
+    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
+  </si>
+  <si>
+    <t>AMAZONIA FORMULA LTDA</t>
+  </si>
+  <si>
+    <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
+  </si>
+  <si>
+    <t>MUSASHI DA AMAZONIA LTDA</t>
+  </si>
+  <si>
+    <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
+  </si>
+  <si>
+    <t>PRISMALITE IMPORTACAO, EXPORTACAO E INDUSTRIA DE FILMES OPTI</t>
+  </si>
+  <si>
+    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
+  </si>
+  <si>
+    <t>FUNDACAO AMAZONIA SUSTENTAVEL - FAS</t>
+  </si>
+  <si>
     <t>V V REFEICOES LTDA</t>
   </si>
   <si>
     <t>AMMAC INDUSTRIA E COMERCIO DE ALIMENTOS LTDA</t>
   </si>
   <si>
-    <t>SIND.DAS EMPRESAS DE TRANSP.DE PASSAGEIROS DO EST.</t>
-  </si>
-  <si>
-    <t>BRAGA MOTOS LTDA</t>
-  </si>
-  <si>
-    <t>J. N. S. DA SILVA &amp; CIA LTDA</t>
-  </si>
-  <si>
-    <t>RH MULTI SERVICOS ADMINISTRATIVOS S.A</t>
-  </si>
-  <si>
-    <t>TEL TELECOMUNICACOES LTDA.</t>
-  </si>
-  <si>
-    <t>AMAZONPEL COMERCIO DE MATERIAIS DE LIMPEZA LTDA</t>
-  </si>
-  <si>
-    <t>ERAM ESTALEIRO RIO AMAZONAS LTDA</t>
-  </si>
-  <si>
-    <t>A F S DA CRUZ LTDA</t>
-  </si>
-  <si>
-    <t>BMS INDUSTRIA E COMERCIO DE PRODUTOS ALIMENTICIOS E DISTRIBU</t>
-  </si>
-  <si>
-    <t>RODRIGUES INDUSTRIA E COMERCIO DE COLCHOES LTDA</t>
-  </si>
-  <si>
-    <t>AMAZONIA FORMULA LTDA</t>
-  </si>
-  <si>
-    <t>BD COMERCIO DE INSUMOS PLASTICOS LTDA</t>
-  </si>
-  <si>
-    <t>INSTITUTO INTERNACIONAL DE EDUCACAO DO BRASIL</t>
-  </si>
-  <si>
-    <t>MUSASHI DA AMAZONIA LTDA</t>
-  </si>
-  <si>
-    <t>TARLESON DOS SANTOS FERREIRA LTDA</t>
-  </si>
-  <si>
-    <t>JURUA ESTALEIROS E NAVEGACAO LTDA</t>
-  </si>
-  <si>
-    <t>55307008</t>
-  </si>
-  <si>
-    <t>55306513</t>
-  </si>
-  <si>
-    <t>55318262</t>
-  </si>
-  <si>
-    <t>54928134</t>
-  </si>
-  <si>
-    <t>55370368</t>
+    <t>TECHLOG - SERVICOS DE GESTAO E SISTEMAS INFORMATIZ</t>
   </si>
   <si>
     <t>55522107</t>
   </si>
   <si>
+    <t>55552831</t>
+  </si>
+  <si>
+    <t>55550785</t>
+  </si>
+  <si>
+    <t>55565671</t>
+  </si>
+  <si>
     <t>55555450</t>
   </si>
   <si>
-    <t>55552831</t>
-  </si>
-  <si>
     <t>55106463</t>
   </si>
   <si>
-    <t>55550785</t>
-  </si>
-  <si>
     <t>55574504</t>
   </si>
   <si>
@@ -166,100 +154,133 @@
     <t>55665457</t>
   </si>
   <si>
+    <t>55734192</t>
+  </si>
+  <si>
     <t>55488858</t>
   </si>
   <si>
-    <t>55734192</t>
-  </si>
-  <si>
-    <t>55805492</t>
+    <t>55821271</t>
   </si>
   <si>
     <t>55848044</t>
   </si>
   <si>
+    <t>55619284</t>
+  </si>
+  <si>
+    <t>55930277</t>
+  </si>
+  <si>
+    <t>55931930</t>
+  </si>
+  <si>
+    <t>55978435</t>
+  </si>
+  <si>
+    <t>55806194</t>
+  </si>
+  <si>
+    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
+  </si>
+  <si>
+    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO 8X300 NEWPAPER 100% Celulose</t>
+  </si>
+  <si>
+    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>VASSOURA PIACAVA 20 FUROS</t>
+  </si>
+  <si>
+    <t>DESENGRAXANTE DL START 5L</t>
+  </si>
+  <si>
+    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA 5L GLOBO SAN</t>
+  </si>
+  <si>
+    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
+  </si>
+  <si>
+    <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
+  </si>
+  <si>
+    <t>FLANELA LARANJA TAM P 28X38CM</t>
+  </si>
+  <si>
+    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
+  </si>
+  <si>
+    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
+  </si>
+  <si>
+    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE BAK LAVANDA 5L YPE</t>
+  </si>
+  <si>
+    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+  </si>
+  <si>
+    <t>DETERGENTE LIMPOL NEUTRO 500ML</t>
+  </si>
+  <si>
+    <t>PROKITCHEN LIMPA COIFA 1X10 AUDAX 5L</t>
+  </si>
+  <si>
+    <t>INSETICIDA BUZZOFF AEROSSOL 300ML</t>
+  </si>
+  <si>
+    <t>CANETA CRISTAL MEDIA AZUL BIC</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA ECONOMICO 900G</t>
+  </si>
+  <si>
+    <t>PILHA ALCALINA AAA PANASONIC</t>
+  </si>
+  <si>
+    <t>LA DE ACO BOMBRIL 60 G</t>
+  </si>
+  <si>
     <t>ESPONJA MULTIUSO JEITOSA</t>
   </si>
   <si>
     <t>LUVA DE LIMPEZA LATEX TAM M AMARELA NOBRE SLIM CA 41780</t>
   </si>
   <si>
-    <t>SACO DE LIXO 15L COMUM PACOTINHO C/20 UND</t>
-  </si>
-  <si>
-    <t>DISPENSER P/ PAPEL TOALHA INTERFOLHADO BRANCO NOBRE LINHA STREET</t>
-  </si>
-  <si>
-    <t>CABO DE ALUMINIO NOBRE 140 CM COM PONTEIRA</t>
-  </si>
-  <si>
-    <t>AROMATIZANTE LIMPADOR PERF CONC COALA LAVANDA 120ML</t>
-  </si>
-  <si>
-    <t>PANO MICROFIBRA 30X30CM VERMELHO UND NOBRE</t>
-  </si>
-  <si>
-    <t>REMOVEDOR DE CERA / DESINCRUST - START MAGICO SUJEIRA PESADA - 5L 1:10</t>
-  </si>
-  <si>
-    <t>SABAO EM PO MARILUX TRADICIONAL 500G</t>
-  </si>
-  <si>
-    <t>VASSOURA VARRE CANTO COM CABO PLASTIFICADO</t>
-  </si>
-  <si>
-    <t>SABONETE LIQUIDO ERVA DOCE FRESCOR DO AMANHA ALL CLEAN AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L REFORCADO PACOTINHO C/5 UND TEODORO</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 50L REFORCADO PACOTINHO C/10 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>DESENGRAXANTE DL START 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 100L REFORCADO PACOTINHO C/5 UND FORTE MAX</t>
-  </si>
-  <si>
-    <t>FIBRA DE LIMPEZA  ULTRA PESADA 87X125mm</t>
-  </si>
-  <si>
-    <t>VASSOURA PIACAVA 20 FUROS</t>
-  </si>
-  <si>
-    <t>LIMPADOR VEJA MULTIUSO GOLD 500ML</t>
-  </si>
-  <si>
-    <t>LIMPA VIDROS GLOBO SAN 500ML</t>
-  </si>
-  <si>
-    <t>AGUA SANITARIA 5L GLOBO SAN</t>
-  </si>
-  <si>
-    <t>BOBINA TERMICA 80X40 BRANCA 1VIA MAXPRINT</t>
-  </si>
-  <si>
-    <t>PANO DE CHAO ALVEJADO CC 38X58 ANDRATEX</t>
-  </si>
-  <si>
-    <t>FLANELA LARANJA TAM P 28X38CM</t>
-  </si>
-  <si>
-    <t>PEDRA SANITARIA 35G RUBI FLORAL</t>
-  </si>
-  <si>
-    <t>BORRACHA BRANCA PLASTICA  LEO E LEO</t>
-  </si>
-  <si>
-    <t>DETERGENTE DESENGRAX MAX PINE AUDAX 5L</t>
-  </si>
-  <si>
-    <t>SACO DE LIXO 200L COMUM PACOTINHO C/5 UND SACOLMAX</t>
-  </si>
-  <si>
-    <t>SABAO EM PO LAVAGEM PERFEITA OMO  - 400G</t>
+    <t>PAPEL TOALHA INTERFOLHADO 1250 FLS NEWPAPER 100% CELULOSE</t>
+  </si>
+  <si>
+    <t>DIFUSOR DE AROMAS COALA LAVANDA 100ML</t>
+  </si>
+  <si>
+    <t>LUVA DE LIMPEZA LATEX TAM G VERDE NOBRE SLIM CA 41506</t>
   </si>
 </sst>
 </file>
@@ -617,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>1060</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -666,27 +687,27 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>32130390</v>
+        <v>32870371</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>9313</v>
+        <v>140</v>
       </c>
       <c r="H2">
-        <v>21.57</v>
+        <v>37.48</v>
       </c>
       <c r="I2">
-        <v>52.04</v>
+        <v>136.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -695,27 +716,27 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <v>19006434</v>
+        <v>17199341</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="H3">
-        <v>11.41</v>
+        <v>2.66</v>
       </c>
       <c r="I3">
-        <v>21.02</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -724,77 +745,77 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>30240035</v>
+        <v>13817289</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="H4">
-        <v>15.03</v>
+        <v>24.19</v>
       </c>
       <c r="I4">
-        <v>17.5</v>
+        <v>40.24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>31167530</v>
+        <v>11938367</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H5">
-        <v>3.43</v>
+        <v>4.87</v>
       </c>
       <c r="I5">
-        <v>5.32</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>13034365</v>
+        <v>11939681</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H6">
-        <v>4.3</v>
+        <v>5.58</v>
       </c>
       <c r="I6">
-        <v>7.3</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -802,28 +823,28 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>18200976</v>
+        <v>24700108</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7">
-        <v>5.85</v>
+        <v>20.21</v>
       </c>
       <c r="I7">
-        <v>4.79</v>
+        <v>30.41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -831,28 +852,28 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>9848</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>14413482</v>
+        <v>11939672</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>-2309</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>42.96</v>
       </c>
       <c r="I8">
-        <v>13.91</v>
+        <v>526.79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -860,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -869,251 +890,251 @@
         <v>40</v>
       </c>
       <c r="E9">
-        <v>11912991</v>
+        <v>12285429</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>6.24</v>
+        <v>2.35</v>
       </c>
       <c r="I9">
-        <v>10.23</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1060</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>32870371</v>
+        <v>11936640</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>140</v>
+        <v>2573</v>
       </c>
       <c r="H10">
-        <v>37.48</v>
+        <v>10.52</v>
       </c>
       <c r="I10">
-        <v>136.25</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>11939681</v>
+        <v>17185953</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="H11">
-        <v>5.58</v>
+        <v>24.62</v>
       </c>
       <c r="I11">
-        <v>10.15</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>17199341</v>
+        <v>19792364</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12">
-        <v>83</v>
+        <v>692</v>
       </c>
       <c r="H12">
-        <v>2.66</v>
+        <v>23.08</v>
       </c>
       <c r="I12">
-        <v>2.67</v>
+        <v>34.49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>17185953</v>
+        <v>14413867</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13">
-        <v>360</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>24.53</v>
+        <v>4.55</v>
       </c>
       <c r="I13">
-        <v>40.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>24700108</v>
+        <v>12118255</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14">
-        <v>151</v>
+        <v>673</v>
       </c>
       <c r="H14">
-        <v>20.34</v>
+        <v>7.98</v>
       </c>
       <c r="I14">
-        <v>30.59</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>12285429</v>
+        <v>16069106</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2.35</v>
+        <v>19.12</v>
       </c>
       <c r="I15">
-        <v>2.67</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>19792364</v>
+        <v>39292785</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>762</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>23.08</v>
+        <v>52.53</v>
       </c>
       <c r="I16">
-        <v>34.65</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>13817289</v>
+        <v>14589858</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>394</v>
+        <v>507</v>
       </c>
       <c r="H17">
-        <v>24.32</v>
+        <v>16.19</v>
       </c>
       <c r="I17">
-        <v>40.23</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1121,57 +1142,57 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>9848</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>11939672</v>
+        <v>20619556</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18">
-        <v>-4698</v>
+        <v>397</v>
       </c>
       <c r="H18">
-        <v>43.18</v>
+        <v>13.35</v>
       </c>
       <c r="I18">
-        <v>526.1</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>11936640</v>
+        <v>14795919</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>2592</v>
+        <v>167</v>
       </c>
       <c r="H19">
-        <v>10.56</v>
+        <v>47.2</v>
       </c>
       <c r="I19">
-        <v>15.13</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1179,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1188,19 +1209,19 @@
         <v>47</v>
       </c>
       <c r="E20">
-        <v>12118255</v>
+        <v>16349511</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20">
-        <v>673</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>7.98</v>
+        <v>5.48</v>
       </c>
       <c r="I20">
-        <v>11.89</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1208,36 +1229,36 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
-        <v>14413867</v>
+        <v>17171383</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21">
-        <v>70</v>
+        <v>-151</v>
       </c>
       <c r="H21">
-        <v>4.54</v>
+        <v>15.02</v>
       </c>
       <c r="I21">
-        <v>9.01</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1246,114 +1267,114 @@
         <v>48</v>
       </c>
       <c r="E22">
-        <v>16069106</v>
+        <v>35076089</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>19.12</v>
+        <v>1.8</v>
       </c>
       <c r="I22">
-        <v>18.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>39292785</v>
+        <v>16933123</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H23">
-        <v>52.53</v>
+        <v>31.49</v>
       </c>
       <c r="I23">
-        <v>55.02</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>14589858</v>
+        <v>14231146</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="H24">
-        <v>16.13</v>
+        <v>16.82</v>
       </c>
       <c r="I24">
-        <v>25.57</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>20619556</v>
+        <v>14302246</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>13.38</v>
+        <v>3.86</v>
       </c>
       <c r="I25">
-        <v>9.369999999999999</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -1362,77 +1383,77 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>16349511</v>
+        <v>16871451</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="H26">
-        <v>5.48</v>
+        <v>6.89</v>
       </c>
       <c r="I26">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>17171383</v>
+        <v>36896701</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <v>-148</v>
+        <v>-120</v>
       </c>
       <c r="H27">
-        <v>15.16</v>
+        <v>29.29</v>
       </c>
       <c r="I27">
-        <v>32.62</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
         <v>15</v>
       </c>
-      <c r="B28">
-        <v>300</v>
-      </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>14795919</v>
+        <v>30179650</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>46.76</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>66.19</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1440,57 +1461,202 @@
         <v>16</v>
       </c>
       <c r="B29">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29">
-        <v>32130390</v>
+        <v>27400555</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G29">
-        <v>9313</v>
+        <v>-32</v>
       </c>
       <c r="H29">
-        <v>21.57</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>52.04</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>13501990</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>5.92</v>
+      </c>
+      <c r="I30">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
-        <v>240</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B31">
+        <v>320</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>32130390</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31">
+        <v>8866</v>
+      </c>
+      <c r="H31">
+        <v>21.84</v>
+      </c>
+      <c r="I31">
+        <v>52.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>19006434</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32">
+        <v>141</v>
+      </c>
+      <c r="H32">
+        <v>12.56</v>
+      </c>
+      <c r="I32">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>19264853</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>243</v>
+      </c>
+      <c r="H33">
+        <v>8.27</v>
+      </c>
+      <c r="I33">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>37660654</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>4.92</v>
+      </c>
+      <c r="I34">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E30">
-        <v>16933123</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30">
-        <v>68</v>
-      </c>
-      <c r="H30">
-        <v>35.6</v>
-      </c>
-      <c r="I30">
-        <v>61.5</v>
+      <c r="E35">
+        <v>39233879</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>15.02</v>
+      </c>
+      <c r="I35">
+        <v>32.39</v>
       </c>
     </row>
   </sheetData>
